--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="555">
   <si>
     <t>№</t>
   </si>
@@ -1696,7 +1696,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1821,6 +1821,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2125,7 +2130,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2343,6 +2348,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -37177,7 +37185,7 @@
     <col min="3" max="3" customWidth="true" style="21" width="65.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="21" width="70.7109375" collapsed="true"/>
     <col min="5" max="5" style="4" width="9.140625" collapsed="true"/>
-    <col min="6" max="28" style="4" width="9.140625" collapsed="false"/>
+    <col min="6" max="28" style="4" width="9.140625" collapsed="true"/>
     <col min="29" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -37262,7 +37270,7 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="74" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="37"/>
@@ -37840,7 +37848,7 @@
     </row>
     <row r="75" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="74" t="s">
         <v>120</v>
       </c>
       <c r="C75" s="37"/>
@@ -38188,7 +38196,7 @@
     </row>
     <row r="110" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="44"/>
-      <c r="B110" s="73" t="s">
+      <c r="B110" s="74" t="s">
         <v>155</v>
       </c>
       <c r="C110" s="37"/>
@@ -38216,7 +38224,7 @@
     </row>
     <row r="113" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="44"/>
-      <c r="B113" s="73" t="s">
+      <c r="B113" s="74" t="s">
         <v>158</v>
       </c>
       <c r="C113" s="37"/>
@@ -38234,7 +38242,7 @@
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
-      <c r="B115" s="73" t="s">
+      <c r="B115" s="74" t="s">
         <v>160</v>
       </c>
       <c r="C115" s="37"/>
@@ -38252,7 +38260,7 @@
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
-      <c r="B117" s="73" t="s">
+      <c r="B117" s="74" t="s">
         <v>162</v>
       </c>
       <c r="C117" s="37"/>
@@ -38580,7 +38588,7 @@
     </row>
     <row r="150" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="44"/>
-      <c r="B150" s="73" t="s">
+      <c r="B150" s="74" t="s">
         <v>195</v>
       </c>
       <c r="C150" s="37"/>
@@ -39478,7 +39486,7 @@
     </row>
     <row r="240" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="44"/>
-      <c r="B240" s="73" t="s">
+      <c r="B240" s="74" t="s">
         <v>284</v>
       </c>
       <c r="C240" s="37"/>
@@ -40156,7 +40164,7 @@
     </row>
     <row r="308" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="44"/>
-      <c r="B308" s="73" t="s">
+      <c r="B308" s="74" t="s">
         <v>352</v>
       </c>
       <c r="C308" s="37"/>
@@ -40374,7 +40382,7 @@
     </row>
     <row r="330" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="44"/>
-      <c r="B330" s="73" t="s">
+      <c r="B330" s="74" t="s">
         <v>374</v>
       </c>
       <c r="C330" s="37"/>
@@ -40752,7 +40760,7 @@
     </row>
     <row r="368" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="44"/>
-      <c r="B368" s="73" t="s">
+      <c r="B368" s="74" t="s">
         <v>395</v>
       </c>
       <c r="C368" s="37"/>
@@ -40850,7 +40858,7 @@
     </row>
     <row r="378" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="44"/>
-      <c r="B378" s="73" t="s">
+      <c r="B378" s="74" t="s">
         <v>405</v>
       </c>
       <c r="C378" s="37"/>
@@ -40878,7 +40886,7 @@
     </row>
     <row r="381" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="44"/>
-      <c r="B381" s="73" t="s">
+      <c r="B381" s="74" t="s">
         <v>408</v>
       </c>
       <c r="C381" s="37"/>
@@ -40926,7 +40934,7 @@
     </row>
     <row r="386" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="44"/>
-      <c r="B386" s="73" t="s">
+      <c r="B386" s="74" t="s">
         <v>413</v>
       </c>
       <c r="C386" s="37"/>
@@ -42194,7 +42202,7 @@
     </row>
     <row r="513" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="44"/>
-      <c r="B513" s="73" t="s">
+      <c r="B513" s="74" t="s">
         <v>534</v>
       </c>
       <c r="C513" s="37"/>

--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9908" uniqueCount="557">
   <si>
     <t>№</t>
   </si>
@@ -1689,6 +1689,12 @@
   </si>
   <si>
     <t>РАДІОСТАНЦІЯ "KENWOOD" TK-90 (КОРОТКОХВИЛЬОВОГО ДІАПАЗОНУ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комутатори </t>
+  </si>
+  <si>
+    <t>cisco 515-px</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1702,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1821,6 +1827,91 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2130,7 +2221,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2351,6 +2442,57 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -37270,7 +37412,7 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="91" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="37"/>
@@ -37848,7 +37990,7 @@
     </row>
     <row r="75" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
-      <c r="B75" s="74" t="s">
+      <c r="B75" s="91" t="s">
         <v>120</v>
       </c>
       <c r="C75" s="37"/>
@@ -38196,7 +38338,7 @@
     </row>
     <row r="110" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="44"/>
-      <c r="B110" s="74" t="s">
+      <c r="B110" s="91" t="s">
         <v>155</v>
       </c>
       <c r="C110" s="37"/>
@@ -38224,7 +38366,7 @@
     </row>
     <row r="113" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="44"/>
-      <c r="B113" s="74" t="s">
+      <c r="B113" s="91" t="s">
         <v>158</v>
       </c>
       <c r="C113" s="37"/>
@@ -38242,7 +38384,7 @@
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
-      <c r="B115" s="74" t="s">
+      <c r="B115" s="91" t="s">
         <v>160</v>
       </c>
       <c r="C115" s="37"/>
@@ -38260,7 +38402,7 @@
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
-      <c r="B117" s="74" t="s">
+      <c r="B117" s="91" t="s">
         <v>162</v>
       </c>
       <c r="C117" s="37"/>
@@ -38588,7 +38730,7 @@
     </row>
     <row r="150" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="44"/>
-      <c r="B150" s="74" t="s">
+      <c r="B150" s="91" t="s">
         <v>195</v>
       </c>
       <c r="C150" s="37"/>
@@ -39486,7 +39628,7 @@
     </row>
     <row r="240" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="44"/>
-      <c r="B240" s="74" t="s">
+      <c r="B240" s="91" t="s">
         <v>284</v>
       </c>
       <c r="C240" s="37"/>
@@ -40164,7 +40306,7 @@
     </row>
     <row r="308" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="44"/>
-      <c r="B308" s="74" t="s">
+      <c r="B308" s="91" t="s">
         <v>352</v>
       </c>
       <c r="C308" s="37"/>
@@ -40382,7 +40524,7 @@
     </row>
     <row r="330" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="44"/>
-      <c r="B330" s="74" t="s">
+      <c r="B330" s="91" t="s">
         <v>374</v>
       </c>
       <c r="C330" s="37"/>
@@ -40760,7 +40902,7 @@
     </row>
     <row r="368" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="44"/>
-      <c r="B368" s="74" t="s">
+      <c r="B368" s="91" t="s">
         <v>395</v>
       </c>
       <c r="C368" s="37"/>
@@ -40858,7 +41000,7 @@
     </row>
     <row r="378" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="44"/>
-      <c r="B378" s="74" t="s">
+      <c r="B378" s="91" t="s">
         <v>405</v>
       </c>
       <c r="C378" s="37"/>
@@ -40886,7 +41028,7 @@
     </row>
     <row r="381" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="44"/>
-      <c r="B381" s="74" t="s">
+      <c r="B381" s="91" t="s">
         <v>408</v>
       </c>
       <c r="C381" s="37"/>
@@ -40934,7 +41076,7 @@
     </row>
     <row r="386" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="44"/>
-      <c r="B386" s="74" t="s">
+      <c r="B386" s="91" t="s">
         <v>413</v>
       </c>
       <c r="C386" s="37"/>
@@ -42202,7 +42344,7 @@
     </row>
     <row r="513" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="44"/>
-      <c r="B513" s="74" t="s">
+      <c r="B513" s="91" t="s">
         <v>534</v>
       </c>
       <c r="C513" s="37"/>
@@ -42410,13 +42552,19 @@
     </row>
     <row r="534" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="42"/>
-      <c r="B534" s="43"/>
+      <c r="B534" s="91" t="s">
+        <v>555</v>
+      </c>
       <c r="C534" s="37"/>
       <c r="D534" s="37"/>
     </row>
     <row r="535" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="44"/>
-      <c r="B535" s="43"/>
+      <c r="A535" s="44" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="B535" s="43" t="s">
+        <v>556</v>
+      </c>
       <c r="C535" s="37"/>
       <c r="D535" s="37"/>
     </row>

--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9908" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11469" uniqueCount="561">
   <si>
     <t>№</t>
   </si>
@@ -1695,6 +1695,18 @@
   </si>
   <si>
     <t>cisco 515-px</t>
+  </si>
+  <si>
+    <t>testType</t>
+  </si>
+  <si>
+    <t>rwe</t>
+  </si>
+  <si>
+    <t>Радіорелейні станції Test</t>
+  </si>
+  <si>
+    <t>cisco 515-px Test</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1714,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1827,6 +1839,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2221,7 +2248,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2493,6 +2520,15 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -37412,7 +37448,7 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="94" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="37"/>
@@ -37432,7 +37468,7 @@
       <c r="A19" s="44" t="n">
         <v>2.0</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="92" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="37"/>
@@ -37989,8 +38025,10 @@
       <c r="D74" s="37"/>
     </row>
     <row r="75" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="91" t="s">
+      <c r="A75" s="44" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B75" s="94" t="s">
         <v>120</v>
       </c>
       <c r="C75" s="37"/>
@@ -38010,7 +38048,7 @@
       <c r="A77" s="44" t="n">
         <v>59.0</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="92" t="s">
         <v>122</v>
       </c>
       <c r="C77" s="37"/>
@@ -38337,8 +38375,10 @@
       <c r="D109" s="37"/>
     </row>
     <row r="110" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="91" t="s">
+      <c r="A110" s="44" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B110" s="94" t="s">
         <v>155</v>
       </c>
       <c r="C110" s="37"/>
@@ -38358,15 +38398,17 @@
       <c r="A112" s="44" t="n">
         <v>93.0</v>
       </c>
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="92" t="s">
         <v>157</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
     </row>
     <row r="113" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
-      <c r="B113" s="91" t="s">
+      <c r="A113" s="44" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B113" s="94" t="s">
         <v>158</v>
       </c>
       <c r="C113" s="37"/>
@@ -38384,7 +38426,7 @@
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
-      <c r="B115" s="91" t="s">
+      <c r="B115" s="94" t="s">
         <v>160</v>
       </c>
       <c r="C115" s="37"/>
@@ -38402,7 +38444,7 @@
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
-      <c r="B117" s="91" t="s">
+      <c r="B117" s="94" t="s">
         <v>162</v>
       </c>
       <c r="C117" s="37"/>
@@ -38422,7 +38464,7 @@
       <c r="A119" s="44" t="n">
         <v>97.0</v>
       </c>
-      <c r="B119" s="43" t="s">
+      <c r="B119" s="92" t="s">
         <v>164</v>
       </c>
       <c r="C119" s="37"/>
@@ -38729,8 +38771,10 @@
       <c r="D149" s="37"/>
     </row>
     <row r="150" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="44"/>
-      <c r="B150" s="91" t="s">
+      <c r="A150" s="44" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B150" s="94" t="s">
         <v>195</v>
       </c>
       <c r="C150" s="37"/>
@@ -38750,7 +38794,7 @@
       <c r="A152" s="44" t="n">
         <v>129.0</v>
       </c>
-      <c r="B152" s="47" t="s">
+      <c r="B152" s="92" t="s">
         <v>197</v>
       </c>
       <c r="C152" s="37"/>
@@ -39627,8 +39671,10 @@
       <c r="D239" s="37"/>
     </row>
     <row r="240" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="44"/>
-      <c r="B240" s="91" t="s">
+      <c r="A240" s="44" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="B240" s="94" t="s">
         <v>284</v>
       </c>
       <c r="C240" s="37"/>
@@ -39648,7 +39694,7 @@
       <c r="A242" s="44" t="n">
         <v>218.0</v>
       </c>
-      <c r="B242" s="43" t="s">
+      <c r="B242" s="92" t="s">
         <v>286</v>
       </c>
       <c r="C242" s="25"/>
@@ -40305,8 +40351,10 @@
       <c r="D307" s="37"/>
     </row>
     <row r="308" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="44"/>
-      <c r="B308" s="91" t="s">
+      <c r="A308" s="44" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="B308" s="94" t="s">
         <v>352</v>
       </c>
       <c r="C308" s="37"/>
@@ -40326,7 +40374,7 @@
       <c r="A310" s="42" t="n">
         <v>285.0</v>
       </c>
-      <c r="B310" s="43" t="s">
+      <c r="B310" s="92" t="s">
         <v>354</v>
       </c>
       <c r="C310" s="37"/>
@@ -40523,8 +40571,10 @@
       <c r="D329" s="37"/>
     </row>
     <row r="330" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="44"/>
-      <c r="B330" s="91" t="s">
+      <c r="A330" s="44" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="B330" s="94" t="s">
         <v>374</v>
       </c>
       <c r="C330" s="37"/>
@@ -40544,7 +40594,7 @@
       <c r="A332" s="44" t="n">
         <v>306.0</v>
       </c>
-      <c r="B332" s="43" t="s">
+      <c r="B332" s="92" t="s">
         <v>376</v>
       </c>
       <c r="C332" s="37"/>
@@ -40901,8 +40951,10 @@
       <c r="D367" s="37"/>
     </row>
     <row r="368" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="44"/>
-      <c r="B368" s="91" t="s">
+      <c r="A368" s="44" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="B368" s="94" t="s">
         <v>395</v>
       </c>
       <c r="C368" s="37"/>
@@ -40922,7 +40974,7 @@
       <c r="A370" s="44" t="n">
         <v>343.0</v>
       </c>
-      <c r="B370" s="43" t="s">
+      <c r="B370" s="92" t="s">
         <v>397</v>
       </c>
       <c r="C370" s="37"/>
@@ -40999,8 +41051,10 @@
       <c r="D377" s="37"/>
     </row>
     <row r="378" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A378" s="44"/>
-      <c r="B378" s="91" t="s">
+      <c r="A378" s="44" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="B378" s="94" t="s">
         <v>405</v>
       </c>
       <c r="C378" s="37"/>
@@ -41020,15 +41074,17 @@
       <c r="A380" s="44" t="n">
         <v>352.0</v>
       </c>
-      <c r="B380" s="43" t="s">
+      <c r="B380" s="92" t="s">
         <v>407</v>
       </c>
       <c r="C380" s="37"/>
       <c r="D380" s="37"/>
     </row>
     <row r="381" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A381" s="44"/>
-      <c r="B381" s="91" t="s">
+      <c r="A381" s="44" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="B381" s="94" t="s">
         <v>408</v>
       </c>
       <c r="C381" s="37"/>
@@ -41048,7 +41104,7 @@
       <c r="A383" s="44" t="n">
         <v>354.0</v>
       </c>
-      <c r="B383" s="43" t="s">
+      <c r="B383" s="92" t="s">
         <v>410</v>
       </c>
       <c r="C383" s="37"/>
@@ -41075,8 +41131,10 @@
       <c r="D385" s="37"/>
     </row>
     <row r="386" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="44"/>
-      <c r="B386" s="91" t="s">
+      <c r="A386" s="44" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B386" s="94" t="s">
         <v>413</v>
       </c>
       <c r="C386" s="37"/>
@@ -41096,7 +41154,7 @@
       <c r="A388" s="44" t="n">
         <v>358.0</v>
       </c>
-      <c r="B388" s="43" t="s">
+      <c r="B388" s="92" t="s">
         <v>415</v>
       </c>
       <c r="C388" s="37"/>
@@ -42343,8 +42401,10 @@
       <c r="D512" s="37"/>
     </row>
     <row r="513" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="44"/>
-      <c r="B513" s="91" t="s">
+      <c r="A513" s="44" t="n">
+        <v>482.0</v>
+      </c>
+      <c r="B513" s="94" t="s">
         <v>534</v>
       </c>
       <c r="C513" s="37"/>
@@ -42364,7 +42424,7 @@
       <c r="A515" s="44" t="n">
         <v>484.0</v>
       </c>
-      <c r="B515" s="43" t="s">
+      <c r="B515" s="92" t="s">
         <v>536</v>
       </c>
       <c r="C515" s="37"/>
@@ -42551,9 +42611,11 @@
       <c r="D533" s="37"/>
     </row>
     <row r="534" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="42"/>
-      <c r="B534" s="91" t="s">
-        <v>555</v>
+      <c r="A534" s="42" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="B534" s="94" t="s">
+        <v>559</v>
       </c>
       <c r="C534" s="37"/>
       <c r="D534" s="37"/>
@@ -42563,20 +42625,26 @@
         <v>503.0</v>
       </c>
       <c r="B535" s="43" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C535" s="37"/>
       <c r="D535" s="37"/>
     </row>
     <row r="536" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="44"/>
-      <c r="B536" s="43"/>
+      <c r="B536" s="94" t="s">
+        <v>555</v>
+      </c>
       <c r="C536" s="37"/>
       <c r="D536" s="37"/>
     </row>
     <row r="537" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="44"/>
-      <c r="B537" s="43"/>
+      <c r="A537" s="44" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="B537" s="43" t="s">
+        <v>556</v>
+      </c>
       <c r="C537" s="37"/>
       <c r="D537" s="37"/>
     </row>

--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11469" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11988" uniqueCount="561">
   <si>
     <t>№</t>
   </si>
@@ -1714,7 +1714,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1839,6 +1839,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2248,7 +2253,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2529,6 +2534,9 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -37448,7 +37456,7 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="95" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="37"/>
@@ -38028,7 +38036,7 @@
       <c r="A75" s="44" t="n">
         <v>57.0</v>
       </c>
-      <c r="B75" s="94" t="s">
+      <c r="B75" s="95" t="s">
         <v>120</v>
       </c>
       <c r="C75" s="37"/>
@@ -38378,7 +38386,7 @@
       <c r="A110" s="44" t="n">
         <v>91.0</v>
       </c>
-      <c r="B110" s="94" t="s">
+      <c r="B110" s="95" t="s">
         <v>155</v>
       </c>
       <c r="C110" s="37"/>
@@ -38408,7 +38416,7 @@
       <c r="A113" s="44" t="n">
         <v>93.0</v>
       </c>
-      <c r="B113" s="94" t="s">
+      <c r="B113" s="95" t="s">
         <v>158</v>
       </c>
       <c r="C113" s="37"/>
@@ -38426,7 +38434,7 @@
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
-      <c r="B115" s="94" t="s">
+      <c r="B115" s="95" t="s">
         <v>160</v>
       </c>
       <c r="C115" s="37"/>
@@ -38444,7 +38452,7 @@
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
-      <c r="B117" s="94" t="s">
+      <c r="B117" s="95" t="s">
         <v>162</v>
       </c>
       <c r="C117" s="37"/>
@@ -38774,7 +38782,7 @@
       <c r="A150" s="44" t="n">
         <v>127.0</v>
       </c>
-      <c r="B150" s="94" t="s">
+      <c r="B150" s="95" t="s">
         <v>195</v>
       </c>
       <c r="C150" s="37"/>
@@ -39674,7 +39682,7 @@
       <c r="A240" s="44" t="n">
         <v>216.0</v>
       </c>
-      <c r="B240" s="94" t="s">
+      <c r="B240" s="95" t="s">
         <v>284</v>
       </c>
       <c r="C240" s="37"/>
@@ -40354,7 +40362,7 @@
       <c r="A308" s="44" t="n">
         <v>283.0</v>
       </c>
-      <c r="B308" s="94" t="s">
+      <c r="B308" s="95" t="s">
         <v>352</v>
       </c>
       <c r="C308" s="37"/>
@@ -40574,7 +40582,7 @@
       <c r="A330" s="44" t="n">
         <v>304.0</v>
       </c>
-      <c r="B330" s="94" t="s">
+      <c r="B330" s="95" t="s">
         <v>374</v>
       </c>
       <c r="C330" s="37"/>
@@ -40954,7 +40962,7 @@
       <c r="A368" s="44" t="n">
         <v>341.0</v>
       </c>
-      <c r="B368" s="94" t="s">
+      <c r="B368" s="95" t="s">
         <v>395</v>
       </c>
       <c r="C368" s="37"/>
@@ -41054,7 +41062,7 @@
       <c r="A378" s="44" t="n">
         <v>350.0</v>
       </c>
-      <c r="B378" s="94" t="s">
+      <c r="B378" s="95" t="s">
         <v>405</v>
       </c>
       <c r="C378" s="37"/>
@@ -41084,7 +41092,7 @@
       <c r="A381" s="44" t="n">
         <v>352.0</v>
       </c>
-      <c r="B381" s="94" t="s">
+      <c r="B381" s="95" t="s">
         <v>408</v>
       </c>
       <c r="C381" s="37"/>
@@ -41134,7 +41142,7 @@
       <c r="A386" s="44" t="n">
         <v>356.0</v>
       </c>
-      <c r="B386" s="94" t="s">
+      <c r="B386" s="95" t="s">
         <v>413</v>
       </c>
       <c r="C386" s="37"/>
@@ -42404,7 +42412,7 @@
       <c r="A513" s="44" t="n">
         <v>482.0</v>
       </c>
-      <c r="B513" s="94" t="s">
+      <c r="B513" s="95" t="s">
         <v>534</v>
       </c>
       <c r="C513" s="37"/>
@@ -42614,8 +42622,8 @@
       <c r="A534" s="42" t="n">
         <v>502.0</v>
       </c>
-      <c r="B534" s="94" t="s">
-        <v>559</v>
+      <c r="B534" s="95" t="s">
+        <v>555</v>
       </c>
       <c r="C534" s="37"/>
       <c r="D534" s="37"/>
@@ -42625,7 +42633,7 @@
         <v>503.0</v>
       </c>
       <c r="B535" s="43" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C535" s="37"/>
       <c r="D535" s="37"/>

--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11988" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12506" uniqueCount="562">
   <si>
     <t>№</t>
   </si>
@@ -1707,6 +1707,9 @@
   </si>
   <si>
     <t>cisco 515-px Test</t>
+  </si>
+  <si>
+    <t>Harris Falkon 3</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1717,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1839,6 +1842,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2253,7 +2261,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2537,6 +2545,9 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -37456,7 +37467,7 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="96" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="37"/>
@@ -38036,7 +38047,7 @@
       <c r="A75" s="44" t="n">
         <v>57.0</v>
       </c>
-      <c r="B75" s="95" t="s">
+      <c r="B75" s="96" t="s">
         <v>120</v>
       </c>
       <c r="C75" s="37"/>
@@ -38386,7 +38397,7 @@
       <c r="A110" s="44" t="n">
         <v>91.0</v>
       </c>
-      <c r="B110" s="95" t="s">
+      <c r="B110" s="96" t="s">
         <v>155</v>
       </c>
       <c r="C110" s="37"/>
@@ -38416,7 +38427,7 @@
       <c r="A113" s="44" t="n">
         <v>93.0</v>
       </c>
-      <c r="B113" s="95" t="s">
+      <c r="B113" s="96" t="s">
         <v>158</v>
       </c>
       <c r="C113" s="37"/>
@@ -38434,7 +38445,7 @@
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
-      <c r="B115" s="95" t="s">
+      <c r="B115" s="96" t="s">
         <v>160</v>
       </c>
       <c r="C115" s="37"/>
@@ -38452,7 +38463,7 @@
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
-      <c r="B117" s="95" t="s">
+      <c r="B117" s="96" t="s">
         <v>162</v>
       </c>
       <c r="C117" s="37"/>
@@ -38782,7 +38793,7 @@
       <c r="A150" s="44" t="n">
         <v>127.0</v>
       </c>
-      <c r="B150" s="95" t="s">
+      <c r="B150" s="96" t="s">
         <v>195</v>
       </c>
       <c r="C150" s="37"/>
@@ -39680,10 +39691,10 @@
     </row>
     <row r="240" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="44" t="n">
-        <v>216.0</v>
+        <v>217.0</v>
       </c>
       <c r="B240" s="95" t="s">
-        <v>284</v>
+        <v>561</v>
       </c>
       <c r="C240" s="37"/>
       <c r="D240" s="37"/>
@@ -39692,8 +39703,8 @@
       <c r="A241" s="44" t="n">
         <v>217.0</v>
       </c>
-      <c r="B241" s="70" t="s">
-        <v>285</v>
+      <c r="B241" s="96" t="s">
+        <v>284</v>
       </c>
       <c r="C241" s="37"/>
       <c r="D241" s="37"/>
@@ -39703,7 +39714,7 @@
         <v>218.0</v>
       </c>
       <c r="B242" s="92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="37"/>
@@ -39713,7 +39724,7 @@
         <v>219.0</v>
       </c>
       <c r="B243" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C243" s="37"/>
       <c r="D243" s="37"/>
@@ -39723,7 +39734,7 @@
         <v>220.0</v>
       </c>
       <c r="B244" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C244" s="37"/>
       <c r="D244" s="37"/>
@@ -39733,7 +39744,7 @@
         <v>221.0</v>
       </c>
       <c r="B245" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C245" s="37"/>
       <c r="D245" s="37"/>
@@ -39743,7 +39754,7 @@
         <v>222.0</v>
       </c>
       <c r="B246" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C246" s="37"/>
       <c r="D246" s="37"/>
@@ -39753,7 +39764,7 @@
         <v>223.0</v>
       </c>
       <c r="B247" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C247" s="37"/>
       <c r="D247" s="37"/>
@@ -39763,7 +39774,7 @@
         <v>224.0</v>
       </c>
       <c r="B248" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C248" s="37"/>
       <c r="D248" s="37"/>
@@ -39773,7 +39784,7 @@
         <v>225.0</v>
       </c>
       <c r="B249" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C249" s="37"/>
       <c r="D249" s="37"/>
@@ -39783,7 +39794,7 @@
         <v>226.0</v>
       </c>
       <c r="B250" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C250" s="37"/>
       <c r="D250" s="37"/>
@@ -39793,7 +39804,7 @@
         <v>227.0</v>
       </c>
       <c r="B251" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C251" s="37"/>
       <c r="D251" s="37"/>
@@ -39803,7 +39814,7 @@
         <v>228.0</v>
       </c>
       <c r="B252" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C252" s="37"/>
       <c r="D252" s="37"/>
@@ -39813,7 +39824,7 @@
         <v>229.0</v>
       </c>
       <c r="B253" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C253" s="37"/>
       <c r="D253" s="37"/>
@@ -39823,7 +39834,7 @@
         <v>230.0</v>
       </c>
       <c r="B254" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C254" s="37"/>
       <c r="D254" s="37"/>
@@ -39833,7 +39844,7 @@
         <v>231.0</v>
       </c>
       <c r="B255" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C255" s="37"/>
       <c r="D255" s="37"/>
@@ -39843,7 +39854,7 @@
         <v>232.0</v>
       </c>
       <c r="B256" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C256" s="37"/>
       <c r="D256" s="37"/>
@@ -39853,7 +39864,7 @@
         <v>233.0</v>
       </c>
       <c r="B257" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C257" s="37"/>
       <c r="D257" s="37"/>
@@ -39863,7 +39874,7 @@
         <v>234.0</v>
       </c>
       <c r="B258" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C258" s="37"/>
       <c r="D258" s="37"/>
@@ -39873,7 +39884,7 @@
         <v>235.0</v>
       </c>
       <c r="B259" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C259" s="37"/>
       <c r="D259" s="37"/>
@@ -39883,7 +39894,7 @@
         <v>236.0</v>
       </c>
       <c r="B260" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C260" s="37"/>
       <c r="D260" s="37"/>
@@ -39893,7 +39904,7 @@
         <v>237.0</v>
       </c>
       <c r="B261" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C261" s="37"/>
       <c r="D261" s="37"/>
@@ -39903,7 +39914,7 @@
         <v>238.0</v>
       </c>
       <c r="B262" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C262" s="37"/>
       <c r="D262" s="37"/>
@@ -39913,7 +39924,7 @@
         <v>239.0</v>
       </c>
       <c r="B263" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C263" s="37"/>
       <c r="D263" s="37"/>
@@ -39923,7 +39934,7 @@
         <v>240.0</v>
       </c>
       <c r="B264" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C264" s="37"/>
       <c r="D264" s="37"/>
@@ -39933,7 +39944,7 @@
         <v>241.0</v>
       </c>
       <c r="B265" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C265" s="37"/>
       <c r="D265" s="37"/>
@@ -39943,7 +39954,7 @@
         <v>242.0</v>
       </c>
       <c r="B266" s="43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C266" s="37"/>
       <c r="D266" s="37"/>
@@ -39953,7 +39964,7 @@
         <v>243.0</v>
       </c>
       <c r="B267" s="43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C267" s="37"/>
       <c r="D267" s="37"/>
@@ -39963,7 +39974,7 @@
         <v>244.0</v>
       </c>
       <c r="B268" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C268" s="37"/>
       <c r="D268" s="37"/>
@@ -39973,7 +39984,7 @@
         <v>245.0</v>
       </c>
       <c r="B269" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C269" s="37"/>
       <c r="D269" s="37"/>
@@ -39983,7 +39994,7 @@
         <v>246.0</v>
       </c>
       <c r="B270" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C270" s="37"/>
       <c r="D270" s="37"/>
@@ -39993,7 +40004,7 @@
         <v>247.0</v>
       </c>
       <c r="B271" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C271" s="37"/>
       <c r="D271" s="37"/>
@@ -40003,7 +40014,7 @@
         <v>248.0</v>
       </c>
       <c r="B272" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C272" s="37"/>
       <c r="D272" s="37"/>
@@ -40013,7 +40024,7 @@
         <v>249.0</v>
       </c>
       <c r="B273" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C273" s="37"/>
       <c r="D273" s="37"/>
@@ -40023,7 +40034,7 @@
         <v>250.0</v>
       </c>
       <c r="B274" s="43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C274" s="37"/>
       <c r="D274" s="37"/>
@@ -40033,7 +40044,7 @@
         <v>251.0</v>
       </c>
       <c r="B275" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C275" s="37"/>
       <c r="D275" s="37"/>
@@ -40043,7 +40054,7 @@
         <v>252.0</v>
       </c>
       <c r="B276" s="43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C276" s="37"/>
       <c r="D276" s="37"/>
@@ -40053,7 +40064,7 @@
         <v>253.0</v>
       </c>
       <c r="B277" s="43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C277" s="37"/>
       <c r="D277" s="37"/>
@@ -40063,7 +40074,7 @@
         <v>254.0</v>
       </c>
       <c r="B278" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C278" s="37"/>
       <c r="D278" s="37"/>
@@ -40073,7 +40084,7 @@
         <v>255.0</v>
       </c>
       <c r="B279" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C279" s="37"/>
       <c r="D279" s="37"/>
@@ -40083,7 +40094,7 @@
         <v>256.0</v>
       </c>
       <c r="B280" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C280" s="37"/>
       <c r="D280" s="37"/>
@@ -40093,7 +40104,7 @@
         <v>257.0</v>
       </c>
       <c r="B281" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C281" s="37"/>
       <c r="D281" s="37"/>
@@ -40103,7 +40114,7 @@
         <v>258.0</v>
       </c>
       <c r="B282" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C282" s="37"/>
       <c r="D282" s="37"/>
@@ -40113,7 +40124,7 @@
         <v>259.0</v>
       </c>
       <c r="B283" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C283" s="37"/>
       <c r="D283" s="37"/>
@@ -40123,7 +40134,7 @@
         <v>260.0</v>
       </c>
       <c r="B284" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C284" s="37"/>
       <c r="D284" s="37"/>
@@ -40133,7 +40144,7 @@
         <v>261.0</v>
       </c>
       <c r="B285" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C285" s="37"/>
       <c r="D285" s="37"/>
@@ -40143,7 +40154,7 @@
         <v>262.0</v>
       </c>
       <c r="B286" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C286" s="37"/>
       <c r="D286" s="37"/>
@@ -40153,7 +40164,7 @@
         <v>263.0</v>
       </c>
       <c r="B287" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C287" s="37"/>
       <c r="D287" s="37"/>
@@ -40163,7 +40174,7 @@
         <v>264.0</v>
       </c>
       <c r="B288" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C288" s="37"/>
       <c r="D288" s="37"/>
@@ -40173,7 +40184,7 @@
         <v>265.0</v>
       </c>
       <c r="B289" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C289" s="37"/>
       <c r="D289" s="37"/>
@@ -40183,7 +40194,7 @@
         <v>266.0</v>
       </c>
       <c r="B290" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C290" s="37"/>
       <c r="D290" s="37"/>
@@ -40193,7 +40204,7 @@
         <v>267.0</v>
       </c>
       <c r="B291" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C291" s="37"/>
       <c r="D291" s="37"/>
@@ -40203,7 +40214,7 @@
         <v>268.0</v>
       </c>
       <c r="B292" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C292" s="37"/>
       <c r="D292" s="37"/>
@@ -40213,7 +40224,7 @@
         <v>269.0</v>
       </c>
       <c r="B293" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C293" s="37"/>
       <c r="D293" s="37"/>
@@ -40223,7 +40234,7 @@
         <v>270.0</v>
       </c>
       <c r="B294" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C294" s="37"/>
       <c r="D294" s="37"/>
@@ -40233,7 +40244,7 @@
         <v>271.0</v>
       </c>
       <c r="B295" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C295" s="37"/>
       <c r="D295" s="37"/>
@@ -40243,7 +40254,7 @@
         <v>272.0</v>
       </c>
       <c r="B296" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C296" s="37"/>
       <c r="D296" s="37"/>
@@ -40253,7 +40264,7 @@
         <v>273.0</v>
       </c>
       <c r="B297" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C297" s="37"/>
       <c r="D297" s="37"/>
@@ -40263,7 +40274,7 @@
         <v>274.0</v>
       </c>
       <c r="B298" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C298" s="37"/>
       <c r="D298" s="37"/>
@@ -40273,7 +40284,7 @@
         <v>275.0</v>
       </c>
       <c r="B299" s="43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C299" s="37"/>
       <c r="D299" s="37"/>
@@ -40283,7 +40294,7 @@
         <v>276.0</v>
       </c>
       <c r="B300" s="43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C300" s="37"/>
       <c r="D300" s="37"/>
@@ -40293,7 +40304,7 @@
         <v>277.0</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C301" s="37"/>
       <c r="D301" s="37"/>
@@ -40303,7 +40314,7 @@
         <v>278.0</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C302" s="37"/>
       <c r="D302" s="37"/>
@@ -40313,7 +40324,7 @@
         <v>279.0</v>
       </c>
       <c r="B303" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C303" s="37"/>
       <c r="D303" s="37"/>
@@ -40323,7 +40334,7 @@
         <v>280.0</v>
       </c>
       <c r="B304" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C304" s="37"/>
       <c r="D304" s="37"/>
@@ -40333,7 +40344,7 @@
         <v>281.0</v>
       </c>
       <c r="B305" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C305" s="37"/>
       <c r="D305" s="37"/>
@@ -40343,7 +40354,7 @@
         <v>282.0</v>
       </c>
       <c r="B306" s="43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C306" s="37"/>
       <c r="D306" s="37"/>
@@ -40353,17 +40364,17 @@
         <v>283.0</v>
       </c>
       <c r="B307" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C307" s="37"/>
       <c r="D307" s="37"/>
     </row>
     <row r="308" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="44" t="n">
-        <v>283.0</v>
+        <v>284.0</v>
       </c>
       <c r="B308" s="95" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C308" s="37"/>
       <c r="D308" s="37"/>
@@ -40372,8 +40383,8 @@
       <c r="A309" s="44" t="n">
         <v>284.0</v>
       </c>
-      <c r="B309" s="70" t="s">
-        <v>353</v>
+      <c r="B309" s="96" t="s">
+        <v>352</v>
       </c>
       <c r="C309" s="37"/>
       <c r="D309" s="37"/>
@@ -40383,7 +40394,7 @@
         <v>285.0</v>
       </c>
       <c r="B310" s="92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C310" s="37"/>
       <c r="D310" s="37"/>
@@ -40393,7 +40404,7 @@
         <v>286.0</v>
       </c>
       <c r="B311" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C311" s="37"/>
       <c r="D311" s="37"/>
@@ -40403,7 +40414,7 @@
         <v>287.0</v>
       </c>
       <c r="B312" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C312" s="37"/>
       <c r="D312" s="37"/>
@@ -40413,7 +40424,7 @@
         <v>288.0</v>
       </c>
       <c r="B313" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C313" s="37"/>
       <c r="D313" s="37"/>
@@ -40423,7 +40434,7 @@
         <v>289.0</v>
       </c>
       <c r="B314" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C314" s="37"/>
       <c r="D314" s="37"/>
@@ -40433,7 +40444,7 @@
         <v>290.0</v>
       </c>
       <c r="B315" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C315" s="37"/>
       <c r="D315" s="37"/>
@@ -40443,7 +40454,7 @@
         <v>291.0</v>
       </c>
       <c r="B316" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C316" s="38"/>
       <c r="D316" s="38"/>
@@ -40453,7 +40464,7 @@
         <v>292.0</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C317" s="37"/>
       <c r="D317" s="37"/>
@@ -40463,7 +40474,7 @@
         <v>293.0</v>
       </c>
       <c r="B318" s="43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C318" s="37"/>
       <c r="D318" s="37"/>
@@ -40473,7 +40484,7 @@
         <v>294.0</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C319" s="37"/>
       <c r="D319" s="37"/>
@@ -40483,7 +40494,7 @@
         <v>295.0</v>
       </c>
       <c r="B320" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C320" s="37"/>
       <c r="D320" s="37"/>
@@ -40493,7 +40504,7 @@
         <v>296.0</v>
       </c>
       <c r="B321" s="43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C321" s="37"/>
       <c r="D321" s="37"/>
@@ -40503,7 +40514,7 @@
         <v>297.0</v>
       </c>
       <c r="B322" s="43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C322" s="37"/>
       <c r="D322" s="37"/>
@@ -40513,7 +40524,7 @@
         <v>298.0</v>
       </c>
       <c r="B323" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C323" s="37"/>
       <c r="D323" s="37"/>
@@ -40523,7 +40534,7 @@
         <v>299.0</v>
       </c>
       <c r="B324" s="43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C324" s="37"/>
       <c r="D324" s="37"/>
@@ -40533,7 +40544,7 @@
         <v>300.0</v>
       </c>
       <c r="B325" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C325" s="37"/>
       <c r="D325" s="37"/>
@@ -40543,7 +40554,7 @@
         <v>301.0</v>
       </c>
       <c r="B326" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C326" s="37"/>
       <c r="D326" s="37"/>
@@ -40553,7 +40564,7 @@
         <v>302.0</v>
       </c>
       <c r="B327" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C327" s="37"/>
       <c r="D327" s="37"/>
@@ -40563,7 +40574,7 @@
         <v>303.0</v>
       </c>
       <c r="B328" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C328" s="37"/>
       <c r="D328" s="37"/>
@@ -40573,17 +40584,17 @@
         <v>304.0</v>
       </c>
       <c r="B329" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C329" s="37"/>
       <c r="D329" s="37"/>
     </row>
     <row r="330" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="44" t="n">
-        <v>304.0</v>
+        <v>305.0</v>
       </c>
       <c r="B330" s="95" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C330" s="37"/>
       <c r="D330" s="37"/>
@@ -40592,8 +40603,8 @@
       <c r="A331" s="44" t="n">
         <v>305.0</v>
       </c>
-      <c r="B331" s="70" t="s">
-        <v>375</v>
+      <c r="B331" s="96" t="s">
+        <v>374</v>
       </c>
       <c r="C331" s="37"/>
       <c r="D331" s="37"/>
@@ -40603,7 +40614,7 @@
         <v>306.0</v>
       </c>
       <c r="B332" s="92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C332" s="37"/>
       <c r="D332" s="37"/>
@@ -40613,7 +40624,7 @@
         <v>307.0</v>
       </c>
       <c r="B333" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C333" s="37"/>
       <c r="D333" s="37"/>
@@ -40623,7 +40634,7 @@
         <v>308.0</v>
       </c>
       <c r="B334" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C334" s="37"/>
       <c r="D334" s="37"/>
@@ -40633,7 +40644,7 @@
         <v>309.0</v>
       </c>
       <c r="B335" s="43" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C335" s="37"/>
       <c r="D335" s="37"/>
@@ -40643,7 +40654,7 @@
         <v>310.0</v>
       </c>
       <c r="B336" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C336" s="37"/>
       <c r="D336" s="37"/>
@@ -40653,7 +40664,7 @@
         <v>311.0</v>
       </c>
       <c r="B337" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C337" s="37"/>
       <c r="D337" s="37"/>
@@ -40663,7 +40674,7 @@
         <v>312.0</v>
       </c>
       <c r="B338" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C338" s="37"/>
       <c r="D338" s="37"/>
@@ -40673,7 +40684,7 @@
         <v>313.0</v>
       </c>
       <c r="B339" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C339" s="37"/>
       <c r="D339" s="37"/>
@@ -40683,7 +40694,7 @@
         <v>314.0</v>
       </c>
       <c r="B340" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C340" s="37"/>
       <c r="D340" s="37"/>
@@ -40693,7 +40704,7 @@
         <v>315.0</v>
       </c>
       <c r="B341" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C341" s="37"/>
       <c r="D341" s="37"/>
@@ -40703,7 +40714,7 @@
         <v>316.0</v>
       </c>
       <c r="B342" s="43" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C342" s="37"/>
       <c r="D342" s="37"/>
@@ -40713,7 +40724,7 @@
         <v>317.0</v>
       </c>
       <c r="B343" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C343" s="37"/>
       <c r="D343" s="37"/>
@@ -40723,7 +40734,7 @@
         <v>318.0</v>
       </c>
       <c r="B344" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C344" s="37"/>
       <c r="D344" s="37"/>
@@ -40733,7 +40744,7 @@
         <v>319.0</v>
       </c>
       <c r="B345" s="43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C345" s="37"/>
       <c r="D345" s="37"/>
@@ -40743,7 +40754,7 @@
         <v>320.0</v>
       </c>
       <c r="B346" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C346" s="37"/>
       <c r="D346" s="37"/>
@@ -40753,7 +40764,7 @@
         <v>321.0</v>
       </c>
       <c r="B347" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C347" s="37"/>
       <c r="D347" s="37"/>
@@ -40763,7 +40774,7 @@
         <v>322.0</v>
       </c>
       <c r="B348" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C348" s="37"/>
       <c r="D348" s="37"/>
@@ -40773,7 +40784,7 @@
         <v>323.0</v>
       </c>
       <c r="B349" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C349" s="37"/>
       <c r="D349" s="37"/>
@@ -40783,7 +40794,7 @@
         <v>324.0</v>
       </c>
       <c r="B350" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C350" s="37"/>
       <c r="D350" s="37"/>
@@ -40793,7 +40804,7 @@
         <v>325.0</v>
       </c>
       <c r="B351" s="43" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C351" s="37"/>
       <c r="D351" s="37"/>
@@ -40803,7 +40814,7 @@
         <v>326.0</v>
       </c>
       <c r="B352" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C352" s="37"/>
       <c r="D352" s="37"/>
@@ -40813,7 +40824,7 @@
         <v>327.0</v>
       </c>
       <c r="B353" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C353" s="37"/>
       <c r="D353" s="37"/>
@@ -40823,7 +40834,7 @@
         <v>328.0</v>
       </c>
       <c r="B354" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C354" s="37"/>
       <c r="D354" s="37"/>
@@ -40833,7 +40844,7 @@
         <v>329.0</v>
       </c>
       <c r="B355" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C355" s="37"/>
       <c r="D355" s="37"/>
@@ -40843,7 +40854,7 @@
         <v>330.0</v>
       </c>
       <c r="B356" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C356" s="37"/>
       <c r="D356" s="37"/>
@@ -40853,7 +40864,7 @@
         <v>331.0</v>
       </c>
       <c r="B357" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C357" s="37"/>
       <c r="D357" s="37"/>
@@ -40873,7 +40884,7 @@
         <v>333.0</v>
       </c>
       <c r="B359" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C359" s="38"/>
       <c r="D359" s="38"/>
@@ -40883,7 +40894,7 @@
         <v>334.0</v>
       </c>
       <c r="B360" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C360" s="37"/>
       <c r="D360" s="37"/>
@@ -40893,7 +40904,7 @@
         <v>335.0</v>
       </c>
       <c r="B361" s="43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C361" s="37"/>
       <c r="D361" s="37"/>
@@ -40903,7 +40914,7 @@
         <v>336.0</v>
       </c>
       <c r="B362" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C362" s="37"/>
       <c r="D362" s="37"/>
@@ -40913,7 +40924,7 @@
         <v>337.0</v>
       </c>
       <c r="B363" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C363" s="37"/>
       <c r="D363" s="37"/>
@@ -40923,7 +40934,7 @@
         <v>338.0</v>
       </c>
       <c r="B364" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C364" s="37"/>
       <c r="D364" s="37"/>
@@ -40933,7 +40944,7 @@
         <v>339.0</v>
       </c>
       <c r="B365" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C365" s="37"/>
       <c r="D365" s="37"/>
@@ -40943,7 +40954,7 @@
         <v>340.0</v>
       </c>
       <c r="B366" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C366" s="37"/>
       <c r="D366" s="37"/>
@@ -40960,10 +40971,10 @@
     </row>
     <row r="368" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="44" t="n">
-        <v>341.0</v>
+        <v>342.0</v>
       </c>
       <c r="B368" s="95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C368" s="37"/>
       <c r="D368" s="37"/>
@@ -40972,8 +40983,8 @@
       <c r="A369" s="44" t="n">
         <v>342.0</v>
       </c>
-      <c r="B369" s="70" t="s">
-        <v>396</v>
+      <c r="B369" s="96" t="s">
+        <v>395</v>
       </c>
       <c r="C369" s="37"/>
       <c r="D369" s="37"/>
@@ -40983,7 +40994,7 @@
         <v>343.0</v>
       </c>
       <c r="B370" s="92" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C370" s="37"/>
       <c r="D370" s="37"/>
@@ -40993,7 +41004,7 @@
         <v>344.0</v>
       </c>
       <c r="B371" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C371" s="37"/>
       <c r="D371" s="37"/>
@@ -41003,7 +41014,7 @@
         <v>345.0</v>
       </c>
       <c r="B372" s="43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C372" s="37"/>
       <c r="D372" s="37"/>
@@ -41013,7 +41024,7 @@
         <v>346.0</v>
       </c>
       <c r="B373" s="43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C373" s="37"/>
       <c r="D373" s="37"/>
@@ -41023,7 +41034,7 @@
         <v>347.0</v>
       </c>
       <c r="B374" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C374" s="37"/>
       <c r="D374" s="37"/>
@@ -41033,7 +41044,7 @@
         <v>348.0</v>
       </c>
       <c r="B375" s="43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C375" s="37"/>
       <c r="D375" s="37"/>
@@ -41043,7 +41054,7 @@
         <v>349.0</v>
       </c>
       <c r="B376" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C376" s="37"/>
       <c r="D376" s="37"/>
@@ -41053,17 +41064,17 @@
         <v>350.0</v>
       </c>
       <c r="B377" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C377" s="37"/>
       <c r="D377" s="37"/>
     </row>
     <row r="378" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="44" t="n">
-        <v>350.0</v>
+        <v>351.0</v>
       </c>
       <c r="B378" s="95" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C378" s="37"/>
       <c r="D378" s="37"/>
@@ -41072,8 +41083,8 @@
       <c r="A379" s="44" t="n">
         <v>351.0</v>
       </c>
-      <c r="B379" s="70" t="s">
-        <v>406</v>
+      <c r="B379" s="96" t="s">
+        <v>405</v>
       </c>
       <c r="C379" s="37"/>
       <c r="D379" s="37"/>
@@ -41083,17 +41094,17 @@
         <v>352.0</v>
       </c>
       <c r="B380" s="92" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C380" s="37"/>
       <c r="D380" s="37"/>
     </row>
     <row r="381" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="44" t="n">
-        <v>352.0</v>
+        <v>353.0</v>
       </c>
       <c r="B381" s="95" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C381" s="37"/>
       <c r="D381" s="37"/>
@@ -41102,8 +41113,8 @@
       <c r="A382" s="44" t="n">
         <v>353.0</v>
       </c>
-      <c r="B382" s="70" t="s">
-        <v>409</v>
+      <c r="B382" s="96" t="s">
+        <v>408</v>
       </c>
       <c r="C382" s="37"/>
       <c r="D382" s="37"/>
@@ -41113,7 +41124,7 @@
         <v>354.0</v>
       </c>
       <c r="B383" s="92" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C383" s="37"/>
       <c r="D383" s="37"/>
@@ -41123,7 +41134,7 @@
         <v>355.0</v>
       </c>
       <c r="B384" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C384" s="37"/>
       <c r="D384" s="37"/>
@@ -41133,17 +41144,17 @@
         <v>356.0</v>
       </c>
       <c r="B385" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C385" s="37"/>
       <c r="D385" s="37"/>
     </row>
     <row r="386" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="44" t="n">
-        <v>356.0</v>
+        <v>357.0</v>
       </c>
       <c r="B386" s="95" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C386" s="37"/>
       <c r="D386" s="37"/>
@@ -41152,8 +41163,8 @@
       <c r="A387" s="44" t="n">
         <v>357.0</v>
       </c>
-      <c r="B387" s="70" t="s">
-        <v>414</v>
+      <c r="B387" s="96" t="s">
+        <v>413</v>
       </c>
       <c r="C387" s="37"/>
       <c r="D387" s="37"/>
@@ -41163,7 +41174,7 @@
         <v>358.0</v>
       </c>
       <c r="B388" s="92" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C388" s="37"/>
       <c r="D388" s="37"/>
@@ -41173,7 +41184,7 @@
         <v>359.0</v>
       </c>
       <c r="B389" s="43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C389" s="37"/>
       <c r="D389" s="37"/>
@@ -41183,7 +41194,7 @@
         <v>360.0</v>
       </c>
       <c r="B390" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C390" s="37"/>
       <c r="D390" s="37"/>
@@ -41193,7 +41204,7 @@
         <v>361.0</v>
       </c>
       <c r="B391" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C391" s="37"/>
       <c r="D391" s="37"/>
@@ -41203,7 +41214,7 @@
         <v>362.0</v>
       </c>
       <c r="B392" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C392" s="37"/>
       <c r="D392" s="37"/>
@@ -41213,7 +41224,7 @@
         <v>363.0</v>
       </c>
       <c r="B393" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C393" s="37"/>
       <c r="D393" s="37"/>
@@ -41223,7 +41234,7 @@
         <v>364.0</v>
       </c>
       <c r="B394" s="43" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C394" s="37"/>
       <c r="D394" s="37"/>
@@ -41233,7 +41244,7 @@
         <v>365.0</v>
       </c>
       <c r="B395" s="43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C395" s="37"/>
       <c r="D395" s="37"/>
@@ -41243,7 +41254,7 @@
         <v>366.0</v>
       </c>
       <c r="B396" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C396" s="37"/>
       <c r="D396" s="37"/>
@@ -41253,7 +41264,7 @@
         <v>367.0</v>
       </c>
       <c r="B397" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C397" s="37"/>
       <c r="D397" s="37"/>
@@ -41263,7 +41274,7 @@
         <v>368.0</v>
       </c>
       <c r="B398" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C398" s="37"/>
       <c r="D398" s="37"/>
@@ -41273,7 +41284,7 @@
         <v>369.0</v>
       </c>
       <c r="B399" s="43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C399" s="37"/>
       <c r="D399" s="37"/>
@@ -41283,7 +41294,7 @@
         <v>370.0</v>
       </c>
       <c r="B400" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C400" s="37"/>
       <c r="D400" s="37"/>
@@ -41293,7 +41304,7 @@
         <v>371.0</v>
       </c>
       <c r="B401" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C401" s="37"/>
       <c r="D401" s="37"/>
@@ -41303,7 +41314,7 @@
         <v>372.0</v>
       </c>
       <c r="B402" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C402" s="37"/>
       <c r="D402" s="37"/>
@@ -41313,7 +41324,7 @@
         <v>373.0</v>
       </c>
       <c r="B403" s="43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C403" s="37"/>
       <c r="D403" s="37"/>
@@ -41323,7 +41334,7 @@
         <v>374.0</v>
       </c>
       <c r="B404" s="49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C404" s="40"/>
       <c r="D404" s="37"/>
@@ -41333,7 +41344,7 @@
         <v>375.0</v>
       </c>
       <c r="B405" s="50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C405" s="40"/>
       <c r="D405" s="37"/>
@@ -41343,7 +41354,7 @@
         <v>376.0</v>
       </c>
       <c r="B406" s="50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C406" s="40"/>
       <c r="D406" s="37"/>
@@ -41353,7 +41364,7 @@
         <v>377.0</v>
       </c>
       <c r="B407" s="50" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C407" s="40"/>
       <c r="D407" s="37"/>
@@ -41363,7 +41374,7 @@
         <v>378.0</v>
       </c>
       <c r="B408" s="50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C408" s="24"/>
       <c r="D408" s="37"/>
@@ -41373,7 +41384,7 @@
         <v>379.0</v>
       </c>
       <c r="B409" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C409" s="24"/>
       <c r="D409" s="37"/>
@@ -41383,7 +41394,7 @@
         <v>380.0</v>
       </c>
       <c r="B410" s="43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C410" s="24"/>
       <c r="D410" s="37"/>
@@ -41393,7 +41404,7 @@
         <v>381.0</v>
       </c>
       <c r="B411" s="43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C411" s="24"/>
       <c r="D411" s="37"/>
@@ -41403,7 +41414,7 @@
         <v>382.0</v>
       </c>
       <c r="B412" s="43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C412" s="24"/>
       <c r="D412" s="37"/>
@@ -41413,7 +41424,7 @@
         <v>383.0</v>
       </c>
       <c r="B413" s="50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C413" s="24"/>
       <c r="D413" s="37"/>
@@ -41423,7 +41434,7 @@
         <v>384.0</v>
       </c>
       <c r="B414" s="50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C414" s="24"/>
       <c r="D414" s="37"/>
@@ -41433,7 +41444,7 @@
         <v>385.0</v>
       </c>
       <c r="B415" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C415" s="40"/>
       <c r="D415" s="37"/>
@@ -41443,7 +41454,7 @@
         <v>386.0</v>
       </c>
       <c r="B416" s="50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C416" s="40"/>
       <c r="D416" s="37"/>
@@ -41453,7 +41464,7 @@
         <v>387.0</v>
       </c>
       <c r="B417" s="43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C417" s="40"/>
       <c r="D417" s="37"/>
@@ -41463,7 +41474,7 @@
         <v>388.0</v>
       </c>
       <c r="B418" s="43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C418" s="40"/>
       <c r="D418" s="37"/>
@@ -41473,7 +41484,7 @@
         <v>389.0</v>
       </c>
       <c r="B419" s="43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C419" s="40"/>
       <c r="D419" s="37"/>
@@ -41483,7 +41494,7 @@
         <v>390.0</v>
       </c>
       <c r="B420" s="43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C420" s="37"/>
       <c r="D420" s="37"/>
@@ -41493,7 +41504,7 @@
         <v>391.0</v>
       </c>
       <c r="B421" s="43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C421" s="37"/>
       <c r="D421" s="37"/>
@@ -41503,7 +41514,7 @@
         <v>392.0</v>
       </c>
       <c r="B422" s="43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C422" s="37"/>
       <c r="D422" s="37"/>
@@ -41513,7 +41524,7 @@
         <v>393.0</v>
       </c>
       <c r="B423" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C423" s="37"/>
       <c r="D423" s="37"/>
@@ -41523,7 +41534,7 @@
         <v>394.0</v>
       </c>
       <c r="B424" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C424" s="37"/>
       <c r="D424" s="37"/>
@@ -41533,7 +41544,7 @@
         <v>395.0</v>
       </c>
       <c r="B425" s="50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C425" s="37"/>
       <c r="D425" s="37"/>
@@ -41543,7 +41554,7 @@
         <v>396.0</v>
       </c>
       <c r="B426" s="50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C426" s="37"/>
       <c r="D426" s="37"/>
@@ -41553,7 +41564,7 @@
         <v>397.0</v>
       </c>
       <c r="B427" s="50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C427" s="37"/>
       <c r="D427" s="37"/>
@@ -41563,7 +41574,7 @@
         <v>398.0</v>
       </c>
       <c r="B428" s="43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C428" s="37"/>
       <c r="D428" s="37"/>
@@ -41573,7 +41584,7 @@
         <v>399.0</v>
       </c>
       <c r="B429" s="43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C429" s="37"/>
       <c r="D429" s="37"/>
@@ -41583,7 +41594,7 @@
         <v>400.0</v>
       </c>
       <c r="B430" s="43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C430" s="37"/>
       <c r="D430" s="37"/>
@@ -41593,7 +41604,7 @@
         <v>401.0</v>
       </c>
       <c r="B431" s="43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C431" s="37"/>
       <c r="D431" s="37"/>
@@ -41603,7 +41614,7 @@
         <v>402.0</v>
       </c>
       <c r="B432" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C432" s="37"/>
       <c r="D432" s="37"/>
@@ -41613,7 +41624,7 @@
         <v>403.0</v>
       </c>
       <c r="B433" s="43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C433" s="37"/>
       <c r="D433" s="37"/>
@@ -41623,7 +41634,7 @@
         <v>404.0</v>
       </c>
       <c r="B434" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C434" s="37"/>
       <c r="D434" s="37"/>
@@ -41633,7 +41644,7 @@
         <v>405.0</v>
       </c>
       <c r="B435" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C435" s="37"/>
       <c r="D435" s="37"/>
@@ -41643,7 +41654,7 @@
         <v>406.0</v>
       </c>
       <c r="B436" s="43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C436" s="37"/>
       <c r="D436" s="37"/>
@@ -41653,7 +41664,7 @@
         <v>407.0</v>
       </c>
       <c r="B437" s="50" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C437" s="37"/>
       <c r="D437" s="37"/>
@@ -41663,7 +41674,7 @@
         <v>408.0</v>
       </c>
       <c r="B438" s="43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C438" s="37"/>
       <c r="D438" s="37"/>
@@ -41673,7 +41684,7 @@
         <v>409.0</v>
       </c>
       <c r="B439" s="43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C439" s="37"/>
       <c r="D439" s="37"/>
@@ -41683,7 +41694,7 @@
         <v>410.0</v>
       </c>
       <c r="B440" s="50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C440" s="37"/>
       <c r="D440" s="37"/>
@@ -41693,7 +41704,7 @@
         <v>411.0</v>
       </c>
       <c r="B441" s="50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C441" s="37"/>
       <c r="D441" s="37"/>
@@ -41703,7 +41714,7 @@
         <v>412.0</v>
       </c>
       <c r="B442" s="50" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C442" s="37"/>
       <c r="D442" s="37"/>
@@ -41713,7 +41724,7 @@
         <v>413.0</v>
       </c>
       <c r="B443" s="43" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C443" s="37"/>
       <c r="D443" s="37"/>
@@ -41723,7 +41734,7 @@
         <v>414.0</v>
       </c>
       <c r="B444" s="43" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C444" s="37"/>
       <c r="D444" s="37"/>
@@ -41733,7 +41744,7 @@
         <v>415.0</v>
       </c>
       <c r="B445" s="43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C445" s="37"/>
       <c r="D445" s="37"/>
@@ -41743,7 +41754,7 @@
         <v>416.0</v>
       </c>
       <c r="B446" s="43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C446" s="37"/>
       <c r="D446" s="37"/>
@@ -41753,7 +41764,7 @@
         <v>417.0</v>
       </c>
       <c r="B447" s="43" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C447" s="37"/>
       <c r="D447" s="37"/>
@@ -41763,7 +41774,7 @@
         <v>418.0</v>
       </c>
       <c r="B448" s="43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C448" s="37"/>
       <c r="D448" s="37"/>
@@ -41773,7 +41784,7 @@
         <v>419.0</v>
       </c>
       <c r="B449" s="43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C449" s="37"/>
       <c r="D449" s="37"/>
@@ -41783,7 +41794,7 @@
         <v>420.0</v>
       </c>
       <c r="B450" s="43" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C450" s="37"/>
       <c r="D450" s="37"/>
@@ -41793,7 +41804,7 @@
         <v>421.0</v>
       </c>
       <c r="B451" s="43" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C451" s="37"/>
       <c r="D451" s="37"/>
@@ -41803,7 +41814,7 @@
         <v>422.0</v>
       </c>
       <c r="B452" s="43" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C452" s="37"/>
       <c r="D452" s="37"/>
@@ -41813,7 +41824,7 @@
         <v>423.0</v>
       </c>
       <c r="B453" s="43" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C453" s="37"/>
       <c r="D453" s="37"/>
@@ -41823,7 +41834,7 @@
         <v>424.0</v>
       </c>
       <c r="B454" s="43" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C454" s="37"/>
       <c r="D454" s="37"/>
@@ -41833,7 +41844,7 @@
         <v>425.0</v>
       </c>
       <c r="B455" s="43" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C455" s="37"/>
       <c r="D455" s="37"/>
@@ -41843,7 +41854,7 @@
         <v>426.0</v>
       </c>
       <c r="B456" s="43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C456" s="37"/>
       <c r="D456" s="37"/>
@@ -41853,7 +41864,7 @@
         <v>427.0</v>
       </c>
       <c r="B457" s="43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C457" s="37"/>
       <c r="D457" s="37"/>
@@ -41863,7 +41874,7 @@
         <v>428.0</v>
       </c>
       <c r="B458" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C458" s="37"/>
       <c r="D458" s="37"/>
@@ -41873,7 +41884,7 @@
         <v>429.0</v>
       </c>
       <c r="B459" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C459" s="37"/>
       <c r="D459" s="37"/>
@@ -41883,7 +41894,7 @@
         <v>430.0</v>
       </c>
       <c r="B460" s="50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C460" s="37"/>
       <c r="D460" s="37"/>
@@ -41893,7 +41904,7 @@
         <v>431.0</v>
       </c>
       <c r="B461" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C461" s="37"/>
       <c r="D461" s="37"/>
@@ -41903,7 +41914,7 @@
         <v>432.0</v>
       </c>
       <c r="B462" s="43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C462" s="37"/>
       <c r="D462" s="37"/>
@@ -41913,7 +41924,7 @@
         <v>433.0</v>
       </c>
       <c r="B463" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C463" s="37"/>
       <c r="D463" s="37"/>
@@ -41923,7 +41934,7 @@
         <v>434.0</v>
       </c>
       <c r="B464" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C464" s="37"/>
       <c r="D464" s="37"/>
@@ -41933,7 +41944,7 @@
         <v>435.0</v>
       </c>
       <c r="B465" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C465" s="37"/>
       <c r="D465" s="37"/>
@@ -41943,7 +41954,7 @@
         <v>436.0</v>
       </c>
       <c r="B466" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C466" s="37"/>
       <c r="D466" s="37"/>
@@ -41953,7 +41964,7 @@
         <v>437.0</v>
       </c>
       <c r="B467" s="43" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C467" s="37"/>
       <c r="D467" s="37"/>
@@ -41963,7 +41974,7 @@
         <v>438.0</v>
       </c>
       <c r="B468" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C468" s="37"/>
       <c r="D468" s="37"/>
@@ -41973,7 +41984,7 @@
         <v>439.0</v>
       </c>
       <c r="B469" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C469" s="37"/>
       <c r="D469" s="37"/>
@@ -41983,7 +41994,7 @@
         <v>440.0</v>
       </c>
       <c r="B470" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C470" s="37"/>
       <c r="D470" s="37"/>
@@ -41993,7 +42004,7 @@
         <v>441.0</v>
       </c>
       <c r="B471" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C471" s="37"/>
       <c r="D471" s="37"/>
@@ -42003,7 +42014,7 @@
         <v>442.0</v>
       </c>
       <c r="B472" s="43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C472" s="37"/>
       <c r="D472" s="37"/>
@@ -42013,7 +42024,7 @@
         <v>443.0</v>
       </c>
       <c r="B473" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C473" s="37"/>
       <c r="D473" s="37"/>
@@ -42023,7 +42034,7 @@
         <v>444.0</v>
       </c>
       <c r="B474" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C474" s="37"/>
       <c r="D474" s="37"/>
@@ -42033,7 +42044,7 @@
         <v>445.0</v>
       </c>
       <c r="B475" s="43" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C475" s="37"/>
       <c r="D475" s="37"/>
@@ -42043,7 +42054,7 @@
         <v>446.0</v>
       </c>
       <c r="B476" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C476" s="37"/>
       <c r="D476" s="37"/>
@@ -42053,7 +42064,7 @@
         <v>447.0</v>
       </c>
       <c r="B477" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C477" s="37"/>
       <c r="D477" s="37"/>
@@ -42063,7 +42074,7 @@
         <v>448.0</v>
       </c>
       <c r="B478" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C478" s="37"/>
       <c r="D478" s="37"/>
@@ -42073,7 +42084,7 @@
         <v>449.0</v>
       </c>
       <c r="B479" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C479" s="37"/>
       <c r="D479" s="37"/>
@@ -42083,7 +42094,7 @@
         <v>450.0</v>
       </c>
       <c r="B480" s="43" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C480" s="37"/>
       <c r="D480" s="37"/>
@@ -42093,7 +42104,7 @@
         <v>451.0</v>
       </c>
       <c r="B481" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C481" s="37"/>
       <c r="D481" s="37"/>
@@ -42103,7 +42114,7 @@
         <v>452.0</v>
       </c>
       <c r="B482" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C482" s="37"/>
       <c r="D482" s="37"/>
@@ -42113,7 +42124,7 @@
         <v>453.0</v>
       </c>
       <c r="B483" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C483" s="37"/>
       <c r="D483" s="37"/>
@@ -42123,7 +42134,7 @@
         <v>454.0</v>
       </c>
       <c r="B484" s="43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C484" s="37"/>
       <c r="D484" s="37"/>
@@ -42133,7 +42144,7 @@
         <v>455.0</v>
       </c>
       <c r="B485" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C485" s="37"/>
       <c r="D485" s="37"/>
@@ -42143,7 +42154,7 @@
         <v>456.0</v>
       </c>
       <c r="B486" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C486" s="37"/>
       <c r="D486" s="37"/>
@@ -42153,7 +42164,7 @@
         <v>457.0</v>
       </c>
       <c r="B487" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C487" s="37"/>
       <c r="D487" s="37"/>
@@ -42163,7 +42174,7 @@
         <v>458.0</v>
       </c>
       <c r="B488" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C488" s="37"/>
       <c r="D488" s="37"/>
@@ -42173,7 +42184,7 @@
         <v>459.0</v>
       </c>
       <c r="B489" s="43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C489" s="37"/>
       <c r="D489" s="37"/>
@@ -42183,7 +42194,7 @@
         <v>460.0</v>
       </c>
       <c r="B490" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C490" s="37"/>
       <c r="D490" s="37"/>
@@ -42193,7 +42204,7 @@
         <v>461.0</v>
       </c>
       <c r="B491" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C491" s="37"/>
       <c r="D491" s="37"/>
@@ -42203,7 +42214,7 @@
         <v>462.0</v>
       </c>
       <c r="B492" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C492" s="37"/>
       <c r="D492" s="37"/>
@@ -42213,7 +42224,7 @@
         <v>463.0</v>
       </c>
       <c r="B493" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C493" s="37"/>
       <c r="D493" s="37"/>
@@ -42223,7 +42234,7 @@
         <v>464.0</v>
       </c>
       <c r="B494" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C494" s="37"/>
       <c r="D494" s="37"/>
@@ -42233,7 +42244,7 @@
         <v>465.0</v>
       </c>
       <c r="B495" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C495" s="37"/>
       <c r="D495" s="37"/>
@@ -42243,7 +42254,7 @@
         <v>466.0</v>
       </c>
       <c r="B496" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C496" s="37"/>
       <c r="D496" s="37"/>
@@ -42253,7 +42264,7 @@
         <v>467.0</v>
       </c>
       <c r="B497" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C497" s="37"/>
       <c r="D497" s="37"/>
@@ -42263,7 +42274,7 @@
         <v>468.0</v>
       </c>
       <c r="B498" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C498" s="37"/>
       <c r="D498" s="37"/>
@@ -42273,7 +42284,7 @@
         <v>469.0</v>
       </c>
       <c r="B499" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C499" s="37"/>
       <c r="D499" s="37"/>
@@ -42283,7 +42294,7 @@
         <v>470.0</v>
       </c>
       <c r="B500" s="43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C500" s="37"/>
       <c r="D500" s="37"/>
@@ -42293,7 +42304,7 @@
         <v>471.0</v>
       </c>
       <c r="B501" s="43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C501" s="37"/>
       <c r="D501" s="37"/>
@@ -42303,7 +42314,7 @@
         <v>472.0</v>
       </c>
       <c r="B502" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C502" s="37"/>
       <c r="D502" s="37"/>
@@ -42313,7 +42324,7 @@
         <v>473.0</v>
       </c>
       <c r="B503" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C503" s="37"/>
       <c r="D503" s="37"/>
@@ -42323,7 +42334,7 @@
         <v>474.0</v>
       </c>
       <c r="B504" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C504" s="37"/>
       <c r="D504" s="37"/>
@@ -42333,7 +42344,7 @@
         <v>475.0</v>
       </c>
       <c r="B505" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C505" s="37"/>
       <c r="D505" s="37"/>
@@ -42343,7 +42354,7 @@
         <v>476.0</v>
       </c>
       <c r="B506" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C506" s="37"/>
       <c r="D506" s="37"/>
@@ -42353,7 +42364,7 @@
         <v>477.0</v>
       </c>
       <c r="B507" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C507" s="37"/>
       <c r="D507" s="37"/>
@@ -42363,7 +42374,7 @@
         <v>478.0</v>
       </c>
       <c r="B508" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C508" s="37"/>
       <c r="D508" s="37"/>
@@ -42373,7 +42384,7 @@
         <v>479.0</v>
       </c>
       <c r="B509" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C509" s="37"/>
       <c r="D509" s="37"/>
@@ -42383,7 +42394,7 @@
         <v>480.0</v>
       </c>
       <c r="B510" s="49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C510" s="41"/>
       <c r="D510" s="37"/>
@@ -42393,7 +42404,7 @@
         <v>481.0</v>
       </c>
       <c r="B511" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C511" s="37"/>
       <c r="D511" s="37"/>
@@ -42403,17 +42414,17 @@
         <v>482.0</v>
       </c>
       <c r="B512" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C512" s="37"/>
       <c r="D512" s="37"/>
     </row>
     <row r="513" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="44" t="n">
-        <v>482.0</v>
+        <v>483.0</v>
       </c>
       <c r="B513" s="95" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C513" s="37"/>
       <c r="D513" s="37"/>
@@ -42422,8 +42433,8 @@
       <c r="A514" s="44" t="n">
         <v>483.0</v>
       </c>
-      <c r="B514" s="70" t="s">
-        <v>535</v>
+      <c r="B514" s="96" t="s">
+        <v>534</v>
       </c>
       <c r="C514" s="37"/>
       <c r="D514" s="37"/>
@@ -42433,7 +42444,7 @@
         <v>484.0</v>
       </c>
       <c r="B515" s="92" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C515" s="37"/>
       <c r="D515" s="37"/>
@@ -42443,7 +42454,7 @@
         <v>485.0</v>
       </c>
       <c r="B516" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C516" s="37"/>
       <c r="D516" s="37"/>
@@ -42453,7 +42464,7 @@
         <v>486.0</v>
       </c>
       <c r="B517" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C517" s="37"/>
       <c r="D517" s="37"/>
@@ -42463,7 +42474,7 @@
         <v>487.0</v>
       </c>
       <c r="B518" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C518" s="37"/>
       <c r="D518" s="37"/>
@@ -42473,7 +42484,7 @@
         <v>488.0</v>
       </c>
       <c r="B519" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C519" s="37"/>
       <c r="D519" s="37"/>
@@ -42483,7 +42494,7 @@
         <v>489.0</v>
       </c>
       <c r="B520" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C520" s="37"/>
       <c r="D520" s="37"/>
@@ -42493,7 +42504,7 @@
         <v>490.0</v>
       </c>
       <c r="B521" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C521" s="37"/>
       <c r="D521" s="37"/>
@@ -42503,7 +42514,7 @@
         <v>491.0</v>
       </c>
       <c r="B522" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C522" s="37"/>
       <c r="D522" s="37"/>
@@ -42513,7 +42524,7 @@
         <v>492.0</v>
       </c>
       <c r="B523" s="43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C523" s="37"/>
       <c r="D523" s="37"/>
@@ -42523,7 +42534,7 @@
         <v>493.0</v>
       </c>
       <c r="B524" s="43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C524" s="37"/>
       <c r="D524" s="37"/>
@@ -42533,7 +42544,7 @@
         <v>494.0</v>
       </c>
       <c r="B525" s="43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C525" s="37"/>
       <c r="D525" s="37"/>
@@ -42543,7 +42554,7 @@
         <v>495.0</v>
       </c>
       <c r="B526" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C526" s="37"/>
       <c r="D526" s="37"/>
@@ -42553,7 +42564,7 @@
         <v>496.0</v>
       </c>
       <c r="B527" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C527" s="37"/>
       <c r="D527" s="37"/>
@@ -42563,7 +42574,7 @@
         <v>497.0</v>
       </c>
       <c r="B528" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C528" s="37"/>
       <c r="D528" s="37"/>
@@ -42573,7 +42584,7 @@
         <v>498.0</v>
       </c>
       <c r="B529" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C529" s="37"/>
       <c r="D529" s="37"/>
@@ -42583,7 +42594,7 @@
         <v>499.0</v>
       </c>
       <c r="B530" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C530" s="37"/>
       <c r="D530" s="37"/>
@@ -42593,7 +42604,7 @@
         <v>500.0</v>
       </c>
       <c r="B531" s="43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C531" s="37"/>
       <c r="D531" s="37"/>
@@ -42603,7 +42614,7 @@
         <v>501.0</v>
       </c>
       <c r="B532" s="43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C532" s="37"/>
       <c r="D532" s="37"/>
@@ -42613,17 +42624,17 @@
         <v>502.0</v>
       </c>
       <c r="B533" s="43" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C533" s="37"/>
       <c r="D533" s="37"/>
     </row>
     <row r="534" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="42" t="n">
-        <v>502.0</v>
+        <v>503.0</v>
       </c>
       <c r="B534" s="95" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C534" s="37"/>
       <c r="D534" s="37"/>

--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12506" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13024" uniqueCount="562">
   <si>
     <t>№</t>
   </si>
@@ -1717,7 +1717,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,6 +1842,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2261,7 +2266,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2548,6 +2553,9 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -37467,7 +37475,7 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="97" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="37"/>
@@ -38047,7 +38055,7 @@
       <c r="A75" s="44" t="n">
         <v>57.0</v>
       </c>
-      <c r="B75" s="96" t="s">
+      <c r="B75" s="97" t="s">
         <v>120</v>
       </c>
       <c r="C75" s="37"/>
@@ -38397,7 +38405,7 @@
       <c r="A110" s="44" t="n">
         <v>91.0</v>
       </c>
-      <c r="B110" s="96" t="s">
+      <c r="B110" s="97" t="s">
         <v>155</v>
       </c>
       <c r="C110" s="37"/>
@@ -38427,7 +38435,7 @@
       <c r="A113" s="44" t="n">
         <v>93.0</v>
       </c>
-      <c r="B113" s="96" t="s">
+      <c r="B113" s="97" t="s">
         <v>158</v>
       </c>
       <c r="C113" s="37"/>
@@ -38445,7 +38453,7 @@
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
-      <c r="B115" s="96" t="s">
+      <c r="B115" s="97" t="s">
         <v>160</v>
       </c>
       <c r="C115" s="37"/>
@@ -38463,7 +38471,7 @@
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
-      <c r="B117" s="96" t="s">
+      <c r="B117" s="97" t="s">
         <v>162</v>
       </c>
       <c r="C117" s="37"/>
@@ -38793,7 +38801,7 @@
       <c r="A150" s="44" t="n">
         <v>127.0</v>
       </c>
-      <c r="B150" s="96" t="s">
+      <c r="B150" s="97" t="s">
         <v>195</v>
       </c>
       <c r="C150" s="37"/>
@@ -39703,7 +39711,7 @@
       <c r="A241" s="44" t="n">
         <v>217.0</v>
       </c>
-      <c r="B241" s="96" t="s">
+      <c r="B241" s="97" t="s">
         <v>284</v>
       </c>
       <c r="C241" s="37"/>
@@ -40383,7 +40391,7 @@
       <c r="A309" s="44" t="n">
         <v>284.0</v>
       </c>
-      <c r="B309" s="96" t="s">
+      <c r="B309" s="97" t="s">
         <v>352</v>
       </c>
       <c r="C309" s="37"/>
@@ -40603,7 +40611,7 @@
       <c r="A331" s="44" t="n">
         <v>305.0</v>
       </c>
-      <c r="B331" s="96" t="s">
+      <c r="B331" s="97" t="s">
         <v>374</v>
       </c>
       <c r="C331" s="37"/>
@@ -40983,7 +40991,7 @@
       <c r="A369" s="44" t="n">
         <v>342.0</v>
       </c>
-      <c r="B369" s="96" t="s">
+      <c r="B369" s="97" t="s">
         <v>395</v>
       </c>
       <c r="C369" s="37"/>
@@ -41083,7 +41091,7 @@
       <c r="A379" s="44" t="n">
         <v>351.0</v>
       </c>
-      <c r="B379" s="96" t="s">
+      <c r="B379" s="97" t="s">
         <v>405</v>
       </c>
       <c r="C379" s="37"/>
@@ -41113,7 +41121,7 @@
       <c r="A382" s="44" t="n">
         <v>353.0</v>
       </c>
-      <c r="B382" s="96" t="s">
+      <c r="B382" s="97" t="s">
         <v>408</v>
       </c>
       <c r="C382" s="37"/>
@@ -41163,7 +41171,7 @@
       <c r="A387" s="44" t="n">
         <v>357.0</v>
       </c>
-      <c r="B387" s="96" t="s">
+      <c r="B387" s="97" t="s">
         <v>413</v>
       </c>
       <c r="C387" s="37"/>
@@ -42433,7 +42441,7 @@
       <c r="A514" s="44" t="n">
         <v>483.0</v>
       </c>
-      <c r="B514" s="96" t="s">
+      <c r="B514" s="97" t="s">
         <v>534</v>
       </c>
       <c r="C514" s="37"/>

--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13024" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13544" uniqueCount="563">
   <si>
     <t>№</t>
   </si>
@@ -1710,6 +1710,9 @@
   </si>
   <si>
     <t>Harris Falkon 3</t>
+  </si>
+  <si>
+    <t>Факсимільні апарати</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1720,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,6 +1845,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2266,7 +2274,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2556,6 +2564,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -37475,8 +37486,8 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="97" t="s">
-        <v>65</v>
+      <c r="B17" s="98" t="s">
+        <v>562</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -37486,7 +37497,7 @@
         <v>1.0</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>66</v>
+        <v>556</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -37495,558 +37506,558 @@
       <c r="A19" s="44" t="n">
         <v>2.0</v>
       </c>
-      <c r="B19" s="92" t="s">
-        <v>67</v>
+      <c r="B19" s="98" t="s">
+        <v>65</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="72"/>
       <c r="D41" s="39"/>
     </row>
     <row r="42" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
     </row>
     <row r="45" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
     </row>
     <row r="51" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
     </row>
     <row r="52" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
     </row>
     <row r="53" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
     </row>
     <row r="54" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
     </row>
     <row r="55" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
     </row>
     <row r="60" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
     </row>
     <row r="61" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
     </row>
     <row r="62" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="n">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="n">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
     </row>
     <row r="65" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
     </row>
     <row r="69" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
     </row>
     <row r="70" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
     </row>
     <row r="71" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="n">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
     </row>
     <row r="72" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="n">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
     </row>
     <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="n">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="n">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -38056,7 +38067,7 @@
         <v>57.0</v>
       </c>
       <c r="B75" s="97" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -38066,7 +38077,7 @@
         <v>58.0</v>
       </c>
       <c r="B76" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -38075,328 +38086,328 @@
       <c r="A77" s="44" t="n">
         <v>59.0</v>
       </c>
-      <c r="B77" s="92" t="s">
-        <v>122</v>
+      <c r="B77" s="98" t="s">
+        <v>120</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="n">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
     </row>
     <row r="79" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="n">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
     </row>
     <row r="80" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
     </row>
     <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="n">
-        <v>63.0</v>
+        <v>62.0</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
     </row>
     <row r="84" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="n">
-        <v>66.0</v>
+        <v>65.0</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="n">
-        <v>67.0</v>
+        <v>66.0</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
     </row>
     <row r="86" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="n">
-        <v>68.0</v>
+        <v>67.0</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
     </row>
     <row r="87" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="n">
-        <v>69.0</v>
+        <v>68.0</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
     </row>
     <row r="88" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
     </row>
     <row r="89" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="n">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
     </row>
     <row r="90" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="n">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
     </row>
     <row r="91" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="n">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
     </row>
     <row r="92" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="n">
-        <v>74.0</v>
+        <v>73.0</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
     </row>
     <row r="93" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="n">
-        <v>75.0</v>
+        <v>74.0</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
     </row>
     <row r="94" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="n">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
     </row>
     <row r="95" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
     </row>
     <row r="96" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="n">
-        <v>78.0</v>
+        <v>77.0</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
     </row>
     <row r="97" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="n">
-        <v>79.0</v>
+        <v>78.0</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
     </row>
     <row r="98" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="n">
-        <v>80.0</v>
+        <v>79.0</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
     </row>
     <row r="99" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="n">
-        <v>81.0</v>
+        <v>80.0</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
     </row>
     <row r="100" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="n">
-        <v>82.0</v>
+        <v>81.0</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
     </row>
     <row r="101" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="n">
-        <v>83.0</v>
+        <v>82.0</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
     </row>
     <row r="102" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="n">
-        <v>84.0</v>
+        <v>83.0</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
     </row>
     <row r="103" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="n">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
     </row>
     <row r="104" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="n">
-        <v>86.0</v>
+        <v>85.0</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
     </row>
     <row r="105" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="n">
-        <v>87.0</v>
+        <v>86.0</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
     </row>
     <row r="106" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="n">
-        <v>88.0</v>
+        <v>87.0</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
     </row>
     <row r="107" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="n">
-        <v>89.0</v>
+        <v>88.0</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
     </row>
     <row r="108" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="n">
-        <v>90.0</v>
+        <v>89.0</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
     </row>
     <row r="109" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="44" t="n">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
@@ -38406,7 +38417,7 @@
         <v>91.0</v>
       </c>
       <c r="B110" s="97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
@@ -38416,7 +38427,7 @@
         <v>92.0</v>
       </c>
       <c r="B111" s="70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
@@ -38425,8 +38436,8 @@
       <c r="A112" s="44" t="n">
         <v>93.0</v>
       </c>
-      <c r="B112" s="92" t="s">
-        <v>157</v>
+      <c r="B112" s="98" t="s">
+        <v>155</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
@@ -38436,7 +38447,7 @@
         <v>93.0</v>
       </c>
       <c r="B113" s="97" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
@@ -38446,15 +38457,15 @@
         <v>94.0</v>
       </c>
       <c r="B114" s="70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C114" s="37"/>
       <c r="D114" s="37"/>
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
-      <c r="B115" s="97" t="s">
-        <v>160</v>
+      <c r="B115" s="98" t="s">
+        <v>158</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
@@ -38464,15 +38475,15 @@
         <v>95.0</v>
       </c>
       <c r="B116" s="70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
-      <c r="B117" s="97" t="s">
-        <v>162</v>
+      <c r="B117" s="98" t="s">
+        <v>160</v>
       </c>
       <c r="C117" s="37"/>
       <c r="D117" s="37"/>
@@ -38482,7 +38493,7 @@
         <v>96.0</v>
       </c>
       <c r="B118" s="70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
@@ -38491,308 +38502,308 @@
       <c r="A119" s="44" t="n">
         <v>97.0</v>
       </c>
-      <c r="B119" s="92" t="s">
-        <v>164</v>
+      <c r="B119" s="98" t="s">
+        <v>162</v>
       </c>
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
     </row>
     <row r="120" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="n">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
     </row>
     <row r="121" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="n">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
     </row>
     <row r="122" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="n">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
     </row>
     <row r="123" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="44" t="n">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
     </row>
     <row r="124" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="n">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
     </row>
     <row r="125" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="44" t="n">
-        <v>103.0</v>
+        <v>102.0</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
     </row>
     <row r="126" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="n">
-        <v>104.0</v>
+        <v>103.0</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
     </row>
     <row r="127" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="44" t="n">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
     </row>
     <row r="128" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="n">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
     </row>
     <row r="129" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="44" t="n">
-        <v>107.0</v>
+        <v>106.0</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
     </row>
     <row r="130" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="44" t="n">
-        <v>108.0</v>
+        <v>107.0</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
     </row>
     <row r="131" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="n">
-        <v>109.0</v>
+        <v>108.0</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
     </row>
     <row r="132" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="n">
-        <v>110.0</v>
+        <v>109.0</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
     </row>
     <row r="133" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="n">
-        <v>111.0</v>
+        <v>110.0</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
     </row>
     <row r="134" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="44" t="n">
-        <v>112.0</v>
+        <v>111.0</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
     </row>
     <row r="135" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="n">
-        <v>113.0</v>
+        <v>112.0</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="37"/>
     </row>
     <row r="136" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="n">
-        <v>114.0</v>
+        <v>113.0</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C136" s="37"/>
       <c r="D136" s="37"/>
     </row>
     <row r="137" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="n">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
     </row>
     <row r="138" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="n">
-        <v>116.0</v>
+        <v>115.0</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
     </row>
     <row r="139" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="n">
-        <v>117.0</v>
+        <v>116.0</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
     </row>
     <row r="140" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="n">
-        <v>118.0</v>
+        <v>117.0</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
     </row>
     <row r="141" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="44" t="n">
-        <v>119.0</v>
+        <v>118.0</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
     </row>
     <row r="142" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="n">
-        <v>120.0</v>
+        <v>119.0</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
     </row>
     <row r="143" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="44" t="n">
-        <v>121.0</v>
+        <v>120.0</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
     </row>
     <row r="144" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="n">
-        <v>122.0</v>
+        <v>121.0</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
     </row>
     <row r="145" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="44" t="n">
-        <v>123.0</v>
+        <v>122.0</v>
       </c>
       <c r="B145" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
     </row>
     <row r="146" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="44" t="n">
-        <v>124.0</v>
+        <v>123.0</v>
       </c>
       <c r="B146" s="43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
     </row>
     <row r="147" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="44" t="n">
-        <v>125.0</v>
+        <v>124.0</v>
       </c>
       <c r="B147" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
     </row>
     <row r="148" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="44" t="n">
-        <v>126.0</v>
+        <v>125.0</v>
       </c>
       <c r="B148" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
     </row>
     <row r="149" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="44" t="n">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
@@ -38802,7 +38813,7 @@
         <v>127.0</v>
       </c>
       <c r="B150" s="97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
@@ -38812,7 +38823,7 @@
         <v>128.0</v>
       </c>
       <c r="B151" s="70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
@@ -38821,888 +38832,888 @@
       <c r="A152" s="44" t="n">
         <v>129.0</v>
       </c>
-      <c r="B152" s="92" t="s">
-        <v>197</v>
+      <c r="B152" s="98" t="s">
+        <v>195</v>
       </c>
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
     </row>
     <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="n">
-        <v>130.0</v>
+        <v>129.0</v>
       </c>
       <c r="B153" s="43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
     </row>
     <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="n">
-        <v>131.0</v>
+        <v>130.0</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
     </row>
     <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="n">
-        <v>132.0</v>
+        <v>131.0</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
     </row>
     <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="n">
-        <v>133.0</v>
+        <v>132.0</v>
       </c>
       <c r="B156" s="43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C156" s="37"/>
       <c r="D156" s="37"/>
     </row>
     <row r="157" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="n">
-        <v>134.0</v>
+        <v>133.0</v>
       </c>
       <c r="B157" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
     </row>
     <row r="158" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="n">
-        <v>135.0</v>
+        <v>134.0</v>
       </c>
       <c r="B158" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
     </row>
     <row r="159" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="n">
-        <v>136.0</v>
+        <v>135.0</v>
       </c>
       <c r="B159" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C159" s="37"/>
       <c r="D159" s="37"/>
     </row>
     <row r="160" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="n">
-        <v>137.0</v>
+        <v>136.0</v>
       </c>
       <c r="B160" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
     </row>
     <row r="161" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="n">
-        <v>138.0</v>
+        <v>137.0</v>
       </c>
       <c r="B161" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
     </row>
     <row r="162" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="n">
-        <v>139.0</v>
+        <v>138.0</v>
       </c>
       <c r="B162" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
     </row>
     <row r="163" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="n">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="B163" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
     </row>
     <row r="164" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="n">
-        <v>141.0</v>
+        <v>140.0</v>
       </c>
       <c r="B164" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
     </row>
     <row r="165" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="n">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="B165" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
     </row>
     <row r="166" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="n">
-        <v>143.0</v>
+        <v>142.0</v>
       </c>
       <c r="B166" s="43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C166" s="37"/>
       <c r="D166" s="37"/>
     </row>
     <row r="167" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="n">
-        <v>144.0</v>
+        <v>143.0</v>
       </c>
       <c r="B167" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
     </row>
     <row r="168" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="n">
-        <v>145.0</v>
+        <v>144.0</v>
       </c>
       <c r="B168" s="43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C168" s="37"/>
       <c r="D168" s="37"/>
     </row>
     <row r="169" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="n">
-        <v>146.0</v>
+        <v>145.0</v>
       </c>
       <c r="B169" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C169" s="37"/>
       <c r="D169" s="37"/>
     </row>
     <row r="170" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="n">
-        <v>147.0</v>
+        <v>146.0</v>
       </c>
       <c r="B170" s="43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
     </row>
     <row r="171" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="n">
-        <v>148.0</v>
+        <v>147.0</v>
       </c>
       <c r="B171" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
     </row>
     <row r="172" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="n">
-        <v>149.0</v>
+        <v>148.0</v>
       </c>
       <c r="B172" s="43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
     </row>
     <row r="173" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="n">
-        <v>150.0</v>
+        <v>149.0</v>
       </c>
       <c r="B173" s="43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
     </row>
     <row r="174" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="n">
-        <v>151.0</v>
+        <v>150.0</v>
       </c>
       <c r="B174" s="43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C174" s="37"/>
       <c r="D174" s="37"/>
     </row>
     <row r="175" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="n">
-        <v>152.0</v>
+        <v>151.0</v>
       </c>
       <c r="B175" s="43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C175" s="37"/>
       <c r="D175" s="37"/>
     </row>
     <row r="176" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="n">
-        <v>153.0</v>
+        <v>152.0</v>
       </c>
       <c r="B176" s="43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C176" s="37"/>
       <c r="D176" s="37"/>
     </row>
     <row r="177" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="n">
-        <v>154.0</v>
+        <v>153.0</v>
       </c>
       <c r="B177" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C177" s="37"/>
       <c r="D177" s="37"/>
     </row>
     <row r="178" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="n">
-        <v>155.0</v>
+        <v>154.0</v>
       </c>
       <c r="B178" s="43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C178" s="37"/>
       <c r="D178" s="37"/>
     </row>
     <row r="179" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="44" t="n">
-        <v>156.0</v>
+        <v>155.0</v>
       </c>
       <c r="B179" s="43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C179" s="37"/>
       <c r="D179" s="37"/>
     </row>
     <row r="180" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="44" t="n">
-        <v>157.0</v>
+        <v>156.0</v>
       </c>
       <c r="B180" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="37"/>
     </row>
     <row r="181" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="n">
-        <v>158.0</v>
+        <v>157.0</v>
       </c>
       <c r="B181" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C181" s="40"/>
       <c r="D181" s="40"/>
     </row>
     <row r="182" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="n">
-        <v>159.0</v>
+        <v>158.0</v>
       </c>
       <c r="B182" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C182" s="40"/>
       <c r="D182" s="40"/>
     </row>
     <row r="183" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="n">
-        <v>160.0</v>
+        <v>159.0</v>
       </c>
       <c r="B183" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C183" s="40"/>
       <c r="D183" s="40"/>
     </row>
     <row r="184" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="44" t="n">
-        <v>161.0</v>
+        <v>160.0</v>
       </c>
       <c r="B184" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C184" s="40"/>
       <c r="D184" s="40"/>
     </row>
     <row r="185" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="44" t="n">
-        <v>162.0</v>
+        <v>161.0</v>
       </c>
       <c r="B185" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C185" s="40"/>
       <c r="D185" s="40"/>
     </row>
     <row r="186" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="44" t="n">
-        <v>163.0</v>
+        <v>162.0</v>
       </c>
       <c r="B186" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C186" s="40"/>
       <c r="D186" s="40"/>
     </row>
     <row r="187" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="n">
-        <v>164.0</v>
+        <v>163.0</v>
       </c>
       <c r="B187" s="43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C187" s="40"/>
       <c r="D187" s="40"/>
     </row>
     <row r="188" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="n">
-        <v>165.0</v>
+        <v>164.0</v>
       </c>
       <c r="B188" s="47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C188" s="40"/>
       <c r="D188" s="40"/>
     </row>
     <row r="189" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="n">
-        <v>166.0</v>
+        <v>165.0</v>
       </c>
       <c r="B189" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C189" s="40"/>
       <c r="D189" s="40"/>
     </row>
     <row r="190" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="n">
-        <v>167.0</v>
+        <v>166.0</v>
       </c>
       <c r="B190" s="47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C190" s="24"/>
       <c r="D190" s="40"/>
     </row>
     <row r="191" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="n">
-        <v>168.0</v>
+        <v>167.0</v>
       </c>
       <c r="B191" s="43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="40"/>
     </row>
     <row r="192" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="n">
-        <v>169.0</v>
+        <v>168.0</v>
       </c>
       <c r="B192" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="40"/>
     </row>
     <row r="193" spans="1:4" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="n">
-        <v>170.0</v>
+        <v>169.0</v>
       </c>
       <c r="B193" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="40"/>
     </row>
     <row r="194" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="n">
-        <v>171.0</v>
+        <v>170.0</v>
       </c>
       <c r="B194" s="43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C194" s="24"/>
       <c r="D194" s="40"/>
     </row>
     <row r="195" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="n">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="B195" s="43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C195" s="24"/>
       <c r="D195" s="40"/>
     </row>
     <row r="196" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="n">
-        <v>173.0</v>
+        <v>172.0</v>
       </c>
       <c r="B196" s="43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="40"/>
     </row>
     <row r="197" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="n">
-        <v>174.0</v>
+        <v>173.0</v>
       </c>
       <c r="B197" s="43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="40"/>
     </row>
     <row r="198" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="n">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
       <c r="B198" s="43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="40"/>
     </row>
     <row r="199" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="44" t="n">
-        <v>176.0</v>
+        <v>175.0</v>
       </c>
       <c r="B199" s="43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="40"/>
     </row>
     <row r="200" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="44" t="n">
-        <v>177.0</v>
+        <v>176.0</v>
       </c>
       <c r="B200" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="40"/>
     </row>
     <row r="201" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="n">
-        <v>178.0</v>
+        <v>177.0</v>
       </c>
       <c r="B201" s="43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C201" s="24"/>
       <c r="D201" s="40"/>
     </row>
     <row r="202" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="n">
-        <v>179.0</v>
+        <v>178.0</v>
       </c>
       <c r="B202" s="43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C202" s="24"/>
       <c r="D202" s="40"/>
     </row>
     <row r="203" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="n">
-        <v>180.0</v>
+        <v>179.0</v>
       </c>
       <c r="B203" s="43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C203" s="24"/>
       <c r="D203" s="40"/>
     </row>
     <row r="204" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="44" t="n">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="B204" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C204" s="24"/>
       <c r="D204" s="40"/>
     </row>
     <row r="205" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="44" t="n">
-        <v>182.0</v>
+        <v>181.0</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="40"/>
     </row>
     <row r="206" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="n">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
       <c r="B206" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="40"/>
     </row>
     <row r="207" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="44" t="n">
-        <v>184.0</v>
+        <v>183.0</v>
       </c>
       <c r="B207" s="43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="40"/>
     </row>
     <row r="208" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="44" t="n">
-        <v>185.0</v>
+        <v>184.0</v>
       </c>
       <c r="B208" s="43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="40"/>
     </row>
     <row r="209" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="n">
-        <v>186.0</v>
+        <v>185.0</v>
       </c>
       <c r="B209" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C209" s="40"/>
       <c r="D209" s="40"/>
     </row>
     <row r="210" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="44" t="n">
-        <v>187.0</v>
+        <v>186.0</v>
       </c>
       <c r="B210" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C210" s="40"/>
       <c r="D210" s="40"/>
     </row>
     <row r="211" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="44" t="n">
-        <v>188.0</v>
+        <v>187.0</v>
       </c>
       <c r="B211" s="43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C211" s="40"/>
       <c r="D211" s="40"/>
     </row>
     <row r="212" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="n">
-        <v>189.0</v>
+        <v>188.0</v>
       </c>
       <c r="B212" s="43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C212" s="40"/>
       <c r="D212" s="40"/>
     </row>
     <row r="213" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="n">
-        <v>190.0</v>
+        <v>189.0</v>
       </c>
       <c r="B213" s="43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C213" s="40"/>
       <c r="D213" s="40"/>
     </row>
     <row r="214" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="44" t="n">
-        <v>191.0</v>
+        <v>190.0</v>
       </c>
       <c r="B214" s="43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C214" s="40"/>
       <c r="D214" s="40"/>
     </row>
     <row r="215" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="44" t="n">
-        <v>192.0</v>
+        <v>191.0</v>
       </c>
       <c r="B215" s="43" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C215" s="40"/>
       <c r="D215" s="40"/>
     </row>
     <row r="216" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="n">
-        <v>193.0</v>
+        <v>192.0</v>
       </c>
       <c r="B216" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C216" s="40"/>
       <c r="D216" s="40"/>
     </row>
     <row r="217" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="n">
-        <v>194.0</v>
+        <v>193.0</v>
       </c>
       <c r="B217" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C217" s="40"/>
       <c r="D217" s="40"/>
     </row>
     <row r="218" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="44" t="n">
-        <v>195.0</v>
+        <v>194.0</v>
       </c>
       <c r="B218" s="43" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C218" s="40"/>
       <c r="D218" s="40"/>
     </row>
     <row r="219" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="44" t="n">
-        <v>196.0</v>
+        <v>195.0</v>
       </c>
       <c r="B219" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C219" s="40"/>
       <c r="D219" s="40"/>
     </row>
     <row r="220" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="42" t="n">
-        <v>197.0</v>
+        <v>196.0</v>
       </c>
       <c r="B220" s="43" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C220" s="40"/>
       <c r="D220" s="40"/>
     </row>
     <row r="221" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="45" t="n">
-        <v>198.0</v>
+        <v>197.0</v>
       </c>
       <c r="B221" s="47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C221" s="40"/>
       <c r="D221" s="40"/>
     </row>
     <row r="222" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="n">
-        <v>199.0</v>
+        <v>198.0</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C222" s="40"/>
       <c r="D222" s="40"/>
     </row>
     <row r="223" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="n">
-        <v>200.0</v>
+        <v>199.0</v>
       </c>
       <c r="B223" s="47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C223" s="37"/>
       <c r="D223" s="37"/>
     </row>
     <row r="224" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="45" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="B224" s="43" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C224" s="37"/>
       <c r="D224" s="37"/>
     </row>
     <row r="225" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="n">
-        <v>202.0</v>
+        <v>201.0</v>
       </c>
       <c r="B225" s="43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C225" s="37"/>
       <c r="D225" s="37"/>
     </row>
     <row r="226" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="n">
-        <v>203.0</v>
+        <v>202.0</v>
       </c>
       <c r="B226" s="43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C226" s="37"/>
       <c r="D226" s="37"/>
     </row>
     <row r="227" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="n">
-        <v>204.0</v>
+        <v>203.0</v>
       </c>
       <c r="B227" s="43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C227" s="37"/>
       <c r="D227" s="37"/>
     </row>
     <row r="228" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="38" t="n">
-        <v>205.0</v>
+        <v>204.0</v>
       </c>
       <c r="B228" s="43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C228" s="37"/>
       <c r="D228" s="37"/>
     </row>
     <row r="229" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="n">
-        <v>206.0</v>
+        <v>205.0</v>
       </c>
       <c r="B229" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C229" s="37"/>
       <c r="D229" s="37"/>
     </row>
     <row r="230" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="44" t="n">
-        <v>207.0</v>
+        <v>206.0</v>
       </c>
       <c r="B230" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C230" s="37"/>
       <c r="D230" s="37"/>
     </row>
     <row r="231" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="44" t="n">
-        <v>208.0</v>
+        <v>207.0</v>
       </c>
       <c r="B231" s="43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C231" s="37"/>
       <c r="D231" s="37"/>
     </row>
     <row r="232" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="44" t="n">
-        <v>209.0</v>
+        <v>208.0</v>
       </c>
       <c r="B232" s="47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C232" s="37"/>
       <c r="D232" s="37"/>
     </row>
     <row r="233" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="44" t="n">
-        <v>210.0</v>
+        <v>209.0</v>
       </c>
       <c r="B233" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C233" s="37"/>
       <c r="D233" s="37"/>
     </row>
     <row r="234" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="44" t="n">
-        <v>211.0</v>
+        <v>210.0</v>
       </c>
       <c r="B234" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C234" s="37"/>
       <c r="D234" s="37"/>
     </row>
     <row r="235" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="44" t="n">
-        <v>212.0</v>
+        <v>211.0</v>
       </c>
       <c r="B235" s="47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C235" s="37"/>
       <c r="D235" s="37"/>
     </row>
     <row r="236" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="44" t="n">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C236" s="37"/>
       <c r="D236" s="37"/>
     </row>
     <row r="237" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="44" t="n">
-        <v>214.0</v>
+        <v>213.0</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C237" s="37"/>
       <c r="D237" s="37"/>
     </row>
     <row r="238" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="44" t="n">
-        <v>215.0</v>
+        <v>214.0</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C238" s="37"/>
       <c r="D238" s="37"/>
     </row>
     <row r="239" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="44" t="n">
-        <v>216.0</v>
+        <v>215.0</v>
       </c>
       <c r="B239" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C239" s="37"/>
       <c r="D239" s="37"/>
     </row>
     <row r="240" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="44" t="n">
-        <v>217.0</v>
+        <v>216.0</v>
       </c>
       <c r="B240" s="95" t="s">
-        <v>561</v>
+        <v>257</v>
       </c>
       <c r="C240" s="37"/>
       <c r="D240" s="37"/>
@@ -39712,7 +39723,7 @@
         <v>217.0</v>
       </c>
       <c r="B241" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C241" s="37"/>
       <c r="D241" s="37"/>
@@ -39722,7 +39733,7 @@
         <v>218.0</v>
       </c>
       <c r="B242" s="92" t="s">
-        <v>285</v>
+        <v>561</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="37"/>
@@ -39731,658 +39742,658 @@
       <c r="A243" s="44" t="n">
         <v>219.0</v>
       </c>
-      <c r="B243" s="43" t="s">
-        <v>286</v>
+      <c r="B243" s="98" t="s">
+        <v>284</v>
       </c>
       <c r="C243" s="37"/>
       <c r="D243" s="37"/>
     </row>
     <row r="244" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="44" t="n">
-        <v>220.0</v>
+        <v>219.0</v>
       </c>
       <c r="B244" s="43" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C244" s="37"/>
       <c r="D244" s="37"/>
     </row>
     <row r="245" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="44" t="n">
-        <v>221.0</v>
+        <v>220.0</v>
       </c>
       <c r="B245" s="43" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C245" s="37"/>
       <c r="D245" s="37"/>
     </row>
     <row r="246" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="44" t="n">
-        <v>222.0</v>
+        <v>221.0</v>
       </c>
       <c r="B246" s="43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C246" s="37"/>
       <c r="D246" s="37"/>
     </row>
     <row r="247" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="44" t="n">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="B247" s="43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C247" s="37"/>
       <c r="D247" s="37"/>
     </row>
     <row r="248" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="44" t="n">
-        <v>224.0</v>
+        <v>223.0</v>
       </c>
       <c r="B248" s="43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C248" s="37"/>
       <c r="D248" s="37"/>
     </row>
     <row r="249" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="44" t="n">
-        <v>225.0</v>
+        <v>224.0</v>
       </c>
       <c r="B249" s="43" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C249" s="37"/>
       <c r="D249" s="37"/>
     </row>
     <row r="250" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="42" t="n">
-        <v>226.0</v>
+        <v>225.0</v>
       </c>
       <c r="B250" s="43" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C250" s="37"/>
       <c r="D250" s="37"/>
     </row>
     <row r="251" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="44" t="n">
-        <v>227.0</v>
+        <v>226.0</v>
       </c>
       <c r="B251" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C251" s="37"/>
       <c r="D251" s="37"/>
     </row>
     <row r="252" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="44" t="n">
-        <v>228.0</v>
+        <v>227.0</v>
       </c>
       <c r="B252" s="43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C252" s="37"/>
       <c r="D252" s="37"/>
     </row>
     <row r="253" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="44" t="n">
-        <v>229.0</v>
+        <v>228.0</v>
       </c>
       <c r="B253" s="43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C253" s="37"/>
       <c r="D253" s="37"/>
     </row>
     <row r="254" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="44" t="n">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="B254" s="43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C254" s="37"/>
       <c r="D254" s="37"/>
     </row>
     <row r="255" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="44" t="n">
-        <v>231.0</v>
+        <v>230.0</v>
       </c>
       <c r="B255" s="43" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C255" s="37"/>
       <c r="D255" s="37"/>
     </row>
     <row r="256" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="44" t="n">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="B256" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C256" s="37"/>
       <c r="D256" s="37"/>
     </row>
     <row r="257" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="44" t="n">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="B257" s="43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C257" s="37"/>
       <c r="D257" s="37"/>
     </row>
     <row r="258" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="44" t="n">
-        <v>234.0</v>
+        <v>233.0</v>
       </c>
       <c r="B258" s="43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C258" s="37"/>
       <c r="D258" s="37"/>
     </row>
     <row r="259" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="44" t="n">
-        <v>235.0</v>
+        <v>234.0</v>
       </c>
       <c r="B259" s="43" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C259" s="37"/>
       <c r="D259" s="37"/>
     </row>
     <row r="260" spans="1:4" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="44" t="n">
-        <v>236.0</v>
+        <v>235.0</v>
       </c>
       <c r="B260" s="43" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C260" s="37"/>
       <c r="D260" s="37"/>
     </row>
     <row r="261" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="44" t="n">
-        <v>237.0</v>
+        <v>236.0</v>
       </c>
       <c r="B261" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C261" s="37"/>
       <c r="D261" s="37"/>
     </row>
     <row r="262" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="44" t="n">
-        <v>238.0</v>
+        <v>237.0</v>
       </c>
       <c r="B262" s="43" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C262" s="37"/>
       <c r="D262" s="37"/>
     </row>
     <row r="263" spans="1:4" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="44" t="n">
-        <v>239.0</v>
+        <v>238.0</v>
       </c>
       <c r="B263" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C263" s="37"/>
       <c r="D263" s="37"/>
     </row>
     <row r="264" spans="1:4" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="44" t="n">
-        <v>240.0</v>
+        <v>239.0</v>
       </c>
       <c r="B264" s="43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C264" s="37"/>
       <c r="D264" s="37"/>
     </row>
     <row r="265" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="42" t="n">
-        <v>241.0</v>
+        <v>240.0</v>
       </c>
       <c r="B265" s="43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C265" s="37"/>
       <c r="D265" s="37"/>
     </row>
     <row r="266" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="44" t="n">
-        <v>242.0</v>
+        <v>241.0</v>
       </c>
       <c r="B266" s="43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C266" s="37"/>
       <c r="D266" s="37"/>
     </row>
     <row r="267" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="42" t="n">
-        <v>243.0</v>
+        <v>242.0</v>
       </c>
       <c r="B267" s="43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C267" s="37"/>
       <c r="D267" s="37"/>
     </row>
     <row r="268" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="44" t="n">
-        <v>244.0</v>
+        <v>243.0</v>
       </c>
       <c r="B268" s="43" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C268" s="37"/>
       <c r="D268" s="37"/>
     </row>
     <row r="269" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="44" t="n">
-        <v>245.0</v>
+        <v>244.0</v>
       </c>
       <c r="B269" s="43" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C269" s="37"/>
       <c r="D269" s="37"/>
     </row>
     <row r="270" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="44" t="n">
-        <v>246.0</v>
+        <v>245.0</v>
       </c>
       <c r="B270" s="43" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C270" s="37"/>
       <c r="D270" s="37"/>
     </row>
     <row r="271" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="42" t="n">
-        <v>247.0</v>
+        <v>246.0</v>
       </c>
       <c r="B271" s="43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C271" s="37"/>
       <c r="D271" s="37"/>
     </row>
     <row r="272" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="44" t="n">
-        <v>248.0</v>
+        <v>247.0</v>
       </c>
       <c r="B272" s="43" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C272" s="37"/>
       <c r="D272" s="37"/>
     </row>
     <row r="273" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="44" t="n">
-        <v>249.0</v>
+        <v>248.0</v>
       </c>
       <c r="B273" s="43" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C273" s="37"/>
       <c r="D273" s="37"/>
     </row>
     <row r="274" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="44" t="n">
-        <v>250.0</v>
+        <v>249.0</v>
       </c>
       <c r="B274" s="43" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C274" s="37"/>
       <c r="D274" s="37"/>
     </row>
     <row r="275" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="44" t="n">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="B275" s="43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C275" s="37"/>
       <c r="D275" s="37"/>
     </row>
     <row r="276" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="42" t="n">
-        <v>252.0</v>
+        <v>251.0</v>
       </c>
       <c r="B276" s="43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C276" s="37"/>
       <c r="D276" s="37"/>
     </row>
     <row r="277" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="44" t="n">
-        <v>253.0</v>
+        <v>252.0</v>
       </c>
       <c r="B277" s="43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C277" s="37"/>
       <c r="D277" s="37"/>
     </row>
     <row r="278" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="44" t="n">
-        <v>254.0</v>
+        <v>253.0</v>
       </c>
       <c r="B278" s="43" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C278" s="37"/>
       <c r="D278" s="37"/>
     </row>
     <row r="279" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="44" t="n">
-        <v>255.0</v>
+        <v>254.0</v>
       </c>
       <c r="B279" s="43" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C279" s="37"/>
       <c r="D279" s="37"/>
     </row>
     <row r="280" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="44" t="n">
-        <v>256.0</v>
+        <v>255.0</v>
       </c>
       <c r="B280" s="43" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C280" s="37"/>
       <c r="D280" s="37"/>
     </row>
     <row r="281" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="44" t="n">
-        <v>257.0</v>
+        <v>256.0</v>
       </c>
       <c r="B281" s="43" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C281" s="37"/>
       <c r="D281" s="37"/>
     </row>
     <row r="282" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="44" t="n">
-        <v>258.0</v>
+        <v>257.0</v>
       </c>
       <c r="B282" s="43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C282" s="37"/>
       <c r="D282" s="37"/>
     </row>
     <row r="283" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="44" t="n">
-        <v>259.0</v>
+        <v>258.0</v>
       </c>
       <c r="B283" s="43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C283" s="37"/>
       <c r="D283" s="37"/>
     </row>
     <row r="284" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="44" t="n">
-        <v>260.0</v>
+        <v>259.0</v>
       </c>
       <c r="B284" s="43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C284" s="37"/>
       <c r="D284" s="37"/>
     </row>
     <row r="285" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="44" t="n">
-        <v>261.0</v>
+        <v>260.0</v>
       </c>
       <c r="B285" s="43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C285" s="37"/>
       <c r="D285" s="37"/>
     </row>
     <row r="286" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="42" t="n">
-        <v>262.0</v>
+        <v>261.0</v>
       </c>
       <c r="B286" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C286" s="37"/>
       <c r="D286" s="37"/>
     </row>
     <row r="287" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="44" t="n">
-        <v>263.0</v>
+        <v>262.0</v>
       </c>
       <c r="B287" s="43" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C287" s="37"/>
       <c r="D287" s="37"/>
     </row>
     <row r="288" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="44" t="n">
-        <v>264.0</v>
+        <v>263.0</v>
       </c>
       <c r="B288" s="43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C288" s="37"/>
       <c r="D288" s="37"/>
     </row>
     <row r="289" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="44" t="n">
-        <v>265.0</v>
+        <v>264.0</v>
       </c>
       <c r="B289" s="43" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C289" s="37"/>
       <c r="D289" s="37"/>
     </row>
     <row r="290" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="44" t="n">
-        <v>266.0</v>
+        <v>265.0</v>
       </c>
       <c r="B290" s="43" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C290" s="37"/>
       <c r="D290" s="37"/>
     </row>
     <row r="291" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="44" t="n">
-        <v>267.0</v>
+        <v>266.0</v>
       </c>
       <c r="B291" s="43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C291" s="37"/>
       <c r="D291" s="37"/>
     </row>
     <row r="292" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="44" t="n">
-        <v>268.0</v>
+        <v>267.0</v>
       </c>
       <c r="B292" s="43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C292" s="37"/>
       <c r="D292" s="37"/>
     </row>
     <row r="293" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="44" t="n">
-        <v>269.0</v>
+        <v>268.0</v>
       </c>
       <c r="B293" s="43" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C293" s="37"/>
       <c r="D293" s="37"/>
     </row>
     <row r="294" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="42" t="n">
-        <v>270.0</v>
+        <v>269.0</v>
       </c>
       <c r="B294" s="43" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C294" s="37"/>
       <c r="D294" s="37"/>
     </row>
     <row r="295" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="44" t="n">
-        <v>271.0</v>
+        <v>270.0</v>
       </c>
       <c r="B295" s="43" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C295" s="37"/>
       <c r="D295" s="37"/>
     </row>
     <row r="296" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="44" t="n">
-        <v>272.0</v>
+        <v>271.0</v>
       </c>
       <c r="B296" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C296" s="37"/>
       <c r="D296" s="37"/>
     </row>
     <row r="297" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="44" t="n">
-        <v>273.0</v>
+        <v>272.0</v>
       </c>
       <c r="B297" s="43" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C297" s="37"/>
       <c r="D297" s="37"/>
     </row>
     <row r="298" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="44" t="n">
-        <v>274.0</v>
+        <v>273.0</v>
       </c>
       <c r="B298" s="43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C298" s="37"/>
       <c r="D298" s="37"/>
     </row>
     <row r="299" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="44" t="n">
-        <v>275.0</v>
+        <v>274.0</v>
       </c>
       <c r="B299" s="43" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C299" s="37"/>
       <c r="D299" s="37"/>
     </row>
     <row r="300" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="44" t="n">
-        <v>276.0</v>
+        <v>275.0</v>
       </c>
       <c r="B300" s="43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C300" s="37"/>
       <c r="D300" s="37"/>
     </row>
     <row r="301" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="44" t="n">
-        <v>277.0</v>
+        <v>276.0</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C301" s="37"/>
       <c r="D301" s="37"/>
     </row>
     <row r="302" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="44" t="n">
-        <v>278.0</v>
+        <v>277.0</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C302" s="37"/>
       <c r="D302" s="37"/>
     </row>
     <row r="303" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="44" t="n">
-        <v>279.0</v>
+        <v>278.0</v>
       </c>
       <c r="B303" s="43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C303" s="37"/>
       <c r="D303" s="37"/>
     </row>
     <row r="304" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="44" t="n">
-        <v>280.0</v>
+        <v>279.0</v>
       </c>
       <c r="B304" s="43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C304" s="37"/>
       <c r="D304" s="37"/>
     </row>
     <row r="305" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="44" t="n">
-        <v>281.0</v>
+        <v>280.0</v>
       </c>
       <c r="B305" s="43" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C305" s="37"/>
       <c r="D305" s="37"/>
     </row>
     <row r="306" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="44" t="n">
-        <v>282.0</v>
+        <v>281.0</v>
       </c>
       <c r="B306" s="43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C306" s="37"/>
       <c r="D306" s="37"/>
     </row>
     <row r="307" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="44" t="n">
-        <v>283.0</v>
+        <v>282.0</v>
       </c>
       <c r="B307" s="43" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C307" s="37"/>
       <c r="D307" s="37"/>
     </row>
     <row r="308" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="44" t="n">
-        <v>284.0</v>
+        <v>283.0</v>
       </c>
       <c r="B308" s="95" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C308" s="37"/>
       <c r="D308" s="37"/>
@@ -40392,7 +40403,7 @@
         <v>284.0</v>
       </c>
       <c r="B309" s="97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C309" s="37"/>
       <c r="D309" s="37"/>
@@ -40402,7 +40413,7 @@
         <v>285.0</v>
       </c>
       <c r="B310" s="92" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C310" s="37"/>
       <c r="D310" s="37"/>
@@ -40411,198 +40422,198 @@
       <c r="A311" s="44" t="n">
         <v>286.0</v>
       </c>
-      <c r="B311" s="43" t="s">
-        <v>354</v>
+      <c r="B311" s="98" t="s">
+        <v>352</v>
       </c>
       <c r="C311" s="37"/>
       <c r="D311" s="37"/>
     </row>
     <row r="312" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="44" t="n">
-        <v>287.0</v>
+        <v>286.0</v>
       </c>
       <c r="B312" s="43" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C312" s="37"/>
       <c r="D312" s="37"/>
     </row>
     <row r="313" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="44" t="n">
-        <v>288.0</v>
+        <v>287.0</v>
       </c>
       <c r="B313" s="43" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C313" s="37"/>
       <c r="D313" s="37"/>
     </row>
     <row r="314" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="42" t="n">
-        <v>289.0</v>
+        <v>288.0</v>
       </c>
       <c r="B314" s="43" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C314" s="37"/>
       <c r="D314" s="37"/>
     </row>
     <row r="315" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="44" t="n">
-        <v>290.0</v>
+        <v>289.0</v>
       </c>
       <c r="B315" s="43" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C315" s="37"/>
       <c r="D315" s="37"/>
     </row>
     <row r="316" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="42" t="n">
-        <v>291.0</v>
+        <v>290.0</v>
       </c>
       <c r="B316" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C316" s="38"/>
       <c r="D316" s="38"/>
     </row>
     <row r="317" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="42" t="n">
-        <v>292.0</v>
+        <v>291.0</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C317" s="37"/>
       <c r="D317" s="37"/>
     </row>
     <row r="318" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="44" t="n">
-        <v>293.0</v>
+        <v>292.0</v>
       </c>
       <c r="B318" s="43" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C318" s="37"/>
       <c r="D318" s="37"/>
     </row>
     <row r="319" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="44" t="n">
-        <v>294.0</v>
+        <v>293.0</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C319" s="37"/>
       <c r="D319" s="37"/>
     </row>
     <row r="320" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="44" t="n">
-        <v>295.0</v>
+        <v>294.0</v>
       </c>
       <c r="B320" s="43" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C320" s="37"/>
       <c r="D320" s="37"/>
     </row>
     <row r="321" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="44" t="n">
-        <v>296.0</v>
+        <v>295.0</v>
       </c>
       <c r="B321" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C321" s="37"/>
       <c r="D321" s="37"/>
     </row>
     <row r="322" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="44" t="n">
-        <v>297.0</v>
+        <v>296.0</v>
       </c>
       <c r="B322" s="43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C322" s="37"/>
       <c r="D322" s="37"/>
     </row>
     <row r="323" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="44" t="n">
-        <v>298.0</v>
+        <v>297.0</v>
       </c>
       <c r="B323" s="43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C323" s="37"/>
       <c r="D323" s="37"/>
     </row>
     <row r="324" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="44" t="n">
-        <v>299.0</v>
+        <v>298.0</v>
       </c>
       <c r="B324" s="43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C324" s="37"/>
       <c r="D324" s="37"/>
     </row>
     <row r="325" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="44" t="n">
-        <v>300.0</v>
+        <v>299.0</v>
       </c>
       <c r="B325" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C325" s="37"/>
       <c r="D325" s="37"/>
     </row>
     <row r="326" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="44" t="n">
-        <v>301.0</v>
+        <v>300.0</v>
       </c>
       <c r="B326" s="43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C326" s="37"/>
       <c r="D326" s="37"/>
     </row>
     <row r="327" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="44" t="n">
-        <v>302.0</v>
+        <v>301.0</v>
       </c>
       <c r="B327" s="43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C327" s="37"/>
       <c r="D327" s="37"/>
     </row>
     <row r="328" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="44" t="n">
-        <v>303.0</v>
+        <v>302.0</v>
       </c>
       <c r="B328" s="43" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C328" s="37"/>
       <c r="D328" s="37"/>
     </row>
     <row r="329" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="44" t="n">
-        <v>304.0</v>
+        <v>303.0</v>
       </c>
       <c r="B329" s="43" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C329" s="37"/>
       <c r="D329" s="37"/>
     </row>
     <row r="330" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="44" t="n">
-        <v>305.0</v>
+        <v>304.0</v>
       </c>
       <c r="B330" s="95" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C330" s="37"/>
       <c r="D330" s="37"/>
@@ -40612,7 +40623,7 @@
         <v>305.0</v>
       </c>
       <c r="B331" s="97" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C331" s="37"/>
       <c r="D331" s="37"/>
@@ -40622,7 +40633,7 @@
         <v>306.0</v>
       </c>
       <c r="B332" s="92" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C332" s="37"/>
       <c r="D332" s="37"/>
@@ -40631,295 +40642,295 @@
       <c r="A333" s="44" t="n">
         <v>307.0</v>
       </c>
-      <c r="B333" s="43" t="s">
-        <v>376</v>
+      <c r="B333" s="98" t="s">
+        <v>374</v>
       </c>
       <c r="C333" s="37"/>
       <c r="D333" s="37"/>
     </row>
     <row r="334" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="44" t="n">
-        <v>308.0</v>
+        <v>307.0</v>
       </c>
       <c r="B334" s="43" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C334" s="37"/>
       <c r="D334" s="37"/>
     </row>
     <row r="335" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="44" t="n">
-        <v>309.0</v>
+        <v>308.0</v>
       </c>
       <c r="B335" s="43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C335" s="37"/>
       <c r="D335" s="37"/>
     </row>
     <row r="336" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="44" t="n">
-        <v>310.0</v>
+        <v>309.0</v>
       </c>
       <c r="B336" s="43" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C336" s="37"/>
       <c r="D336" s="37"/>
     </row>
     <row r="337" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="44" t="n">
-        <v>311.0</v>
+        <v>310.0</v>
       </c>
       <c r="B337" s="43" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C337" s="37"/>
       <c r="D337" s="37"/>
     </row>
     <row r="338" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="42" t="n">
-        <v>312.0</v>
+        <v>311.0</v>
       </c>
       <c r="B338" s="43" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C338" s="37"/>
       <c r="D338" s="37"/>
     </row>
     <row r="339" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="44" t="n">
-        <v>313.0</v>
+        <v>312.0</v>
       </c>
       <c r="B339" s="43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C339" s="37"/>
       <c r="D339" s="37"/>
     </row>
     <row r="340" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="44" t="n">
-        <v>314.0</v>
+        <v>313.0</v>
       </c>
       <c r="B340" s="43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C340" s="37"/>
       <c r="D340" s="37"/>
     </row>
     <row r="341" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="44" t="n">
-        <v>315.0</v>
+        <v>314.0</v>
       </c>
       <c r="B341" s="43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C341" s="37"/>
       <c r="D341" s="37"/>
     </row>
     <row r="342" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="44" t="n">
-        <v>316.0</v>
+        <v>315.0</v>
       </c>
       <c r="B342" s="43" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C342" s="37"/>
       <c r="D342" s="37"/>
     </row>
     <row r="343" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="44" t="n">
-        <v>317.0</v>
+        <v>316.0</v>
       </c>
       <c r="B343" s="43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C343" s="37"/>
       <c r="D343" s="37"/>
     </row>
     <row r="344" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="44" t="n">
-        <v>318.0</v>
+        <v>317.0</v>
       </c>
       <c r="B344" s="43" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C344" s="37"/>
       <c r="D344" s="37"/>
     </row>
     <row r="345" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="44" t="n">
-        <v>319.0</v>
+        <v>318.0</v>
       </c>
       <c r="B345" s="43" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C345" s="37"/>
       <c r="D345" s="37"/>
     </row>
     <row r="346" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="44" t="n">
-        <v>320.0</v>
+        <v>319.0</v>
       </c>
       <c r="B346" s="43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C346" s="37"/>
       <c r="D346" s="37"/>
     </row>
     <row r="347" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="44" t="n">
-        <v>321.0</v>
+        <v>320.0</v>
       </c>
       <c r="B347" s="43" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C347" s="37"/>
       <c r="D347" s="37"/>
     </row>
     <row r="348" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="44" t="n">
-        <v>322.0</v>
+        <v>321.0</v>
       </c>
       <c r="B348" s="43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C348" s="37"/>
       <c r="D348" s="37"/>
     </row>
     <row r="349" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="44" t="n">
-        <v>323.0</v>
+        <v>322.0</v>
       </c>
       <c r="B349" s="43" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C349" s="37"/>
       <c r="D349" s="37"/>
     </row>
     <row r="350" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="44" t="n">
-        <v>324.0</v>
+        <v>323.0</v>
       </c>
       <c r="B350" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C350" s="37"/>
       <c r="D350" s="37"/>
     </row>
     <row r="351" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="44" t="n">
-        <v>325.0</v>
+        <v>324.0</v>
       </c>
       <c r="B351" s="43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C351" s="37"/>
       <c r="D351" s="37"/>
     </row>
     <row r="352" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="44" t="n">
-        <v>326.0</v>
+        <v>325.0</v>
       </c>
       <c r="B352" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C352" s="37"/>
       <c r="D352" s="37"/>
     </row>
     <row r="353" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="44" t="n">
-        <v>327.0</v>
+        <v>326.0</v>
       </c>
       <c r="B353" s="43" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C353" s="37"/>
       <c r="D353" s="37"/>
     </row>
     <row r="354" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="44" t="n">
-        <v>328.0</v>
+        <v>327.0</v>
       </c>
       <c r="B354" s="43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C354" s="37"/>
       <c r="D354" s="37"/>
     </row>
     <row r="355" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="44" t="n">
-        <v>329.0</v>
+        <v>328.0</v>
       </c>
       <c r="B355" s="43" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C355" s="37"/>
       <c r="D355" s="37"/>
     </row>
     <row r="356" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="44" t="n">
-        <v>330.0</v>
+        <v>329.0</v>
       </c>
       <c r="B356" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C356" s="37"/>
       <c r="D356" s="37"/>
     </row>
     <row r="357" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="45" t="n">
-        <v>331.0</v>
+        <v>330.0</v>
       </c>
       <c r="B357" s="43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C357" s="37"/>
       <c r="D357" s="37"/>
     </row>
     <row r="358" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="44" t="n">
-        <v>332.0</v>
+        <v>331.0</v>
       </c>
       <c r="B358" s="43" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C358" s="37"/>
       <c r="D358" s="37"/>
     </row>
     <row r="359" spans="1:4" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="42" t="n">
-        <v>333.0</v>
+        <v>332.0</v>
       </c>
       <c r="B359" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C359" s="38"/>
       <c r="D359" s="38"/>
     </row>
     <row r="360" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="44" t="n">
-        <v>334.0</v>
+        <v>333.0</v>
       </c>
       <c r="B360" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C360" s="37"/>
       <c r="D360" s="37"/>
     </row>
     <row r="361" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="44" t="n">
-        <v>335.0</v>
+        <v>334.0</v>
       </c>
       <c r="B361" s="43" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C361" s="37"/>
       <c r="D361" s="37"/>
     </row>
     <row r="362" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="44" t="n">
-        <v>336.0</v>
+        <v>335.0</v>
       </c>
       <c r="B362" s="43" t="s">
         <v>389</v>
@@ -40929,7 +40940,7 @@
     </row>
     <row r="363" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="44" t="n">
-        <v>337.0</v>
+        <v>336.0</v>
       </c>
       <c r="B363" s="43" t="s">
         <v>390</v>
@@ -40939,50 +40950,50 @@
     </row>
     <row r="364" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="44" t="n">
-        <v>338.0</v>
+        <v>337.0</v>
       </c>
       <c r="B364" s="43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C364" s="37"/>
       <c r="D364" s="37"/>
     </row>
     <row r="365" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="44" t="n">
-        <v>339.0</v>
+        <v>338.0</v>
       </c>
       <c r="B365" s="43" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C365" s="37"/>
       <c r="D365" s="37"/>
     </row>
     <row r="366" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="44" t="n">
-        <v>340.0</v>
+        <v>339.0</v>
       </c>
       <c r="B366" s="43" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C366" s="37"/>
       <c r="D366" s="37"/>
     </row>
     <row r="367" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="44" t="n">
-        <v>341.0</v>
+        <v>340.0</v>
       </c>
       <c r="B367" s="43" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C367" s="37"/>
       <c r="D367" s="37"/>
     </row>
     <row r="368" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="44" t="n">
-        <v>342.0</v>
+        <v>341.0</v>
       </c>
       <c r="B368" s="95" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C368" s="37"/>
       <c r="D368" s="37"/>
@@ -40992,7 +41003,7 @@
         <v>342.0</v>
       </c>
       <c r="B369" s="97" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C369" s="37"/>
       <c r="D369" s="37"/>
@@ -41002,7 +41013,7 @@
         <v>343.0</v>
       </c>
       <c r="B370" s="92" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C370" s="37"/>
       <c r="D370" s="37"/>
@@ -41011,78 +41022,78 @@
       <c r="A371" s="44" t="n">
         <v>344.0</v>
       </c>
-      <c r="B371" s="43" t="s">
-        <v>397</v>
+      <c r="B371" s="98" t="s">
+        <v>395</v>
       </c>
       <c r="C371" s="37"/>
       <c r="D371" s="37"/>
     </row>
     <row r="372" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="44" t="n">
-        <v>345.0</v>
+        <v>344.0</v>
       </c>
       <c r="B372" s="43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C372" s="37"/>
       <c r="D372" s="37"/>
     </row>
     <row r="373" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="44" t="n">
-        <v>346.0</v>
+        <v>345.0</v>
       </c>
       <c r="B373" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C373" s="37"/>
       <c r="D373" s="37"/>
     </row>
     <row r="374" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="44" t="n">
-        <v>347.0</v>
+        <v>346.0</v>
       </c>
       <c r="B374" s="43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C374" s="37"/>
       <c r="D374" s="37"/>
     </row>
     <row r="375" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="44" t="n">
-        <v>348.0</v>
+        <v>347.0</v>
       </c>
       <c r="B375" s="43" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C375" s="37"/>
       <c r="D375" s="37"/>
     </row>
     <row r="376" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="44" t="n">
-        <v>349.0</v>
+        <v>348.0</v>
       </c>
       <c r="B376" s="43" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C376" s="37"/>
       <c r="D376" s="37"/>
     </row>
     <row r="377" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="44" t="n">
-        <v>350.0</v>
+        <v>349.0</v>
       </c>
       <c r="B377" s="43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C377" s="37"/>
       <c r="D377" s="37"/>
     </row>
     <row r="378" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="44" t="n">
-        <v>351.0</v>
+        <v>350.0</v>
       </c>
       <c r="B378" s="95" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C378" s="37"/>
       <c r="D378" s="37"/>
@@ -41092,7 +41103,7 @@
         <v>351.0</v>
       </c>
       <c r="B379" s="97" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C379" s="37"/>
       <c r="D379" s="37"/>
@@ -41102,7 +41113,7 @@
         <v>352.0</v>
       </c>
       <c r="B380" s="92" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C380" s="37"/>
       <c r="D380" s="37"/>
@@ -41111,8 +41122,8 @@
       <c r="A381" s="44" t="n">
         <v>353.0</v>
       </c>
-      <c r="B381" s="95" t="s">
-        <v>407</v>
+      <c r="B381" s="98" t="s">
+        <v>405</v>
       </c>
       <c r="C381" s="37"/>
       <c r="D381" s="37"/>
@@ -41122,7 +41133,7 @@
         <v>353.0</v>
       </c>
       <c r="B382" s="97" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C382" s="37"/>
       <c r="D382" s="37"/>
@@ -41132,7 +41143,7 @@
         <v>354.0</v>
       </c>
       <c r="B383" s="92" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C383" s="37"/>
       <c r="D383" s="37"/>
@@ -41141,28 +41152,28 @@
       <c r="A384" s="44" t="n">
         <v>355.0</v>
       </c>
-      <c r="B384" s="43" t="s">
-        <v>410</v>
+      <c r="B384" s="98" t="s">
+        <v>408</v>
       </c>
       <c r="C384" s="37"/>
       <c r="D384" s="37"/>
     </row>
     <row r="385" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="44" t="n">
-        <v>356.0</v>
+        <v>355.0</v>
       </c>
       <c r="B385" s="43" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C385" s="37"/>
       <c r="D385" s="37"/>
     </row>
     <row r="386" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="44" t="n">
-        <v>357.0</v>
+        <v>356.0</v>
       </c>
       <c r="B386" s="95" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C386" s="37"/>
       <c r="D386" s="37"/>
@@ -41172,7 +41183,7 @@
         <v>357.0</v>
       </c>
       <c r="B387" s="97" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C387" s="37"/>
       <c r="D387" s="37"/>
@@ -41182,7 +41193,7 @@
         <v>358.0</v>
       </c>
       <c r="B388" s="92" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C388" s="37"/>
       <c r="D388" s="37"/>
@@ -41191,805 +41202,805 @@
       <c r="A389" s="44" t="n">
         <v>359.0</v>
       </c>
-      <c r="B389" s="43" t="s">
-        <v>415</v>
+      <c r="B389" s="98" t="s">
+        <v>413</v>
       </c>
       <c r="C389" s="37"/>
       <c r="D389" s="37"/>
     </row>
     <row r="390" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="44" t="n">
-        <v>360.0</v>
+        <v>359.0</v>
       </c>
       <c r="B390" s="43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C390" s="37"/>
       <c r="D390" s="37"/>
     </row>
     <row r="391" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="44" t="n">
-        <v>361.0</v>
+        <v>360.0</v>
       </c>
       <c r="B391" s="43" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C391" s="37"/>
       <c r="D391" s="37"/>
     </row>
     <row r="392" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="44" t="n">
-        <v>362.0</v>
+        <v>361.0</v>
       </c>
       <c r="B392" s="43" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C392" s="37"/>
       <c r="D392" s="37"/>
     </row>
     <row r="393" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="44" t="n">
-        <v>363.0</v>
+        <v>362.0</v>
       </c>
       <c r="B393" s="43" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C393" s="37"/>
       <c r="D393" s="37"/>
     </row>
     <row r="394" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="44" t="n">
-        <v>364.0</v>
+        <v>363.0</v>
       </c>
       <c r="B394" s="43" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C394" s="37"/>
       <c r="D394" s="37"/>
     </row>
     <row r="395" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="44" t="n">
-        <v>365.0</v>
+        <v>364.0</v>
       </c>
       <c r="B395" s="43" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C395" s="37"/>
       <c r="D395" s="37"/>
     </row>
     <row r="396" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="44" t="n">
-        <v>366.0</v>
+        <v>365.0</v>
       </c>
       <c r="B396" s="43" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C396" s="37"/>
       <c r="D396" s="37"/>
     </row>
     <row r="397" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="44" t="n">
-        <v>367.0</v>
+        <v>366.0</v>
       </c>
       <c r="B397" s="43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C397" s="37"/>
       <c r="D397" s="37"/>
     </row>
     <row r="398" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="44" t="n">
-        <v>368.0</v>
+        <v>367.0</v>
       </c>
       <c r="B398" s="43" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C398" s="37"/>
       <c r="D398" s="37"/>
     </row>
     <row r="399" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="44" t="n">
-        <v>369.0</v>
+        <v>368.0</v>
       </c>
       <c r="B399" s="43" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C399" s="37"/>
       <c r="D399" s="37"/>
     </row>
     <row r="400" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="44" t="n">
-        <v>370.0</v>
+        <v>369.0</v>
       </c>
       <c r="B400" s="43" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C400" s="37"/>
       <c r="D400" s="37"/>
     </row>
     <row r="401" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="44" t="n">
-        <v>371.0</v>
+        <v>370.0</v>
       </c>
       <c r="B401" s="43" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C401" s="37"/>
       <c r="D401" s="37"/>
     </row>
     <row r="402" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="44" t="n">
-        <v>372.0</v>
+        <v>371.0</v>
       </c>
       <c r="B402" s="43" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C402" s="37"/>
       <c r="D402" s="37"/>
     </row>
     <row r="403" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="44" t="n">
-        <v>373.0</v>
+        <v>372.0</v>
       </c>
       <c r="B403" s="43" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C403" s="37"/>
       <c r="D403" s="37"/>
     </row>
     <row r="404" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="45" t="n">
-        <v>374.0</v>
+        <v>373.0</v>
       </c>
       <c r="B404" s="49" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C404" s="40"/>
       <c r="D404" s="37"/>
     </row>
     <row r="405" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="44" t="n">
-        <v>375.0</v>
+        <v>374.0</v>
       </c>
       <c r="B405" s="50" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C405" s="40"/>
       <c r="D405" s="37"/>
     </row>
     <row r="406" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="44" t="n">
-        <v>376.0</v>
+        <v>375.0</v>
       </c>
       <c r="B406" s="50" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C406" s="40"/>
       <c r="D406" s="37"/>
     </row>
     <row r="407" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="44" t="n">
-        <v>377.0</v>
+        <v>376.0</v>
       </c>
       <c r="B407" s="50" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C407" s="40"/>
       <c r="D407" s="37"/>
     </row>
     <row r="408" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="44" t="n">
-        <v>378.0</v>
+        <v>377.0</v>
       </c>
       <c r="B408" s="50" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C408" s="24"/>
       <c r="D408" s="37"/>
     </row>
     <row r="409" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="44" t="n">
-        <v>379.0</v>
+        <v>378.0</v>
       </c>
       <c r="B409" s="50" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C409" s="24"/>
       <c r="D409" s="37"/>
     </row>
     <row r="410" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="44" t="n">
-        <v>380.0</v>
+        <v>379.0</v>
       </c>
       <c r="B410" s="43" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C410" s="24"/>
       <c r="D410" s="37"/>
     </row>
     <row r="411" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="44" t="n">
-        <v>381.0</v>
+        <v>380.0</v>
       </c>
       <c r="B411" s="43" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C411" s="24"/>
       <c r="D411" s="37"/>
     </row>
     <row r="412" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="44" t="n">
-        <v>382.0</v>
+        <v>381.0</v>
       </c>
       <c r="B412" s="43" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C412" s="24"/>
       <c r="D412" s="37"/>
     </row>
     <row r="413" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="44" t="n">
-        <v>383.0</v>
+        <v>382.0</v>
       </c>
       <c r="B413" s="50" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C413" s="24"/>
       <c r="D413" s="37"/>
     </row>
     <row r="414" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="44" t="n">
-        <v>384.0</v>
+        <v>383.0</v>
       </c>
       <c r="B414" s="50" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C414" s="24"/>
       <c r="D414" s="37"/>
     </row>
     <row r="415" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="44" t="n">
-        <v>385.0</v>
+        <v>384.0</v>
       </c>
       <c r="B415" s="50" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C415" s="40"/>
       <c r="D415" s="37"/>
     </row>
     <row r="416" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="44" t="n">
-        <v>386.0</v>
+        <v>385.0</v>
       </c>
       <c r="B416" s="50" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C416" s="40"/>
       <c r="D416" s="37"/>
     </row>
     <row r="417" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="44" t="n">
-        <v>387.0</v>
+        <v>386.0</v>
       </c>
       <c r="B417" s="43" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C417" s="40"/>
       <c r="D417" s="37"/>
     </row>
     <row r="418" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="44" t="n">
-        <v>388.0</v>
+        <v>387.0</v>
       </c>
       <c r="B418" s="43" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C418" s="40"/>
       <c r="D418" s="37"/>
     </row>
     <row r="419" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="44" t="n">
-        <v>389.0</v>
+        <v>388.0</v>
       </c>
       <c r="B419" s="43" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C419" s="40"/>
       <c r="D419" s="37"/>
     </row>
     <row r="420" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="44" t="n">
-        <v>390.0</v>
+        <v>389.0</v>
       </c>
       <c r="B420" s="43" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C420" s="37"/>
       <c r="D420" s="37"/>
     </row>
     <row r="421" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="44" t="n">
-        <v>391.0</v>
+        <v>390.0</v>
       </c>
       <c r="B421" s="43" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C421" s="37"/>
       <c r="D421" s="37"/>
     </row>
     <row r="422" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="44" t="n">
-        <v>392.0</v>
+        <v>391.0</v>
       </c>
       <c r="B422" s="43" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C422" s="37"/>
       <c r="D422" s="37"/>
     </row>
     <row r="423" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="44" t="n">
-        <v>393.0</v>
+        <v>392.0</v>
       </c>
       <c r="B423" s="43" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C423" s="37"/>
       <c r="D423" s="37"/>
     </row>
     <row r="424" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="44" t="n">
-        <v>394.0</v>
+        <v>393.0</v>
       </c>
       <c r="B424" s="43" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C424" s="37"/>
       <c r="D424" s="37"/>
     </row>
     <row r="425" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="44" t="n">
-        <v>395.0</v>
+        <v>394.0</v>
       </c>
       <c r="B425" s="50" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C425" s="37"/>
       <c r="D425" s="37"/>
     </row>
     <row r="426" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="44" t="n">
-        <v>396.0</v>
+        <v>395.0</v>
       </c>
       <c r="B426" s="50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C426" s="37"/>
       <c r="D426" s="37"/>
     </row>
     <row r="427" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="44" t="n">
-        <v>397.0</v>
+        <v>396.0</v>
       </c>
       <c r="B427" s="50" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C427" s="37"/>
       <c r="D427" s="37"/>
     </row>
     <row r="428" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="44" t="n">
-        <v>398.0</v>
+        <v>397.0</v>
       </c>
       <c r="B428" s="43" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C428" s="37"/>
       <c r="D428" s="37"/>
     </row>
     <row r="429" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="44" t="n">
-        <v>399.0</v>
+        <v>398.0</v>
       </c>
       <c r="B429" s="43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C429" s="37"/>
       <c r="D429" s="37"/>
     </row>
     <row r="430" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="44" t="n">
-        <v>400.0</v>
+        <v>399.0</v>
       </c>
       <c r="B430" s="43" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C430" s="37"/>
       <c r="D430" s="37"/>
     </row>
     <row r="431" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="44" t="n">
-        <v>401.0</v>
+        <v>400.0</v>
       </c>
       <c r="B431" s="43" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C431" s="37"/>
       <c r="D431" s="37"/>
     </row>
     <row r="432" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="44" t="n">
-        <v>402.0</v>
+        <v>401.0</v>
       </c>
       <c r="B432" s="43" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C432" s="37"/>
       <c r="D432" s="37"/>
     </row>
     <row r="433" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="44" t="n">
-        <v>403.0</v>
+        <v>402.0</v>
       </c>
       <c r="B433" s="43" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C433" s="37"/>
       <c r="D433" s="37"/>
     </row>
     <row r="434" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="44" t="n">
-        <v>404.0</v>
+        <v>403.0</v>
       </c>
       <c r="B434" s="43" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C434" s="37"/>
       <c r="D434" s="37"/>
     </row>
     <row r="435" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="44" t="n">
-        <v>405.0</v>
+        <v>404.0</v>
       </c>
       <c r="B435" s="43" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C435" s="37"/>
       <c r="D435" s="37"/>
     </row>
     <row r="436" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="44" t="n">
-        <v>406.0</v>
+        <v>405.0</v>
       </c>
       <c r="B436" s="43" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C436" s="37"/>
       <c r="D436" s="37"/>
     </row>
     <row r="437" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="44" t="n">
-        <v>407.0</v>
+        <v>406.0</v>
       </c>
       <c r="B437" s="50" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C437" s="37"/>
       <c r="D437" s="37"/>
     </row>
     <row r="438" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="44" t="n">
-        <v>408.0</v>
+        <v>407.0</v>
       </c>
       <c r="B438" s="43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C438" s="37"/>
       <c r="D438" s="37"/>
     </row>
     <row r="439" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="44" t="n">
-        <v>409.0</v>
+        <v>408.0</v>
       </c>
       <c r="B439" s="43" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C439" s="37"/>
       <c r="D439" s="37"/>
     </row>
     <row r="440" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="44" t="n">
-        <v>410.0</v>
+        <v>409.0</v>
       </c>
       <c r="B440" s="50" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C440" s="37"/>
       <c r="D440" s="37"/>
     </row>
     <row r="441" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="44" t="n">
-        <v>411.0</v>
+        <v>410.0</v>
       </c>
       <c r="B441" s="50" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C441" s="37"/>
       <c r="D441" s="37"/>
     </row>
     <row r="442" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="44" t="n">
-        <v>412.0</v>
+        <v>411.0</v>
       </c>
       <c r="B442" s="50" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C442" s="37"/>
       <c r="D442" s="37"/>
     </row>
     <row r="443" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="44" t="n">
-        <v>413.0</v>
+        <v>412.0</v>
       </c>
       <c r="B443" s="43" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C443" s="37"/>
       <c r="D443" s="37"/>
     </row>
     <row r="444" spans="1:4" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="44" t="n">
-        <v>414.0</v>
+        <v>413.0</v>
       </c>
       <c r="B444" s="43" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C444" s="37"/>
       <c r="D444" s="37"/>
     </row>
     <row r="445" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="44" t="n">
-        <v>415.0</v>
+        <v>414.0</v>
       </c>
       <c r="B445" s="43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C445" s="37"/>
       <c r="D445" s="37"/>
     </row>
     <row r="446" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="44" t="n">
-        <v>416.0</v>
+        <v>415.0</v>
       </c>
       <c r="B446" s="43" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C446" s="37"/>
       <c r="D446" s="37"/>
     </row>
     <row r="447" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="44" t="n">
-        <v>417.0</v>
+        <v>416.0</v>
       </c>
       <c r="B447" s="43" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C447" s="37"/>
       <c r="D447" s="37"/>
     </row>
     <row r="448" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="44" t="n">
-        <v>418.0</v>
+        <v>417.0</v>
       </c>
       <c r="B448" s="43" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C448" s="37"/>
       <c r="D448" s="37"/>
     </row>
     <row r="449" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="44" t="n">
-        <v>419.0</v>
+        <v>418.0</v>
       </c>
       <c r="B449" s="43" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C449" s="37"/>
       <c r="D449" s="37"/>
     </row>
     <row r="450" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="44" t="n">
-        <v>420.0</v>
+        <v>419.0</v>
       </c>
       <c r="B450" s="43" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C450" s="37"/>
       <c r="D450" s="37"/>
     </row>
     <row r="451" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="44" t="n">
-        <v>421.0</v>
+        <v>420.0</v>
       </c>
       <c r="B451" s="43" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C451" s="37"/>
       <c r="D451" s="37"/>
     </row>
     <row r="452" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="44" t="n">
-        <v>422.0</v>
+        <v>421.0</v>
       </c>
       <c r="B452" s="43" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C452" s="37"/>
       <c r="D452" s="37"/>
     </row>
     <row r="453" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="44" t="n">
-        <v>423.0</v>
+        <v>422.0</v>
       </c>
       <c r="B453" s="43" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C453" s="37"/>
       <c r="D453" s="37"/>
     </row>
     <row r="454" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="44" t="n">
-        <v>424.0</v>
+        <v>423.0</v>
       </c>
       <c r="B454" s="43" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C454" s="37"/>
       <c r="D454" s="37"/>
     </row>
     <row r="455" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="44" t="n">
-        <v>425.0</v>
+        <v>424.0</v>
       </c>
       <c r="B455" s="43" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C455" s="37"/>
       <c r="D455" s="37"/>
     </row>
     <row r="456" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="44" t="n">
-        <v>426.0</v>
+        <v>425.0</v>
       </c>
       <c r="B456" s="43" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C456" s="37"/>
       <c r="D456" s="37"/>
     </row>
     <row r="457" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="44" t="n">
-        <v>427.0</v>
+        <v>426.0</v>
       </c>
       <c r="B457" s="43" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C457" s="37"/>
       <c r="D457" s="37"/>
     </row>
     <row r="458" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="44" t="n">
-        <v>428.0</v>
+        <v>427.0</v>
       </c>
       <c r="B458" s="43" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C458" s="37"/>
       <c r="D458" s="37"/>
     </row>
     <row r="459" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="44" t="n">
-        <v>429.0</v>
+        <v>428.0</v>
       </c>
       <c r="B459" s="43" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C459" s="37"/>
       <c r="D459" s="37"/>
     </row>
     <row r="460" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="44" t="n">
-        <v>430.0</v>
+        <v>429.0</v>
       </c>
       <c r="B460" s="50" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C460" s="37"/>
       <c r="D460" s="37"/>
     </row>
     <row r="461" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="44" t="n">
-        <v>431.0</v>
+        <v>430.0</v>
       </c>
       <c r="B461" s="43" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C461" s="37"/>
       <c r="D461" s="37"/>
     </row>
     <row r="462" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="44" t="n">
-        <v>432.0</v>
+        <v>431.0</v>
       </c>
       <c r="B462" s="43" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C462" s="37"/>
       <c r="D462" s="37"/>
     </row>
     <row r="463" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="44" t="n">
-        <v>433.0</v>
+        <v>432.0</v>
       </c>
       <c r="B463" s="43" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C463" s="37"/>
       <c r="D463" s="37"/>
     </row>
     <row r="464" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="44" t="n">
-        <v>434.0</v>
+        <v>433.0</v>
       </c>
       <c r="B464" s="43" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C464" s="37"/>
       <c r="D464" s="37"/>
     </row>
     <row r="465" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="44" t="n">
-        <v>435.0</v>
+        <v>434.0</v>
       </c>
       <c r="B465" s="43" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C465" s="37"/>
       <c r="D465" s="37"/>
     </row>
     <row r="466" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="44" t="n">
-        <v>436.0</v>
+        <v>435.0</v>
       </c>
       <c r="B466" s="43" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C466" s="37"/>
       <c r="D466" s="37"/>
     </row>
     <row r="467" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="44" t="n">
-        <v>437.0</v>
+        <v>436.0</v>
       </c>
       <c r="B467" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C467" s="37"/>
       <c r="D467" s="37"/>
     </row>
     <row r="468" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="44" t="n">
-        <v>438.0</v>
+        <v>437.0</v>
       </c>
       <c r="B468" s="43" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C468" s="37"/>
       <c r="D468" s="37"/>
     </row>
     <row r="469" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="44" t="n">
-        <v>439.0</v>
+        <v>438.0</v>
       </c>
       <c r="B469" s="43" t="s">
         <v>493</v>
@@ -41999,67 +42010,67 @@
     </row>
     <row r="470" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="44" t="n">
-        <v>440.0</v>
+        <v>439.0</v>
       </c>
       <c r="B470" s="43" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C470" s="37"/>
       <c r="D470" s="37"/>
     </row>
     <row r="471" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="44" t="n">
-        <v>441.0</v>
+        <v>440.0</v>
       </c>
       <c r="B471" s="43" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C471" s="37"/>
       <c r="D471" s="37"/>
     </row>
     <row r="472" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="44" t="n">
-        <v>442.0</v>
+        <v>441.0</v>
       </c>
       <c r="B472" s="43" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C472" s="37"/>
       <c r="D472" s="37"/>
     </row>
     <row r="473" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="44" t="n">
-        <v>443.0</v>
+        <v>442.0</v>
       </c>
       <c r="B473" s="43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C473" s="37"/>
       <c r="D473" s="37"/>
     </row>
     <row r="474" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="44" t="n">
-        <v>444.0</v>
+        <v>443.0</v>
       </c>
       <c r="B474" s="43" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C474" s="37"/>
       <c r="D474" s="37"/>
     </row>
     <row r="475" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="44" t="n">
-        <v>445.0</v>
+        <v>444.0</v>
       </c>
       <c r="B475" s="43" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C475" s="37"/>
       <c r="D475" s="37"/>
     </row>
     <row r="476" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="44" t="n">
-        <v>446.0</v>
+        <v>445.0</v>
       </c>
       <c r="B476" s="43" t="s">
         <v>498</v>
@@ -42069,7 +42080,7 @@
     </row>
     <row r="477" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="44" t="n">
-        <v>447.0</v>
+        <v>446.0</v>
       </c>
       <c r="B477" s="43" t="s">
         <v>499</v>
@@ -42079,360 +42090,360 @@
     </row>
     <row r="478" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="44" t="n">
-        <v>448.0</v>
+        <v>447.0</v>
       </c>
       <c r="B478" s="43" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C478" s="37"/>
       <c r="D478" s="37"/>
     </row>
     <row r="479" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="44" t="n">
-        <v>449.0</v>
+        <v>448.0</v>
       </c>
       <c r="B479" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C479" s="37"/>
       <c r="D479" s="37"/>
     </row>
     <row r="480" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="44" t="n">
-        <v>450.0</v>
+        <v>449.0</v>
       </c>
       <c r="B480" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C480" s="37"/>
       <c r="D480" s="37"/>
     </row>
     <row r="481" spans="1:4" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="42" t="n">
-        <v>451.0</v>
+        <v>450.0</v>
       </c>
       <c r="B481" s="43" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C481" s="37"/>
       <c r="D481" s="37"/>
     </row>
     <row r="482" spans="1:4" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="44" t="n">
-        <v>452.0</v>
+        <v>451.0</v>
       </c>
       <c r="B482" s="43" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C482" s="37"/>
       <c r="D482" s="37"/>
     </row>
     <row r="483" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="44" t="n">
-        <v>453.0</v>
+        <v>452.0</v>
       </c>
       <c r="B483" s="43" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C483" s="37"/>
       <c r="D483" s="37"/>
     </row>
     <row r="484" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="44" t="n">
-        <v>454.0</v>
+        <v>453.0</v>
       </c>
       <c r="B484" s="43" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C484" s="37"/>
       <c r="D484" s="37"/>
     </row>
     <row r="485" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="44" t="n">
-        <v>455.0</v>
+        <v>454.0</v>
       </c>
       <c r="B485" s="43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C485" s="37"/>
       <c r="D485" s="37"/>
     </row>
     <row r="486" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="44" t="n">
-        <v>456.0</v>
+        <v>455.0</v>
       </c>
       <c r="B486" s="43" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C486" s="37"/>
       <c r="D486" s="37"/>
     </row>
     <row r="487" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="44" t="n">
-        <v>457.0</v>
+        <v>456.0</v>
       </c>
       <c r="B487" s="43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C487" s="37"/>
       <c r="D487" s="37"/>
     </row>
     <row r="488" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="44" t="n">
-        <v>458.0</v>
+        <v>457.0</v>
       </c>
       <c r="B488" s="43" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C488" s="37"/>
       <c r="D488" s="37"/>
     </row>
     <row r="489" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="44" t="n">
-        <v>459.0</v>
+        <v>458.0</v>
       </c>
       <c r="B489" s="43" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C489" s="37"/>
       <c r="D489" s="37"/>
     </row>
     <row r="490" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="44" t="n">
-        <v>460.0</v>
+        <v>459.0</v>
       </c>
       <c r="B490" s="43" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C490" s="37"/>
       <c r="D490" s="37"/>
     </row>
     <row r="491" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="44" t="n">
-        <v>461.0</v>
+        <v>460.0</v>
       </c>
       <c r="B491" s="43" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C491" s="37"/>
       <c r="D491" s="37"/>
     </row>
     <row r="492" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="44" t="n">
-        <v>462.0</v>
+        <v>461.0</v>
       </c>
       <c r="B492" s="43" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C492" s="37"/>
       <c r="D492" s="37"/>
     </row>
     <row r="493" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="44" t="n">
-        <v>463.0</v>
+        <v>462.0</v>
       </c>
       <c r="B493" s="43" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C493" s="37"/>
       <c r="D493" s="37"/>
     </row>
     <row r="494" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="44" t="n">
-        <v>464.0</v>
+        <v>463.0</v>
       </c>
       <c r="B494" s="43" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C494" s="37"/>
       <c r="D494" s="37"/>
     </row>
     <row r="495" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="44" t="n">
-        <v>465.0</v>
+        <v>464.0</v>
       </c>
       <c r="B495" s="43" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C495" s="37"/>
       <c r="D495" s="37"/>
     </row>
     <row r="496" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="44" t="n">
-        <v>466.0</v>
+        <v>465.0</v>
       </c>
       <c r="B496" s="43" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C496" s="37"/>
       <c r="D496" s="37"/>
     </row>
     <row r="497" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="44" t="n">
-        <v>467.0</v>
+        <v>466.0</v>
       </c>
       <c r="B497" s="43" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C497" s="37"/>
       <c r="D497" s="37"/>
     </row>
     <row r="498" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="44" t="n">
-        <v>468.0</v>
+        <v>467.0</v>
       </c>
       <c r="B498" s="43" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C498" s="37"/>
       <c r="D498" s="37"/>
     </row>
     <row r="499" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="44" t="n">
-        <v>469.0</v>
+        <v>468.0</v>
       </c>
       <c r="B499" s="43" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C499" s="37"/>
       <c r="D499" s="37"/>
     </row>
     <row r="500" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="44" t="n">
-        <v>470.0</v>
+        <v>469.0</v>
       </c>
       <c r="B500" s="43" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C500" s="37"/>
       <c r="D500" s="37"/>
     </row>
     <row r="501" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="44" t="n">
-        <v>471.0</v>
+        <v>470.0</v>
       </c>
       <c r="B501" s="43" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C501" s="37"/>
       <c r="D501" s="37"/>
     </row>
     <row r="502" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="44" t="n">
-        <v>472.0</v>
+        <v>471.0</v>
       </c>
       <c r="B502" s="43" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C502" s="37"/>
       <c r="D502" s="37"/>
     </row>
     <row r="503" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="44" t="n">
-        <v>473.0</v>
+        <v>472.0</v>
       </c>
       <c r="B503" s="43" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C503" s="37"/>
       <c r="D503" s="37"/>
     </row>
     <row r="504" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="44" t="n">
-        <v>474.0</v>
+        <v>473.0</v>
       </c>
       <c r="B504" s="43" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C504" s="37"/>
       <c r="D504" s="37"/>
     </row>
     <row r="505" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="44" t="n">
-        <v>475.0</v>
+        <v>474.0</v>
       </c>
       <c r="B505" s="43" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C505" s="37"/>
       <c r="D505" s="37"/>
     </row>
     <row r="506" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="44" t="n">
-        <v>476.0</v>
+        <v>475.0</v>
       </c>
       <c r="B506" s="43" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C506" s="37"/>
       <c r="D506" s="37"/>
     </row>
     <row r="507" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="44" t="n">
-        <v>477.0</v>
+        <v>476.0</v>
       </c>
       <c r="B507" s="43" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C507" s="37"/>
       <c r="D507" s="37"/>
     </row>
     <row r="508" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="44" t="n">
-        <v>478.0</v>
+        <v>477.0</v>
       </c>
       <c r="B508" s="43" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C508" s="37"/>
       <c r="D508" s="37"/>
     </row>
     <row r="509" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="44" t="n">
-        <v>479.0</v>
+        <v>478.0</v>
       </c>
       <c r="B509" s="43" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C509" s="37"/>
       <c r="D509" s="37"/>
     </row>
     <row r="510" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="45" t="n">
-        <v>480.0</v>
+        <v>479.0</v>
       </c>
       <c r="B510" s="49" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C510" s="41"/>
       <c r="D510" s="37"/>
     </row>
     <row r="511" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="44" t="n">
-        <v>481.0</v>
+        <v>480.0</v>
       </c>
       <c r="B511" s="43" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C511" s="37"/>
       <c r="D511" s="37"/>
     </row>
     <row r="512" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="44" t="n">
-        <v>482.0</v>
+        <v>481.0</v>
       </c>
       <c r="B512" s="43" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C512" s="37"/>
       <c r="D512" s="37"/>
     </row>
     <row r="513" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="44" t="n">
-        <v>483.0</v>
+        <v>482.0</v>
       </c>
       <c r="B513" s="95" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C513" s="37"/>
       <c r="D513" s="37"/>
@@ -42442,7 +42453,7 @@
         <v>483.0</v>
       </c>
       <c r="B514" s="97" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C514" s="37"/>
       <c r="D514" s="37"/>
@@ -42452,7 +42463,7 @@
         <v>484.0</v>
       </c>
       <c r="B515" s="92" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C515" s="37"/>
       <c r="D515" s="37"/>
@@ -42461,188 +42472,188 @@
       <c r="A516" s="44" t="n">
         <v>485.0</v>
       </c>
-      <c r="B516" s="43" t="s">
-        <v>536</v>
+      <c r="B516" s="98" t="s">
+        <v>534</v>
       </c>
       <c r="C516" s="37"/>
       <c r="D516" s="37"/>
     </row>
     <row r="517" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="44" t="n">
-        <v>486.0</v>
+        <v>485.0</v>
       </c>
       <c r="B517" s="43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C517" s="37"/>
       <c r="D517" s="37"/>
     </row>
     <row r="518" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="44" t="n">
-        <v>487.0</v>
+        <v>486.0</v>
       </c>
       <c r="B518" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C518" s="37"/>
       <c r="D518" s="37"/>
     </row>
     <row r="519" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="44" t="n">
-        <v>488.0</v>
+        <v>487.0</v>
       </c>
       <c r="B519" s="43" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C519" s="37"/>
       <c r="D519" s="37"/>
     </row>
     <row r="520" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="44" t="n">
-        <v>489.0</v>
+        <v>488.0</v>
       </c>
       <c r="B520" s="43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C520" s="37"/>
       <c r="D520" s="37"/>
     </row>
     <row r="521" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="44" t="n">
-        <v>490.0</v>
+        <v>489.0</v>
       </c>
       <c r="B521" s="43" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C521" s="37"/>
       <c r="D521" s="37"/>
     </row>
     <row r="522" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="44" t="n">
-        <v>491.0</v>
+        <v>490.0</v>
       </c>
       <c r="B522" s="43" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C522" s="37"/>
       <c r="D522" s="37"/>
     </row>
     <row r="523" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="44" t="n">
-        <v>492.0</v>
+        <v>491.0</v>
       </c>
       <c r="B523" s="43" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C523" s="37"/>
       <c r="D523" s="37"/>
     </row>
     <row r="524" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="44" t="n">
-        <v>493.0</v>
+        <v>492.0</v>
       </c>
       <c r="B524" s="43" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C524" s="37"/>
       <c r="D524" s="37"/>
     </row>
     <row r="525" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="44" t="n">
-        <v>494.0</v>
+        <v>493.0</v>
       </c>
       <c r="B525" s="43" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C525" s="37"/>
       <c r="D525" s="37"/>
     </row>
     <row r="526" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="44" t="n">
-        <v>495.0</v>
+        <v>494.0</v>
       </c>
       <c r="B526" s="43" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C526" s="37"/>
       <c r="D526" s="37"/>
     </row>
     <row r="527" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="44" t="n">
-        <v>496.0</v>
+        <v>495.0</v>
       </c>
       <c r="B527" s="43" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C527" s="37"/>
       <c r="D527" s="37"/>
     </row>
     <row r="528" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="44" t="n">
-        <v>497.0</v>
+        <v>496.0</v>
       </c>
       <c r="B528" s="43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C528" s="37"/>
       <c r="D528" s="37"/>
     </row>
     <row r="529" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="44" t="n">
-        <v>498.0</v>
+        <v>497.0</v>
       </c>
       <c r="B529" s="43" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C529" s="37"/>
       <c r="D529" s="37"/>
     </row>
     <row r="530" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="44" t="n">
-        <v>499.0</v>
+        <v>498.0</v>
       </c>
       <c r="B530" s="43" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C530" s="37"/>
       <c r="D530" s="37"/>
     </row>
     <row r="531" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="44" t="n">
-        <v>500.0</v>
+        <v>499.0</v>
       </c>
       <c r="B531" s="43" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C531" s="37"/>
       <c r="D531" s="37"/>
     </row>
     <row r="532" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="44" t="n">
-        <v>501.0</v>
+        <v>500.0</v>
       </c>
       <c r="B532" s="43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C532" s="37"/>
       <c r="D532" s="37"/>
     </row>
     <row r="533" spans="1:4" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="44" t="n">
-        <v>502.0</v>
+        <v>501.0</v>
       </c>
       <c r="B533" s="43" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C533" s="37"/>
       <c r="D533" s="37"/>
     </row>
     <row r="534" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="42" t="n">
-        <v>503.0</v>
+        <v>502.0</v>
       </c>
       <c r="B534" s="95" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C534" s="37"/>
       <c r="D534" s="37"/>
@@ -42652,15 +42663,17 @@
         <v>503.0</v>
       </c>
       <c r="B535" s="43" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C535" s="37"/>
       <c r="D535" s="37"/>
     </row>
     <row r="536" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="44"/>
+      <c r="A536" s="44" t="n">
+        <v>504.0</v>
+      </c>
       <c r="B536" s="94" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C536" s="37"/>
       <c r="D536" s="37"/>

--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13544" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="556">
   <si>
     <t>№</t>
   </si>
@@ -1691,28 +1691,7 @@
     <t>РАДІОСТАНЦІЯ "KENWOOD" TK-90 (КОРОТКОХВИЛЬОВОГО ДІАПАЗОНУ)</t>
   </si>
   <si>
-    <t xml:space="preserve">Комутатори </t>
-  </si>
-  <si>
-    <t>cisco 515-px</t>
-  </si>
-  <si>
-    <t>testType</t>
-  </si>
-  <si>
-    <t>rwe</t>
-  </si>
-  <si>
-    <t>Радіорелейні станції Test</t>
-  </si>
-  <si>
-    <t>cisco 515-px Test</t>
-  </si>
-  <si>
-    <t>Harris Falkon 3</t>
-  </si>
-  <si>
-    <t>Факсимільні апарати</t>
+    <t xml:space="preserve">КХ радіостанції </t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1699,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,121 +1824,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2274,7 +2138,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2498,75 +2362,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -37486,8 +37281,8 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="98" t="s">
-        <v>562</v>
+      <c r="B17" s="75" t="s">
+        <v>65</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -37497,7 +37292,7 @@
         <v>1.0</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>556</v>
+        <v>66</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -37506,568 +37301,566 @@
       <c r="A19" s="44" t="n">
         <v>2.0</v>
       </c>
-      <c r="B19" s="98" t="s">
-        <v>65</v>
+      <c r="B19" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C41" s="72"/>
       <c r="D41" s="39"/>
     </row>
     <row r="42" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
     </row>
     <row r="45" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
     </row>
     <row r="51" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
     </row>
     <row r="52" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
     </row>
     <row r="53" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
     </row>
     <row r="54" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
     </row>
     <row r="55" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
     </row>
     <row r="60" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
     </row>
     <row r="61" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
     </row>
     <row r="62" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
     </row>
     <row r="65" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
     </row>
     <row r="69" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
     </row>
     <row r="70" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
     </row>
     <row r="71" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
     </row>
     <row r="72" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
     </row>
     <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
     </row>
     <row r="75" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="44" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B75" s="97" t="s">
-        <v>118</v>
+      <c r="A75" s="44"/>
+      <c r="B75" s="75" t="s">
+        <v>120</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -38077,7 +37870,7 @@
         <v>58.0</v>
       </c>
       <c r="B76" s="70" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -38086,338 +37879,336 @@
       <c r="A77" s="44" t="n">
         <v>59.0</v>
       </c>
-      <c r="B77" s="98" t="s">
-        <v>120</v>
+      <c r="B77" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
     </row>
     <row r="79" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
     </row>
     <row r="80" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
     </row>
     <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
     </row>
     <row r="84" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
     </row>
     <row r="86" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
     </row>
     <row r="87" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
     </row>
     <row r="88" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
     </row>
     <row r="89" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
     </row>
     <row r="90" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
     </row>
     <row r="91" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
     </row>
     <row r="92" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
     </row>
     <row r="93" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
     </row>
     <row r="94" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
     </row>
     <row r="95" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
     </row>
     <row r="96" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
     </row>
     <row r="97" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
     </row>
     <row r="98" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
     </row>
     <row r="99" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
     </row>
     <row r="100" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="n">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
     </row>
     <row r="101" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="n">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
     </row>
     <row r="102" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="n">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
     </row>
     <row r="103" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
     </row>
     <row r="104" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
     </row>
     <row r="105" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="n">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
     </row>
     <row r="106" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="n">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
     </row>
     <row r="107" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
     </row>
     <row r="108" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
     </row>
     <row r="109" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="44" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
     </row>
     <row r="110" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="B110" s="97" t="s">
-        <v>153</v>
+      <c r="A110" s="44"/>
+      <c r="B110" s="75" t="s">
+        <v>155</v>
       </c>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
@@ -38427,7 +38218,7 @@
         <v>92.0</v>
       </c>
       <c r="B111" s="70" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
@@ -38436,18 +38227,16 @@
       <c r="A112" s="44" t="n">
         <v>93.0</v>
       </c>
-      <c r="B112" s="98" t="s">
-        <v>155</v>
+      <c r="B112" s="43" t="s">
+        <v>157</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
     </row>
     <row r="113" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="44" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="B113" s="97" t="s">
-        <v>156</v>
+      <c r="A113" s="44"/>
+      <c r="B113" s="75" t="s">
+        <v>158</v>
       </c>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
@@ -38457,15 +38246,15 @@
         <v>94.0</v>
       </c>
       <c r="B114" s="70" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C114" s="37"/>
       <c r="D114" s="37"/>
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
-      <c r="B115" s="98" t="s">
-        <v>158</v>
+      <c r="B115" s="75" t="s">
+        <v>160</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
@@ -38475,15 +38264,15 @@
         <v>95.0</v>
       </c>
       <c r="B116" s="70" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
-      <c r="B117" s="98" t="s">
-        <v>160</v>
+      <c r="B117" s="75" t="s">
+        <v>162</v>
       </c>
       <c r="C117" s="37"/>
       <c r="D117" s="37"/>
@@ -38493,7 +38282,7 @@
         <v>96.0</v>
       </c>
       <c r="B118" s="70" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
@@ -38502,318 +38291,316 @@
       <c r="A119" s="44" t="n">
         <v>97.0</v>
       </c>
-      <c r="B119" s="98" t="s">
-        <v>162</v>
+      <c r="B119" s="43" t="s">
+        <v>164</v>
       </c>
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
     </row>
     <row r="120" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="n">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
     </row>
     <row r="121" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
     </row>
     <row r="122" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
     </row>
     <row r="123" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="44" t="n">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
     </row>
     <row r="124" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="n">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
     </row>
     <row r="125" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="44" t="n">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
     </row>
     <row r="126" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="n">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
     </row>
     <row r="127" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="44" t="n">
-        <v>104.0</v>
+        <v>105.0</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
     </row>
     <row r="128" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="n">
-        <v>105.0</v>
+        <v>106.0</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
     </row>
     <row r="129" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="44" t="n">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
     </row>
     <row r="130" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="44" t="n">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
     </row>
     <row r="131" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="n">
-        <v>108.0</v>
+        <v>109.0</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
     </row>
     <row r="132" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="n">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
     </row>
     <row r="133" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="n">
-        <v>110.0</v>
+        <v>111.0</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
     </row>
     <row r="134" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="44" t="n">
-        <v>111.0</v>
+        <v>112.0</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
     </row>
     <row r="135" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="n">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="37"/>
     </row>
     <row r="136" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="n">
-        <v>113.0</v>
+        <v>114.0</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C136" s="37"/>
       <c r="D136" s="37"/>
     </row>
     <row r="137" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="n">
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
     </row>
     <row r="138" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="n">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
     </row>
     <row r="139" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="n">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
     </row>
     <row r="140" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="n">
-        <v>117.0</v>
+        <v>118.0</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
     </row>
     <row r="141" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="44" t="n">
-        <v>118.0</v>
+        <v>119.0</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
     </row>
     <row r="142" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="n">
-        <v>119.0</v>
+        <v>120.0</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
     </row>
     <row r="143" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="44" t="n">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
     </row>
     <row r="144" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="n">
-        <v>121.0</v>
+        <v>122.0</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
     </row>
     <row r="145" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="44" t="n">
-        <v>122.0</v>
+        <v>123.0</v>
       </c>
       <c r="B145" s="43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
     </row>
     <row r="146" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="44" t="n">
-        <v>123.0</v>
+        <v>124.0</v>
       </c>
       <c r="B146" s="43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
     </row>
     <row r="147" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="44" t="n">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="B147" s="43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
     </row>
     <row r="148" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="44" t="n">
-        <v>125.0</v>
+        <v>126.0</v>
       </c>
       <c r="B148" s="43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
     </row>
     <row r="149" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="44" t="n">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
     </row>
     <row r="150" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="44" t="n">
-        <v>127.0</v>
-      </c>
-      <c r="B150" s="97" t="s">
-        <v>193</v>
+      <c r="A150" s="44"/>
+      <c r="B150" s="75" t="s">
+        <v>195</v>
       </c>
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
@@ -38823,7 +38610,7 @@
         <v>128.0</v>
       </c>
       <c r="B151" s="70" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
@@ -38832,888 +38619,886 @@
       <c r="A152" s="44" t="n">
         <v>129.0</v>
       </c>
-      <c r="B152" s="98" t="s">
-        <v>195</v>
+      <c r="B152" s="47" t="s">
+        <v>197</v>
       </c>
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
     </row>
     <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="n">
-        <v>129.0</v>
+        <v>130.0</v>
       </c>
       <c r="B153" s="43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
     </row>
     <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="n">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
     </row>
     <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="n">
-        <v>131.0</v>
+        <v>132.0</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
     </row>
     <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="n">
-        <v>132.0</v>
+        <v>133.0</v>
       </c>
       <c r="B156" s="43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C156" s="37"/>
       <c r="D156" s="37"/>
     </row>
     <row r="157" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="n">
-        <v>133.0</v>
+        <v>134.0</v>
       </c>
       <c r="B157" s="43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
     </row>
     <row r="158" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="n">
-        <v>134.0</v>
+        <v>135.0</v>
       </c>
       <c r="B158" s="43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
     </row>
     <row r="159" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="n">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="B159" s="43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C159" s="37"/>
       <c r="D159" s="37"/>
     </row>
     <row r="160" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="n">
-        <v>136.0</v>
+        <v>137.0</v>
       </c>
       <c r="B160" s="43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
     </row>
     <row r="161" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="n">
-        <v>137.0</v>
+        <v>138.0</v>
       </c>
       <c r="B161" s="43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
     </row>
     <row r="162" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="n">
-        <v>138.0</v>
+        <v>139.0</v>
       </c>
       <c r="B162" s="43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
     </row>
     <row r="163" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="n">
-        <v>139.0</v>
+        <v>140.0</v>
       </c>
       <c r="B163" s="43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
     </row>
     <row r="164" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="n">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="B164" s="43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
     </row>
     <row r="165" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="n">
-        <v>141.0</v>
+        <v>142.0</v>
       </c>
       <c r="B165" s="43" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
     </row>
     <row r="166" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="n">
-        <v>142.0</v>
+        <v>143.0</v>
       </c>
       <c r="B166" s="43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C166" s="37"/>
       <c r="D166" s="37"/>
     </row>
     <row r="167" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="n">
-        <v>143.0</v>
+        <v>144.0</v>
       </c>
       <c r="B167" s="43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
     </row>
     <row r="168" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="n">
-        <v>144.0</v>
+        <v>145.0</v>
       </c>
       <c r="B168" s="43" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C168" s="37"/>
       <c r="D168" s="37"/>
     </row>
     <row r="169" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="n">
-        <v>145.0</v>
+        <v>146.0</v>
       </c>
       <c r="B169" s="43" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C169" s="37"/>
       <c r="D169" s="37"/>
     </row>
     <row r="170" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="n">
-        <v>146.0</v>
+        <v>147.0</v>
       </c>
       <c r="B170" s="43" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
     </row>
     <row r="171" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="n">
-        <v>147.0</v>
+        <v>148.0</v>
       </c>
       <c r="B171" s="43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
     </row>
     <row r="172" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="n">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
       <c r="B172" s="43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
     </row>
     <row r="173" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="n">
-        <v>149.0</v>
+        <v>150.0</v>
       </c>
       <c r="B173" s="43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
     </row>
     <row r="174" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="n">
-        <v>150.0</v>
+        <v>151.0</v>
       </c>
       <c r="B174" s="43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C174" s="37"/>
       <c r="D174" s="37"/>
     </row>
     <row r="175" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="n">
-        <v>151.0</v>
+        <v>152.0</v>
       </c>
       <c r="B175" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C175" s="37"/>
       <c r="D175" s="37"/>
     </row>
     <row r="176" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="n">
-        <v>152.0</v>
+        <v>153.0</v>
       </c>
       <c r="B176" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C176" s="37"/>
       <c r="D176" s="37"/>
     </row>
     <row r="177" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="n">
-        <v>153.0</v>
+        <v>154.0</v>
       </c>
       <c r="B177" s="43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C177" s="37"/>
       <c r="D177" s="37"/>
     </row>
     <row r="178" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="n">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="B178" s="43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C178" s="37"/>
       <c r="D178" s="37"/>
     </row>
     <row r="179" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="44" t="n">
-        <v>155.0</v>
+        <v>156.0</v>
       </c>
       <c r="B179" s="43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C179" s="37"/>
       <c r="D179" s="37"/>
     </row>
     <row r="180" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="44" t="n">
-        <v>156.0</v>
+        <v>157.0</v>
       </c>
       <c r="B180" s="43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="37"/>
     </row>
     <row r="181" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="n">
-        <v>157.0</v>
+        <v>158.0</v>
       </c>
       <c r="B181" s="43" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C181" s="40"/>
       <c r="D181" s="40"/>
     </row>
     <row r="182" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="n">
-        <v>158.0</v>
+        <v>159.0</v>
       </c>
       <c r="B182" s="43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C182" s="40"/>
       <c r="D182" s="40"/>
     </row>
     <row r="183" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="n">
-        <v>159.0</v>
+        <v>160.0</v>
       </c>
       <c r="B183" s="43" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C183" s="40"/>
       <c r="D183" s="40"/>
     </row>
     <row r="184" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="44" t="n">
-        <v>160.0</v>
+        <v>161.0</v>
       </c>
       <c r="B184" s="43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C184" s="40"/>
       <c r="D184" s="40"/>
     </row>
     <row r="185" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="44" t="n">
-        <v>161.0</v>
+        <v>162.0</v>
       </c>
       <c r="B185" s="43" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C185" s="40"/>
       <c r="D185" s="40"/>
     </row>
     <row r="186" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="44" t="n">
-        <v>162.0</v>
+        <v>163.0</v>
       </c>
       <c r="B186" s="43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C186" s="40"/>
       <c r="D186" s="40"/>
     </row>
     <row r="187" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="n">
-        <v>163.0</v>
+        <v>164.0</v>
       </c>
       <c r="B187" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C187" s="40"/>
       <c r="D187" s="40"/>
     </row>
     <row r="188" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="n">
-        <v>164.0</v>
+        <v>165.0</v>
       </c>
       <c r="B188" s="47" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C188" s="40"/>
       <c r="D188" s="40"/>
     </row>
     <row r="189" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="n">
-        <v>165.0</v>
+        <v>166.0</v>
       </c>
       <c r="B189" s="47" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C189" s="40"/>
       <c r="D189" s="40"/>
     </row>
     <row r="190" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="n">
-        <v>166.0</v>
+        <v>167.0</v>
       </c>
       <c r="B190" s="47" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C190" s="24"/>
       <c r="D190" s="40"/>
     </row>
     <row r="191" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="n">
-        <v>167.0</v>
+        <v>168.0</v>
       </c>
       <c r="B191" s="43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="40"/>
     </row>
     <row r="192" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="n">
-        <v>168.0</v>
+        <v>169.0</v>
       </c>
       <c r="B192" s="43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="40"/>
     </row>
     <row r="193" spans="1:4" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="n">
-        <v>169.0</v>
+        <v>170.0</v>
       </c>
       <c r="B193" s="43" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="40"/>
     </row>
     <row r="194" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="n">
-        <v>170.0</v>
+        <v>171.0</v>
       </c>
       <c r="B194" s="43" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C194" s="24"/>
       <c r="D194" s="40"/>
     </row>
     <row r="195" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="n">
-        <v>171.0</v>
+        <v>172.0</v>
       </c>
       <c r="B195" s="43" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C195" s="24"/>
       <c r="D195" s="40"/>
     </row>
     <row r="196" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="n">
-        <v>172.0</v>
+        <v>173.0</v>
       </c>
       <c r="B196" s="43" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="40"/>
     </row>
     <row r="197" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="n">
-        <v>173.0</v>
+        <v>174.0</v>
       </c>
       <c r="B197" s="43" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="40"/>
     </row>
     <row r="198" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="n">
-        <v>174.0</v>
+        <v>175.0</v>
       </c>
       <c r="B198" s="43" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="40"/>
     </row>
     <row r="199" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="44" t="n">
-        <v>175.0</v>
+        <v>176.0</v>
       </c>
       <c r="B199" s="43" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="40"/>
     </row>
     <row r="200" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="44" t="n">
-        <v>176.0</v>
+        <v>177.0</v>
       </c>
       <c r="B200" s="43" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="40"/>
     </row>
     <row r="201" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="n">
-        <v>177.0</v>
+        <v>178.0</v>
       </c>
       <c r="B201" s="43" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C201" s="24"/>
       <c r="D201" s="40"/>
     </row>
     <row r="202" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="n">
-        <v>178.0</v>
+        <v>179.0</v>
       </c>
       <c r="B202" s="43" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C202" s="24"/>
       <c r="D202" s="40"/>
     </row>
     <row r="203" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="n">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="B203" s="43" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C203" s="24"/>
       <c r="D203" s="40"/>
     </row>
     <row r="204" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="44" t="n">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
       <c r="B204" s="43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C204" s="24"/>
       <c r="D204" s="40"/>
     </row>
     <row r="205" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="44" t="n">
-        <v>181.0</v>
+        <v>182.0</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="40"/>
     </row>
     <row r="206" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="n">
-        <v>182.0</v>
+        <v>183.0</v>
       </c>
       <c r="B206" s="43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="40"/>
     </row>
     <row r="207" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="44" t="n">
-        <v>183.0</v>
+        <v>184.0</v>
       </c>
       <c r="B207" s="43" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="40"/>
     </row>
     <row r="208" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="44" t="n">
-        <v>184.0</v>
+        <v>185.0</v>
       </c>
       <c r="B208" s="43" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="40"/>
     </row>
     <row r="209" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="n">
-        <v>185.0</v>
+        <v>186.0</v>
       </c>
       <c r="B209" s="43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C209" s="40"/>
       <c r="D209" s="40"/>
     </row>
     <row r="210" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="44" t="n">
-        <v>186.0</v>
+        <v>187.0</v>
       </c>
       <c r="B210" s="43" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C210" s="40"/>
       <c r="D210" s="40"/>
     </row>
     <row r="211" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="44" t="n">
-        <v>187.0</v>
+        <v>188.0</v>
       </c>
       <c r="B211" s="43" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C211" s="40"/>
       <c r="D211" s="40"/>
     </row>
     <row r="212" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="n">
-        <v>188.0</v>
+        <v>189.0</v>
       </c>
       <c r="B212" s="43" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C212" s="40"/>
       <c r="D212" s="40"/>
     </row>
     <row r="213" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="n">
-        <v>189.0</v>
+        <v>190.0</v>
       </c>
       <c r="B213" s="43" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C213" s="40"/>
       <c r="D213" s="40"/>
     </row>
     <row r="214" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="44" t="n">
-        <v>190.0</v>
+        <v>191.0</v>
       </c>
       <c r="B214" s="43" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C214" s="40"/>
       <c r="D214" s="40"/>
     </row>
     <row r="215" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="44" t="n">
-        <v>191.0</v>
+        <v>192.0</v>
       </c>
       <c r="B215" s="43" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C215" s="40"/>
       <c r="D215" s="40"/>
     </row>
     <row r="216" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="n">
-        <v>192.0</v>
+        <v>193.0</v>
       </c>
       <c r="B216" s="43" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C216" s="40"/>
       <c r="D216" s="40"/>
     </row>
     <row r="217" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="n">
-        <v>193.0</v>
+        <v>194.0</v>
       </c>
       <c r="B217" s="43" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C217" s="40"/>
       <c r="D217" s="40"/>
     </row>
     <row r="218" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="44" t="n">
-        <v>194.0</v>
+        <v>195.0</v>
       </c>
       <c r="B218" s="43" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C218" s="40"/>
       <c r="D218" s="40"/>
     </row>
     <row r="219" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="44" t="n">
-        <v>195.0</v>
+        <v>196.0</v>
       </c>
       <c r="B219" s="43" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C219" s="40"/>
       <c r="D219" s="40"/>
     </row>
     <row r="220" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="42" t="n">
-        <v>196.0</v>
+        <v>197.0</v>
       </c>
       <c r="B220" s="43" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C220" s="40"/>
       <c r="D220" s="40"/>
     </row>
     <row r="221" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="45" t="n">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
       <c r="B221" s="47" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C221" s="40"/>
       <c r="D221" s="40"/>
     </row>
     <row r="222" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="n">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C222" s="40"/>
       <c r="D222" s="40"/>
     </row>
     <row r="223" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="B223" s="47" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C223" s="37"/>
       <c r="D223" s="37"/>
     </row>
     <row r="224" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="45" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="B224" s="43" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C224" s="37"/>
       <c r="D224" s="37"/>
     </row>
     <row r="225" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="n">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
       <c r="B225" s="43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C225" s="37"/>
       <c r="D225" s="37"/>
     </row>
     <row r="226" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="n">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
       <c r="B226" s="43" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C226" s="37"/>
       <c r="D226" s="37"/>
     </row>
     <row r="227" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="n">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
       <c r="B227" s="43" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C227" s="37"/>
       <c r="D227" s="37"/>
     </row>
     <row r="228" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="38" t="n">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
       <c r="B228" s="43" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C228" s="37"/>
       <c r="D228" s="37"/>
     </row>
     <row r="229" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="n">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
       <c r="B229" s="47" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C229" s="37"/>
       <c r="D229" s="37"/>
     </row>
     <row r="230" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="44" t="n">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="B230" s="47" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C230" s="37"/>
       <c r="D230" s="37"/>
     </row>
     <row r="231" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="44" t="n">
-        <v>207.0</v>
+        <v>208.0</v>
       </c>
       <c r="B231" s="43" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C231" s="37"/>
       <c r="D231" s="37"/>
     </row>
     <row r="232" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="44" t="n">
-        <v>208.0</v>
+        <v>209.0</v>
       </c>
       <c r="B232" s="47" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C232" s="37"/>
       <c r="D232" s="37"/>
     </row>
     <row r="233" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="44" t="n">
-        <v>209.0</v>
+        <v>210.0</v>
       </c>
       <c r="B233" s="47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C233" s="37"/>
       <c r="D233" s="37"/>
     </row>
     <row r="234" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="44" t="n">
-        <v>210.0</v>
+        <v>211.0</v>
       </c>
       <c r="B234" s="47" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C234" s="37"/>
       <c r="D234" s="37"/>
     </row>
     <row r="235" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="44" t="n">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
       <c r="B235" s="47" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C235" s="37"/>
       <c r="D235" s="37"/>
     </row>
     <row r="236" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="44" t="n">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C236" s="37"/>
       <c r="D236" s="37"/>
     </row>
     <row r="237" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="44" t="n">
-        <v>213.0</v>
+        <v>214.0</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C237" s="37"/>
       <c r="D237" s="37"/>
     </row>
     <row r="238" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="44" t="n">
-        <v>214.0</v>
+        <v>215.0</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C238" s="37"/>
       <c r="D238" s="37"/>
     </row>
     <row r="239" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="44" t="n">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
       <c r="B239" s="43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C239" s="37"/>
       <c r="D239" s="37"/>
     </row>
     <row r="240" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="44" t="n">
-        <v>216.0</v>
-      </c>
-      <c r="B240" s="95" t="s">
-        <v>257</v>
+      <c r="A240" s="44"/>
+      <c r="B240" s="75" t="s">
+        <v>352</v>
       </c>
       <c r="C240" s="37"/>
       <c r="D240" s="37"/>
@@ -39722,8 +39507,8 @@
       <c r="A241" s="44" t="n">
         <v>217.0</v>
       </c>
-      <c r="B241" s="97" t="s">
-        <v>283</v>
+      <c r="B241" s="70" t="s">
+        <v>353</v>
       </c>
       <c r="C241" s="37"/>
       <c r="D241" s="37"/>
@@ -39732,8 +39517,8 @@
       <c r="A242" s="44" t="n">
         <v>218.0</v>
       </c>
-      <c r="B242" s="92" t="s">
-        <v>561</v>
+      <c r="B242" s="43" t="s">
+        <v>354</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="37"/>
@@ -39742,198 +39527,198 @@
       <c r="A243" s="44" t="n">
         <v>219.0</v>
       </c>
-      <c r="B243" s="98" t="s">
-        <v>284</v>
+      <c r="B243" s="43" t="s">
+        <v>355</v>
       </c>
       <c r="C243" s="37"/>
       <c r="D243" s="37"/>
     </row>
     <row r="244" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="44" t="n">
-        <v>219.0</v>
+        <v>220.0</v>
       </c>
       <c r="B244" s="43" t="s">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="C244" s="37"/>
       <c r="D244" s="37"/>
     </row>
     <row r="245" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="44" t="n">
-        <v>220.0</v>
+        <v>221.0</v>
       </c>
       <c r="B245" s="43" t="s">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="C245" s="37"/>
       <c r="D245" s="37"/>
     </row>
     <row r="246" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="44" t="n">
-        <v>221.0</v>
+        <v>222.0</v>
       </c>
       <c r="B246" s="43" t="s">
-        <v>287</v>
+        <v>358</v>
       </c>
       <c r="C246" s="37"/>
       <c r="D246" s="37"/>
     </row>
     <row r="247" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="44" t="n">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="B247" s="43" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="C247" s="37"/>
       <c r="D247" s="37"/>
     </row>
     <row r="248" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="44" t="n">
-        <v>223.0</v>
+        <v>224.0</v>
       </c>
       <c r="B248" s="43" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="C248" s="37"/>
       <c r="D248" s="37"/>
     </row>
     <row r="249" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="44" t="n">
-        <v>224.0</v>
+        <v>225.0</v>
       </c>
       <c r="B249" s="43" t="s">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="C249" s="37"/>
       <c r="D249" s="37"/>
     </row>
     <row r="250" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="42" t="n">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
       <c r="B250" s="43" t="s">
-        <v>291</v>
+        <v>362</v>
       </c>
       <c r="C250" s="37"/>
       <c r="D250" s="37"/>
     </row>
     <row r="251" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="44" t="n">
-        <v>226.0</v>
+        <v>227.0</v>
       </c>
       <c r="B251" s="43" t="s">
-        <v>292</v>
+        <v>363</v>
       </c>
       <c r="C251" s="37"/>
       <c r="D251" s="37"/>
     </row>
     <row r="252" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="44" t="n">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="B252" s="43" t="s">
-        <v>293</v>
+        <v>364</v>
       </c>
       <c r="C252" s="37"/>
       <c r="D252" s="37"/>
     </row>
     <row r="253" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="44" t="n">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
       <c r="B253" s="43" t="s">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="C253" s="37"/>
       <c r="D253" s="37"/>
     </row>
     <row r="254" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="44" t="n">
-        <v>229.0</v>
+        <v>230.0</v>
       </c>
       <c r="B254" s="43" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="C254" s="37"/>
       <c r="D254" s="37"/>
     </row>
     <row r="255" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="44" t="n">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="B255" s="43" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="C255" s="37"/>
       <c r="D255" s="37"/>
     </row>
     <row r="256" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="44" t="n">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
       <c r="B256" s="43" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="C256" s="37"/>
       <c r="D256" s="37"/>
     </row>
     <row r="257" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="44" t="n">
-        <v>232.0</v>
+        <v>233.0</v>
       </c>
       <c r="B257" s="43" t="s">
-        <v>298</v>
+        <v>369</v>
       </c>
       <c r="C257" s="37"/>
       <c r="D257" s="37"/>
     </row>
     <row r="258" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="44" t="n">
-        <v>233.0</v>
+        <v>234.0</v>
       </c>
       <c r="B258" s="43" t="s">
-        <v>299</v>
+        <v>370</v>
       </c>
       <c r="C258" s="37"/>
       <c r="D258" s="37"/>
     </row>
     <row r="259" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="44" t="n">
-        <v>234.0</v>
+        <v>235.0</v>
       </c>
       <c r="B259" s="43" t="s">
-        <v>300</v>
+        <v>371</v>
       </c>
       <c r="C259" s="37"/>
       <c r="D259" s="37"/>
     </row>
     <row r="260" spans="1:4" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="44" t="n">
-        <v>235.0</v>
+        <v>236.0</v>
       </c>
       <c r="B260" s="43" t="s">
-        <v>301</v>
+        <v>372</v>
       </c>
       <c r="C260" s="37"/>
       <c r="D260" s="37"/>
     </row>
     <row r="261" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="44" t="n">
-        <v>236.0</v>
+        <v>237.0</v>
       </c>
       <c r="B261" s="43" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="C261" s="37"/>
       <c r="D261" s="37"/>
     </row>
     <row r="262" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="44" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="B262" s="43" t="s">
-        <v>303</v>
+        <v>238.0</v>
+      </c>
+      <c r="B262" s="75" t="s">
+        <v>374</v>
       </c>
       <c r="C262" s="37"/>
       <c r="D262" s="37"/>
@@ -39943,7 +39728,7 @@
         <v>238.0</v>
       </c>
       <c r="B263" s="43" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="C263" s="37"/>
       <c r="D263" s="37"/>
@@ -39953,7 +39738,7 @@
         <v>239.0</v>
       </c>
       <c r="B264" s="43" t="s">
-        <v>305</v>
+        <v>376</v>
       </c>
       <c r="C264" s="37"/>
       <c r="D264" s="37"/>
@@ -39963,7 +39748,7 @@
         <v>240.0</v>
       </c>
       <c r="B265" s="43" t="s">
-        <v>306</v>
+        <v>377</v>
       </c>
       <c r="C265" s="37"/>
       <c r="D265" s="37"/>
@@ -39973,7 +39758,7 @@
         <v>241.0</v>
       </c>
       <c r="B266" s="43" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="C266" s="37"/>
       <c r="D266" s="37"/>
@@ -39983,7 +39768,7 @@
         <v>242.0</v>
       </c>
       <c r="B267" s="43" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="C267" s="37"/>
       <c r="D267" s="37"/>
@@ -39993,7 +39778,7 @@
         <v>243.0</v>
       </c>
       <c r="B268" s="43" t="s">
-        <v>309</v>
+        <v>376</v>
       </c>
       <c r="C268" s="37"/>
       <c r="D268" s="37"/>
@@ -40003,7 +39788,7 @@
         <v>244.0</v>
       </c>
       <c r="B269" s="43" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="C269" s="37"/>
       <c r="D269" s="37"/>
@@ -40013,7 +39798,7 @@
         <v>245.0</v>
       </c>
       <c r="B270" s="43" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="C270" s="37"/>
       <c r="D270" s="37"/>
@@ -40023,7 +39808,7 @@
         <v>246.0</v>
       </c>
       <c r="B271" s="43" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="C271" s="37"/>
       <c r="D271" s="37"/>
@@ -40033,7 +39818,7 @@
         <v>247.0</v>
       </c>
       <c r="B272" s="43" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="C272" s="37"/>
       <c r="D272" s="37"/>
@@ -40043,7 +39828,7 @@
         <v>248.0</v>
       </c>
       <c r="B273" s="43" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="C273" s="37"/>
       <c r="D273" s="37"/>
@@ -40053,7 +39838,7 @@
         <v>249.0</v>
       </c>
       <c r="B274" s="43" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="C274" s="37"/>
       <c r="D274" s="37"/>
@@ -40063,7 +39848,7 @@
         <v>250.0</v>
       </c>
       <c r="B275" s="43" t="s">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="C275" s="37"/>
       <c r="D275" s="37"/>
@@ -40073,7 +39858,7 @@
         <v>251.0</v>
       </c>
       <c r="B276" s="43" t="s">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="C276" s="37"/>
       <c r="D276" s="37"/>
@@ -40083,7 +39868,7 @@
         <v>252.0</v>
       </c>
       <c r="B277" s="43" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="C277" s="37"/>
       <c r="D277" s="37"/>
@@ -40093,7 +39878,7 @@
         <v>253.0</v>
       </c>
       <c r="B278" s="43" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="C278" s="37"/>
       <c r="D278" s="37"/>
@@ -40103,7 +39888,7 @@
         <v>254.0</v>
       </c>
       <c r="B279" s="43" t="s">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="C279" s="37"/>
       <c r="D279" s="37"/>
@@ -40113,7 +39898,7 @@
         <v>255.0</v>
       </c>
       <c r="B280" s="43" t="s">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="C280" s="37"/>
       <c r="D280" s="37"/>
@@ -40123,7 +39908,7 @@
         <v>256.0</v>
       </c>
       <c r="B281" s="43" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="C281" s="37"/>
       <c r="D281" s="37"/>
@@ -40133,7 +39918,7 @@
         <v>257.0</v>
       </c>
       <c r="B282" s="43" t="s">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="C282" s="37"/>
       <c r="D282" s="37"/>
@@ -40143,7 +39928,7 @@
         <v>258.0</v>
       </c>
       <c r="B283" s="43" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="C283" s="37"/>
       <c r="D283" s="37"/>
@@ -40153,7 +39938,7 @@
         <v>259.0</v>
       </c>
       <c r="B284" s="43" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="C284" s="37"/>
       <c r="D284" s="37"/>
@@ -40163,7 +39948,7 @@
         <v>260.0</v>
       </c>
       <c r="B285" s="43" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="C285" s="37"/>
       <c r="D285" s="37"/>
@@ -40173,7 +39958,7 @@
         <v>261.0</v>
       </c>
       <c r="B286" s="43" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="C286" s="37"/>
       <c r="D286" s="37"/>
@@ -40183,7 +39968,7 @@
         <v>262.0</v>
       </c>
       <c r="B287" s="43" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="C287" s="37"/>
       <c r="D287" s="37"/>
@@ -40193,7 +39978,7 @@
         <v>263.0</v>
       </c>
       <c r="B288" s="43" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="C288" s="37"/>
       <c r="D288" s="37"/>
@@ -40203,7 +39988,7 @@
         <v>264.0</v>
       </c>
       <c r="B289" s="43" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="C289" s="37"/>
       <c r="D289" s="37"/>
@@ -40213,7 +39998,7 @@
         <v>265.0</v>
       </c>
       <c r="B290" s="43" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="C290" s="37"/>
       <c r="D290" s="37"/>
@@ -40223,7 +40008,7 @@
         <v>266.0</v>
       </c>
       <c r="B291" s="43" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="C291" s="37"/>
       <c r="D291" s="37"/>
@@ -40233,7 +40018,7 @@
         <v>267.0</v>
       </c>
       <c r="B292" s="43" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="C292" s="37"/>
       <c r="D292" s="37"/>
@@ -40243,7 +40028,7 @@
         <v>268.0</v>
       </c>
       <c r="B293" s="43" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="C293" s="37"/>
       <c r="D293" s="37"/>
@@ -40253,7 +40038,7 @@
         <v>269.0</v>
       </c>
       <c r="B294" s="43" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="C294" s="37"/>
       <c r="D294" s="37"/>
@@ -40263,7 +40048,7 @@
         <v>270.0</v>
       </c>
       <c r="B295" s="43" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="C295" s="37"/>
       <c r="D295" s="37"/>
@@ -40273,7 +40058,7 @@
         <v>271.0</v>
       </c>
       <c r="B296" s="43" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="C296" s="37"/>
       <c r="D296" s="37"/>
@@ -40283,7 +40068,7 @@
         <v>272.0</v>
       </c>
       <c r="B297" s="43" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="C297" s="37"/>
       <c r="D297" s="37"/>
@@ -40293,7 +40078,7 @@
         <v>273.0</v>
       </c>
       <c r="B298" s="43" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="C298" s="37"/>
       <c r="D298" s="37"/>
@@ -40303,107 +40088,107 @@
         <v>274.0</v>
       </c>
       <c r="B299" s="43" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="C299" s="37"/>
       <c r="D299" s="37"/>
     </row>
     <row r="300" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="44" t="n">
-        <v>275.0</v>
-      </c>
-      <c r="B300" s="43" t="s">
-        <v>341</v>
+        <v>276.0</v>
+      </c>
+      <c r="B300" s="75" t="s">
+        <v>395</v>
       </c>
       <c r="C300" s="37"/>
       <c r="D300" s="37"/>
     </row>
     <row r="301" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="44" t="n">
-        <v>276.0</v>
+        <v>275.0</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="C301" s="37"/>
       <c r="D301" s="37"/>
     </row>
     <row r="302" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="44" t="n">
-        <v>277.0</v>
+        <v>276.0</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="C302" s="37"/>
       <c r="D302" s="37"/>
     </row>
     <row r="303" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="44" t="n">
-        <v>278.0</v>
+        <v>277.0</v>
       </c>
       <c r="B303" s="43" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="C303" s="37"/>
       <c r="D303" s="37"/>
     </row>
     <row r="304" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="44" t="n">
-        <v>279.0</v>
+        <v>278.0</v>
       </c>
       <c r="B304" s="43" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="C304" s="37"/>
       <c r="D304" s="37"/>
     </row>
     <row r="305" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="44" t="n">
-        <v>280.0</v>
+        <v>279.0</v>
       </c>
       <c r="B305" s="43" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="C305" s="37"/>
       <c r="D305" s="37"/>
     </row>
     <row r="306" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="44" t="n">
-        <v>281.0</v>
+        <v>280.0</v>
       </c>
       <c r="B306" s="43" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="C306" s="37"/>
       <c r="D306" s="37"/>
     </row>
     <row r="307" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="44" t="n">
-        <v>282.0</v>
+        <v>281.0</v>
       </c>
       <c r="B307" s="43" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="C307" s="37"/>
       <c r="D307" s="37"/>
     </row>
     <row r="308" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="44" t="n">
-        <v>283.0</v>
-      </c>
-      <c r="B308" s="95" t="s">
-        <v>349</v>
+        <v>282.0</v>
+      </c>
+      <c r="B308" s="74" t="s">
+        <v>403</v>
       </c>
       <c r="C308" s="37"/>
       <c r="D308" s="37"/>
     </row>
     <row r="309" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="44" t="n">
-        <v>284.0</v>
-      </c>
-      <c r="B309" s="97" t="s">
-        <v>350</v>
+        <v>283.0</v>
+      </c>
+      <c r="B309" s="70" t="s">
+        <v>404</v>
       </c>
       <c r="C309" s="37"/>
       <c r="D309" s="37"/>
@@ -40412,618 +40197,618 @@
       <c r="A310" s="42" t="n">
         <v>285.0</v>
       </c>
-      <c r="B310" s="92" t="s">
-        <v>351</v>
+      <c r="B310" s="75" t="s">
+        <v>405</v>
       </c>
       <c r="C310" s="37"/>
       <c r="D310" s="37"/>
     </row>
     <row r="311" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="44" t="n">
-        <v>286.0</v>
-      </c>
-      <c r="B311" s="98" t="s">
-        <v>352</v>
+        <v>284.0</v>
+      </c>
+      <c r="B311" s="43" t="s">
+        <v>406</v>
       </c>
       <c r="C311" s="37"/>
       <c r="D311" s="37"/>
     </row>
     <row r="312" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="44" t="n">
-        <v>286.0</v>
+        <v>285.0</v>
       </c>
       <c r="B312" s="43" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="C312" s="37"/>
       <c r="D312" s="37"/>
     </row>
     <row r="313" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="44" t="n">
-        <v>287.0</v>
-      </c>
-      <c r="B313" s="43" t="s">
-        <v>354</v>
+        <v>288.0</v>
+      </c>
+      <c r="B313" s="75" t="s">
+        <v>555</v>
       </c>
       <c r="C313" s="37"/>
       <c r="D313" s="37"/>
     </row>
     <row r="314" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="42" t="n">
-        <v>288.0</v>
+        <v>286.0</v>
       </c>
       <c r="B314" s="43" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="C314" s="37"/>
       <c r="D314" s="37"/>
     </row>
     <row r="315" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="44" t="n">
-        <v>289.0</v>
+        <v>287.0</v>
       </c>
       <c r="B315" s="43" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="C315" s="37"/>
       <c r="D315" s="37"/>
     </row>
     <row r="316" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="42" t="n">
-        <v>290.0</v>
+        <v>288.0</v>
       </c>
       <c r="B316" s="43" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="C316" s="38"/>
       <c r="D316" s="38"/>
     </row>
     <row r="317" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="42" t="n">
-        <v>291.0</v>
+        <v>289.0</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="C317" s="37"/>
       <c r="D317" s="37"/>
     </row>
     <row r="318" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="44" t="n">
-        <v>292.0</v>
+        <v>290.0</v>
       </c>
       <c r="B318" s="43" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="C318" s="37"/>
       <c r="D318" s="37"/>
     </row>
     <row r="319" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="44" t="n">
-        <v>293.0</v>
+        <v>291.0</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="C319" s="37"/>
       <c r="D319" s="37"/>
     </row>
     <row r="320" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="44" t="n">
-        <v>294.0</v>
+        <v>292.0</v>
       </c>
       <c r="B320" s="43" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="C320" s="37"/>
       <c r="D320" s="37"/>
     </row>
     <row r="321" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="44" t="n">
-        <v>295.0</v>
+        <v>293.0</v>
       </c>
       <c r="B321" s="43" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="C321" s="37"/>
       <c r="D321" s="37"/>
     </row>
     <row r="322" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="44" t="n">
-        <v>296.0</v>
+        <v>294.0</v>
       </c>
       <c r="B322" s="43" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="C322" s="37"/>
       <c r="D322" s="37"/>
     </row>
     <row r="323" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="44" t="n">
-        <v>297.0</v>
+        <v>295.0</v>
       </c>
       <c r="B323" s="43" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="C323" s="37"/>
       <c r="D323" s="37"/>
     </row>
     <row r="324" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="44" t="n">
-        <v>298.0</v>
+        <v>296.0</v>
       </c>
       <c r="B324" s="43" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="C324" s="37"/>
       <c r="D324" s="37"/>
     </row>
     <row r="325" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="44" t="n">
-        <v>299.0</v>
+        <v>297.0</v>
       </c>
       <c r="B325" s="43" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="C325" s="37"/>
       <c r="D325" s="37"/>
     </row>
     <row r="326" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="44" t="n">
-        <v>300.0</v>
+        <v>298.0</v>
       </c>
       <c r="B326" s="43" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="C326" s="37"/>
       <c r="D326" s="37"/>
     </row>
     <row r="327" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="44" t="n">
-        <v>301.0</v>
+        <v>299.0</v>
       </c>
       <c r="B327" s="43" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="C327" s="37"/>
       <c r="D327" s="37"/>
     </row>
     <row r="328" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="44" t="n">
-        <v>302.0</v>
+        <v>300.0</v>
       </c>
       <c r="B328" s="43" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="C328" s="37"/>
       <c r="D328" s="37"/>
     </row>
     <row r="329" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="44" t="n">
-        <v>303.0</v>
+        <v>301.0</v>
       </c>
       <c r="B329" s="43" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="C329" s="37"/>
       <c r="D329" s="37"/>
     </row>
     <row r="330" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="44" t="n">
-        <v>304.0</v>
-      </c>
-      <c r="B330" s="95" t="s">
-        <v>371</v>
+        <v>302.0</v>
+      </c>
+      <c r="B330" s="74" t="s">
+        <v>301</v>
       </c>
       <c r="C330" s="37"/>
       <c r="D330" s="37"/>
     </row>
     <row r="331" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="44" t="n">
-        <v>305.0</v>
-      </c>
-      <c r="B331" s="97" t="s">
-        <v>372</v>
+        <v>303.0</v>
+      </c>
+      <c r="B331" s="70" t="s">
+        <v>302</v>
       </c>
       <c r="C331" s="37"/>
       <c r="D331" s="37"/>
     </row>
     <row r="332" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="44" t="n">
-        <v>306.0</v>
-      </c>
-      <c r="B332" s="92" t="s">
-        <v>373</v>
+        <v>304.0</v>
+      </c>
+      <c r="B332" s="43" t="s">
+        <v>303</v>
       </c>
       <c r="C332" s="37"/>
       <c r="D332" s="37"/>
     </row>
     <row r="333" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="44" t="n">
-        <v>307.0</v>
-      </c>
-      <c r="B333" s="98" t="s">
-        <v>374</v>
+        <v>305.0</v>
+      </c>
+      <c r="B333" s="43" t="s">
+        <v>304</v>
       </c>
       <c r="C333" s="37"/>
       <c r="D333" s="37"/>
     </row>
     <row r="334" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="44" t="n">
-        <v>307.0</v>
+        <v>306.0</v>
       </c>
       <c r="B334" s="43" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="C334" s="37"/>
       <c r="D334" s="37"/>
     </row>
     <row r="335" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="44" t="n">
-        <v>308.0</v>
+        <v>307.0</v>
       </c>
       <c r="B335" s="43" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="C335" s="37"/>
       <c r="D335" s="37"/>
     </row>
     <row r="336" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="44" t="n">
-        <v>309.0</v>
+        <v>308.0</v>
       </c>
       <c r="B336" s="43" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="C336" s="37"/>
       <c r="D336" s="37"/>
     </row>
     <row r="337" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="44" t="n">
-        <v>310.0</v>
+        <v>309.0</v>
       </c>
       <c r="B337" s="43" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="C337" s="37"/>
       <c r="D337" s="37"/>
     </row>
     <row r="338" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="42" t="n">
-        <v>311.0</v>
+        <v>310.0</v>
       </c>
       <c r="B338" s="43" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="C338" s="37"/>
       <c r="D338" s="37"/>
     </row>
     <row r="339" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="44" t="n">
-        <v>312.0</v>
+        <v>311.0</v>
       </c>
       <c r="B339" s="43" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="C339" s="37"/>
       <c r="D339" s="37"/>
     </row>
     <row r="340" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="44" t="n">
-        <v>313.0</v>
+        <v>312.0</v>
       </c>
       <c r="B340" s="43" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="C340" s="37"/>
       <c r="D340" s="37"/>
     </row>
     <row r="341" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="44" t="n">
-        <v>314.0</v>
+        <v>313.0</v>
       </c>
       <c r="B341" s="43" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="C341" s="37"/>
       <c r="D341" s="37"/>
     </row>
     <row r="342" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="44" t="n">
-        <v>315.0</v>
+        <v>314.0</v>
       </c>
       <c r="B342" s="43" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="C342" s="37"/>
       <c r="D342" s="37"/>
     </row>
     <row r="343" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="44" t="n">
-        <v>316.0</v>
+        <v>315.0</v>
       </c>
       <c r="B343" s="43" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="C343" s="37"/>
       <c r="D343" s="37"/>
     </row>
     <row r="344" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="44" t="n">
-        <v>317.0</v>
+        <v>316.0</v>
       </c>
       <c r="B344" s="43" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="C344" s="37"/>
       <c r="D344" s="37"/>
     </row>
     <row r="345" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="44" t="n">
-        <v>318.0</v>
+        <v>317.0</v>
       </c>
       <c r="B345" s="43" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="C345" s="37"/>
       <c r="D345" s="37"/>
     </row>
     <row r="346" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="44" t="n">
-        <v>319.0</v>
+        <v>318.0</v>
       </c>
       <c r="B346" s="43" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="C346" s="37"/>
       <c r="D346" s="37"/>
     </row>
     <row r="347" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="44" t="n">
-        <v>320.0</v>
+        <v>319.0</v>
       </c>
       <c r="B347" s="43" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="C347" s="37"/>
       <c r="D347" s="37"/>
     </row>
     <row r="348" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="44" t="n">
-        <v>321.0</v>
+        <v>320.0</v>
       </c>
       <c r="B348" s="43" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="C348" s="37"/>
       <c r="D348" s="37"/>
     </row>
     <row r="349" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="44" t="n">
-        <v>322.0</v>
+        <v>321.0</v>
       </c>
       <c r="B349" s="43" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="C349" s="37"/>
       <c r="D349" s="37"/>
     </row>
     <row r="350" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="44" t="n">
-        <v>323.0</v>
+        <v>322.0</v>
       </c>
       <c r="B350" s="43" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="C350" s="37"/>
       <c r="D350" s="37"/>
     </row>
     <row r="351" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="44" t="n">
-        <v>324.0</v>
+        <v>323.0</v>
       </c>
       <c r="B351" s="43" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
       <c r="C351" s="37"/>
       <c r="D351" s="37"/>
     </row>
     <row r="352" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="44" t="n">
-        <v>325.0</v>
+        <v>324.0</v>
       </c>
       <c r="B352" s="43" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="C352" s="37"/>
       <c r="D352" s="37"/>
     </row>
     <row r="353" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="44" t="n">
-        <v>326.0</v>
+        <v>325.0</v>
       </c>
       <c r="B353" s="43" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="C353" s="37"/>
       <c r="D353" s="37"/>
     </row>
     <row r="354" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="44" t="n">
-        <v>327.0</v>
+        <v>326.0</v>
       </c>
       <c r="B354" s="43" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="C354" s="37"/>
       <c r="D354" s="37"/>
     </row>
     <row r="355" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="44" t="n">
-        <v>328.0</v>
+        <v>327.0</v>
       </c>
       <c r="B355" s="43" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="C355" s="37"/>
       <c r="D355" s="37"/>
     </row>
     <row r="356" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="44" t="n">
-        <v>329.0</v>
+        <v>328.0</v>
       </c>
       <c r="B356" s="43" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="C356" s="37"/>
       <c r="D356" s="37"/>
     </row>
     <row r="357" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="45" t="n">
-        <v>330.0</v>
+        <v>329.0</v>
       </c>
       <c r="B357" s="43" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="C357" s="37"/>
       <c r="D357" s="37"/>
     </row>
     <row r="358" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="44" t="n">
-        <v>331.0</v>
+        <v>330.0</v>
       </c>
       <c r="B358" s="43" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="C358" s="37"/>
       <c r="D358" s="37"/>
     </row>
     <row r="359" spans="1:4" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="42" t="n">
-        <v>332.0</v>
+        <v>331.0</v>
       </c>
       <c r="B359" s="43" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="C359" s="38"/>
       <c r="D359" s="38"/>
     </row>
     <row r="360" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="44" t="n">
-        <v>333.0</v>
+        <v>332.0</v>
       </c>
       <c r="B360" s="43" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="C360" s="37"/>
       <c r="D360" s="37"/>
     </row>
     <row r="361" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="44" t="n">
-        <v>334.0</v>
+        <v>333.0</v>
       </c>
       <c r="B361" s="43" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="C361" s="37"/>
       <c r="D361" s="37"/>
     </row>
     <row r="362" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="44" t="n">
-        <v>335.0</v>
+        <v>334.0</v>
       </c>
       <c r="B362" s="43" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="C362" s="37"/>
       <c r="D362" s="37"/>
     </row>
     <row r="363" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="44" t="n">
-        <v>336.0</v>
+        <v>335.0</v>
       </c>
       <c r="B363" s="43" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="C363" s="37"/>
       <c r="D363" s="37"/>
     </row>
     <row r="364" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="44" t="n">
-        <v>337.0</v>
+        <v>336.0</v>
       </c>
       <c r="B364" s="43" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="C364" s="37"/>
       <c r="D364" s="37"/>
     </row>
     <row r="365" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="44" t="n">
-        <v>338.0</v>
+        <v>337.0</v>
       </c>
       <c r="B365" s="43" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="C365" s="37"/>
       <c r="D365" s="37"/>
     </row>
     <row r="366" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="44" t="n">
-        <v>339.0</v>
+        <v>338.0</v>
       </c>
       <c r="B366" s="43" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="C366" s="37"/>
       <c r="D366" s="37"/>
     </row>
     <row r="367" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="44" t="n">
-        <v>340.0</v>
+        <v>339.0</v>
       </c>
       <c r="B367" s="43" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="C367" s="37"/>
       <c r="D367" s="37"/>
     </row>
     <row r="368" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="44" t="n">
-        <v>341.0</v>
-      </c>
-      <c r="B368" s="95" t="s">
-        <v>393</v>
+        <v>340.0</v>
+      </c>
+      <c r="B368" s="74" t="s">
+        <v>339</v>
       </c>
       <c r="C368" s="37"/>
       <c r="D368" s="37"/>
     </row>
     <row r="369" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="44" t="n">
-        <v>342.0</v>
-      </c>
-      <c r="B369" s="97" t="s">
-        <v>394</v>
+        <v>341.0</v>
+      </c>
+      <c r="B369" s="70" t="s">
+        <v>340</v>
       </c>
       <c r="C369" s="37"/>
       <c r="D369" s="37"/>
     </row>
     <row r="370" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="44" t="n">
-        <v>343.0</v>
-      </c>
-      <c r="B370" s="92" t="s">
-        <v>394</v>
+        <v>342.0</v>
+      </c>
+      <c r="B370" s="43" t="s">
+        <v>341</v>
       </c>
       <c r="C370" s="37"/>
       <c r="D370" s="37"/>
     </row>
     <row r="371" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="44" t="n">
-        <v>344.0</v>
-      </c>
-      <c r="B371" s="98" t="s">
-        <v>395</v>
+        <v>343.0</v>
+      </c>
+      <c r="B371" s="43" t="s">
+        <v>342</v>
       </c>
       <c r="C371" s="37"/>
       <c r="D371" s="37"/>
@@ -41033,7 +40818,7 @@
         <v>344.0</v>
       </c>
       <c r="B372" s="43" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="C372" s="37"/>
       <c r="D372" s="37"/>
@@ -41043,7 +40828,7 @@
         <v>345.0</v>
       </c>
       <c r="B373" s="43" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="C373" s="37"/>
       <c r="D373" s="37"/>
@@ -41053,7 +40838,7 @@
         <v>346.0</v>
       </c>
       <c r="B374" s="43" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="C374" s="37"/>
       <c r="D374" s="37"/>
@@ -41063,7 +40848,7 @@
         <v>347.0</v>
       </c>
       <c r="B375" s="43" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="C375" s="37"/>
       <c r="D375" s="37"/>
@@ -41073,7 +40858,7 @@
         <v>348.0</v>
       </c>
       <c r="B376" s="43" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="C376" s="37"/>
       <c r="D376" s="37"/>
@@ -41083,7 +40868,7 @@
         <v>349.0</v>
       </c>
       <c r="B377" s="43" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="C377" s="37"/>
       <c r="D377" s="37"/>
@@ -41092,8 +40877,8 @@
       <c r="A378" s="44" t="n">
         <v>350.0</v>
       </c>
-      <c r="B378" s="95" t="s">
-        <v>402</v>
+      <c r="B378" s="74" t="s">
+        <v>349</v>
       </c>
       <c r="C378" s="37"/>
       <c r="D378" s="37"/>
@@ -41102,8 +40887,8 @@
       <c r="A379" s="44" t="n">
         <v>351.0</v>
       </c>
-      <c r="B379" s="97" t="s">
-        <v>403</v>
+      <c r="B379" s="70" t="s">
+        <v>350</v>
       </c>
       <c r="C379" s="37"/>
       <c r="D379" s="37"/>
@@ -41112,18 +40897,16 @@
       <c r="A380" s="44" t="n">
         <v>352.0</v>
       </c>
-      <c r="B380" s="92" t="s">
-        <v>404</v>
+      <c r="B380" s="43" t="s">
+        <v>351</v>
       </c>
       <c r="C380" s="37"/>
       <c r="D380" s="37"/>
     </row>
     <row r="381" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A381" s="44" t="n">
-        <v>353.0</v>
-      </c>
-      <c r="B381" s="98" t="s">
-        <v>405</v>
+      <c r="A381" s="44"/>
+      <c r="B381" s="75" t="s">
+        <v>408</v>
       </c>
       <c r="C381" s="37"/>
       <c r="D381" s="37"/>
@@ -41132,8 +40915,8 @@
       <c r="A382" s="44" t="n">
         <v>353.0</v>
       </c>
-      <c r="B382" s="97" t="s">
-        <v>406</v>
+      <c r="B382" s="70" t="s">
+        <v>409</v>
       </c>
       <c r="C382" s="37"/>
       <c r="D382" s="37"/>
@@ -41142,8 +40925,8 @@
       <c r="A383" s="44" t="n">
         <v>354.0</v>
       </c>
-      <c r="B383" s="92" t="s">
-        <v>407</v>
+      <c r="B383" s="43" t="s">
+        <v>410</v>
       </c>
       <c r="C383" s="37"/>
       <c r="D383" s="37"/>
@@ -41152,28 +40935,26 @@
       <c r="A384" s="44" t="n">
         <v>355.0</v>
       </c>
-      <c r="B384" s="98" t="s">
-        <v>408</v>
+      <c r="B384" s="43" t="s">
+        <v>411</v>
       </c>
       <c r="C384" s="37"/>
       <c r="D384" s="37"/>
     </row>
     <row r="385" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="44" t="n">
-        <v>355.0</v>
+        <v>356.0</v>
       </c>
       <c r="B385" s="43" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C385" s="37"/>
       <c r="D385" s="37"/>
     </row>
     <row r="386" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="44" t="n">
-        <v>356.0</v>
-      </c>
-      <c r="B386" s="95" t="s">
-        <v>410</v>
+      <c r="A386" s="44"/>
+      <c r="B386" s="75" t="s">
+        <v>413</v>
       </c>
       <c r="C386" s="37"/>
       <c r="D386" s="37"/>
@@ -41182,8 +40963,8 @@
       <c r="A387" s="44" t="n">
         <v>357.0</v>
       </c>
-      <c r="B387" s="97" t="s">
-        <v>411</v>
+      <c r="B387" s="70" t="s">
+        <v>414</v>
       </c>
       <c r="C387" s="37"/>
       <c r="D387" s="37"/>
@@ -41192,8 +40973,8 @@
       <c r="A388" s="44" t="n">
         <v>358.0</v>
       </c>
-      <c r="B388" s="92" t="s">
-        <v>412</v>
+      <c r="B388" s="43" t="s">
+        <v>415</v>
       </c>
       <c r="C388" s="37"/>
       <c r="D388" s="37"/>
@@ -41202,785 +40983,785 @@
       <c r="A389" s="44" t="n">
         <v>359.0</v>
       </c>
-      <c r="B389" s="98" t="s">
-        <v>413</v>
+      <c r="B389" s="43" t="s">
+        <v>416</v>
       </c>
       <c r="C389" s="37"/>
       <c r="D389" s="37"/>
     </row>
     <row r="390" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="44" t="n">
-        <v>359.0</v>
+        <v>360.0</v>
       </c>
       <c r="B390" s="43" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C390" s="37"/>
       <c r="D390" s="37"/>
     </row>
     <row r="391" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="44" t="n">
-        <v>360.0</v>
+        <v>361.0</v>
       </c>
       <c r="B391" s="43" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C391" s="37"/>
       <c r="D391" s="37"/>
     </row>
     <row r="392" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="44" t="n">
-        <v>361.0</v>
+        <v>362.0</v>
       </c>
       <c r="B392" s="43" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C392" s="37"/>
       <c r="D392" s="37"/>
     </row>
     <row r="393" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="44" t="n">
-        <v>362.0</v>
+        <v>363.0</v>
       </c>
       <c r="B393" s="43" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C393" s="37"/>
       <c r="D393" s="37"/>
     </row>
     <row r="394" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="44" t="n">
-        <v>363.0</v>
+        <v>364.0</v>
       </c>
       <c r="B394" s="43" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C394" s="37"/>
       <c r="D394" s="37"/>
     </row>
     <row r="395" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="44" t="n">
-        <v>364.0</v>
+        <v>365.0</v>
       </c>
       <c r="B395" s="43" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C395" s="37"/>
       <c r="D395" s="37"/>
     </row>
     <row r="396" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="44" t="n">
-        <v>365.0</v>
+        <v>366.0</v>
       </c>
       <c r="B396" s="43" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C396" s="37"/>
       <c r="D396" s="37"/>
     </row>
     <row r="397" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="44" t="n">
-        <v>366.0</v>
+        <v>367.0</v>
       </c>
       <c r="B397" s="43" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C397" s="37"/>
       <c r="D397" s="37"/>
     </row>
     <row r="398" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="44" t="n">
-        <v>367.0</v>
+        <v>368.0</v>
       </c>
       <c r="B398" s="43" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C398" s="37"/>
       <c r="D398" s="37"/>
     </row>
     <row r="399" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="44" t="n">
-        <v>368.0</v>
+        <v>369.0</v>
       </c>
       <c r="B399" s="43" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C399" s="37"/>
       <c r="D399" s="37"/>
     </row>
     <row r="400" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="44" t="n">
-        <v>369.0</v>
+        <v>370.0</v>
       </c>
       <c r="B400" s="43" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C400" s="37"/>
       <c r="D400" s="37"/>
     </row>
     <row r="401" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="44" t="n">
-        <v>370.0</v>
+        <v>371.0</v>
       </c>
       <c r="B401" s="43" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C401" s="37"/>
       <c r="D401" s="37"/>
     </row>
     <row r="402" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="44" t="n">
-        <v>371.0</v>
+        <v>372.0</v>
       </c>
       <c r="B402" s="43" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C402" s="37"/>
       <c r="D402" s="37"/>
     </row>
     <row r="403" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="44" t="n">
-        <v>372.0</v>
+        <v>373.0</v>
       </c>
       <c r="B403" s="43" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C403" s="37"/>
       <c r="D403" s="37"/>
     </row>
     <row r="404" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="45" t="n">
-        <v>373.0</v>
+        <v>374.0</v>
       </c>
       <c r="B404" s="49" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C404" s="40"/>
       <c r="D404" s="37"/>
     </row>
     <row r="405" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="44" t="n">
-        <v>374.0</v>
+        <v>375.0</v>
       </c>
       <c r="B405" s="50" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C405" s="40"/>
       <c r="D405" s="37"/>
     </row>
     <row r="406" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="44" t="n">
-        <v>375.0</v>
+        <v>376.0</v>
       </c>
       <c r="B406" s="50" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C406" s="40"/>
       <c r="D406" s="37"/>
     </row>
     <row r="407" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="44" t="n">
-        <v>376.0</v>
+        <v>377.0</v>
       </c>
       <c r="B407" s="50" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C407" s="40"/>
       <c r="D407" s="37"/>
     </row>
     <row r="408" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="44" t="n">
-        <v>377.0</v>
+        <v>378.0</v>
       </c>
       <c r="B408" s="50" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C408" s="24"/>
       <c r="D408" s="37"/>
     </row>
     <row r="409" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="44" t="n">
-        <v>378.0</v>
+        <v>379.0</v>
       </c>
       <c r="B409" s="50" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C409" s="24"/>
       <c r="D409" s="37"/>
     </row>
     <row r="410" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="44" t="n">
-        <v>379.0</v>
+        <v>380.0</v>
       </c>
       <c r="B410" s="43" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C410" s="24"/>
       <c r="D410" s="37"/>
     </row>
     <row r="411" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="44" t="n">
-        <v>380.0</v>
+        <v>381.0</v>
       </c>
       <c r="B411" s="43" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C411" s="24"/>
       <c r="D411" s="37"/>
     </row>
     <row r="412" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="44" t="n">
-        <v>381.0</v>
+        <v>382.0</v>
       </c>
       <c r="B412" s="43" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C412" s="24"/>
       <c r="D412" s="37"/>
     </row>
     <row r="413" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="44" t="n">
-        <v>382.0</v>
+        <v>383.0</v>
       </c>
       <c r="B413" s="50" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C413" s="24"/>
       <c r="D413" s="37"/>
     </row>
     <row r="414" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="44" t="n">
-        <v>383.0</v>
+        <v>384.0</v>
       </c>
       <c r="B414" s="50" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C414" s="24"/>
       <c r="D414" s="37"/>
     </row>
     <row r="415" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="44" t="n">
-        <v>384.0</v>
+        <v>385.0</v>
       </c>
       <c r="B415" s="50" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C415" s="40"/>
       <c r="D415" s="37"/>
     </row>
     <row r="416" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="44" t="n">
-        <v>385.0</v>
+        <v>386.0</v>
       </c>
       <c r="B416" s="50" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C416" s="40"/>
       <c r="D416" s="37"/>
     </row>
     <row r="417" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="44" t="n">
-        <v>386.0</v>
+        <v>387.0</v>
       </c>
       <c r="B417" s="43" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C417" s="40"/>
       <c r="D417" s="37"/>
     </row>
     <row r="418" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="44" t="n">
-        <v>387.0</v>
+        <v>388.0</v>
       </c>
       <c r="B418" s="43" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C418" s="40"/>
       <c r="D418" s="37"/>
     </row>
     <row r="419" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="44" t="n">
-        <v>388.0</v>
+        <v>389.0</v>
       </c>
       <c r="B419" s="43" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C419" s="40"/>
       <c r="D419" s="37"/>
     </row>
     <row r="420" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="44" t="n">
-        <v>389.0</v>
+        <v>390.0</v>
       </c>
       <c r="B420" s="43" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C420" s="37"/>
       <c r="D420" s="37"/>
     </row>
     <row r="421" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="44" t="n">
-        <v>390.0</v>
+        <v>391.0</v>
       </c>
       <c r="B421" s="43" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C421" s="37"/>
       <c r="D421" s="37"/>
     </row>
     <row r="422" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="44" t="n">
-        <v>391.0</v>
+        <v>392.0</v>
       </c>
       <c r="B422" s="43" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C422" s="37"/>
       <c r="D422" s="37"/>
     </row>
     <row r="423" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="44" t="n">
-        <v>392.0</v>
+        <v>393.0</v>
       </c>
       <c r="B423" s="43" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C423" s="37"/>
       <c r="D423" s="37"/>
     </row>
     <row r="424" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="44" t="n">
-        <v>393.0</v>
+        <v>394.0</v>
       </c>
       <c r="B424" s="43" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C424" s="37"/>
       <c r="D424" s="37"/>
     </row>
     <row r="425" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="44" t="n">
-        <v>394.0</v>
+        <v>395.0</v>
       </c>
       <c r="B425" s="50" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C425" s="37"/>
       <c r="D425" s="37"/>
     </row>
     <row r="426" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="44" t="n">
-        <v>395.0</v>
+        <v>396.0</v>
       </c>
       <c r="B426" s="50" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C426" s="37"/>
       <c r="D426" s="37"/>
     </row>
     <row r="427" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="44" t="n">
-        <v>396.0</v>
+        <v>397.0</v>
       </c>
       <c r="B427" s="50" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C427" s="37"/>
       <c r="D427" s="37"/>
     </row>
     <row r="428" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="44" t="n">
-        <v>397.0</v>
+        <v>398.0</v>
       </c>
       <c r="B428" s="43" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C428" s="37"/>
       <c r="D428" s="37"/>
     </row>
     <row r="429" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="44" t="n">
-        <v>398.0</v>
+        <v>399.0</v>
       </c>
       <c r="B429" s="43" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C429" s="37"/>
       <c r="D429" s="37"/>
     </row>
     <row r="430" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="44" t="n">
-        <v>399.0</v>
+        <v>400.0</v>
       </c>
       <c r="B430" s="43" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C430" s="37"/>
       <c r="D430" s="37"/>
     </row>
     <row r="431" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="44" t="n">
-        <v>400.0</v>
+        <v>401.0</v>
       </c>
       <c r="B431" s="43" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C431" s="37"/>
       <c r="D431" s="37"/>
     </row>
     <row r="432" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="44" t="n">
-        <v>401.0</v>
+        <v>402.0</v>
       </c>
       <c r="B432" s="43" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C432" s="37"/>
       <c r="D432" s="37"/>
     </row>
     <row r="433" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="44" t="n">
-        <v>402.0</v>
+        <v>403.0</v>
       </c>
       <c r="B433" s="43" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C433" s="37"/>
       <c r="D433" s="37"/>
     </row>
     <row r="434" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="44" t="n">
-        <v>403.0</v>
+        <v>404.0</v>
       </c>
       <c r="B434" s="43" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C434" s="37"/>
       <c r="D434" s="37"/>
     </row>
     <row r="435" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="44" t="n">
-        <v>404.0</v>
+        <v>405.0</v>
       </c>
       <c r="B435" s="43" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C435" s="37"/>
       <c r="D435" s="37"/>
     </row>
     <row r="436" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="44" t="n">
-        <v>405.0</v>
+        <v>406.0</v>
       </c>
       <c r="B436" s="43" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C436" s="37"/>
       <c r="D436" s="37"/>
     </row>
     <row r="437" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="44" t="n">
-        <v>406.0</v>
+        <v>407.0</v>
       </c>
       <c r="B437" s="50" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C437" s="37"/>
       <c r="D437" s="37"/>
     </row>
     <row r="438" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="44" t="n">
-        <v>407.0</v>
+        <v>408.0</v>
       </c>
       <c r="B438" s="43" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C438" s="37"/>
       <c r="D438" s="37"/>
     </row>
     <row r="439" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="44" t="n">
-        <v>408.0</v>
+        <v>409.0</v>
       </c>
       <c r="B439" s="43" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C439" s="37"/>
       <c r="D439" s="37"/>
     </row>
     <row r="440" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="44" t="n">
-        <v>409.0</v>
+        <v>410.0</v>
       </c>
       <c r="B440" s="50" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C440" s="37"/>
       <c r="D440" s="37"/>
     </row>
     <row r="441" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="44" t="n">
-        <v>410.0</v>
+        <v>411.0</v>
       </c>
       <c r="B441" s="50" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C441" s="37"/>
       <c r="D441" s="37"/>
     </row>
     <row r="442" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="44" t="n">
-        <v>411.0</v>
+        <v>412.0</v>
       </c>
       <c r="B442" s="50" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C442" s="37"/>
       <c r="D442" s="37"/>
     </row>
     <row r="443" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="44" t="n">
-        <v>412.0</v>
+        <v>413.0</v>
       </c>
       <c r="B443" s="43" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C443" s="37"/>
       <c r="D443" s="37"/>
     </row>
     <row r="444" spans="1:4" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="44" t="n">
-        <v>413.0</v>
+        <v>414.0</v>
       </c>
       <c r="B444" s="43" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C444" s="37"/>
       <c r="D444" s="37"/>
     </row>
     <row r="445" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="44" t="n">
-        <v>414.0</v>
+        <v>415.0</v>
       </c>
       <c r="B445" s="43" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C445" s="37"/>
       <c r="D445" s="37"/>
     </row>
     <row r="446" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="44" t="n">
-        <v>415.0</v>
+        <v>416.0</v>
       </c>
       <c r="B446" s="43" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C446" s="37"/>
       <c r="D446" s="37"/>
     </row>
     <row r="447" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="44" t="n">
-        <v>416.0</v>
+        <v>417.0</v>
       </c>
       <c r="B447" s="43" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C447" s="37"/>
       <c r="D447" s="37"/>
     </row>
     <row r="448" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="44" t="n">
-        <v>417.0</v>
+        <v>418.0</v>
       </c>
       <c r="B448" s="43" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C448" s="37"/>
       <c r="D448" s="37"/>
     </row>
     <row r="449" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="44" t="n">
-        <v>418.0</v>
+        <v>419.0</v>
       </c>
       <c r="B449" s="43" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C449" s="37"/>
       <c r="D449" s="37"/>
     </row>
     <row r="450" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="44" t="n">
-        <v>419.0</v>
+        <v>420.0</v>
       </c>
       <c r="B450" s="43" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C450" s="37"/>
       <c r="D450" s="37"/>
     </row>
     <row r="451" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="44" t="n">
-        <v>420.0</v>
+        <v>421.0</v>
       </c>
       <c r="B451" s="43" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C451" s="37"/>
       <c r="D451" s="37"/>
     </row>
     <row r="452" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="44" t="n">
-        <v>421.0</v>
+        <v>422.0</v>
       </c>
       <c r="B452" s="43" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C452" s="37"/>
       <c r="D452" s="37"/>
     </row>
     <row r="453" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="44" t="n">
-        <v>422.0</v>
+        <v>423.0</v>
       </c>
       <c r="B453" s="43" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C453" s="37"/>
       <c r="D453" s="37"/>
     </row>
     <row r="454" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="44" t="n">
-        <v>423.0</v>
+        <v>424.0</v>
       </c>
       <c r="B454" s="43" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C454" s="37"/>
       <c r="D454" s="37"/>
     </row>
     <row r="455" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="44" t="n">
-        <v>424.0</v>
+        <v>425.0</v>
       </c>
       <c r="B455" s="43" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C455" s="37"/>
       <c r="D455" s="37"/>
     </row>
     <row r="456" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="44" t="n">
-        <v>425.0</v>
+        <v>426.0</v>
       </c>
       <c r="B456" s="43" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C456" s="37"/>
       <c r="D456" s="37"/>
     </row>
     <row r="457" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="44" t="n">
-        <v>426.0</v>
+        <v>427.0</v>
       </c>
       <c r="B457" s="43" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C457" s="37"/>
       <c r="D457" s="37"/>
     </row>
     <row r="458" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="44" t="n">
-        <v>427.0</v>
+        <v>428.0</v>
       </c>
       <c r="B458" s="43" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C458" s="37"/>
       <c r="D458" s="37"/>
     </row>
     <row r="459" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="44" t="n">
-        <v>428.0</v>
+        <v>429.0</v>
       </c>
       <c r="B459" s="43" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C459" s="37"/>
       <c r="D459" s="37"/>
     </row>
     <row r="460" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="44" t="n">
-        <v>429.0</v>
+        <v>430.0</v>
       </c>
       <c r="B460" s="50" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C460" s="37"/>
       <c r="D460" s="37"/>
     </row>
     <row r="461" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="44" t="n">
-        <v>430.0</v>
+        <v>431.0</v>
       </c>
       <c r="B461" s="43" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C461" s="37"/>
       <c r="D461" s="37"/>
     </row>
     <row r="462" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="44" t="n">
-        <v>431.0</v>
+        <v>432.0</v>
       </c>
       <c r="B462" s="43" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C462" s="37"/>
       <c r="D462" s="37"/>
     </row>
     <row r="463" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="44" t="n">
-        <v>432.0</v>
+        <v>433.0</v>
       </c>
       <c r="B463" s="43" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C463" s="37"/>
       <c r="D463" s="37"/>
     </row>
     <row r="464" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="44" t="n">
-        <v>433.0</v>
+        <v>434.0</v>
       </c>
       <c r="B464" s="43" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C464" s="37"/>
       <c r="D464" s="37"/>
     </row>
     <row r="465" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="44" t="n">
-        <v>434.0</v>
+        <v>435.0</v>
       </c>
       <c r="B465" s="43" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C465" s="37"/>
       <c r="D465" s="37"/>
     </row>
     <row r="466" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="44" t="n">
-        <v>435.0</v>
+        <v>436.0</v>
       </c>
       <c r="B466" s="43" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C466" s="37"/>
       <c r="D466" s="37"/>
     </row>
     <row r="467" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="44" t="n">
-        <v>436.0</v>
+        <v>437.0</v>
       </c>
       <c r="B467" s="43" t="s">
         <v>491</v>
@@ -41990,127 +41771,127 @@
     </row>
     <row r="468" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="44" t="n">
-        <v>437.0</v>
+        <v>438.0</v>
       </c>
       <c r="B468" s="43" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C468" s="37"/>
       <c r="D468" s="37"/>
     </row>
     <row r="469" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="44" t="n">
-        <v>438.0</v>
+        <v>439.0</v>
       </c>
       <c r="B469" s="43" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C469" s="37"/>
       <c r="D469" s="37"/>
     </row>
     <row r="470" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="44" t="n">
-        <v>439.0</v>
+        <v>440.0</v>
       </c>
       <c r="B470" s="43" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C470" s="37"/>
       <c r="D470" s="37"/>
     </row>
     <row r="471" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="44" t="n">
-        <v>440.0</v>
+        <v>441.0</v>
       </c>
       <c r="B471" s="43" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C471" s="37"/>
       <c r="D471" s="37"/>
     </row>
     <row r="472" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="44" t="n">
-        <v>441.0</v>
+        <v>442.0</v>
       </c>
       <c r="B472" s="43" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C472" s="37"/>
       <c r="D472" s="37"/>
     </row>
     <row r="473" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="44" t="n">
-        <v>442.0</v>
+        <v>443.0</v>
       </c>
       <c r="B473" s="43" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C473" s="37"/>
       <c r="D473" s="37"/>
     </row>
     <row r="474" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="44" t="n">
-        <v>443.0</v>
+        <v>444.0</v>
       </c>
       <c r="B474" s="43" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C474" s="37"/>
       <c r="D474" s="37"/>
     </row>
     <row r="475" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="44" t="n">
-        <v>444.0</v>
+        <v>445.0</v>
       </c>
       <c r="B475" s="43" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C475" s="37"/>
       <c r="D475" s="37"/>
     </row>
     <row r="476" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="44" t="n">
-        <v>445.0</v>
+        <v>446.0</v>
       </c>
       <c r="B476" s="43" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C476" s="37"/>
       <c r="D476" s="37"/>
     </row>
     <row r="477" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="44" t="n">
-        <v>446.0</v>
+        <v>447.0</v>
       </c>
       <c r="B477" s="43" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C477" s="37"/>
       <c r="D477" s="37"/>
     </row>
     <row r="478" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="44" t="n">
-        <v>447.0</v>
+        <v>448.0</v>
       </c>
       <c r="B478" s="43" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C478" s="37"/>
       <c r="D478" s="37"/>
     </row>
     <row r="479" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="44" t="n">
-        <v>448.0</v>
+        <v>449.0</v>
       </c>
       <c r="B479" s="43" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C479" s="37"/>
       <c r="D479" s="37"/>
     </row>
     <row r="480" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="44" t="n">
-        <v>449.0</v>
+        <v>450.0</v>
       </c>
       <c r="B480" s="43" t="s">
         <v>500</v>
@@ -42120,7 +41901,7 @@
     </row>
     <row r="481" spans="1:4" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="42" t="n">
-        <v>450.0</v>
+        <v>451.0</v>
       </c>
       <c r="B481" s="43" t="s">
         <v>501</v>
@@ -42130,320 +41911,318 @@
     </row>
     <row r="482" spans="1:4" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="44" t="n">
-        <v>451.0</v>
+        <v>452.0</v>
       </c>
       <c r="B482" s="43" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C482" s="37"/>
       <c r="D482" s="37"/>
     </row>
     <row r="483" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="44" t="n">
-        <v>452.0</v>
+        <v>453.0</v>
       </c>
       <c r="B483" s="43" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C483" s="37"/>
       <c r="D483" s="37"/>
     </row>
     <row r="484" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="44" t="n">
-        <v>453.0</v>
+        <v>454.0</v>
       </c>
       <c r="B484" s="43" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C484" s="37"/>
       <c r="D484" s="37"/>
     </row>
     <row r="485" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="44" t="n">
-        <v>454.0</v>
+        <v>455.0</v>
       </c>
       <c r="B485" s="43" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C485" s="37"/>
       <c r="D485" s="37"/>
     </row>
     <row r="486" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="44" t="n">
-        <v>455.0</v>
+        <v>456.0</v>
       </c>
       <c r="B486" s="43" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C486" s="37"/>
       <c r="D486" s="37"/>
     </row>
     <row r="487" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="44" t="n">
-        <v>456.0</v>
+        <v>457.0</v>
       </c>
       <c r="B487" s="43" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C487" s="37"/>
       <c r="D487" s="37"/>
     </row>
     <row r="488" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="44" t="n">
-        <v>457.0</v>
+        <v>458.0</v>
       </c>
       <c r="B488" s="43" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C488" s="37"/>
       <c r="D488" s="37"/>
     </row>
     <row r="489" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="44" t="n">
-        <v>458.0</v>
+        <v>459.0</v>
       </c>
       <c r="B489" s="43" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C489" s="37"/>
       <c r="D489" s="37"/>
     </row>
     <row r="490" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="44" t="n">
-        <v>459.0</v>
+        <v>460.0</v>
       </c>
       <c r="B490" s="43" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C490" s="37"/>
       <c r="D490" s="37"/>
     </row>
     <row r="491" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="44" t="n">
-        <v>460.0</v>
+        <v>461.0</v>
       </c>
       <c r="B491" s="43" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C491" s="37"/>
       <c r="D491" s="37"/>
     </row>
     <row r="492" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="44" t="n">
-        <v>461.0</v>
+        <v>462.0</v>
       </c>
       <c r="B492" s="43" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C492" s="37"/>
       <c r="D492" s="37"/>
     </row>
     <row r="493" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="44" t="n">
-        <v>462.0</v>
+        <v>463.0</v>
       </c>
       <c r="B493" s="43" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C493" s="37"/>
       <c r="D493" s="37"/>
     </row>
     <row r="494" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="44" t="n">
-        <v>463.0</v>
+        <v>464.0</v>
       </c>
       <c r="B494" s="43" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C494" s="37"/>
       <c r="D494" s="37"/>
     </row>
     <row r="495" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="44" t="n">
-        <v>464.0</v>
+        <v>465.0</v>
       </c>
       <c r="B495" s="43" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C495" s="37"/>
       <c r="D495" s="37"/>
     </row>
     <row r="496" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="44" t="n">
-        <v>465.0</v>
+        <v>466.0</v>
       </c>
       <c r="B496" s="43" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C496" s="37"/>
       <c r="D496" s="37"/>
     </row>
     <row r="497" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="44" t="n">
-        <v>466.0</v>
+        <v>467.0</v>
       </c>
       <c r="B497" s="43" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C497" s="37"/>
       <c r="D497" s="37"/>
     </row>
     <row r="498" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="44" t="n">
-        <v>467.0</v>
+        <v>468.0</v>
       </c>
       <c r="B498" s="43" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C498" s="37"/>
       <c r="D498" s="37"/>
     </row>
     <row r="499" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="44" t="n">
-        <v>468.0</v>
+        <v>469.0</v>
       </c>
       <c r="B499" s="43" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C499" s="37"/>
       <c r="D499" s="37"/>
     </row>
     <row r="500" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="44" t="n">
-        <v>469.0</v>
+        <v>470.0</v>
       </c>
       <c r="B500" s="43" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C500" s="37"/>
       <c r="D500" s="37"/>
     </row>
     <row r="501" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="44" t="n">
-        <v>470.0</v>
+        <v>471.0</v>
       </c>
       <c r="B501" s="43" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C501" s="37"/>
       <c r="D501" s="37"/>
     </row>
     <row r="502" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="44" t="n">
-        <v>471.0</v>
+        <v>472.0</v>
       </c>
       <c r="B502" s="43" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C502" s="37"/>
       <c r="D502" s="37"/>
     </row>
     <row r="503" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="44" t="n">
-        <v>472.0</v>
+        <v>473.0</v>
       </c>
       <c r="B503" s="43" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C503" s="37"/>
       <c r="D503" s="37"/>
     </row>
     <row r="504" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="44" t="n">
-        <v>473.0</v>
+        <v>474.0</v>
       </c>
       <c r="B504" s="43" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C504" s="37"/>
       <c r="D504" s="37"/>
     </row>
     <row r="505" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="44" t="n">
-        <v>474.0</v>
+        <v>475.0</v>
       </c>
       <c r="B505" s="43" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C505" s="37"/>
       <c r="D505" s="37"/>
     </row>
     <row r="506" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="44" t="n">
-        <v>475.0</v>
+        <v>476.0</v>
       </c>
       <c r="B506" s="43" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C506" s="37"/>
       <c r="D506" s="37"/>
     </row>
     <row r="507" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="44" t="n">
-        <v>476.0</v>
+        <v>477.0</v>
       </c>
       <c r="B507" s="43" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C507" s="37"/>
       <c r="D507" s="37"/>
     </row>
     <row r="508" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="44" t="n">
-        <v>477.0</v>
+        <v>478.0</v>
       </c>
       <c r="B508" s="43" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C508" s="37"/>
       <c r="D508" s="37"/>
     </row>
     <row r="509" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="44" t="n">
-        <v>478.0</v>
+        <v>479.0</v>
       </c>
       <c r="B509" s="43" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C509" s="37"/>
       <c r="D509" s="37"/>
     </row>
     <row r="510" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="45" t="n">
-        <v>479.0</v>
+        <v>480.0</v>
       </c>
       <c r="B510" s="49" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C510" s="41"/>
       <c r="D510" s="37"/>
     </row>
     <row r="511" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="44" t="n">
-        <v>480.0</v>
+        <v>481.0</v>
       </c>
       <c r="B511" s="43" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C511" s="37"/>
       <c r="D511" s="37"/>
     </row>
     <row r="512" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="44" t="n">
-        <v>481.0</v>
+        <v>482.0</v>
       </c>
       <c r="B512" s="43" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C512" s="37"/>
       <c r="D512" s="37"/>
     </row>
     <row r="513" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="44" t="n">
-        <v>482.0</v>
-      </c>
-      <c r="B513" s="95" t="s">
-        <v>531</v>
+      <c r="A513" s="44"/>
+      <c r="B513" s="75" t="s">
+        <v>534</v>
       </c>
       <c r="C513" s="37"/>
       <c r="D513" s="37"/>
@@ -42452,8 +42231,8 @@
       <c r="A514" s="44" t="n">
         <v>483.0</v>
       </c>
-      <c r="B514" s="97" t="s">
-        <v>532</v>
+      <c r="B514" s="70" t="s">
+        <v>535</v>
       </c>
       <c r="C514" s="37"/>
       <c r="D514" s="37"/>
@@ -42462,8 +42241,8 @@
       <c r="A515" s="44" t="n">
         <v>484.0</v>
       </c>
-      <c r="B515" s="92" t="s">
-        <v>533</v>
+      <c r="B515" s="43" t="s">
+        <v>536</v>
       </c>
       <c r="C515" s="37"/>
       <c r="D515" s="37"/>
@@ -42472,219 +42251,203 @@
       <c r="A516" s="44" t="n">
         <v>485.0</v>
       </c>
-      <c r="B516" s="98" t="s">
-        <v>534</v>
+      <c r="B516" s="43" t="s">
+        <v>537</v>
       </c>
       <c r="C516" s="37"/>
       <c r="D516" s="37"/>
     </row>
     <row r="517" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="44" t="n">
-        <v>485.0</v>
+        <v>486.0</v>
       </c>
       <c r="B517" s="43" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C517" s="37"/>
       <c r="D517" s="37"/>
     </row>
     <row r="518" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="44" t="n">
-        <v>486.0</v>
+        <v>487.0</v>
       </c>
       <c r="B518" s="43" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C518" s="37"/>
       <c r="D518" s="37"/>
     </row>
     <row r="519" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="44" t="n">
-        <v>487.0</v>
+        <v>488.0</v>
       </c>
       <c r="B519" s="43" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C519" s="37"/>
       <c r="D519" s="37"/>
     </row>
     <row r="520" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="44" t="n">
-        <v>488.0</v>
+        <v>489.0</v>
       </c>
       <c r="B520" s="43" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C520" s="37"/>
       <c r="D520" s="37"/>
     </row>
     <row r="521" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="44" t="n">
-        <v>489.0</v>
+        <v>490.0</v>
       </c>
       <c r="B521" s="43" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C521" s="37"/>
       <c r="D521" s="37"/>
     </row>
     <row r="522" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="44" t="n">
-        <v>490.0</v>
+        <v>491.0</v>
       </c>
       <c r="B522" s="43" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C522" s="37"/>
       <c r="D522" s="37"/>
     </row>
     <row r="523" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="44" t="n">
-        <v>491.0</v>
+        <v>492.0</v>
       </c>
       <c r="B523" s="43" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C523" s="37"/>
       <c r="D523" s="37"/>
     </row>
     <row r="524" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="44" t="n">
-        <v>492.0</v>
+        <v>493.0</v>
       </c>
       <c r="B524" s="43" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C524" s="37"/>
       <c r="D524" s="37"/>
     </row>
     <row r="525" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="44" t="n">
-        <v>493.0</v>
+        <v>494.0</v>
       </c>
       <c r="B525" s="43" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C525" s="37"/>
       <c r="D525" s="37"/>
     </row>
     <row r="526" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="44" t="n">
-        <v>494.0</v>
+        <v>495.0</v>
       </c>
       <c r="B526" s="43" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C526" s="37"/>
       <c r="D526" s="37"/>
     </row>
     <row r="527" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="44" t="n">
-        <v>495.0</v>
+        <v>496.0</v>
       </c>
       <c r="B527" s="43" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C527" s="37"/>
       <c r="D527" s="37"/>
     </row>
     <row r="528" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="44" t="n">
-        <v>496.0</v>
+        <v>497.0</v>
       </c>
       <c r="B528" s="43" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C528" s="37"/>
       <c r="D528" s="37"/>
     </row>
     <row r="529" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="44" t="n">
-        <v>497.0</v>
+        <v>498.0</v>
       </c>
       <c r="B529" s="43" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C529" s="37"/>
       <c r="D529" s="37"/>
     </row>
     <row r="530" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="44" t="n">
-        <v>498.0</v>
+        <v>499.0</v>
       </c>
       <c r="B530" s="43" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C530" s="37"/>
       <c r="D530" s="37"/>
     </row>
     <row r="531" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="44" t="n">
-        <v>499.0</v>
+        <v>500.0</v>
       </c>
       <c r="B531" s="43" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C531" s="37"/>
       <c r="D531" s="37"/>
     </row>
     <row r="532" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="44" t="n">
-        <v>500.0</v>
+        <v>501.0</v>
       </c>
       <c r="B532" s="43" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C532" s="37"/>
       <c r="D532" s="37"/>
     </row>
     <row r="533" spans="1:4" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="44" t="n">
-        <v>501.0</v>
+        <v>502.0</v>
       </c>
       <c r="B533" s="43" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C533" s="37"/>
       <c r="D533" s="37"/>
     </row>
     <row r="534" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="42" t="n">
-        <v>502.0</v>
-      </c>
-      <c r="B534" s="95" t="s">
-        <v>552</v>
-      </c>
+      <c r="A534" s="42"/>
+      <c r="B534" s="43"/>
       <c r="C534" s="37"/>
       <c r="D534" s="37"/>
     </row>
     <row r="535" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="44" t="n">
-        <v>503.0</v>
-      </c>
-      <c r="B535" s="43" t="s">
-        <v>553</v>
-      </c>
+      <c r="A535" s="44"/>
+      <c r="B535" s="43"/>
       <c r="C535" s="37"/>
       <c r="D535" s="37"/>
     </row>
     <row r="536" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="44" t="n">
-        <v>504.0</v>
-      </c>
-      <c r="B536" s="94" t="s">
-        <v>554</v>
-      </c>
+      <c r="A536" s="44"/>
+      <c r="B536" s="43"/>
       <c r="C536" s="37"/>
       <c r="D536" s="37"/>
     </row>
     <row r="537" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="44" t="n">
-        <v>504.0</v>
-      </c>
-      <c r="B537" s="43" t="s">
-        <v>556</v>
-      </c>
+      <c r="A537" s="44"/>
+      <c r="B537" s="43"/>
       <c r="C537" s="37"/>
       <c r="D537" s="37"/>
     </row>

--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBBF34C-2B7A-42FB-A814-A25E2A486503}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E305EC-FCC2-4CD1-A28D-51FBEF657ED3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КВЗтаКБ" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="561">
   <si>
     <t>№</t>
   </si>
@@ -878,820 +878,835 @@
     <t>Р-163-50У</t>
   </si>
   <si>
+    <t>Р-136Р СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-135РМ СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-135Р АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-161-15 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-135Р СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-135 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-135РМ АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-136 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-136 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-136Р АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-135 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-136М АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-136М СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-161-5 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-161Б</t>
+  </si>
+  <si>
+    <t>Р-161А1 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-161А2 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-161А2М АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-161А2М1 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-161А2М2 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-161АПП АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-140 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-140М АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-140Д АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-102 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-102М3 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-102 М2 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-102М АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-141 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-141Р АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-161 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-161А1 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-161А2 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-161А2М СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-161А2М1 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-161МБ1 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-161МБ2 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-161АПП СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-140 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-140М СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-140М БЛОЧНІ</t>
+  </si>
+  <si>
+    <t>Р-102 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-102М СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-102М2 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>АРБАЛЕТ - 500КБ</t>
+  </si>
+  <si>
+    <t>АРБАЛЕТ - 500КА</t>
+  </si>
+  <si>
+    <t>АРБАЛЕТ - 250КА</t>
+  </si>
+  <si>
+    <t>Р-156БТР</t>
+  </si>
+  <si>
+    <t>Р-118АМ3 БТР</t>
+  </si>
+  <si>
+    <t>Р-118БМ АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-118БМ-2 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-118БМ -3 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-118 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-140-0,5 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-103 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-103 М АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>АРБАЛЕТ - 500КС</t>
+  </si>
+  <si>
+    <t>АРБАЛЕТ - 250КС</t>
+  </si>
+  <si>
+    <t>АРБАЛЕТ - 250К</t>
+  </si>
+  <si>
+    <t>Р-140-0,5 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-140-0,5 БЛОЧНІ</t>
+  </si>
+  <si>
+    <t>Р-118УМ СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-118УМ -3 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-118 М2 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-118 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-103 М СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>ВИСЛА-М</t>
+  </si>
+  <si>
+    <t>Станції космічного звязку</t>
+  </si>
+  <si>
+    <t>Р-441У АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-440-У АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-441-О АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-440-О АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>СТАНЦІЇ СУПУТНИКОВОГО ЗВ`ЯЗКУ "КРИСТАЛ-АБ" АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-440-А АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-440-ОД АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-439 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>СТАНЦІЇ СУПУТНИКОВОГО ЗВ`ЯЗКУ "ЛЕГЕНДА - 2"</t>
+  </si>
+  <si>
+    <t>ТЕРМІНАЛ СУПУТНИКОВОГО ЗВ`ЯЗКУ VIASAT (SURFBEAM 2)</t>
+  </si>
+  <si>
+    <t>МОБІЛЬНИЙ КОМПЛЕКТ СУПУТНИКОВОГО ЗВ'ЯЗКУ v.1-POE (MKCЗ v.1-POE)</t>
+  </si>
+  <si>
+    <t>Р-441У СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440-УН СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440АБ СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-439 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-441-О СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440У СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440А СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440О СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440-АН СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>ТЕРМІНАЛ СУПУТНИКОВИЙ "IRIDIUM" 9555</t>
+  </si>
+  <si>
+    <t>Апаратні технічного обслуговування</t>
+  </si>
+  <si>
+    <t>АТО-7</t>
+  </si>
+  <si>
+    <t>АТО-6</t>
+  </si>
+  <si>
+    <t>М-4М2</t>
+  </si>
+  <si>
+    <t>М-4М</t>
+  </si>
+  <si>
+    <t>АТО-17М</t>
+  </si>
+  <si>
+    <t>АТО-17</t>
+  </si>
+  <si>
+    <t>М-5</t>
+  </si>
+  <si>
+    <t>АТО-1</t>
+  </si>
+  <si>
+    <t>АТО-2</t>
+  </si>
+  <si>
+    <t>АТО-14</t>
+  </si>
+  <si>
+    <t>АТО-34</t>
+  </si>
+  <si>
+    <t>АТО-40</t>
+  </si>
+  <si>
+    <t>АТО-21</t>
+  </si>
+  <si>
+    <t>АТО-13</t>
+  </si>
+  <si>
+    <t>АТО-18М</t>
+  </si>
+  <si>
+    <t>АТО-18</t>
+  </si>
+  <si>
+    <t>МАЙСТЕРНІ ЗВ'ЯЗКУ М-2</t>
+  </si>
+  <si>
+    <t>МАЙСТЕРНІ ЗВ'ЯЗКУ М-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЙСТЕРНІ ЗВ'ЯЗКУ М-5 </t>
+  </si>
+  <si>
+    <t>АТО-4</t>
+  </si>
+  <si>
+    <t>КХ/УКХ радіостанції</t>
+  </si>
+  <si>
+    <t>Р-142Н СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-142 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-142Д СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-125Б1 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-125Б2 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-125МТ СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-125МТ2 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-104АМ3 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ БАЗОВА "KENWOOD" TK-8302M2</t>
+  </si>
+  <si>
+    <t>Апаратні ущільнення</t>
+  </si>
+  <si>
+    <t>АПАРАТУРА К-24К</t>
+  </si>
+  <si>
+    <t>АПАРАТУРА К-60П</t>
+  </si>
+  <si>
+    <t>Блоки комутації</t>
+  </si>
+  <si>
+    <t>УМ-1</t>
+  </si>
+  <si>
+    <t>УМ-2</t>
+  </si>
+  <si>
+    <t>УМ-3</t>
+  </si>
+  <si>
+    <t>ШОЛОМОФОН ШШ - 1</t>
+  </si>
+  <si>
+    <t>Радіорелейні станції</t>
+  </si>
+  <si>
+    <t>Р-418Б АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-416Г АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-406ВЧ АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-414-3 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-414-4 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-404М-3 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-404М-4 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-404 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-425С1</t>
+  </si>
+  <si>
+    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-425С2</t>
+  </si>
+  <si>
+    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-425С3</t>
+  </si>
+  <si>
+    <t>Р-414МУ АВТОМОБІЛЬНА</t>
+  </si>
+  <si>
+    <t>Р-414МУ-01 АВТОМОБІЛЬНА</t>
+  </si>
+  <si>
+    <t>Р-414МУ-02 АВТОМОБІЛЬНА</t>
+  </si>
+  <si>
+    <t>Р-414МУ-03 АВТОМОБІЛЬНА</t>
+  </si>
+  <si>
+    <t>МАШИНА А1М1</t>
+  </si>
+  <si>
+    <t>МАШИНА А1М1-01</t>
+  </si>
+  <si>
+    <t>МАШИНА А1М1-02</t>
+  </si>
+  <si>
+    <t>МАШИНА А1М1-03</t>
+  </si>
+  <si>
+    <t>МАШИНА А2М1</t>
+  </si>
+  <si>
+    <t>МАШИНА А2М1-01</t>
+  </si>
+  <si>
+    <t>Р-418 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-406ВЧ СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-416 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-414 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-404М СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-404 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>ГРАНИТ- С  СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>СТАНЦІЯ РАДІОРЕЛЕЙНА Р-450 (ШИФР "АКАЦІЯ")</t>
+  </si>
+  <si>
+    <t>ЦИФРОВА РАДІОРЕЛЕЙНА СТАНЦІЯ ALCOMA</t>
+  </si>
+  <si>
+    <t>ЦИФРОВА РАДІОРЕЛЕЙНА СТАНЦІЯ ЭРА-07</t>
+  </si>
+  <si>
+    <t>ЦИФРОВА РАДІОРЕЛЕЙНА СТАНЦІЯ TRANSCEND 800</t>
+  </si>
+  <si>
+    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-402</t>
+  </si>
+  <si>
+    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-402-01</t>
+  </si>
+  <si>
+    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-402-02</t>
+  </si>
+  <si>
+    <t>Р-419БР</t>
+  </si>
+  <si>
+    <t>Р-419А АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-419 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-409 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-409М АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-409МА АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-409М1 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-409М2 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-415-3А АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-405 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-405М АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-415-3Д АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-415НВ АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-415Н АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-415В АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>ОБЛАДНАННЯ РАДІОДОСТУПУ EPMP FORCE 100 5 GHZ</t>
+  </si>
+  <si>
+    <t>Р-419 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-419С СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-419СП СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-419СЯ СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-409 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-409М СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-409М1 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-409МА СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-409МС СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-409М2 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-415Н СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-415В СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-415НВ СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>АЗИД-1 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-405 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-405ПК СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-405М СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-405М3 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-405МПТ-1М СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>П-249</t>
+  </si>
+  <si>
+    <t>П-249К СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>П-249 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-151М2</t>
+  </si>
+  <si>
+    <t>Р-151М</t>
+  </si>
+  <si>
+    <t>Р-151</t>
+  </si>
+  <si>
+    <t>Р-150М1</t>
+  </si>
+  <si>
+    <t>М-6/2Т</t>
+  </si>
+  <si>
+    <t>СТАНЦІЇ КОНТРОЛЬНО-ТЕХНІЧНІ  М-6/1Т</t>
+  </si>
+  <si>
+    <t>М-7Т</t>
+  </si>
+  <si>
+    <t>ЦЕХ №1 ДЛЯ РЕМОНТУ КВ РАДІОСТАНЦІЙ СЕРЕДНЬОЇ ПОТУЖНОСТІ</t>
+  </si>
+  <si>
+    <t>ЦЕХ №2 ДЛЯ РЕМОНТУ КВ І УКВ РАДІОСТАНЦІЙ МАЛОЇ ПОТУЖНОСТІ І ЛЕГКИХ РАДІОРЕЛЕЙНИХ СТАНЦІЙ</t>
+  </si>
+  <si>
+    <t>ЦЕХ №3 ДЛЯ РЕМОНТУ ТЕЛЕГРАФНО-ТЕЛЕФОННОЇ АПАРАТУРИ</t>
+  </si>
+  <si>
+    <t>ЦЕХ №4 ДЛЯ ВИКОНАННЯ СЛЮСАРНО-МЕХАНІЧНИХ РОБІТ</t>
+  </si>
+  <si>
+    <t>М-2М2 (АТО-23;  24;  25;  26)</t>
+  </si>
+  <si>
+    <t>М-2М</t>
+  </si>
+  <si>
+    <t>М-3М2 (АТО-31)</t>
+  </si>
+  <si>
+    <t>М-3М</t>
+  </si>
+  <si>
+    <t>М-3</t>
+  </si>
+  <si>
+    <t>АПАРАТУРА ЦЕНТРОВА Р-397КЦ</t>
+  </si>
+  <si>
+    <t>АПАРАТУРА ЦЕНТРОВА Р-397КЦМ</t>
+  </si>
+  <si>
+    <t>Р-397ОК "ОКОЛЫШ"</t>
+  </si>
+  <si>
+    <t>Р-397ПК</t>
+  </si>
+  <si>
+    <t>Р-397ЛЦ</t>
+  </si>
+  <si>
+    <t>СВИЯГА</t>
+  </si>
+  <si>
+    <t>РАДІОПРИЙМАЧ Р-397ЛК "ЛЯПИС"</t>
+  </si>
+  <si>
+    <t>АВТОМАТИЗОВАНИЙ ПРИЙМАЛЬНИЙ КОМПЛЕКС "ДОН-Ц"</t>
+  </si>
+  <si>
+    <t>ПРОГРАМНО-АПАРАТНИЙ КОМПЛЕКС "ПРОМІНЬ"</t>
+  </si>
+  <si>
+    <t>АВТОМАТИЗОВАНЕ РОБОЧЕ МІСЦЕ ПЕРЕДАВАЛЬНЕ ПАК "ПРОМІНЬ"</t>
+  </si>
+  <si>
+    <t>АВТОМАТИЗОВАНЕ РОБОЧЕ МІСЦЕ ПРИЙМАЛЬНЕ ПАК "ПРОМІНЬ"</t>
+  </si>
+  <si>
+    <t>Р-352</t>
+  </si>
+  <si>
+    <t>Р-353Л "ЛУНЬ"</t>
+  </si>
+  <si>
+    <t>Р-353ЛА</t>
+  </si>
+  <si>
+    <t>Р-353С "ОЛЬХОН-С"</t>
+  </si>
+  <si>
+    <t>Р-392</t>
+  </si>
+  <si>
+    <t>Р-394КМ "СТРИЖ-КМ"</t>
+  </si>
+  <si>
+    <t>КХ РАДІОСТАНЦІЯ "СЕВЕРОК-К"</t>
+  </si>
+  <si>
+    <t>КОРЕСПОНДЕНТСЬКА РАДІОСТАНЦІЯ КХ-ДІАПАЗОНУ RS-10</t>
+  </si>
+  <si>
+    <t>КОМПЛЕКС МРСА "ТАБУН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АПАРАТУРА Р-394Т </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АПАРАТУРА Р-394Ц </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АПАРАТУРА Р-394ЦМ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АПАРАТУРА Р-394КЦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">АПАРАТУРА Р-394КЦМ </t>
+  </si>
+  <si>
+    <t>СТАНЦІЯ ЗОНДУВАННЯ ІОНОСФЕРИ "ЗОНД"</t>
+  </si>
+  <si>
+    <t>СТАНЦІЯ ЗОНДУВАННЯ ІОНОСФЕРИ "ЗОНД" СТАЦІОНАРНА</t>
+  </si>
+  <si>
+    <t>АПАРАТУРА "ЛОЗА"</t>
+  </si>
+  <si>
+    <t>АПАРАТУРА "ЛОЗА-М"</t>
+  </si>
+  <si>
+    <t>РАДІОМОДЕМ СПЕЦІАЛЬНОГО ПРИЗНАЧЕННЯ РМСП-1</t>
+  </si>
+  <si>
+    <t>ПРОГРАМНО-АПАРАТНИЙ КОМПЛЕКС АВТОМАТИЗОВАНОГО ПРОХОДЖЕННЯ ІНФОРМАЦІЇ "ТРЕМБІТА" (ПАК "ТРЕМБІТА")</t>
+  </si>
+  <si>
+    <t>Транкінгові радіостанції</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, МОБІЛЬНА, MOTOROLA GM300, УВЧ, 403 - 433МГЦ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, МОБІЛЬНА, MOTOROLA GM900, УВЧ, 403 - 470МГЦ, 16 КАНАЛІВ, 20 - 25ВТ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, ALINCO DJ-182</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA GP340, УКХ, 16 КАНАЛІВ, БЕЗ КЛАВІАТУРИ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA GP900, УВЧ, 403 - 470МГЦ, 16 КАНАЛІВ, 4ВТ, БЕЗ НАБІРНОЇ ПАНЕЛІ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA SABER I, УКХ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA SABER I, УКХ, 6ВТ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA SABER III, УКХ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA GP900, УВЧ, 403 - 470МГЦ, 16 КАНАЛІВ, 4ВТ, З НАБІРНОЮ ПАНЕЛЛЮ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, БАЗОВА, ALINCO DR-130TEZ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, БАЗОВА, MOTOROLA P1750, МОБІЛЬНА</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, БАЗОВА, MOTOROLA P1755A, МОБІЛЬНА</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, БАЗОВА, MOTOROLA T5365, QUANTAR, УКХ, 132 - 174МГЦ, 25 - 125ВТ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ, БАЗОВА, MOTOROLA T5365A, QUANTAR, УВЧ, 440 - 470МГЦ, 125ВТ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ НОСИМА "KENWOOD" TK2060</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ НОСИМА "KENWOOD" TK2260</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ НОСИМА "KENWOOD" TK7060</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ НОСИМА "KENWOOD" TK-3000M</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ ВОЗИМА "KENWOOD" TK-8302M2</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ "KENWOOD" TK-90 (КОРОТКОХВИЛЬОВОГО ДІАПАЗОНУ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КХ радіостанції </t>
+  </si>
+  <si>
+    <t>станом на 04.02.2021</t>
+  </si>
+  <si>
+    <t>станом на 01.05.2021</t>
+  </si>
+  <si>
+    <t>Факсимільні апарати</t>
+  </si>
+  <si>
+    <t>cisco 515-px</t>
+  </si>
+  <si>
+    <t>Harris Falkon 3</t>
+  </si>
+  <si>
     <t>КХ радіостанції</t>
-  </si>
-  <si>
-    <t>Р-136Р СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-135РМ СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-135Р АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-161-15 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-135Р СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-135 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-135РМ АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-136 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-136 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-136Р АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-135 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-136М АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-136М СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-161-5 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-161Б</t>
-  </si>
-  <si>
-    <t>Р-161А1 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-161А2 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-161А2М АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-161А2М1 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-161А2М2 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-161АПП АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-140 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-140М АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-140Д АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-102 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-102М3 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-102 М2 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-102М АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-141 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-141Р АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-161 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-161А1 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-161А2 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-161А2М СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-161А2М1 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-161МБ1 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-161МБ2 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-161АПП СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-140 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-140М СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-140М БЛОЧНІ</t>
-  </si>
-  <si>
-    <t>Р-102 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-102М СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-102М2 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>АРБАЛЕТ - 500КБ</t>
-  </si>
-  <si>
-    <t>АРБАЛЕТ - 500КА</t>
-  </si>
-  <si>
-    <t>АРБАЛЕТ - 250КА</t>
-  </si>
-  <si>
-    <t>Р-156БТР</t>
-  </si>
-  <si>
-    <t>Р-118АМ3 БТР</t>
-  </si>
-  <si>
-    <t>Р-118БМ АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-118БМ-2 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-118БМ -3 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-118 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-140-0,5 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-103 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-103 М АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>АРБАЛЕТ - 500КС</t>
-  </si>
-  <si>
-    <t>АРБАЛЕТ - 250КС</t>
-  </si>
-  <si>
-    <t>АРБАЛЕТ - 250К</t>
-  </si>
-  <si>
-    <t>Р-140-0,5 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-140-0,5 БЛОЧНІ</t>
-  </si>
-  <si>
-    <t>Р-118УМ СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-118УМ -3 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-118 М2 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-118 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-103 М СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>ВИСЛА-М</t>
-  </si>
-  <si>
-    <t>Станції космічного звязку</t>
-  </si>
-  <si>
-    <t>Р-441У АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-440-У АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-441-О АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-440-О АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>СТАНЦІЇ СУПУТНИКОВОГО ЗВ`ЯЗКУ "КРИСТАЛ-АБ" АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-440-А АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-440-ОД АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-439 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>СТАНЦІЇ СУПУТНИКОВОГО ЗВ`ЯЗКУ "ЛЕГЕНДА - 2"</t>
-  </si>
-  <si>
-    <t>ТЕРМІНАЛ СУПУТНИКОВОГО ЗВ`ЯЗКУ VIASAT (SURFBEAM 2)</t>
-  </si>
-  <si>
-    <t>МОБІЛЬНИЙ КОМПЛЕКТ СУПУТНИКОВОГО ЗВ'ЯЗКУ v.1-POE (MKCЗ v.1-POE)</t>
-  </si>
-  <si>
-    <t>Р-441У СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440-УН СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440АБ СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-439 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-441-О СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440У СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440А СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440О СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440-АН СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>ТЕРМІНАЛ СУПУТНИКОВИЙ "IRIDIUM" 9555</t>
-  </si>
-  <si>
-    <t>Апаратні технічного обслуговування</t>
-  </si>
-  <si>
-    <t>АТО-7</t>
-  </si>
-  <si>
-    <t>АТО-6</t>
-  </si>
-  <si>
-    <t>М-4М2</t>
-  </si>
-  <si>
-    <t>М-4М</t>
-  </si>
-  <si>
-    <t>АТО-17М</t>
-  </si>
-  <si>
-    <t>АТО-17</t>
-  </si>
-  <si>
-    <t>М-5</t>
-  </si>
-  <si>
-    <t>АТО-1</t>
-  </si>
-  <si>
-    <t>АТО-2</t>
-  </si>
-  <si>
-    <t>АТО-14</t>
-  </si>
-  <si>
-    <t>АТО-34</t>
-  </si>
-  <si>
-    <t>АТО-40</t>
-  </si>
-  <si>
-    <t>АТО-21</t>
-  </si>
-  <si>
-    <t>АТО-13</t>
-  </si>
-  <si>
-    <t>АТО-18М</t>
-  </si>
-  <si>
-    <t>АТО-18</t>
-  </si>
-  <si>
-    <t>МАЙСТЕРНІ ЗВ'ЯЗКУ М-2</t>
-  </si>
-  <si>
-    <t>МАЙСТЕРНІ ЗВ'ЯЗКУ М-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЙСТЕРНІ ЗВ'ЯЗКУ М-5 </t>
-  </si>
-  <si>
-    <t>АТО-4</t>
-  </si>
-  <si>
-    <t>КХ/УКХ радіостанції</t>
-  </si>
-  <si>
-    <t>Р-142Н СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-142 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-142Д СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-125Б1 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-125Б2 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-125МТ СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-125МТ2 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-104АМ3 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ БАЗОВА "KENWOOD" TK-8302M2</t>
-  </si>
-  <si>
-    <t>Апаратні ущільнення</t>
-  </si>
-  <si>
-    <t>АПАРАТУРА К-24К</t>
-  </si>
-  <si>
-    <t>АПАРАТУРА К-60П</t>
-  </si>
-  <si>
-    <t>Блоки комутації</t>
-  </si>
-  <si>
-    <t>УМ-1</t>
-  </si>
-  <si>
-    <t>УМ-2</t>
-  </si>
-  <si>
-    <t>УМ-3</t>
-  </si>
-  <si>
-    <t>ШОЛОМОФОН ШШ - 1</t>
-  </si>
-  <si>
-    <t>Радіорелейні станції</t>
-  </si>
-  <si>
-    <t>Р-418Б АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-416Г АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-406ВЧ АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-414-3 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-414-4 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-404М-3 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-404М-4 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-404 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-425С1</t>
-  </si>
-  <si>
-    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-425С2</t>
-  </si>
-  <si>
-    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-425С3</t>
-  </si>
-  <si>
-    <t>Р-414МУ АВТОМОБІЛЬНА</t>
-  </si>
-  <si>
-    <t>Р-414МУ-01 АВТОМОБІЛЬНА</t>
-  </si>
-  <si>
-    <t>Р-414МУ-02 АВТОМОБІЛЬНА</t>
-  </si>
-  <si>
-    <t>Р-414МУ-03 АВТОМОБІЛЬНА</t>
-  </si>
-  <si>
-    <t>МАШИНА А1М1</t>
-  </si>
-  <si>
-    <t>МАШИНА А1М1-01</t>
-  </si>
-  <si>
-    <t>МАШИНА А1М1-02</t>
-  </si>
-  <si>
-    <t>МАШИНА А1М1-03</t>
-  </si>
-  <si>
-    <t>МАШИНА А2М1</t>
-  </si>
-  <si>
-    <t>МАШИНА А2М1-01</t>
-  </si>
-  <si>
-    <t>Р-418 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-406ВЧ СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-416 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-414 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-404М СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-404 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>ГРАНИТ- С  СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>СТАНЦІЯ РАДІОРЕЛЕЙНА Р-450 (ШИФР "АКАЦІЯ")</t>
-  </si>
-  <si>
-    <t>ЦИФРОВА РАДІОРЕЛЕЙНА СТАНЦІЯ ALCOMA</t>
-  </si>
-  <si>
-    <t>ЦИФРОВА РАДІОРЕЛЕЙНА СТАНЦІЯ ЭРА-07</t>
-  </si>
-  <si>
-    <t>ЦИФРОВА РАДІОРЕЛЕЙНА СТАНЦІЯ TRANSCEND 800</t>
-  </si>
-  <si>
-    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-402</t>
-  </si>
-  <si>
-    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-402-01</t>
-  </si>
-  <si>
-    <t>РАДІОРЕЛЕЙНА СТАНЦІЯ Р-402-02</t>
-  </si>
-  <si>
-    <t>Р-419БР</t>
-  </si>
-  <si>
-    <t>Р-419А АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-419 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-409 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-409М АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-409МА АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-409М1 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-409М2 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-415-3А АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-405 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-405М АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-415-3Д АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-415НВ АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-415Н АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-415В АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>ОБЛАДНАННЯ РАДІОДОСТУПУ EPMP FORCE 100 5 GHZ</t>
-  </si>
-  <si>
-    <t>Р-419 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-419С СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-419СП СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-419СЯ СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-409 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-409М СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-409М1 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-409МА СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-409МС СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-409М2 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-415Н СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-415В СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-415НВ СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>АЗИД-1 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-405 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-405ПК СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-405М СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-405М3 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-405МПТ-1М СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>П-249</t>
-  </si>
-  <si>
-    <t>П-249К СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>П-249 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-151М2</t>
-  </si>
-  <si>
-    <t>Р-151М</t>
-  </si>
-  <si>
-    <t>Р-151</t>
-  </si>
-  <si>
-    <t>Р-150М1</t>
-  </si>
-  <si>
-    <t>М-6/2Т</t>
-  </si>
-  <si>
-    <t>СТАНЦІЇ КОНТРОЛЬНО-ТЕХНІЧНІ  М-6/1Т</t>
-  </si>
-  <si>
-    <t>М-7Т</t>
-  </si>
-  <si>
-    <t>ЦЕХ №1 ДЛЯ РЕМОНТУ КВ РАДІОСТАНЦІЙ СЕРЕДНЬОЇ ПОТУЖНОСТІ</t>
-  </si>
-  <si>
-    <t>ЦЕХ №2 ДЛЯ РЕМОНТУ КВ І УКВ РАДІОСТАНЦІЙ МАЛОЇ ПОТУЖНОСТІ І ЛЕГКИХ РАДІОРЕЛЕЙНИХ СТАНЦІЙ</t>
-  </si>
-  <si>
-    <t>ЦЕХ №3 ДЛЯ РЕМОНТУ ТЕЛЕГРАФНО-ТЕЛЕФОННОЇ АПАРАТУРИ</t>
-  </si>
-  <si>
-    <t>ЦЕХ №4 ДЛЯ ВИКОНАННЯ СЛЮСАРНО-МЕХАНІЧНИХ РОБІТ</t>
-  </si>
-  <si>
-    <t>М-2М2 (АТО-23;  24;  25;  26)</t>
-  </si>
-  <si>
-    <t>М-2М</t>
-  </si>
-  <si>
-    <t>М-3М2 (АТО-31)</t>
-  </si>
-  <si>
-    <t>М-3М</t>
-  </si>
-  <si>
-    <t>М-3</t>
-  </si>
-  <si>
-    <t>АПАРАТУРА ЦЕНТРОВА Р-397КЦ</t>
-  </si>
-  <si>
-    <t>АПАРАТУРА ЦЕНТРОВА Р-397КЦМ</t>
-  </si>
-  <si>
-    <t>Р-397ОК "ОКОЛЫШ"</t>
-  </si>
-  <si>
-    <t>Р-397ПК</t>
-  </si>
-  <si>
-    <t>Р-397ЛЦ</t>
-  </si>
-  <si>
-    <t>СВИЯГА</t>
-  </si>
-  <si>
-    <t>РАДІОПРИЙМАЧ Р-397ЛК "ЛЯПИС"</t>
-  </si>
-  <si>
-    <t>АВТОМАТИЗОВАНИЙ ПРИЙМАЛЬНИЙ КОМПЛЕКС "ДОН-Ц"</t>
-  </si>
-  <si>
-    <t>ПРОГРАМНО-АПАРАТНИЙ КОМПЛЕКС "ПРОМІНЬ"</t>
-  </si>
-  <si>
-    <t>АВТОМАТИЗОВАНЕ РОБОЧЕ МІСЦЕ ПЕРЕДАВАЛЬНЕ ПАК "ПРОМІНЬ"</t>
-  </si>
-  <si>
-    <t>АВТОМАТИЗОВАНЕ РОБОЧЕ МІСЦЕ ПРИЙМАЛЬНЕ ПАК "ПРОМІНЬ"</t>
-  </si>
-  <si>
-    <t>Р-352</t>
-  </si>
-  <si>
-    <t>Р-353Л "ЛУНЬ"</t>
-  </si>
-  <si>
-    <t>Р-353ЛА</t>
-  </si>
-  <si>
-    <t>Р-353С "ОЛЬХОН-С"</t>
-  </si>
-  <si>
-    <t>Р-392</t>
-  </si>
-  <si>
-    <t>Р-394КМ "СТРИЖ-КМ"</t>
-  </si>
-  <si>
-    <t>КХ РАДІОСТАНЦІЯ "СЕВЕРОК-К"</t>
-  </si>
-  <si>
-    <t>КОРЕСПОНДЕНТСЬКА РАДІОСТАНЦІЯ КХ-ДІАПАЗОНУ RS-10</t>
-  </si>
-  <si>
-    <t>КОМПЛЕКС МРСА "ТАБУН"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АПАРАТУРА Р-394Т </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АПАРАТУРА Р-394Ц </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АПАРАТУРА Р-394ЦМ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АПАРАТУРА Р-394КЦ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">АПАРАТУРА Р-394КЦМ </t>
-  </si>
-  <si>
-    <t>СТАНЦІЯ ЗОНДУВАННЯ ІОНОСФЕРИ "ЗОНД"</t>
-  </si>
-  <si>
-    <t>СТАНЦІЯ ЗОНДУВАННЯ ІОНОСФЕРИ "ЗОНД" СТАЦІОНАРНА</t>
-  </si>
-  <si>
-    <t>АПАРАТУРА "ЛОЗА"</t>
-  </si>
-  <si>
-    <t>АПАРАТУРА "ЛОЗА-М"</t>
-  </si>
-  <si>
-    <t>РАДІОМОДЕМ СПЕЦІАЛЬНОГО ПРИЗНАЧЕННЯ РМСП-1</t>
-  </si>
-  <si>
-    <t>ПРОГРАМНО-АПАРАТНИЙ КОМПЛЕКС АВТОМАТИЗОВАНОГО ПРОХОДЖЕННЯ ІНФОРМАЦІЇ "ТРЕМБІТА" (ПАК "ТРЕМБІТА")</t>
-  </si>
-  <si>
-    <t>Транкінгові радіостанції</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, МОБІЛЬНА, MOTOROLA GM300, УВЧ, 403 - 433МГЦ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, МОБІЛЬНА, MOTOROLA GM900, УВЧ, 403 - 470МГЦ, 16 КАНАЛІВ, 20 - 25ВТ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, ALINCO DJ-182</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA GP340, УКХ, 16 КАНАЛІВ, БЕЗ КЛАВІАТУРИ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA GP900, УВЧ, 403 - 470МГЦ, 16 КАНАЛІВ, 4ВТ, БЕЗ НАБІРНОЇ ПАНЕЛІ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA SABER I, УКХ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA SABER I, УКХ, 6ВТ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA SABER III, УКХ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, ПОРТАТИВНА, MOTOROLA GP900, УВЧ, 403 - 470МГЦ, 16 КАНАЛІВ, 4ВТ, З НАБІРНОЮ ПАНЕЛЛЮ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, БАЗОВА, ALINCO DR-130TEZ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, БАЗОВА, MOTOROLA P1750, МОБІЛЬНА</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, БАЗОВА, MOTOROLA P1755A, МОБІЛЬНА</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, БАЗОВА, MOTOROLA T5365, QUANTAR, УКХ, 132 - 174МГЦ, 25 - 125ВТ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ, БАЗОВА, MOTOROLA T5365A, QUANTAR, УВЧ, 440 - 470МГЦ, 125ВТ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ НОСИМА "KENWOOD" TK2060</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ НОСИМА "KENWOOD" TK2260</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ НОСИМА "KENWOOD" TK7060</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ НОСИМА "KENWOOD" TK-3000M</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ ВОЗИМА "KENWOOD" TK-8302M2</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ "KENWOOD" TK-90 (КОРОТКОХВИЛЬОВОГО ДІАПАЗОНУ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КХ радіостанції </t>
   </si>
 </sst>
 </file>
@@ -1826,14 +1841,14 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2079,6 +2094,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2088,15 +2112,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2138,7 +2153,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2295,10 +2310,26 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2338,25 +2369,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
@@ -37186,7 +37198,7 @@
   <dimension ref="A6:D1902"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D10" sqref="D10:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37195,9 +37207,7 @@
     <col min="2" max="2" customWidth="true" style="21" width="67.5703125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="21" width="65.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="21" width="70.7109375" collapsed="true"/>
-    <col min="5" max="5" style="4" width="9.140625" collapsed="true"/>
-    <col min="6" max="28" style="4" width="9.140625" collapsed="true"/>
-    <col min="29" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="5" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -37212,58 +37222,61 @@
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
+      <c r="C8" s="20" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="59"/>
+      <c r="D9" s="64"/>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="54" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="59" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
@@ -37281,8 +37294,8 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="75" t="s">
-        <v>65</v>
+      <c r="B17" s="74" t="s">
+        <v>557</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -37291,576 +37304,578 @@
       <c r="A18" s="44" t="n">
         <v>1.0</v>
       </c>
-      <c r="B18" s="70" t="s">
-        <v>66</v>
+      <c r="B18" s="54" t="s">
+        <v>558</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>67</v>
+      <c r="A19" s="44">
+        <v>2</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>65</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="72"/>
+        <v>87</v>
+      </c>
+      <c r="C41" s="56"/>
       <c r="D41" s="39"/>
     </row>
     <row r="42" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
     </row>
     <row r="45" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
     </row>
     <row r="51" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
     </row>
     <row r="52" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
     </row>
     <row r="53" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
     </row>
     <row r="54" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
     </row>
     <row r="55" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
     </row>
     <row r="60" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
     </row>
     <row r="61" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
     </row>
     <row r="62" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="n">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="n">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
     </row>
     <row r="65" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
     </row>
     <row r="69" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
     </row>
     <row r="70" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
     </row>
     <row r="71" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="n">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
     </row>
     <row r="72" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="n">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
     </row>
     <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="n">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="n">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
     </row>
     <row r="75" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="75" t="s">
-        <v>120</v>
+      <c r="A75" s="44" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B75" s="58" t="s">
+        <v>118</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -37869,346 +37884,348 @@
       <c r="A76" s="44" t="n">
         <v>58.0</v>
       </c>
-      <c r="B76" s="70" t="s">
-        <v>121</v>
+      <c r="B76" s="54" t="s">
+        <v>119</v>
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
     </row>
     <row r="77" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="B77" s="43" t="s">
-        <v>122</v>
+      <c r="A77" s="44">
+        <v>59</v>
+      </c>
+      <c r="B77" s="74" t="s">
+        <v>120</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="n">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
     </row>
     <row r="79" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="n">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
     </row>
     <row r="80" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
     </row>
     <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="n">
-        <v>63.0</v>
+        <v>62.0</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
     </row>
     <row r="84" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="n">
-        <v>66.0</v>
+        <v>65.0</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="n">
-        <v>67.0</v>
+        <v>66.0</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
     </row>
     <row r="86" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="n">
-        <v>68.0</v>
+        <v>67.0</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
     </row>
     <row r="87" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="n">
-        <v>69.0</v>
+        <v>68.0</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
     </row>
     <row r="88" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
     </row>
     <row r="89" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="n">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
     </row>
     <row r="90" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="n">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
     </row>
     <row r="91" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="n">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
     </row>
     <row r="92" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="n">
-        <v>74.0</v>
+        <v>73.0</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
     </row>
     <row r="93" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="n">
-        <v>75.0</v>
+        <v>74.0</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
     </row>
     <row r="94" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="n">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
     </row>
     <row r="95" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
     </row>
     <row r="96" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="n">
-        <v>78.0</v>
+        <v>77.0</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
     </row>
     <row r="97" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="n">
-        <v>79.0</v>
+        <v>78.0</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
     </row>
     <row r="98" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="n">
-        <v>80.0</v>
+        <v>79.0</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
     </row>
     <row r="99" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="n">
-        <v>81.0</v>
+        <v>80.0</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
     </row>
     <row r="100" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="n">
-        <v>82.0</v>
+        <v>81.0</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
     </row>
     <row r="101" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="n">
-        <v>83.0</v>
+        <v>82.0</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
     </row>
     <row r="102" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="n">
-        <v>84.0</v>
+        <v>83.0</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
     </row>
     <row r="103" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="n">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
     </row>
     <row r="104" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="n">
-        <v>86.0</v>
+        <v>85.0</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
     </row>
     <row r="105" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="n">
-        <v>87.0</v>
+        <v>86.0</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
     </row>
     <row r="106" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="n">
-        <v>88.0</v>
+        <v>87.0</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
     </row>
     <row r="107" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="n">
-        <v>89.0</v>
+        <v>88.0</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
     </row>
     <row r="108" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="n">
-        <v>90.0</v>
+        <v>89.0</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
     </row>
     <row r="109" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="44" t="n">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
     </row>
     <row r="110" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="75" t="s">
-        <v>155</v>
+      <c r="A110" s="44" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B110" s="58" t="s">
+        <v>153</v>
       </c>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
@@ -38217,26 +38234,28 @@
       <c r="A111" s="44" t="n">
         <v>92.0</v>
       </c>
-      <c r="B111" s="70" t="s">
-        <v>156</v>
+      <c r="B111" s="54" t="s">
+        <v>154</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
     </row>
     <row r="112" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="44" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="B112" s="43" t="s">
-        <v>157</v>
+      <c r="A112" s="44">
+        <v>93</v>
+      </c>
+      <c r="B112" s="74" t="s">
+        <v>155</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
     </row>
     <row r="113" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
-      <c r="B113" s="75" t="s">
-        <v>158</v>
+      <c r="A113" s="44" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B113" s="58" t="s">
+        <v>156</v>
       </c>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
@@ -38245,16 +38264,16 @@
       <c r="A114" s="44" t="n">
         <v>94.0</v>
       </c>
-      <c r="B114" s="70" t="s">
-        <v>159</v>
+      <c r="B114" s="54" t="s">
+        <v>157</v>
       </c>
       <c r="C114" s="37"/>
       <c r="D114" s="37"/>
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
-      <c r="B115" s="75" t="s">
-        <v>160</v>
+      <c r="B115" s="74" t="s">
+        <v>158</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
@@ -38263,16 +38282,16 @@
       <c r="A116" s="44" t="n">
         <v>95.0</v>
       </c>
-      <c r="B116" s="70" t="s">
-        <v>161</v>
+      <c r="B116" s="54" t="s">
+        <v>159</v>
       </c>
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
-      <c r="B117" s="75" t="s">
-        <v>162</v>
+      <c r="B117" s="74" t="s">
+        <v>160</v>
       </c>
       <c r="C117" s="37"/>
       <c r="D117" s="37"/>
@@ -38281,326 +38300,328 @@
       <c r="A118" s="44" t="n">
         <v>96.0</v>
       </c>
-      <c r="B118" s="70" t="s">
-        <v>163</v>
+      <c r="B118" s="54" t="s">
+        <v>161</v>
       </c>
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
     </row>
     <row r="119" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="44" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="B119" s="43" t="s">
-        <v>164</v>
+      <c r="A119" s="44">
+        <v>97</v>
+      </c>
+      <c r="B119" s="74" t="s">
+        <v>162</v>
       </c>
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
     </row>
     <row r="120" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="n">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
     </row>
     <row r="121" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="n">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
     </row>
     <row r="122" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="n">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
     </row>
     <row r="123" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="44" t="n">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
     </row>
     <row r="124" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="n">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
     </row>
     <row r="125" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="44" t="n">
-        <v>103.0</v>
+        <v>102.0</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
     </row>
     <row r="126" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="n">
-        <v>104.0</v>
+        <v>103.0</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
     </row>
     <row r="127" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="44" t="n">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
     </row>
     <row r="128" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="n">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
     </row>
     <row r="129" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="44" t="n">
-        <v>107.0</v>
+        <v>106.0</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
     </row>
     <row r="130" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="44" t="n">
-        <v>108.0</v>
+        <v>107.0</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
     </row>
     <row r="131" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="n">
-        <v>109.0</v>
+        <v>108.0</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
     </row>
     <row r="132" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="n">
-        <v>110.0</v>
+        <v>109.0</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
     </row>
     <row r="133" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="n">
-        <v>111.0</v>
+        <v>110.0</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
     </row>
     <row r="134" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="44" t="n">
-        <v>112.0</v>
+        <v>111.0</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
     </row>
     <row r="135" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="n">
-        <v>113.0</v>
+        <v>112.0</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="37"/>
     </row>
     <row r="136" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="n">
-        <v>114.0</v>
+        <v>113.0</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C136" s="37"/>
       <c r="D136" s="37"/>
     </row>
     <row r="137" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="n">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
     </row>
     <row r="138" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="n">
-        <v>116.0</v>
+        <v>115.0</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
     </row>
     <row r="139" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="n">
-        <v>117.0</v>
+        <v>116.0</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
     </row>
     <row r="140" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="n">
-        <v>118.0</v>
+        <v>117.0</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
     </row>
     <row r="141" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="44" t="n">
-        <v>119.0</v>
+        <v>118.0</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
     </row>
     <row r="142" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="n">
-        <v>120.0</v>
+        <v>119.0</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
     </row>
     <row r="143" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="44" t="n">
-        <v>121.0</v>
+        <v>120.0</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
     </row>
     <row r="144" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="n">
-        <v>122.0</v>
+        <v>121.0</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
     </row>
     <row r="145" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="44" t="n">
-        <v>123.0</v>
+        <v>122.0</v>
       </c>
       <c r="B145" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
     </row>
     <row r="146" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="44" t="n">
-        <v>124.0</v>
+        <v>123.0</v>
       </c>
       <c r="B146" s="43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
     </row>
     <row r="147" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="44" t="n">
-        <v>125.0</v>
+        <v>124.0</v>
       </c>
       <c r="B147" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
     </row>
     <row r="148" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="44" t="n">
-        <v>126.0</v>
+        <v>125.0</v>
       </c>
       <c r="B148" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
     </row>
     <row r="149" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="44" t="n">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
     </row>
     <row r="150" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="44"/>
-      <c r="B150" s="75" t="s">
-        <v>195</v>
+      <c r="A150" s="44" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B150" s="58" t="s">
+        <v>193</v>
       </c>
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
@@ -38609,896 +38630,898 @@
       <c r="A151" s="44" t="n">
         <v>128.0</v>
       </c>
-      <c r="B151" s="70" t="s">
-        <v>196</v>
+      <c r="B151" s="54" t="s">
+        <v>194</v>
       </c>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
     </row>
     <row r="152" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="44" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="B152" s="47" t="s">
-        <v>197</v>
+      <c r="A152" s="44">
+        <v>129</v>
+      </c>
+      <c r="B152" s="74" t="s">
+        <v>195</v>
       </c>
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
     </row>
     <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="n">
-        <v>130.0</v>
+        <v>129.0</v>
       </c>
       <c r="B153" s="43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
     </row>
     <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="n">
-        <v>131.0</v>
+        <v>130.0</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
     </row>
     <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="n">
-        <v>132.0</v>
+        <v>131.0</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
     </row>
     <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="n">
-        <v>133.0</v>
+        <v>132.0</v>
       </c>
       <c r="B156" s="43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C156" s="37"/>
       <c r="D156" s="37"/>
     </row>
     <row r="157" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="n">
-        <v>134.0</v>
+        <v>133.0</v>
       </c>
       <c r="B157" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
     </row>
     <row r="158" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="n">
-        <v>135.0</v>
+        <v>134.0</v>
       </c>
       <c r="B158" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
     </row>
     <row r="159" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="n">
-        <v>136.0</v>
+        <v>135.0</v>
       </c>
       <c r="B159" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C159" s="37"/>
       <c r="D159" s="37"/>
     </row>
     <row r="160" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="n">
-        <v>137.0</v>
+        <v>136.0</v>
       </c>
       <c r="B160" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
     </row>
     <row r="161" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="n">
-        <v>138.0</v>
+        <v>137.0</v>
       </c>
       <c r="B161" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
     </row>
     <row r="162" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="n">
-        <v>139.0</v>
+        <v>138.0</v>
       </c>
       <c r="B162" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
     </row>
     <row r="163" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="n">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="B163" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
     </row>
     <row r="164" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="n">
-        <v>141.0</v>
+        <v>140.0</v>
       </c>
       <c r="B164" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
     </row>
     <row r="165" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="n">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="B165" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
     </row>
     <row r="166" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="n">
-        <v>143.0</v>
+        <v>142.0</v>
       </c>
       <c r="B166" s="43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C166" s="37"/>
       <c r="D166" s="37"/>
     </row>
     <row r="167" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="n">
-        <v>144.0</v>
+        <v>143.0</v>
       </c>
       <c r="B167" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
     </row>
     <row r="168" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="n">
-        <v>145.0</v>
+        <v>144.0</v>
       </c>
       <c r="B168" s="43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C168" s="37"/>
       <c r="D168" s="37"/>
     </row>
     <row r="169" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="n">
-        <v>146.0</v>
+        <v>145.0</v>
       </c>
       <c r="B169" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C169" s="37"/>
       <c r="D169" s="37"/>
     </row>
     <row r="170" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="n">
-        <v>147.0</v>
+        <v>146.0</v>
       </c>
       <c r="B170" s="43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
     </row>
     <row r="171" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="n">
-        <v>148.0</v>
+        <v>147.0</v>
       </c>
       <c r="B171" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
     </row>
     <row r="172" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="n">
-        <v>149.0</v>
+        <v>148.0</v>
       </c>
       <c r="B172" s="43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
     </row>
     <row r="173" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="n">
-        <v>150.0</v>
+        <v>149.0</v>
       </c>
       <c r="B173" s="43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
     </row>
     <row r="174" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="n">
-        <v>151.0</v>
+        <v>150.0</v>
       </c>
       <c r="B174" s="43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C174" s="37"/>
       <c r="D174" s="37"/>
     </row>
     <row r="175" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="n">
-        <v>152.0</v>
+        <v>151.0</v>
       </c>
       <c r="B175" s="43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C175" s="37"/>
       <c r="D175" s="37"/>
     </row>
     <row r="176" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="n">
-        <v>153.0</v>
+        <v>152.0</v>
       </c>
       <c r="B176" s="43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C176" s="37"/>
       <c r="D176" s="37"/>
     </row>
     <row r="177" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="n">
-        <v>154.0</v>
+        <v>153.0</v>
       </c>
       <c r="B177" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C177" s="37"/>
       <c r="D177" s="37"/>
     </row>
     <row r="178" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="n">
-        <v>155.0</v>
+        <v>154.0</v>
       </c>
       <c r="B178" s="43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C178" s="37"/>
       <c r="D178" s="37"/>
     </row>
     <row r="179" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="44" t="n">
-        <v>156.0</v>
+        <v>155.0</v>
       </c>
       <c r="B179" s="43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C179" s="37"/>
       <c r="D179" s="37"/>
     </row>
     <row r="180" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="44" t="n">
-        <v>157.0</v>
+        <v>156.0</v>
       </c>
       <c r="B180" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="37"/>
     </row>
     <row r="181" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="n">
-        <v>158.0</v>
+        <v>157.0</v>
       </c>
       <c r="B181" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C181" s="40"/>
       <c r="D181" s="40"/>
     </row>
     <row r="182" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="n">
-        <v>159.0</v>
+        <v>158.0</v>
       </c>
       <c r="B182" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C182" s="40"/>
       <c r="D182" s="40"/>
     </row>
     <row r="183" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="n">
-        <v>160.0</v>
+        <v>159.0</v>
       </c>
       <c r="B183" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C183" s="40"/>
       <c r="D183" s="40"/>
     </row>
     <row r="184" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="44" t="n">
-        <v>161.0</v>
+        <v>160.0</v>
       </c>
       <c r="B184" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C184" s="40"/>
       <c r="D184" s="40"/>
     </row>
     <row r="185" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="44" t="n">
-        <v>162.0</v>
+        <v>161.0</v>
       </c>
       <c r="B185" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C185" s="40"/>
       <c r="D185" s="40"/>
     </row>
     <row r="186" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="44" t="n">
-        <v>163.0</v>
+        <v>162.0</v>
       </c>
       <c r="B186" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C186" s="40"/>
       <c r="D186" s="40"/>
     </row>
     <row r="187" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="n">
-        <v>164.0</v>
+        <v>163.0</v>
       </c>
       <c r="B187" s="43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C187" s="40"/>
       <c r="D187" s="40"/>
     </row>
     <row r="188" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="n">
-        <v>165.0</v>
+        <v>164.0</v>
       </c>
       <c r="B188" s="47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C188" s="40"/>
       <c r="D188" s="40"/>
     </row>
-    <row r="189" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="n">
-        <v>166.0</v>
+        <v>165.0</v>
       </c>
       <c r="B189" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C189" s="40"/>
       <c r="D189" s="40"/>
     </row>
     <row r="190" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="n">
-        <v>167.0</v>
+        <v>166.0</v>
       </c>
       <c r="B190" s="47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C190" s="24"/>
       <c r="D190" s="40"/>
     </row>
     <row r="191" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="n">
-        <v>168.0</v>
+        <v>167.0</v>
       </c>
       <c r="B191" s="43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="40"/>
     </row>
     <row r="192" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="n">
-        <v>169.0</v>
+        <v>168.0</v>
       </c>
       <c r="B192" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="40"/>
     </row>
     <row r="193" spans="1:4" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="n">
-        <v>170.0</v>
+        <v>169.0</v>
       </c>
       <c r="B193" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="40"/>
     </row>
     <row r="194" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="n">
-        <v>171.0</v>
+        <v>170.0</v>
       </c>
       <c r="B194" s="43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C194" s="24"/>
       <c r="D194" s="40"/>
     </row>
     <row r="195" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="n">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="B195" s="43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C195" s="24"/>
       <c r="D195" s="40"/>
     </row>
     <row r="196" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="n">
-        <v>173.0</v>
+        <v>172.0</v>
       </c>
       <c r="B196" s="43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="40"/>
     </row>
     <row r="197" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="n">
-        <v>174.0</v>
+        <v>173.0</v>
       </c>
       <c r="B197" s="43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="40"/>
     </row>
     <row r="198" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="n">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
       <c r="B198" s="43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="40"/>
     </row>
     <row r="199" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="44" t="n">
-        <v>176.0</v>
+        <v>175.0</v>
       </c>
       <c r="B199" s="43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="40"/>
     </row>
     <row r="200" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="44" t="n">
-        <v>177.0</v>
+        <v>176.0</v>
       </c>
       <c r="B200" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="40"/>
     </row>
     <row r="201" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="n">
-        <v>178.0</v>
+        <v>177.0</v>
       </c>
       <c r="B201" s="43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C201" s="24"/>
       <c r="D201" s="40"/>
     </row>
     <row r="202" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="n">
-        <v>179.0</v>
+        <v>178.0</v>
       </c>
       <c r="B202" s="43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C202" s="24"/>
       <c r="D202" s="40"/>
     </row>
     <row r="203" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="n">
-        <v>180.0</v>
+        <v>179.0</v>
       </c>
       <c r="B203" s="43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C203" s="24"/>
       <c r="D203" s="40"/>
     </row>
     <row r="204" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="44" t="n">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="B204" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C204" s="24"/>
       <c r="D204" s="40"/>
     </row>
     <row r="205" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="44" t="n">
-        <v>182.0</v>
+        <v>181.0</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="40"/>
     </row>
     <row r="206" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="n">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
       <c r="B206" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="40"/>
     </row>
     <row r="207" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="44" t="n">
-        <v>184.0</v>
+        <v>183.0</v>
       </c>
       <c r="B207" s="43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="40"/>
     </row>
     <row r="208" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="44" t="n">
-        <v>185.0</v>
+        <v>184.0</v>
       </c>
       <c r="B208" s="43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="40"/>
     </row>
     <row r="209" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="n">
-        <v>186.0</v>
+        <v>185.0</v>
       </c>
       <c r="B209" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C209" s="40"/>
       <c r="D209" s="40"/>
     </row>
     <row r="210" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="44" t="n">
-        <v>187.0</v>
+        <v>186.0</v>
       </c>
       <c r="B210" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C210" s="40"/>
       <c r="D210" s="40"/>
     </row>
     <row r="211" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="44" t="n">
-        <v>188.0</v>
+        <v>187.0</v>
       </c>
       <c r="B211" s="43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C211" s="40"/>
       <c r="D211" s="40"/>
     </row>
     <row r="212" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="n">
-        <v>189.0</v>
+        <v>188.0</v>
       </c>
       <c r="B212" s="43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C212" s="40"/>
       <c r="D212" s="40"/>
     </row>
     <row r="213" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="n">
-        <v>190.0</v>
+        <v>189.0</v>
       </c>
       <c r="B213" s="43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C213" s="40"/>
       <c r="D213" s="40"/>
     </row>
     <row r="214" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="44" t="n">
-        <v>191.0</v>
+        <v>190.0</v>
       </c>
       <c r="B214" s="43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C214" s="40"/>
       <c r="D214" s="40"/>
     </row>
     <row r="215" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="44" t="n">
-        <v>192.0</v>
+        <v>191.0</v>
       </c>
       <c r="B215" s="43" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C215" s="40"/>
       <c r="D215" s="40"/>
     </row>
     <row r="216" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="n">
-        <v>193.0</v>
+        <v>192.0</v>
       </c>
       <c r="B216" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C216" s="40"/>
       <c r="D216" s="40"/>
     </row>
     <row r="217" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="n">
-        <v>194.0</v>
+        <v>193.0</v>
       </c>
       <c r="B217" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C217" s="40"/>
       <c r="D217" s="40"/>
     </row>
     <row r="218" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="44" t="n">
-        <v>195.0</v>
+        <v>194.0</v>
       </c>
       <c r="B218" s="43" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C218" s="40"/>
       <c r="D218" s="40"/>
     </row>
     <row r="219" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="44" t="n">
-        <v>196.0</v>
+        <v>195.0</v>
       </c>
       <c r="B219" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C219" s="40"/>
       <c r="D219" s="40"/>
     </row>
     <row r="220" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="42" t="n">
-        <v>197.0</v>
+        <v>196.0</v>
       </c>
       <c r="B220" s="43" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C220" s="40"/>
       <c r="D220" s="40"/>
     </row>
     <row r="221" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="45" t="n">
-        <v>198.0</v>
+        <v>197.0</v>
       </c>
       <c r="B221" s="47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C221" s="40"/>
       <c r="D221" s="40"/>
     </row>
     <row r="222" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="n">
-        <v>199.0</v>
+        <v>198.0</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C222" s="40"/>
       <c r="D222" s="40"/>
     </row>
     <row r="223" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="n">
-        <v>200.0</v>
+        <v>199.0</v>
       </c>
       <c r="B223" s="47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C223" s="37"/>
       <c r="D223" s="37"/>
     </row>
     <row r="224" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="45" t="n">
-        <v>201.0</v>
+        <v>200.0</v>
       </c>
       <c r="B224" s="43" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C224" s="37"/>
       <c r="D224" s="37"/>
     </row>
     <row r="225" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="n">
-        <v>202.0</v>
+        <v>201.0</v>
       </c>
       <c r="B225" s="43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C225" s="37"/>
       <c r="D225" s="37"/>
     </row>
     <row r="226" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="n">
-        <v>203.0</v>
+        <v>202.0</v>
       </c>
       <c r="B226" s="43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C226" s="37"/>
       <c r="D226" s="37"/>
     </row>
     <row r="227" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="n">
-        <v>204.0</v>
+        <v>203.0</v>
       </c>
       <c r="B227" s="43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C227" s="37"/>
       <c r="D227" s="37"/>
     </row>
     <row r="228" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="38" t="n">
-        <v>205.0</v>
+        <v>204.0</v>
       </c>
       <c r="B228" s="43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C228" s="37"/>
       <c r="D228" s="37"/>
     </row>
     <row r="229" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="n">
-        <v>206.0</v>
+        <v>205.0</v>
       </c>
       <c r="B229" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C229" s="37"/>
       <c r="D229" s="37"/>
     </row>
     <row r="230" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="44" t="n">
-        <v>207.0</v>
+        <v>206.0</v>
       </c>
       <c r="B230" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C230" s="37"/>
       <c r="D230" s="37"/>
     </row>
     <row r="231" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="44" t="n">
-        <v>208.0</v>
+        <v>207.0</v>
       </c>
       <c r="B231" s="43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C231" s="37"/>
       <c r="D231" s="37"/>
     </row>
     <row r="232" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="44" t="n">
-        <v>209.0</v>
+        <v>208.0</v>
       </c>
       <c r="B232" s="47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C232" s="37"/>
       <c r="D232" s="37"/>
     </row>
     <row r="233" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="44" t="n">
-        <v>210.0</v>
+        <v>209.0</v>
       </c>
       <c r="B233" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C233" s="37"/>
       <c r="D233" s="37"/>
     </row>
     <row r="234" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="44" t="n">
-        <v>211.0</v>
+        <v>210.0</v>
       </c>
       <c r="B234" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C234" s="37"/>
       <c r="D234" s="37"/>
     </row>
     <row r="235" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="44" t="n">
-        <v>212.0</v>
+        <v>211.0</v>
       </c>
       <c r="B235" s="47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C235" s="37"/>
       <c r="D235" s="37"/>
     </row>
     <row r="236" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="44" t="n">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C236" s="37"/>
       <c r="D236" s="37"/>
     </row>
     <row r="237" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="44" t="n">
-        <v>214.0</v>
+        <v>213.0</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C237" s="37"/>
       <c r="D237" s="37"/>
     </row>
     <row r="238" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="44" t="n">
-        <v>215.0</v>
+        <v>214.0</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C238" s="37"/>
       <c r="D238" s="37"/>
     </row>
     <row r="239" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="44" t="n">
-        <v>216.0</v>
+        <v>215.0</v>
       </c>
       <c r="B239" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C239" s="37"/>
       <c r="D239" s="37"/>
     </row>
     <row r="240" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="44"/>
-      <c r="B240" s="75" t="s">
-        <v>352</v>
+      <c r="A240" s="44" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="B240" s="58" t="s">
+        <v>257</v>
       </c>
       <c r="C240" s="37"/>
       <c r="D240" s="37"/>
@@ -39507,8 +39530,8 @@
       <c r="A241" s="44" t="n">
         <v>217.0</v>
       </c>
-      <c r="B241" s="70" t="s">
-        <v>353</v>
+      <c r="B241" s="54" t="s">
+        <v>283</v>
       </c>
       <c r="C241" s="37"/>
       <c r="D241" s="37"/>
@@ -39518,207 +39541,207 @@
         <v>218.0</v>
       </c>
       <c r="B242" s="43" t="s">
-        <v>354</v>
+        <v>559</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="37"/>
     </row>
     <row r="243" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="44" t="n">
-        <v>219.0</v>
-      </c>
-      <c r="B243" s="43" t="s">
-        <v>355</v>
+      <c r="A243" s="44">
+        <v>219</v>
+      </c>
+      <c r="B243" s="74" t="s">
+        <v>560</v>
       </c>
       <c r="C243" s="37"/>
       <c r="D243" s="37"/>
     </row>
     <row r="244" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="44" t="n">
-        <v>220.0</v>
+        <v>219.0</v>
       </c>
       <c r="B244" s="43" t="s">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="C244" s="37"/>
       <c r="D244" s="37"/>
     </row>
     <row r="245" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="44" t="n">
-        <v>221.0</v>
+        <v>220.0</v>
       </c>
       <c r="B245" s="43" t="s">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="C245" s="37"/>
       <c r="D245" s="37"/>
     </row>
     <row r="246" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="44" t="n">
-        <v>222.0</v>
+        <v>221.0</v>
       </c>
       <c r="B246" s="43" t="s">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="C246" s="37"/>
       <c r="D246" s="37"/>
     </row>
     <row r="247" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="44" t="n">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="B247" s="43" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="C247" s="37"/>
       <c r="D247" s="37"/>
     </row>
     <row r="248" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="44" t="n">
-        <v>224.0</v>
+        <v>223.0</v>
       </c>
       <c r="B248" s="43" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="C248" s="37"/>
       <c r="D248" s="37"/>
     </row>
     <row r="249" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="44" t="n">
-        <v>225.0</v>
+        <v>224.0</v>
       </c>
       <c r="B249" s="43" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="C249" s="37"/>
       <c r="D249" s="37"/>
     </row>
     <row r="250" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="42" t="n">
-        <v>226.0</v>
+        <v>225.0</v>
       </c>
       <c r="B250" s="43" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="C250" s="37"/>
       <c r="D250" s="37"/>
     </row>
-    <row r="251" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="44" t="n">
-        <v>227.0</v>
+        <v>226.0</v>
       </c>
       <c r="B251" s="43" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="C251" s="37"/>
       <c r="D251" s="37"/>
     </row>
     <row r="252" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="44" t="n">
-        <v>228.0</v>
+        <v>227.0</v>
       </c>
       <c r="B252" s="43" t="s">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="C252" s="37"/>
       <c r="D252" s="37"/>
     </row>
     <row r="253" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="44" t="n">
-        <v>229.0</v>
+        <v>228.0</v>
       </c>
       <c r="B253" s="43" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="C253" s="37"/>
       <c r="D253" s="37"/>
     </row>
     <row r="254" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="44" t="n">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="B254" s="43" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="C254" s="37"/>
       <c r="D254" s="37"/>
     </row>
     <row r="255" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="44" t="n">
-        <v>231.0</v>
+        <v>230.0</v>
       </c>
       <c r="B255" s="43" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="C255" s="37"/>
       <c r="D255" s="37"/>
     </row>
     <row r="256" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="44" t="n">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="B256" s="43" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="C256" s="37"/>
       <c r="D256" s="37"/>
     </row>
     <row r="257" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="44" t="n">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="B257" s="43" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="C257" s="37"/>
       <c r="D257" s="37"/>
     </row>
     <row r="258" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="44" t="n">
-        <v>234.0</v>
+        <v>233.0</v>
       </c>
       <c r="B258" s="43" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="C258" s="37"/>
       <c r="D258" s="37"/>
     </row>
     <row r="259" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="44" t="n">
-        <v>235.0</v>
+        <v>234.0</v>
       </c>
       <c r="B259" s="43" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="C259" s="37"/>
       <c r="D259" s="37"/>
     </row>
     <row r="260" spans="1:4" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="44" t="n">
-        <v>236.0</v>
+        <v>235.0</v>
       </c>
       <c r="B260" s="43" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="C260" s="37"/>
       <c r="D260" s="37"/>
     </row>
     <row r="261" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="44" t="n">
-        <v>237.0</v>
+        <v>236.0</v>
       </c>
       <c r="B261" s="43" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="C261" s="37"/>
       <c r="D261" s="37"/>
     </row>
     <row r="262" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="44" t="n">
-        <v>238.0</v>
-      </c>
-      <c r="B262" s="75" t="s">
-        <v>374</v>
+        <v>237.0</v>
+      </c>
+      <c r="B262" s="58" t="s">
+        <v>302</v>
       </c>
       <c r="C262" s="37"/>
       <c r="D262" s="37"/>
@@ -39728,7 +39751,7 @@
         <v>238.0</v>
       </c>
       <c r="B263" s="43" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="C263" s="37"/>
       <c r="D263" s="37"/>
@@ -39738,7 +39761,7 @@
         <v>239.0</v>
       </c>
       <c r="B264" s="43" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="C264" s="37"/>
       <c r="D264" s="37"/>
@@ -39748,7 +39771,7 @@
         <v>240.0</v>
       </c>
       <c r="B265" s="43" t="s">
-        <v>377</v>
+        <v>305</v>
       </c>
       <c r="C265" s="37"/>
       <c r="D265" s="37"/>
@@ -39758,7 +39781,7 @@
         <v>241.0</v>
       </c>
       <c r="B266" s="43" t="s">
-        <v>378</v>
+        <v>306</v>
       </c>
       <c r="C266" s="37"/>
       <c r="D266" s="37"/>
@@ -39768,7 +39791,7 @@
         <v>242.0</v>
       </c>
       <c r="B267" s="43" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="C267" s="37"/>
       <c r="D267" s="37"/>
@@ -39778,7 +39801,7 @@
         <v>243.0</v>
       </c>
       <c r="B268" s="43" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="C268" s="37"/>
       <c r="D268" s="37"/>
@@ -39788,7 +39811,7 @@
         <v>244.0</v>
       </c>
       <c r="B269" s="43" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="C269" s="37"/>
       <c r="D269" s="37"/>
@@ -39798,7 +39821,7 @@
         <v>245.0</v>
       </c>
       <c r="B270" s="43" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="C270" s="37"/>
       <c r="D270" s="37"/>
@@ -39808,7 +39831,7 @@
         <v>246.0</v>
       </c>
       <c r="B271" s="43" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="C271" s="37"/>
       <c r="D271" s="37"/>
@@ -39818,7 +39841,7 @@
         <v>247.0</v>
       </c>
       <c r="B272" s="43" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="C272" s="37"/>
       <c r="D272" s="37"/>
@@ -39828,7 +39851,7 @@
         <v>248.0</v>
       </c>
       <c r="B273" s="43" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="C273" s="37"/>
       <c r="D273" s="37"/>
@@ -39838,7 +39861,7 @@
         <v>249.0</v>
       </c>
       <c r="B274" s="43" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="C274" s="37"/>
       <c r="D274" s="37"/>
@@ -39848,7 +39871,7 @@
         <v>250.0</v>
       </c>
       <c r="B275" s="43" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="C275" s="37"/>
       <c r="D275" s="37"/>
@@ -39858,7 +39881,7 @@
         <v>251.0</v>
       </c>
       <c r="B276" s="43" t="s">
-        <v>381</v>
+        <v>316</v>
       </c>
       <c r="C276" s="37"/>
       <c r="D276" s="37"/>
@@ -39868,7 +39891,7 @@
         <v>252.0</v>
       </c>
       <c r="B277" s="43" t="s">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="C277" s="37"/>
       <c r="D277" s="37"/>
@@ -39878,7 +39901,7 @@
         <v>253.0</v>
       </c>
       <c r="B278" s="43" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="C278" s="37"/>
       <c r="D278" s="37"/>
@@ -39888,7 +39911,7 @@
         <v>254.0</v>
       </c>
       <c r="B279" s="43" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="C279" s="37"/>
       <c r="D279" s="37"/>
@@ -39898,7 +39921,7 @@
         <v>255.0</v>
       </c>
       <c r="B280" s="43" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="C280" s="37"/>
       <c r="D280" s="37"/>
@@ -39908,7 +39931,7 @@
         <v>256.0</v>
       </c>
       <c r="B281" s="43" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="C281" s="37"/>
       <c r="D281" s="37"/>
@@ -39918,7 +39941,7 @@
         <v>257.0</v>
       </c>
       <c r="B282" s="43" t="s">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="C282" s="37"/>
       <c r="D282" s="37"/>
@@ -39928,7 +39951,7 @@
         <v>258.0</v>
       </c>
       <c r="B283" s="43" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="C283" s="37"/>
       <c r="D283" s="37"/>
@@ -39938,7 +39961,7 @@
         <v>259.0</v>
       </c>
       <c r="B284" s="43" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="C284" s="37"/>
       <c r="D284" s="37"/>
@@ -39948,7 +39971,7 @@
         <v>260.0</v>
       </c>
       <c r="B285" s="43" t="s">
-        <v>384</v>
+        <v>325</v>
       </c>
       <c r="C285" s="37"/>
       <c r="D285" s="37"/>
@@ -39958,7 +39981,7 @@
         <v>261.0</v>
       </c>
       <c r="B286" s="43" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="C286" s="37"/>
       <c r="D286" s="37"/>
@@ -39968,7 +39991,7 @@
         <v>262.0</v>
       </c>
       <c r="B287" s="43" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="C287" s="37"/>
       <c r="D287" s="37"/>
@@ -39978,7 +40001,7 @@
         <v>263.0</v>
       </c>
       <c r="B288" s="43" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
       <c r="C288" s="37"/>
       <c r="D288" s="37"/>
@@ -39988,7 +40011,7 @@
         <v>264.0</v>
       </c>
       <c r="B289" s="43" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="C289" s="37"/>
       <c r="D289" s="37"/>
@@ -39998,7 +40021,7 @@
         <v>265.0</v>
       </c>
       <c r="B290" s="43" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="C290" s="37"/>
       <c r="D290" s="37"/>
@@ -40008,7 +40031,7 @@
         <v>266.0</v>
       </c>
       <c r="B291" s="43" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="C291" s="37"/>
       <c r="D291" s="37"/>
@@ -40018,7 +40041,7 @@
         <v>267.0</v>
       </c>
       <c r="B292" s="43" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="C292" s="37"/>
       <c r="D292" s="37"/>
@@ -40028,7 +40051,7 @@
         <v>268.0</v>
       </c>
       <c r="B293" s="43" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="C293" s="37"/>
       <c r="D293" s="37"/>
@@ -40038,7 +40061,7 @@
         <v>269.0</v>
       </c>
       <c r="B294" s="43" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="C294" s="37"/>
       <c r="D294" s="37"/>
@@ -40048,7 +40071,7 @@
         <v>270.0</v>
       </c>
       <c r="B295" s="43" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="C295" s="37"/>
       <c r="D295" s="37"/>
@@ -40058,7 +40081,7 @@
         <v>271.0</v>
       </c>
       <c r="B296" s="43" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="C296" s="37"/>
       <c r="D296" s="37"/>
@@ -40068,7 +40091,7 @@
         <v>272.0</v>
       </c>
       <c r="B297" s="43" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="C297" s="37"/>
       <c r="D297" s="37"/>
@@ -40078,7 +40101,7 @@
         <v>273.0</v>
       </c>
       <c r="B298" s="43" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="C298" s="37"/>
       <c r="D298" s="37"/>
@@ -40088,107 +40111,107 @@
         <v>274.0</v>
       </c>
       <c r="B299" s="43" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="C299" s="37"/>
       <c r="D299" s="37"/>
     </row>
     <row r="300" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="44" t="n">
-        <v>276.0</v>
-      </c>
-      <c r="B300" s="75" t="s">
-        <v>395</v>
+        <v>275.0</v>
+      </c>
+      <c r="B300" s="58" t="s">
+        <v>340</v>
       </c>
       <c r="C300" s="37"/>
       <c r="D300" s="37"/>
     </row>
     <row r="301" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="44" t="n">
-        <v>275.0</v>
+        <v>276.0</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="C301" s="37"/>
       <c r="D301" s="37"/>
     </row>
     <row r="302" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="44" t="n">
-        <v>276.0</v>
+        <v>277.0</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="C302" s="37"/>
       <c r="D302" s="37"/>
     </row>
     <row r="303" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="44" t="n">
-        <v>277.0</v>
+        <v>278.0</v>
       </c>
       <c r="B303" s="43" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="C303" s="37"/>
       <c r="D303" s="37"/>
     </row>
     <row r="304" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="44" t="n">
-        <v>278.0</v>
+        <v>279.0</v>
       </c>
       <c r="B304" s="43" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="C304" s="37"/>
       <c r="D304" s="37"/>
     </row>
     <row r="305" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="44" t="n">
-        <v>279.0</v>
+        <v>280.0</v>
       </c>
       <c r="B305" s="43" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="C305" s="37"/>
       <c r="D305" s="37"/>
     </row>
     <row r="306" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="44" t="n">
-        <v>280.0</v>
+        <v>281.0</v>
       </c>
       <c r="B306" s="43" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="C306" s="37"/>
       <c r="D306" s="37"/>
     </row>
     <row r="307" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="44" t="n">
-        <v>281.0</v>
+        <v>282.0</v>
       </c>
       <c r="B307" s="43" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="C307" s="37"/>
       <c r="D307" s="37"/>
     </row>
     <row r="308" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="44" t="n">
-        <v>282.0</v>
-      </c>
-      <c r="B308" s="74" t="s">
-        <v>403</v>
+        <v>283.0</v>
+      </c>
+      <c r="B308" s="57" t="s">
+        <v>348</v>
       </c>
       <c r="C308" s="37"/>
       <c r="D308" s="37"/>
     </row>
     <row r="309" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="44" t="n">
-        <v>283.0</v>
-      </c>
-      <c r="B309" s="70" t="s">
-        <v>404</v>
+        <v>284.0</v>
+      </c>
+      <c r="B309" s="54" t="s">
+        <v>349</v>
       </c>
       <c r="C309" s="37"/>
       <c r="D309" s="37"/>
@@ -40197,618 +40220,618 @@
       <c r="A310" s="42" t="n">
         <v>285.0</v>
       </c>
-      <c r="B310" s="75" t="s">
-        <v>405</v>
+      <c r="B310" s="58" t="s">
+        <v>350</v>
       </c>
       <c r="C310" s="37"/>
       <c r="D310" s="37"/>
     </row>
     <row r="311" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="44" t="n">
-        <v>284.0</v>
-      </c>
-      <c r="B311" s="43" t="s">
-        <v>406</v>
+      <c r="A311" s="44">
+        <v>284</v>
+      </c>
+      <c r="B311" s="74" t="s">
+        <v>351</v>
       </c>
       <c r="C311" s="37"/>
       <c r="D311" s="37"/>
     </row>
     <row r="312" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="44" t="n">
-        <v>285.0</v>
+        <v>286.0</v>
       </c>
       <c r="B312" s="43" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="C312" s="37"/>
       <c r="D312" s="37"/>
     </row>
     <row r="313" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="44" t="n">
-        <v>288.0</v>
-      </c>
-      <c r="B313" s="75" t="s">
-        <v>555</v>
+        <v>287.0</v>
+      </c>
+      <c r="B313" s="58" t="s">
+        <v>353</v>
       </c>
       <c r="C313" s="37"/>
       <c r="D313" s="37"/>
     </row>
     <row r="314" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="42" t="n">
-        <v>286.0</v>
+        <v>288.0</v>
       </c>
       <c r="B314" s="43" t="s">
-        <v>285</v>
+        <v>354</v>
       </c>
       <c r="C314" s="37"/>
       <c r="D314" s="37"/>
     </row>
     <row r="315" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="44" t="n">
-        <v>287.0</v>
+        <v>289.0</v>
       </c>
       <c r="B315" s="43" t="s">
-        <v>286</v>
+        <v>355</v>
       </c>
       <c r="C315" s="37"/>
       <c r="D315" s="37"/>
     </row>
     <row r="316" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="42" t="n">
-        <v>288.0</v>
+        <v>290.0</v>
       </c>
       <c r="B316" s="43" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="C316" s="38"/>
       <c r="D316" s="38"/>
     </row>
     <row r="317" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="42" t="n">
-        <v>289.0</v>
+        <v>291.0</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="C317" s="37"/>
       <c r="D317" s="37"/>
     </row>
     <row r="318" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="44" t="n">
-        <v>290.0</v>
+        <v>292.0</v>
       </c>
       <c r="B318" s="43" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="C318" s="37"/>
       <c r="D318" s="37"/>
     </row>
     <row r="319" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="44" t="n">
-        <v>291.0</v>
+        <v>293.0</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="C319" s="37"/>
       <c r="D319" s="37"/>
     </row>
     <row r="320" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="44" t="n">
-        <v>292.0</v>
+        <v>294.0</v>
       </c>
       <c r="B320" s="43" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="C320" s="37"/>
       <c r="D320" s="37"/>
     </row>
     <row r="321" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="44" t="n">
-        <v>293.0</v>
+        <v>295.0</v>
       </c>
       <c r="B321" s="43" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="C321" s="37"/>
       <c r="D321" s="37"/>
     </row>
     <row r="322" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="44" t="n">
-        <v>294.0</v>
+        <v>296.0</v>
       </c>
       <c r="B322" s="43" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="C322" s="37"/>
       <c r="D322" s="37"/>
     </row>
     <row r="323" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="44" t="n">
-        <v>295.0</v>
+        <v>297.0</v>
       </c>
       <c r="B323" s="43" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="C323" s="37"/>
       <c r="D323" s="37"/>
     </row>
     <row r="324" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="44" t="n">
-        <v>296.0</v>
+        <v>298.0</v>
       </c>
       <c r="B324" s="43" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="C324" s="37"/>
       <c r="D324" s="37"/>
     </row>
     <row r="325" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="44" t="n">
-        <v>297.0</v>
+        <v>299.0</v>
       </c>
       <c r="B325" s="43" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="C325" s="37"/>
       <c r="D325" s="37"/>
     </row>
     <row r="326" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="44" t="n">
-        <v>298.0</v>
+        <v>300.0</v>
       </c>
       <c r="B326" s="43" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="C326" s="37"/>
       <c r="D326" s="37"/>
     </row>
     <row r="327" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="44" t="n">
-        <v>299.0</v>
+        <v>301.0</v>
       </c>
       <c r="B327" s="43" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="C327" s="37"/>
       <c r="D327" s="37"/>
     </row>
     <row r="328" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="44" t="n">
-        <v>300.0</v>
+        <v>302.0</v>
       </c>
       <c r="B328" s="43" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="C328" s="37"/>
       <c r="D328" s="37"/>
     </row>
     <row r="329" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="44" t="n">
-        <v>301.0</v>
+        <v>303.0</v>
       </c>
       <c r="B329" s="43" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="C329" s="37"/>
       <c r="D329" s="37"/>
     </row>
     <row r="330" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="44" t="n">
-        <v>302.0</v>
-      </c>
-      <c r="B330" s="74" t="s">
-        <v>301</v>
+        <v>304.0</v>
+      </c>
+      <c r="B330" s="57" t="s">
+        <v>370</v>
       </c>
       <c r="C330" s="37"/>
       <c r="D330" s="37"/>
     </row>
     <row r="331" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="44" t="n">
-        <v>303.0</v>
-      </c>
-      <c r="B331" s="70" t="s">
-        <v>302</v>
+        <v>305.0</v>
+      </c>
+      <c r="B331" s="54" t="s">
+        <v>371</v>
       </c>
       <c r="C331" s="37"/>
       <c r="D331" s="37"/>
     </row>
     <row r="332" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="44" t="n">
-        <v>304.0</v>
+        <v>306.0</v>
       </c>
       <c r="B332" s="43" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="C332" s="37"/>
       <c r="D332" s="37"/>
     </row>
     <row r="333" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="44" t="n">
-        <v>305.0</v>
-      </c>
-      <c r="B333" s="43" t="s">
-        <v>304</v>
+      <c r="A333" s="44">
+        <v>305</v>
+      </c>
+      <c r="B333" s="74" t="s">
+        <v>373</v>
       </c>
       <c r="C333" s="37"/>
       <c r="D333" s="37"/>
     </row>
     <row r="334" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="44" t="n">
-        <v>306.0</v>
+        <v>307.0</v>
       </c>
       <c r="B334" s="43" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="C334" s="37"/>
       <c r="D334" s="37"/>
     </row>
     <row r="335" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="44" t="n">
-        <v>307.0</v>
+        <v>308.0</v>
       </c>
       <c r="B335" s="43" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="C335" s="37"/>
       <c r="D335" s="37"/>
     </row>
     <row r="336" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="44" t="n">
-        <v>308.0</v>
+        <v>309.0</v>
       </c>
       <c r="B336" s="43" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="C336" s="37"/>
       <c r="D336" s="37"/>
     </row>
     <row r="337" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="44" t="n">
-        <v>309.0</v>
+        <v>310.0</v>
       </c>
       <c r="B337" s="43" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="C337" s="37"/>
       <c r="D337" s="37"/>
     </row>
     <row r="338" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="42" t="n">
-        <v>310.0</v>
+        <v>311.0</v>
       </c>
       <c r="B338" s="43" t="s">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="C338" s="37"/>
       <c r="D338" s="37"/>
     </row>
     <row r="339" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="44" t="n">
-        <v>311.0</v>
+        <v>312.0</v>
       </c>
       <c r="B339" s="43" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="C339" s="37"/>
       <c r="D339" s="37"/>
     </row>
     <row r="340" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="44" t="n">
-        <v>312.0</v>
+        <v>313.0</v>
       </c>
       <c r="B340" s="43" t="s">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="C340" s="37"/>
       <c r="D340" s="37"/>
     </row>
     <row r="341" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="44" t="n">
-        <v>313.0</v>
+        <v>314.0</v>
       </c>
       <c r="B341" s="43" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="C341" s="37"/>
       <c r="D341" s="37"/>
     </row>
     <row r="342" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="44" t="n">
-        <v>314.0</v>
+        <v>315.0</v>
       </c>
       <c r="B342" s="43" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="C342" s="37"/>
       <c r="D342" s="37"/>
     </row>
     <row r="343" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="44" t="n">
-        <v>315.0</v>
+        <v>316.0</v>
       </c>
       <c r="B343" s="43" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="C343" s="37"/>
       <c r="D343" s="37"/>
     </row>
     <row r="344" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="44" t="n">
-        <v>316.0</v>
+        <v>317.0</v>
       </c>
       <c r="B344" s="43" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
       <c r="C344" s="37"/>
       <c r="D344" s="37"/>
     </row>
     <row r="345" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="44" t="n">
-        <v>317.0</v>
+        <v>318.0</v>
       </c>
       <c r="B345" s="43" t="s">
-        <v>316</v>
+        <v>378</v>
       </c>
       <c r="C345" s="37"/>
       <c r="D345" s="37"/>
     </row>
     <row r="346" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="44" t="n">
-        <v>318.0</v>
+        <v>319.0</v>
       </c>
       <c r="B346" s="43" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="C346" s="37"/>
       <c r="D346" s="37"/>
     </row>
     <row r="347" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="44" t="n">
-        <v>319.0</v>
+        <v>320.0</v>
       </c>
       <c r="B347" s="43" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="C347" s="37"/>
       <c r="D347" s="37"/>
     </row>
     <row r="348" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="44" t="n">
-        <v>320.0</v>
+        <v>321.0</v>
       </c>
       <c r="B348" s="43" t="s">
-        <v>319</v>
+        <v>381</v>
       </c>
       <c r="C348" s="37"/>
       <c r="D348" s="37"/>
     </row>
     <row r="349" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="44" t="n">
-        <v>321.0</v>
+        <v>322.0</v>
       </c>
       <c r="B349" s="43" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="C349" s="37"/>
       <c r="D349" s="37"/>
     </row>
     <row r="350" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="44" t="n">
-        <v>322.0</v>
+        <v>323.0</v>
       </c>
       <c r="B350" s="43" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="C350" s="37"/>
       <c r="D350" s="37"/>
     </row>
     <row r="351" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="44" t="n">
-        <v>323.0</v>
+        <v>324.0</v>
       </c>
       <c r="B351" s="43" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="C351" s="37"/>
       <c r="D351" s="37"/>
     </row>
     <row r="352" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="44" t="n">
-        <v>324.0</v>
+        <v>325.0</v>
       </c>
       <c r="B352" s="43" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="C352" s="37"/>
       <c r="D352" s="37"/>
     </row>
     <row r="353" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="44" t="n">
-        <v>325.0</v>
+        <v>326.0</v>
       </c>
       <c r="B353" s="43" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="C353" s="37"/>
       <c r="D353" s="37"/>
     </row>
     <row r="354" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="44" t="n">
-        <v>326.0</v>
+        <v>327.0</v>
       </c>
       <c r="B354" s="43" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="C354" s="37"/>
       <c r="D354" s="37"/>
     </row>
     <row r="355" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="44" t="n">
-        <v>327.0</v>
+        <v>328.0</v>
       </c>
       <c r="B355" s="43" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="C355" s="37"/>
       <c r="D355" s="37"/>
     </row>
     <row r="356" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="44" t="n">
-        <v>328.0</v>
+        <v>329.0</v>
       </c>
       <c r="B356" s="43" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="C356" s="37"/>
       <c r="D356" s="37"/>
     </row>
     <row r="357" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="45" t="n">
-        <v>329.0</v>
+        <v>330.0</v>
       </c>
       <c r="B357" s="43" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="C357" s="37"/>
       <c r="D357" s="37"/>
     </row>
     <row r="358" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="44" t="n">
-        <v>330.0</v>
+        <v>331.0</v>
       </c>
       <c r="B358" s="43" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="C358" s="37"/>
       <c r="D358" s="37"/>
     </row>
     <row r="359" spans="1:4" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="42" t="n">
-        <v>331.0</v>
+        <v>332.0</v>
       </c>
       <c r="B359" s="43" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="C359" s="38"/>
       <c r="D359" s="38"/>
     </row>
     <row r="360" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="44" t="n">
-        <v>332.0</v>
+        <v>333.0</v>
       </c>
       <c r="B360" s="43" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="C360" s="37"/>
       <c r="D360" s="37"/>
     </row>
     <row r="361" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="44" t="n">
-        <v>333.0</v>
+        <v>334.0</v>
       </c>
       <c r="B361" s="43" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="C361" s="37"/>
       <c r="D361" s="37"/>
     </row>
     <row r="362" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="44" t="n">
-        <v>334.0</v>
+        <v>335.0</v>
       </c>
       <c r="B362" s="43" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="C362" s="37"/>
       <c r="D362" s="37"/>
     </row>
     <row r="363" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="44" t="n">
-        <v>335.0</v>
+        <v>336.0</v>
       </c>
       <c r="B363" s="43" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="C363" s="37"/>
       <c r="D363" s="37"/>
     </row>
     <row r="364" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="44" t="n">
-        <v>336.0</v>
+        <v>337.0</v>
       </c>
       <c r="B364" s="43" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="C364" s="37"/>
       <c r="D364" s="37"/>
     </row>
     <row r="365" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="44" t="n">
-        <v>337.0</v>
+        <v>338.0</v>
       </c>
       <c r="B365" s="43" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="C365" s="37"/>
       <c r="D365" s="37"/>
     </row>
     <row r="366" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="44" t="n">
-        <v>338.0</v>
+        <v>339.0</v>
       </c>
       <c r="B366" s="43" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="C366" s="37"/>
       <c r="D366" s="37"/>
     </row>
     <row r="367" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="44" t="n">
-        <v>339.0</v>
+        <v>340.0</v>
       </c>
       <c r="B367" s="43" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="C367" s="37"/>
       <c r="D367" s="37"/>
     </row>
     <row r="368" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="44" t="n">
-        <v>340.0</v>
-      </c>
-      <c r="B368" s="74" t="s">
-        <v>339</v>
+        <v>341.0</v>
+      </c>
+      <c r="B368" s="57" t="s">
+        <v>392</v>
       </c>
       <c r="C368" s="37"/>
       <c r="D368" s="37"/>
     </row>
     <row r="369" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="44" t="n">
-        <v>341.0</v>
-      </c>
-      <c r="B369" s="70" t="s">
-        <v>340</v>
+        <v>342.0</v>
+      </c>
+      <c r="B369" s="54" t="s">
+        <v>393</v>
       </c>
       <c r="C369" s="37"/>
       <c r="D369" s="37"/>
     </row>
     <row r="370" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="44" t="n">
-        <v>342.0</v>
+        <v>343.0</v>
       </c>
       <c r="B370" s="43" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="C370" s="37"/>
       <c r="D370" s="37"/>
     </row>
     <row r="371" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="44" t="n">
-        <v>343.0</v>
-      </c>
-      <c r="B371" s="43" t="s">
-        <v>342</v>
+      <c r="A371" s="44">
+        <v>343</v>
+      </c>
+      <c r="B371" s="74" t="s">
+        <v>394</v>
       </c>
       <c r="C371" s="37"/>
       <c r="D371" s="37"/>
@@ -40818,7 +40841,7 @@
         <v>344.0</v>
       </c>
       <c r="B372" s="43" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="C372" s="37"/>
       <c r="D372" s="37"/>
@@ -40828,7 +40851,7 @@
         <v>345.0</v>
       </c>
       <c r="B373" s="43" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="C373" s="37"/>
       <c r="D373" s="37"/>
@@ -40838,7 +40861,7 @@
         <v>346.0</v>
       </c>
       <c r="B374" s="43" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="C374" s="37"/>
       <c r="D374" s="37"/>
@@ -40848,7 +40871,7 @@
         <v>347.0</v>
       </c>
       <c r="B375" s="43" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="C375" s="37"/>
       <c r="D375" s="37"/>
@@ -40858,7 +40881,7 @@
         <v>348.0</v>
       </c>
       <c r="B376" s="43" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="C376" s="37"/>
       <c r="D376" s="37"/>
@@ -40868,7 +40891,7 @@
         <v>349.0</v>
       </c>
       <c r="B377" s="43" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="C377" s="37"/>
       <c r="D377" s="37"/>
@@ -40877,8 +40900,8 @@
       <c r="A378" s="44" t="n">
         <v>350.0</v>
       </c>
-      <c r="B378" s="74" t="s">
-        <v>349</v>
+      <c r="B378" s="57" t="s">
+        <v>401</v>
       </c>
       <c r="C378" s="37"/>
       <c r="D378" s="37"/>
@@ -40887,8 +40910,8 @@
       <c r="A379" s="44" t="n">
         <v>351.0</v>
       </c>
-      <c r="B379" s="70" t="s">
-        <v>350</v>
+      <c r="B379" s="54" t="s">
+        <v>402</v>
       </c>
       <c r="C379" s="37"/>
       <c r="D379" s="37"/>
@@ -40898,15 +40921,15 @@
         <v>352.0</v>
       </c>
       <c r="B380" s="43" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="C380" s="37"/>
       <c r="D380" s="37"/>
     </row>
     <row r="381" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="44"/>
-      <c r="B381" s="75" t="s">
-        <v>408</v>
+      <c r="B381" s="74" t="s">
+        <v>404</v>
       </c>
       <c r="C381" s="37"/>
       <c r="D381" s="37"/>
@@ -40915,8 +40938,8 @@
       <c r="A382" s="44" t="n">
         <v>353.0</v>
       </c>
-      <c r="B382" s="70" t="s">
-        <v>409</v>
+      <c r="B382" s="54" t="s">
+        <v>405</v>
       </c>
       <c r="C382" s="37"/>
       <c r="D382" s="37"/>
@@ -40926,35 +40949,37 @@
         <v>354.0</v>
       </c>
       <c r="B383" s="43" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C383" s="37"/>
       <c r="D383" s="37"/>
     </row>
     <row r="384" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="44" t="n">
-        <v>355.0</v>
-      </c>
-      <c r="B384" s="43" t="s">
-        <v>411</v>
+      <c r="A384" s="44">
+        <v>355</v>
+      </c>
+      <c r="B384" s="74" t="s">
+        <v>407</v>
       </c>
       <c r="C384" s="37"/>
       <c r="D384" s="37"/>
     </row>
     <row r="385" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="44" t="n">
-        <v>356.0</v>
+        <v>355.0</v>
       </c>
       <c r="B385" s="43" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C385" s="37"/>
       <c r="D385" s="37"/>
     </row>
     <row r="386" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="44"/>
-      <c r="B386" s="75" t="s">
-        <v>413</v>
+      <c r="A386" s="44" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B386" s="58" t="s">
+        <v>409</v>
       </c>
       <c r="C386" s="37"/>
       <c r="D386" s="37"/>
@@ -40963,8 +40988,8 @@
       <c r="A387" s="44" t="n">
         <v>357.0</v>
       </c>
-      <c r="B387" s="70" t="s">
-        <v>414</v>
+      <c r="B387" s="54" t="s">
+        <v>410</v>
       </c>
       <c r="C387" s="37"/>
       <c r="D387" s="37"/>
@@ -40974,1255 +40999,1257 @@
         <v>358.0</v>
       </c>
       <c r="B388" s="43" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C388" s="37"/>
       <c r="D388" s="37"/>
     </row>
     <row r="389" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="44" t="n">
-        <v>359.0</v>
-      </c>
-      <c r="B389" s="43" t="s">
-        <v>416</v>
+      <c r="A389" s="44">
+        <v>359</v>
+      </c>
+      <c r="B389" s="74" t="s">
+        <v>412</v>
       </c>
       <c r="C389" s="37"/>
       <c r="D389" s="37"/>
     </row>
     <row r="390" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="44" t="n">
-        <v>360.0</v>
+        <v>359.0</v>
       </c>
       <c r="B390" s="43" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C390" s="37"/>
       <c r="D390" s="37"/>
     </row>
     <row r="391" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="44" t="n">
-        <v>361.0</v>
+        <v>360.0</v>
       </c>
       <c r="B391" s="43" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C391" s="37"/>
       <c r="D391" s="37"/>
     </row>
     <row r="392" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="44" t="n">
-        <v>362.0</v>
+        <v>361.0</v>
       </c>
       <c r="B392" s="43" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C392" s="37"/>
       <c r="D392" s="37"/>
     </row>
     <row r="393" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="44" t="n">
-        <v>363.0</v>
+        <v>362.0</v>
       </c>
       <c r="B393" s="43" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C393" s="37"/>
       <c r="D393" s="37"/>
     </row>
     <row r="394" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="44" t="n">
-        <v>364.0</v>
+        <v>363.0</v>
       </c>
       <c r="B394" s="43" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C394" s="37"/>
       <c r="D394" s="37"/>
     </row>
     <row r="395" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="44" t="n">
-        <v>365.0</v>
+        <v>364.0</v>
       </c>
       <c r="B395" s="43" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C395" s="37"/>
       <c r="D395" s="37"/>
     </row>
     <row r="396" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="44" t="n">
-        <v>366.0</v>
+        <v>365.0</v>
       </c>
       <c r="B396" s="43" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C396" s="37"/>
       <c r="D396" s="37"/>
     </row>
     <row r="397" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="44" t="n">
-        <v>367.0</v>
+        <v>366.0</v>
       </c>
       <c r="B397" s="43" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C397" s="37"/>
       <c r="D397" s="37"/>
     </row>
     <row r="398" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="44" t="n">
-        <v>368.0</v>
+        <v>367.0</v>
       </c>
       <c r="B398" s="43" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C398" s="37"/>
       <c r="D398" s="37"/>
     </row>
     <row r="399" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="44" t="n">
-        <v>369.0</v>
+        <v>368.0</v>
       </c>
       <c r="B399" s="43" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C399" s="37"/>
       <c r="D399" s="37"/>
     </row>
     <row r="400" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="44" t="n">
-        <v>370.0</v>
+        <v>369.0</v>
       </c>
       <c r="B400" s="43" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C400" s="37"/>
       <c r="D400" s="37"/>
     </row>
     <row r="401" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="44" t="n">
-        <v>371.0</v>
+        <v>370.0</v>
       </c>
       <c r="B401" s="43" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C401" s="37"/>
       <c r="D401" s="37"/>
     </row>
     <row r="402" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="44" t="n">
-        <v>372.0</v>
+        <v>371.0</v>
       </c>
       <c r="B402" s="43" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C402" s="37"/>
       <c r="D402" s="37"/>
     </row>
     <row r="403" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="44" t="n">
-        <v>373.0</v>
+        <v>372.0</v>
       </c>
       <c r="B403" s="43" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C403" s="37"/>
       <c r="D403" s="37"/>
     </row>
     <row r="404" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="45" t="n">
-        <v>374.0</v>
+        <v>373.0</v>
       </c>
       <c r="B404" s="49" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C404" s="40"/>
       <c r="D404" s="37"/>
     </row>
     <row r="405" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="44" t="n">
-        <v>375.0</v>
+        <v>374.0</v>
       </c>
       <c r="B405" s="50" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C405" s="40"/>
       <c r="D405" s="37"/>
     </row>
     <row r="406" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="44" t="n">
-        <v>376.0</v>
+        <v>375.0</v>
       </c>
       <c r="B406" s="50" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C406" s="40"/>
       <c r="D406" s="37"/>
     </row>
     <row r="407" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="44" t="n">
-        <v>377.0</v>
+        <v>376.0</v>
       </c>
       <c r="B407" s="50" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C407" s="40"/>
       <c r="D407" s="37"/>
     </row>
     <row r="408" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="44" t="n">
-        <v>378.0</v>
+        <v>377.0</v>
       </c>
       <c r="B408" s="50" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C408" s="24"/>
       <c r="D408" s="37"/>
     </row>
     <row r="409" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="44" t="n">
-        <v>379.0</v>
+        <v>378.0</v>
       </c>
       <c r="B409" s="50" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C409" s="24"/>
       <c r="D409" s="37"/>
     </row>
     <row r="410" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="44" t="n">
-        <v>380.0</v>
+        <v>379.0</v>
       </c>
       <c r="B410" s="43" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C410" s="24"/>
       <c r="D410" s="37"/>
     </row>
     <row r="411" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="44" t="n">
-        <v>381.0</v>
+        <v>380.0</v>
       </c>
       <c r="B411" s="43" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C411" s="24"/>
       <c r="D411" s="37"/>
     </row>
     <row r="412" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="44" t="n">
-        <v>382.0</v>
+        <v>381.0</v>
       </c>
       <c r="B412" s="43" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C412" s="24"/>
       <c r="D412" s="37"/>
     </row>
     <row r="413" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="44" t="n">
-        <v>383.0</v>
+        <v>382.0</v>
       </c>
       <c r="B413" s="50" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C413" s="24"/>
       <c r="D413" s="37"/>
     </row>
     <row r="414" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="44" t="n">
-        <v>384.0</v>
+        <v>383.0</v>
       </c>
       <c r="B414" s="50" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C414" s="24"/>
       <c r="D414" s="37"/>
     </row>
     <row r="415" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="44" t="n">
-        <v>385.0</v>
+        <v>384.0</v>
       </c>
       <c r="B415" s="50" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C415" s="40"/>
       <c r="D415" s="37"/>
     </row>
     <row r="416" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="44" t="n">
-        <v>386.0</v>
+        <v>385.0</v>
       </c>
       <c r="B416" s="50" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C416" s="40"/>
       <c r="D416" s="37"/>
     </row>
     <row r="417" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="44" t="n">
-        <v>387.0</v>
+        <v>386.0</v>
       </c>
       <c r="B417" s="43" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C417" s="40"/>
       <c r="D417" s="37"/>
     </row>
     <row r="418" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="44" t="n">
-        <v>388.0</v>
+        <v>387.0</v>
       </c>
       <c r="B418" s="43" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C418" s="40"/>
       <c r="D418" s="37"/>
     </row>
     <row r="419" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="44" t="n">
-        <v>389.0</v>
+        <v>388.0</v>
       </c>
       <c r="B419" s="43" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C419" s="40"/>
       <c r="D419" s="37"/>
     </row>
     <row r="420" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="44" t="n">
-        <v>390.0</v>
+        <v>389.0</v>
       </c>
       <c r="B420" s="43" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C420" s="37"/>
       <c r="D420" s="37"/>
     </row>
     <row r="421" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="44" t="n">
-        <v>391.0</v>
+        <v>390.0</v>
       </c>
       <c r="B421" s="43" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C421" s="37"/>
       <c r="D421" s="37"/>
     </row>
     <row r="422" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="44" t="n">
-        <v>392.0</v>
+        <v>391.0</v>
       </c>
       <c r="B422" s="43" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C422" s="37"/>
       <c r="D422" s="37"/>
     </row>
     <row r="423" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="44" t="n">
-        <v>393.0</v>
+        <v>392.0</v>
       </c>
       <c r="B423" s="43" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C423" s="37"/>
       <c r="D423" s="37"/>
     </row>
     <row r="424" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="44" t="n">
-        <v>394.0</v>
+        <v>393.0</v>
       </c>
       <c r="B424" s="43" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C424" s="37"/>
       <c r="D424" s="37"/>
     </row>
     <row r="425" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="44" t="n">
-        <v>395.0</v>
+        <v>394.0</v>
       </c>
       <c r="B425" s="50" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C425" s="37"/>
       <c r="D425" s="37"/>
     </row>
     <row r="426" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="44" t="n">
-        <v>396.0</v>
+        <v>395.0</v>
       </c>
       <c r="B426" s="50" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C426" s="37"/>
       <c r="D426" s="37"/>
     </row>
     <row r="427" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="44" t="n">
-        <v>397.0</v>
+        <v>396.0</v>
       </c>
       <c r="B427" s="50" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C427" s="37"/>
       <c r="D427" s="37"/>
     </row>
     <row r="428" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="44" t="n">
-        <v>398.0</v>
+        <v>397.0</v>
       </c>
       <c r="B428" s="43" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C428" s="37"/>
       <c r="D428" s="37"/>
     </row>
     <row r="429" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="44" t="n">
-        <v>399.0</v>
+        <v>398.0</v>
       </c>
       <c r="B429" s="43" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C429" s="37"/>
       <c r="D429" s="37"/>
     </row>
     <row r="430" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="44" t="n">
-        <v>400.0</v>
+        <v>399.0</v>
       </c>
       <c r="B430" s="43" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C430" s="37"/>
       <c r="D430" s="37"/>
     </row>
     <row r="431" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="44" t="n">
-        <v>401.0</v>
+        <v>400.0</v>
       </c>
       <c r="B431" s="43" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C431" s="37"/>
       <c r="D431" s="37"/>
     </row>
     <row r="432" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="44" t="n">
-        <v>402.0</v>
+        <v>401.0</v>
       </c>
       <c r="B432" s="43" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C432" s="37"/>
       <c r="D432" s="37"/>
     </row>
     <row r="433" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="44" t="n">
-        <v>403.0</v>
+        <v>402.0</v>
       </c>
       <c r="B433" s="43" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C433" s="37"/>
       <c r="D433" s="37"/>
     </row>
     <row r="434" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="44" t="n">
-        <v>404.0</v>
+        <v>403.0</v>
       </c>
       <c r="B434" s="43" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C434" s="37"/>
       <c r="D434" s="37"/>
     </row>
     <row r="435" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="44" t="n">
-        <v>405.0</v>
+        <v>404.0</v>
       </c>
       <c r="B435" s="43" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C435" s="37"/>
       <c r="D435" s="37"/>
     </row>
     <row r="436" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="44" t="n">
-        <v>406.0</v>
+        <v>405.0</v>
       </c>
       <c r="B436" s="43" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C436" s="37"/>
       <c r="D436" s="37"/>
     </row>
     <row r="437" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="44" t="n">
-        <v>407.0</v>
+        <v>406.0</v>
       </c>
       <c r="B437" s="50" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C437" s="37"/>
       <c r="D437" s="37"/>
     </row>
     <row r="438" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="44" t="n">
-        <v>408.0</v>
+        <v>407.0</v>
       </c>
       <c r="B438" s="43" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C438" s="37"/>
       <c r="D438" s="37"/>
     </row>
     <row r="439" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="44" t="n">
-        <v>409.0</v>
+        <v>408.0</v>
       </c>
       <c r="B439" s="43" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C439" s="37"/>
       <c r="D439" s="37"/>
     </row>
     <row r="440" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="44" t="n">
-        <v>410.0</v>
+        <v>409.0</v>
       </c>
       <c r="B440" s="50" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C440" s="37"/>
       <c r="D440" s="37"/>
     </row>
     <row r="441" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="44" t="n">
-        <v>411.0</v>
+        <v>410.0</v>
       </c>
       <c r="B441" s="50" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C441" s="37"/>
       <c r="D441" s="37"/>
     </row>
     <row r="442" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="44" t="n">
-        <v>412.0</v>
+        <v>411.0</v>
       </c>
       <c r="B442" s="50" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C442" s="37"/>
       <c r="D442" s="37"/>
     </row>
     <row r="443" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="44" t="n">
-        <v>413.0</v>
+        <v>412.0</v>
       </c>
       <c r="B443" s="43" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C443" s="37"/>
       <c r="D443" s="37"/>
     </row>
     <row r="444" spans="1:4" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="44" t="n">
-        <v>414.0</v>
+        <v>413.0</v>
       </c>
       <c r="B444" s="43" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C444" s="37"/>
       <c r="D444" s="37"/>
     </row>
     <row r="445" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="44" t="n">
-        <v>415.0</v>
+        <v>414.0</v>
       </c>
       <c r="B445" s="43" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C445" s="37"/>
       <c r="D445" s="37"/>
     </row>
     <row r="446" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="44" t="n">
-        <v>416.0</v>
+        <v>415.0</v>
       </c>
       <c r="B446" s="43" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C446" s="37"/>
       <c r="D446" s="37"/>
     </row>
     <row r="447" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="44" t="n">
-        <v>417.0</v>
+        <v>416.0</v>
       </c>
       <c r="B447" s="43" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C447" s="37"/>
       <c r="D447" s="37"/>
     </row>
     <row r="448" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="44" t="n">
-        <v>418.0</v>
+        <v>417.0</v>
       </c>
       <c r="B448" s="43" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C448" s="37"/>
       <c r="D448" s="37"/>
     </row>
     <row r="449" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="44" t="n">
-        <v>419.0</v>
+        <v>418.0</v>
       </c>
       <c r="B449" s="43" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C449" s="37"/>
       <c r="D449" s="37"/>
     </row>
     <row r="450" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="44" t="n">
-        <v>420.0</v>
+        <v>419.0</v>
       </c>
       <c r="B450" s="43" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C450" s="37"/>
       <c r="D450" s="37"/>
     </row>
     <row r="451" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="44" t="n">
-        <v>421.0</v>
+        <v>420.0</v>
       </c>
       <c r="B451" s="43" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C451" s="37"/>
       <c r="D451" s="37"/>
     </row>
     <row r="452" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="44" t="n">
-        <v>422.0</v>
+        <v>421.0</v>
       </c>
       <c r="B452" s="43" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C452" s="37"/>
       <c r="D452" s="37"/>
     </row>
     <row r="453" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="44" t="n">
-        <v>423.0</v>
+        <v>422.0</v>
       </c>
       <c r="B453" s="43" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C453" s="37"/>
       <c r="D453" s="37"/>
     </row>
     <row r="454" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="44" t="n">
-        <v>424.0</v>
+        <v>423.0</v>
       </c>
       <c r="B454" s="43" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C454" s="37"/>
       <c r="D454" s="37"/>
     </row>
     <row r="455" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="44" t="n">
-        <v>425.0</v>
+        <v>424.0</v>
       </c>
       <c r="B455" s="43" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C455" s="37"/>
       <c r="D455" s="37"/>
     </row>
     <row r="456" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="44" t="n">
-        <v>426.0</v>
+        <v>425.0</v>
       </c>
       <c r="B456" s="43" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C456" s="37"/>
       <c r="D456" s="37"/>
     </row>
     <row r="457" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="44" t="n">
-        <v>427.0</v>
+        <v>426.0</v>
       </c>
       <c r="B457" s="43" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C457" s="37"/>
       <c r="D457" s="37"/>
     </row>
     <row r="458" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="44" t="n">
-        <v>428.0</v>
+        <v>427.0</v>
       </c>
       <c r="B458" s="43" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C458" s="37"/>
       <c r="D458" s="37"/>
     </row>
     <row r="459" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="44" t="n">
-        <v>429.0</v>
+        <v>428.0</v>
       </c>
       <c r="B459" s="43" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C459" s="37"/>
       <c r="D459" s="37"/>
     </row>
     <row r="460" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="44" t="n">
-        <v>430.0</v>
+        <v>429.0</v>
       </c>
       <c r="B460" s="50" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C460" s="37"/>
       <c r="D460" s="37"/>
     </row>
     <row r="461" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="44" t="n">
-        <v>431.0</v>
+        <v>430.0</v>
       </c>
       <c r="B461" s="43" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C461" s="37"/>
       <c r="D461" s="37"/>
     </row>
     <row r="462" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="44" t="n">
-        <v>432.0</v>
+        <v>431.0</v>
       </c>
       <c r="B462" s="43" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C462" s="37"/>
       <c r="D462" s="37"/>
     </row>
     <row r="463" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="44" t="n">
-        <v>433.0</v>
+        <v>432.0</v>
       </c>
       <c r="B463" s="43" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C463" s="37"/>
       <c r="D463" s="37"/>
     </row>
     <row r="464" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="44" t="n">
-        <v>434.0</v>
+        <v>433.0</v>
       </c>
       <c r="B464" s="43" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C464" s="37"/>
       <c r="D464" s="37"/>
     </row>
     <row r="465" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="44" t="n">
-        <v>435.0</v>
+        <v>434.0</v>
       </c>
       <c r="B465" s="43" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C465" s="37"/>
       <c r="D465" s="37"/>
     </row>
     <row r="466" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="44" t="n">
-        <v>436.0</v>
+        <v>435.0</v>
       </c>
       <c r="B466" s="43" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C466" s="37"/>
       <c r="D466" s="37"/>
     </row>
     <row r="467" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="44" t="n">
-        <v>437.0</v>
+        <v>436.0</v>
       </c>
       <c r="B467" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C467" s="37"/>
       <c r="D467" s="37"/>
     </row>
     <row r="468" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="44" t="n">
-        <v>438.0</v>
+        <v>437.0</v>
       </c>
       <c r="B468" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C468" s="37"/>
       <c r="D468" s="37"/>
     </row>
     <row r="469" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="44" t="n">
-        <v>439.0</v>
+        <v>438.0</v>
       </c>
       <c r="B469" s="43" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C469" s="37"/>
       <c r="D469" s="37"/>
     </row>
     <row r="470" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="44" t="n">
-        <v>440.0</v>
+        <v>439.0</v>
       </c>
       <c r="B470" s="43" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C470" s="37"/>
       <c r="D470" s="37"/>
     </row>
     <row r="471" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="44" t="n">
-        <v>441.0</v>
+        <v>440.0</v>
       </c>
       <c r="B471" s="43" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C471" s="37"/>
       <c r="D471" s="37"/>
     </row>
     <row r="472" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="44" t="n">
-        <v>442.0</v>
+        <v>441.0</v>
       </c>
       <c r="B472" s="43" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C472" s="37"/>
       <c r="D472" s="37"/>
     </row>
     <row r="473" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="44" t="n">
-        <v>443.0</v>
+        <v>442.0</v>
       </c>
       <c r="B473" s="43" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C473" s="37"/>
       <c r="D473" s="37"/>
     </row>
     <row r="474" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="44" t="n">
-        <v>444.0</v>
+        <v>443.0</v>
       </c>
       <c r="B474" s="43" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C474" s="37"/>
       <c r="D474" s="37"/>
     </row>
     <row r="475" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="44" t="n">
-        <v>445.0</v>
+        <v>444.0</v>
       </c>
       <c r="B475" s="43" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C475" s="37"/>
       <c r="D475" s="37"/>
     </row>
     <row r="476" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="44" t="n">
-        <v>446.0</v>
+        <v>445.0</v>
       </c>
       <c r="B476" s="43" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C476" s="37"/>
       <c r="D476" s="37"/>
     </row>
     <row r="477" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="44" t="n">
-        <v>447.0</v>
+        <v>446.0</v>
       </c>
       <c r="B477" s="43" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C477" s="37"/>
       <c r="D477" s="37"/>
     </row>
     <row r="478" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="44" t="n">
-        <v>448.0</v>
+        <v>447.0</v>
       </c>
       <c r="B478" s="43" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C478" s="37"/>
       <c r="D478" s="37"/>
     </row>
     <row r="479" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="44" t="n">
-        <v>449.0</v>
+        <v>448.0</v>
       </c>
       <c r="B479" s="43" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C479" s="37"/>
       <c r="D479" s="37"/>
     </row>
     <row r="480" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="44" t="n">
-        <v>450.0</v>
+        <v>449.0</v>
       </c>
       <c r="B480" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C480" s="37"/>
       <c r="D480" s="37"/>
     </row>
     <row r="481" spans="1:4" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="42" t="n">
-        <v>451.0</v>
+        <v>450.0</v>
       </c>
       <c r="B481" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C481" s="37"/>
       <c r="D481" s="37"/>
     </row>
     <row r="482" spans="1:4" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="44" t="n">
-        <v>452.0</v>
+        <v>451.0</v>
       </c>
       <c r="B482" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C482" s="37"/>
       <c r="D482" s="37"/>
     </row>
     <row r="483" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="44" t="n">
-        <v>453.0</v>
+        <v>452.0</v>
       </c>
       <c r="B483" s="43" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C483" s="37"/>
       <c r="D483" s="37"/>
     </row>
     <row r="484" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="44" t="n">
-        <v>454.0</v>
+        <v>453.0</v>
       </c>
       <c r="B484" s="43" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C484" s="37"/>
       <c r="D484" s="37"/>
     </row>
     <row r="485" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="44" t="n">
-        <v>455.0</v>
+        <v>454.0</v>
       </c>
       <c r="B485" s="43" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C485" s="37"/>
       <c r="D485" s="37"/>
     </row>
     <row r="486" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="44" t="n">
-        <v>456.0</v>
+        <v>455.0</v>
       </c>
       <c r="B486" s="43" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C486" s="37"/>
       <c r="D486" s="37"/>
     </row>
     <row r="487" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="44" t="n">
-        <v>457.0</v>
+        <v>456.0</v>
       </c>
       <c r="B487" s="43" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C487" s="37"/>
       <c r="D487" s="37"/>
     </row>
     <row r="488" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="44" t="n">
-        <v>458.0</v>
+        <v>457.0</v>
       </c>
       <c r="B488" s="43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C488" s="37"/>
       <c r="D488" s="37"/>
     </row>
     <row r="489" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="44" t="n">
-        <v>459.0</v>
+        <v>458.0</v>
       </c>
       <c r="B489" s="43" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C489" s="37"/>
       <c r="D489" s="37"/>
     </row>
     <row r="490" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="44" t="n">
-        <v>460.0</v>
+        <v>459.0</v>
       </c>
       <c r="B490" s="43" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C490" s="37"/>
       <c r="D490" s="37"/>
     </row>
     <row r="491" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="44" t="n">
-        <v>461.0</v>
+        <v>460.0</v>
       </c>
       <c r="B491" s="43" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C491" s="37"/>
       <c r="D491" s="37"/>
     </row>
     <row r="492" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="44" t="n">
-        <v>462.0</v>
+        <v>461.0</v>
       </c>
       <c r="B492" s="43" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C492" s="37"/>
       <c r="D492" s="37"/>
     </row>
     <row r="493" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="44" t="n">
-        <v>463.0</v>
+        <v>462.0</v>
       </c>
       <c r="B493" s="43" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C493" s="37"/>
       <c r="D493" s="37"/>
     </row>
     <row r="494" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="44" t="n">
-        <v>464.0</v>
+        <v>463.0</v>
       </c>
       <c r="B494" s="43" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C494" s="37"/>
       <c r="D494" s="37"/>
     </row>
     <row r="495" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="44" t="n">
-        <v>465.0</v>
+        <v>464.0</v>
       </c>
       <c r="B495" s="43" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C495" s="37"/>
       <c r="D495" s="37"/>
     </row>
     <row r="496" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="44" t="n">
-        <v>466.0</v>
+        <v>465.0</v>
       </c>
       <c r="B496" s="43" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C496" s="37"/>
       <c r="D496" s="37"/>
     </row>
     <row r="497" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="44" t="n">
-        <v>467.0</v>
+        <v>466.0</v>
       </c>
       <c r="B497" s="43" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C497" s="37"/>
       <c r="D497" s="37"/>
     </row>
     <row r="498" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="44" t="n">
-        <v>468.0</v>
+        <v>467.0</v>
       </c>
       <c r="B498" s="43" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C498" s="37"/>
       <c r="D498" s="37"/>
     </row>
     <row r="499" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="44" t="n">
-        <v>469.0</v>
+        <v>468.0</v>
       </c>
       <c r="B499" s="43" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C499" s="37"/>
       <c r="D499" s="37"/>
     </row>
     <row r="500" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="44" t="n">
-        <v>470.0</v>
+        <v>469.0</v>
       </c>
       <c r="B500" s="43" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C500" s="37"/>
       <c r="D500" s="37"/>
     </row>
     <row r="501" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="44" t="n">
-        <v>471.0</v>
+        <v>470.0</v>
       </c>
       <c r="B501" s="43" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C501" s="37"/>
       <c r="D501" s="37"/>
     </row>
     <row r="502" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="44" t="n">
-        <v>472.0</v>
+        <v>471.0</v>
       </c>
       <c r="B502" s="43" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C502" s="37"/>
       <c r="D502" s="37"/>
     </row>
     <row r="503" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="44" t="n">
-        <v>473.0</v>
+        <v>472.0</v>
       </c>
       <c r="B503" s="43" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C503" s="37"/>
       <c r="D503" s="37"/>
     </row>
     <row r="504" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="44" t="n">
-        <v>474.0</v>
+        <v>473.0</v>
       </c>
       <c r="B504" s="43" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C504" s="37"/>
       <c r="D504" s="37"/>
     </row>
     <row r="505" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="44" t="n">
-        <v>475.0</v>
+        <v>474.0</v>
       </c>
       <c r="B505" s="43" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C505" s="37"/>
       <c r="D505" s="37"/>
     </row>
     <row r="506" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="44" t="n">
-        <v>476.0</v>
+        <v>475.0</v>
       </c>
       <c r="B506" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C506" s="37"/>
       <c r="D506" s="37"/>
     </row>
     <row r="507" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="44" t="n">
-        <v>477.0</v>
+        <v>476.0</v>
       </c>
       <c r="B507" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C507" s="37"/>
       <c r="D507" s="37"/>
     </row>
     <row r="508" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="44" t="n">
-        <v>478.0</v>
+        <v>477.0</v>
       </c>
       <c r="B508" s="43" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C508" s="37"/>
       <c r="D508" s="37"/>
     </row>
     <row r="509" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="44" t="n">
-        <v>479.0</v>
+        <v>478.0</v>
       </c>
       <c r="B509" s="43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C509" s="37"/>
       <c r="D509" s="37"/>
     </row>
     <row r="510" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="45" t="n">
-        <v>480.0</v>
+        <v>479.0</v>
       </c>
       <c r="B510" s="49" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C510" s="41"/>
       <c r="D510" s="37"/>
     </row>
     <row r="511" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="44" t="n">
-        <v>481.0</v>
+        <v>480.0</v>
       </c>
       <c r="B511" s="43" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C511" s="37"/>
       <c r="D511" s="37"/>
     </row>
     <row r="512" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="44" t="n">
-        <v>482.0</v>
+        <v>481.0</v>
       </c>
       <c r="B512" s="43" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C512" s="37"/>
       <c r="D512" s="37"/>
     </row>
     <row r="513" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="44"/>
-      <c r="B513" s="75" t="s">
-        <v>534</v>
+      <c r="A513" s="44" t="n">
+        <v>482.0</v>
+      </c>
+      <c r="B513" s="58" t="s">
+        <v>530</v>
       </c>
       <c r="C513" s="37"/>
       <c r="D513" s="37"/>
@@ -42231,8 +42258,8 @@
       <c r="A514" s="44" t="n">
         <v>483.0</v>
       </c>
-      <c r="B514" s="70" t="s">
-        <v>535</v>
+      <c r="B514" s="54" t="s">
+        <v>531</v>
       </c>
       <c r="C514" s="37"/>
       <c r="D514" s="37"/>
@@ -42242,206 +42269,218 @@
         <v>484.0</v>
       </c>
       <c r="B515" s="43" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C515" s="37"/>
       <c r="D515" s="37"/>
     </row>
     <row r="516" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="44" t="n">
-        <v>485.0</v>
-      </c>
-      <c r="B516" s="43" t="s">
-        <v>537</v>
+      <c r="A516" s="44">
+        <v>485</v>
+      </c>
+      <c r="B516" s="74" t="s">
+        <v>533</v>
       </c>
       <c r="C516" s="37"/>
       <c r="D516" s="37"/>
     </row>
     <row r="517" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="44" t="n">
-        <v>486.0</v>
+        <v>485.0</v>
       </c>
       <c r="B517" s="43" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C517" s="37"/>
       <c r="D517" s="37"/>
     </row>
     <row r="518" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="44" t="n">
-        <v>487.0</v>
+        <v>486.0</v>
       </c>
       <c r="B518" s="43" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C518" s="37"/>
       <c r="D518" s="37"/>
     </row>
     <row r="519" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="44" t="n">
-        <v>488.0</v>
+        <v>487.0</v>
       </c>
       <c r="B519" s="43" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C519" s="37"/>
       <c r="D519" s="37"/>
     </row>
     <row r="520" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="44" t="n">
-        <v>489.0</v>
+        <v>488.0</v>
       </c>
       <c r="B520" s="43" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C520" s="37"/>
       <c r="D520" s="37"/>
     </row>
     <row r="521" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="44" t="n">
-        <v>490.0</v>
+        <v>489.0</v>
       </c>
       <c r="B521" s="43" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C521" s="37"/>
       <c r="D521" s="37"/>
     </row>
     <row r="522" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="44" t="n">
-        <v>491.0</v>
+        <v>490.0</v>
       </c>
       <c r="B522" s="43" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C522" s="37"/>
       <c r="D522" s="37"/>
     </row>
     <row r="523" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="44" t="n">
-        <v>492.0</v>
+        <v>491.0</v>
       </c>
       <c r="B523" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C523" s="37"/>
       <c r="D523" s="37"/>
     </row>
     <row r="524" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="44" t="n">
-        <v>493.0</v>
+        <v>492.0</v>
       </c>
       <c r="B524" s="43" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C524" s="37"/>
       <c r="D524" s="37"/>
     </row>
     <row r="525" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="44" t="n">
-        <v>494.0</v>
+        <v>493.0</v>
       </c>
       <c r="B525" s="43" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C525" s="37"/>
       <c r="D525" s="37"/>
     </row>
     <row r="526" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="44" t="n">
-        <v>495.0</v>
+        <v>494.0</v>
       </c>
       <c r="B526" s="43" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C526" s="37"/>
       <c r="D526" s="37"/>
     </row>
     <row r="527" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="44" t="n">
-        <v>496.0</v>
+        <v>495.0</v>
       </c>
       <c r="B527" s="43" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C527" s="37"/>
       <c r="D527" s="37"/>
     </row>
     <row r="528" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="44" t="n">
-        <v>497.0</v>
+        <v>496.0</v>
       </c>
       <c r="B528" s="43" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C528" s="37"/>
       <c r="D528" s="37"/>
     </row>
     <row r="529" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="44" t="n">
-        <v>498.0</v>
+        <v>497.0</v>
       </c>
       <c r="B529" s="43" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C529" s="37"/>
       <c r="D529" s="37"/>
     </row>
     <row r="530" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="44" t="n">
-        <v>499.0</v>
+        <v>498.0</v>
       </c>
       <c r="B530" s="43" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C530" s="37"/>
       <c r="D530" s="37"/>
     </row>
     <row r="531" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="44" t="n">
-        <v>500.0</v>
+        <v>499.0</v>
       </c>
       <c r="B531" s="43" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C531" s="37"/>
       <c r="D531" s="37"/>
     </row>
     <row r="532" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="44" t="n">
-        <v>501.0</v>
+        <v>500.0</v>
       </c>
       <c r="B532" s="43" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C532" s="37"/>
       <c r="D532" s="37"/>
     </row>
     <row r="533" spans="1:4" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="44" t="n">
-        <v>502.0</v>
+        <v>501.0</v>
       </c>
       <c r="B533" s="43" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C533" s="37"/>
       <c r="D533" s="37"/>
     </row>
     <row r="534" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="42"/>
-      <c r="B534" s="43"/>
+      <c r="A534" s="42" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="B534" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C534" s="37"/>
       <c r="D534" s="37"/>
     </row>
     <row r="535" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="44"/>
-      <c r="B535" s="43"/>
+      <c r="A535" s="44" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="B535" s="43" t="s">
+        <v>552</v>
+      </c>
       <c r="C535" s="37"/>
       <c r="D535" s="37"/>
     </row>
     <row r="536" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="44"/>
-      <c r="B536" s="43"/>
+      <c r="A536" s="44" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="B536" s="43" t="s">
+        <v>553</v>
+      </c>
       <c r="C536" s="37"/>
       <c r="D536" s="37"/>
     </row>
@@ -50259,7 +50298,7 @@
     </row>
     <row r="1839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1839" s="46"/>
-      <c r="B1839" s="71"/>
+      <c r="B1839" s="55"/>
       <c r="C1839" s="26"/>
       <c r="D1839" s="26"/>
     </row>
@@ -50681,14 +50720,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -50697,7 +50736,7 @@
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -50706,7 +50745,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -50715,7 +50754,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -50724,7 +50763,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -50733,7 +50772,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -50742,7 +50781,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -50751,7 +50790,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -50760,7 +50799,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -50769,7 +50808,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -50778,7 +50817,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -50787,7 +50826,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -50796,7 +50835,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -50805,7 +50844,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -50814,7 +50853,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -50823,7 +50862,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -50832,7 +50871,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -50841,7 +50880,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -50850,7 +50889,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="65" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -50858,61 +50897,61 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -50920,31 +50959,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="72" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -50952,43 +50991,43 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="15" t="s">
         <v>51</v>
       </c>
@@ -51000,13 +51039,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="15" t="s">
         <v>54</v>
       </c>
@@ -51018,19 +51057,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="15" t="s">
         <v>57</v>
       </c>

--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E305EC-FCC2-4CD1-A28D-51FBEF657ED3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8D56D-FB6A-4375-AEB0-56CB2FEEAE13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КВЗтаКБ" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="559">
   <si>
     <t>№</t>
   </si>
@@ -221,6 +221,15 @@
     <t xml:space="preserve">штабу військової частини </t>
   </si>
   <si>
+    <t>станом на 02.05.2021</t>
+  </si>
+  <si>
+    <t>Факсимільні апарати</t>
+  </si>
+  <si>
+    <t>cisco 515-px</t>
+  </si>
+  <si>
     <t>Проводові засоби</t>
   </si>
   <si>
@@ -377,15 +386,15 @@
     <t>П-247К СТАЦІОНАРНІ</t>
   </si>
   <si>
+    <t>П-299</t>
+  </si>
+  <si>
     <t>П-299М1</t>
   </si>
   <si>
     <t>П-299М</t>
   </si>
   <si>
-    <t>П-299</t>
-  </si>
-  <si>
     <t>Тропосферні станції</t>
   </si>
   <si>
@@ -878,6 +887,12 @@
     <t>Р-163-50У</t>
   </si>
   <si>
+    <t>Harris Falkon 3</t>
+  </si>
+  <si>
+    <t>КХ радіостанції</t>
+  </si>
+  <si>
     <t>Р-136Р СТАЦІОНАРНІ</t>
   </si>
   <si>
@@ -1686,27 +1701,6 @@
   </si>
   <si>
     <t>РАДІОСТАНЦІЯ "KENWOOD" TK-90 (КОРОТКОХВИЛЬОВОГО ДІАПАЗОНУ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КХ радіостанції </t>
-  </si>
-  <si>
-    <t>станом на 04.02.2021</t>
-  </si>
-  <si>
-    <t>станом на 01.05.2021</t>
-  </si>
-  <si>
-    <t>Факсимільні апарати</t>
-  </si>
-  <si>
-    <t>cisco 515-px</t>
-  </si>
-  <si>
-    <t>Harris Falkon 3</t>
-  </si>
-  <si>
-    <t>КХ радіостанції</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1708,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1851,6 +1845,11 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
       <sz val="12.0"/>
       <b val="true"/>
@@ -1888,7 +1887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2130,6 +2129,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -2153,7 +2167,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2323,7 +2337,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2371,7 +2388,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -37198,7 +37215,7 @@
   <dimension ref="A6:D1902"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D15"/>
+      <selection activeCell="A17" sqref="A17:B564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37223,60 +37240,60 @@
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="C8" s="20" t="s">
-        <v>556</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="59" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="60" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
@@ -37294,8 +37311,8 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="74" t="s">
-        <v>557</v>
+      <c r="B17" s="75" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -37305,17 +37322,15 @@
         <v>1.0</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>558</v>
+        <v>67</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
-        <v>2</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>65</v>
+      <c r="A19" s="44"/>
+      <c r="B19" s="75" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -37325,7 +37340,7 @@
         <v>2.0</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -37335,7 +37350,7 @@
         <v>3.0</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -37345,7 +37360,7 @@
         <v>4.0</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -37355,7 +37370,7 @@
         <v>5.0</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -37365,7 +37380,7 @@
         <v>6.0</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -37375,7 +37390,7 @@
         <v>7.0</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -37385,7 +37400,7 @@
         <v>8.0</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -37395,7 +37410,7 @@
         <v>9.0</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -37405,7 +37420,7 @@
         <v>10.0</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -37415,7 +37430,7 @@
         <v>11.0</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -37425,7 +37440,7 @@
         <v>12.0</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -37435,7 +37450,7 @@
         <v>13.0</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -37445,7 +37460,7 @@
         <v>14.0</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -37455,7 +37470,7 @@
         <v>15.0</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
@@ -37465,7 +37480,7 @@
         <v>16.0</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -37475,7 +37490,7 @@
         <v>17.0</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -37485,7 +37500,7 @@
         <v>18.0</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -37495,7 +37510,7 @@
         <v>19.0</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -37505,7 +37520,7 @@
         <v>20.0</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -37515,7 +37530,7 @@
         <v>21.0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -37525,7 +37540,7 @@
         <v>22.0</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -37535,7 +37550,7 @@
         <v>23.0</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="39"/>
@@ -37545,7 +37560,7 @@
         <v>24.0</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -37555,7 +37570,7 @@
         <v>25.0</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -37565,7 +37580,7 @@
         <v>26.0</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -37575,7 +37590,7 @@
         <v>27.0</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -37585,7 +37600,7 @@
         <v>28.0</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -37595,7 +37610,7 @@
         <v>29.0</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -37605,7 +37620,7 @@
         <v>30.0</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -37615,7 +37630,7 @@
         <v>31.0</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -37625,7 +37640,7 @@
         <v>32.0</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -37635,7 +37650,7 @@
         <v>33.0</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -37645,7 +37660,7 @@
         <v>34.0</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -37655,7 +37670,7 @@
         <v>35.0</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -37665,7 +37680,7 @@
         <v>36.0</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -37675,7 +37690,7 @@
         <v>37.0</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -37685,7 +37700,7 @@
         <v>38.0</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -37695,7 +37710,7 @@
         <v>39.0</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -37705,7 +37720,7 @@
         <v>40.0</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -37715,7 +37730,7 @@
         <v>41.0</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -37725,7 +37740,7 @@
         <v>42.0</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -37735,7 +37750,7 @@
         <v>43.0</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -37745,7 +37760,7 @@
         <v>44.0</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -37755,7 +37770,7 @@
         <v>45.0</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -37765,7 +37780,7 @@
         <v>46.0</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -37775,7 +37790,7 @@
         <v>47.0</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -37785,7 +37800,7 @@
         <v>48.0</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -37795,7 +37810,7 @@
         <v>49.0</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -37805,7 +37820,7 @@
         <v>50.0</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -37815,7 +37830,7 @@
         <v>51.0</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -37825,7 +37840,7 @@
         <v>52.0</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -37835,7 +37850,7 @@
         <v>53.0</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -37845,7 +37860,7 @@
         <v>54.0</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -37855,47 +37870,45 @@
         <v>55.0</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
     </row>
-    <row r="74" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="44" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B74" s="43" t="s">
-        <v>117</v>
+    <row r="74" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+      <c r="B74" s="75" t="s">
+        <v>123</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
     </row>
     <row r="75" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B75" s="58" t="s">
-        <v>118</v>
+        <v>56.0</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
     </row>
     <row r="76" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="n">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="B76" s="54" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
     </row>
-    <row r="77" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44">
-        <v>59</v>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>120</v>
+    <row r="77" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="44" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B77" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -37905,7 +37918,7 @@
         <v>59.0</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -37915,7 +37928,7 @@
         <v>60.0</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -37925,7 +37938,7 @@
         <v>61.0</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -37935,7 +37948,7 @@
         <v>62.0</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -37945,7 +37958,7 @@
         <v>63.0</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -37955,7 +37968,7 @@
         <v>64.0</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
@@ -37965,7 +37978,7 @@
         <v>65.0</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
@@ -37975,7 +37988,7 @@
         <v>66.0</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
@@ -37985,7 +37998,7 @@
         <v>67.0</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
@@ -37995,7 +38008,7 @@
         <v>68.0</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
@@ -38005,7 +38018,7 @@
         <v>69.0</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
@@ -38015,7 +38028,7 @@
         <v>70.0</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
@@ -38025,7 +38038,7 @@
         <v>71.0</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
@@ -38035,7 +38048,7 @@
         <v>72.0</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
@@ -38045,7 +38058,7 @@
         <v>73.0</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
@@ -38055,7 +38068,7 @@
         <v>74.0</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
@@ -38065,7 +38078,7 @@
         <v>75.0</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
@@ -38075,7 +38088,7 @@
         <v>76.0</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
@@ -38085,7 +38098,7 @@
         <v>77.0</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
@@ -38095,7 +38108,7 @@
         <v>78.0</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
@@ -38105,7 +38118,7 @@
         <v>79.0</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
@@ -38115,7 +38128,7 @@
         <v>80.0</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
@@ -38125,7 +38138,7 @@
         <v>81.0</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
@@ -38135,7 +38148,7 @@
         <v>82.0</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
@@ -38145,7 +38158,7 @@
         <v>83.0</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
@@ -38155,7 +38168,7 @@
         <v>84.0</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
@@ -38165,7 +38178,7 @@
         <v>85.0</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
@@ -38175,7 +38188,7 @@
         <v>86.0</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
@@ -38185,7 +38198,7 @@
         <v>87.0</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
@@ -38195,7 +38208,7 @@
         <v>88.0</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
@@ -38205,113 +38218,109 @@
         <v>89.0</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
     </row>
     <row r="109" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="44" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="B109" s="43" t="s">
-        <v>152</v>
+      <c r="A109" s="44"/>
+      <c r="B109" s="75" t="s">
+        <v>158</v>
       </c>
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
     </row>
     <row r="110" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="44" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="B110" s="58" t="s">
-        <v>153</v>
+        <v>90.0</v>
+      </c>
+      <c r="B110" s="57" t="s">
+        <v>159</v>
       </c>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
     </row>
     <row r="111" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="n">
-        <v>92.0</v>
+        <v>91.0</v>
       </c>
       <c r="B111" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
     </row>
     <row r="112" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="44">
-        <v>93</v>
-      </c>
-      <c r="B112" s="74" t="s">
-        <v>155</v>
+      <c r="A112" s="44"/>
+      <c r="B112" s="75" t="s">
+        <v>161</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
     </row>
     <row r="113" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="B113" s="58" t="s">
-        <v>156</v>
+        <v>92.0</v>
+      </c>
+      <c r="B113" s="57" t="s">
+        <v>162</v>
       </c>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
     </row>
     <row r="114" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="44" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="B114" s="54" t="s">
-        <v>157</v>
+      <c r="A114" s="44"/>
+      <c r="B114" s="75" t="s">
+        <v>163</v>
       </c>
       <c r="C114" s="37"/>
       <c r="D114" s="37"/>
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="44"/>
-      <c r="B115" s="74" t="s">
-        <v>158</v>
+      <c r="A115" s="44" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B115" s="58" t="s">
+        <v>164</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
     </row>
     <row r="116" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="44" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="B116" s="54" t="s">
-        <v>159</v>
+      <c r="A116" s="44"/>
+      <c r="B116" s="75" t="s">
+        <v>165</v>
       </c>
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
-      <c r="B117" s="74" t="s">
-        <v>160</v>
+      <c r="A117" s="44" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B117" s="58" t="s">
+        <v>166</v>
       </c>
       <c r="C117" s="37"/>
       <c r="D117" s="37"/>
     </row>
     <row r="118" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="n">
-        <v>96.0</v>
+        <v>95.0</v>
       </c>
       <c r="B118" s="54" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
     </row>
     <row r="119" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="44">
-        <v>97</v>
-      </c>
-      <c r="B119" s="74" t="s">
-        <v>162</v>
+      <c r="A119" s="44" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B119" s="58" t="s">
+        <v>168</v>
       </c>
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
@@ -38321,7 +38330,7 @@
         <v>97.0</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
@@ -38331,7 +38340,7 @@
         <v>98.0</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
@@ -38341,7 +38350,7 @@
         <v>99.0</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
@@ -38351,7 +38360,7 @@
         <v>100.0</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
@@ -38361,7 +38370,7 @@
         <v>101.0</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
@@ -38371,7 +38380,7 @@
         <v>102.0</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
@@ -38381,7 +38390,7 @@
         <v>103.0</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
@@ -38391,7 +38400,7 @@
         <v>104.0</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
@@ -38401,7 +38410,7 @@
         <v>105.0</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
@@ -38411,7 +38420,7 @@
         <v>106.0</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
@@ -38421,7 +38430,7 @@
         <v>107.0</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
@@ -38431,7 +38440,7 @@
         <v>108.0</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
@@ -38441,7 +38450,7 @@
         <v>109.0</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
@@ -38451,7 +38460,7 @@
         <v>110.0</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
@@ -38461,7 +38470,7 @@
         <v>111.0</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
@@ -38471,7 +38480,7 @@
         <v>112.0</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="37"/>
@@ -38481,7 +38490,7 @@
         <v>113.0</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C136" s="37"/>
       <c r="D136" s="37"/>
@@ -38491,7 +38500,7 @@
         <v>114.0</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
@@ -38501,7 +38510,7 @@
         <v>115.0</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
@@ -38511,7 +38520,7 @@
         <v>116.0</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
@@ -38521,7 +38530,7 @@
         <v>117.0</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
@@ -38531,7 +38540,7 @@
         <v>118.0</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
@@ -38541,7 +38550,7 @@
         <v>119.0</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
@@ -38551,7 +38560,7 @@
         <v>120.0</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
@@ -38561,7 +38570,7 @@
         <v>121.0</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
@@ -38571,7 +38580,7 @@
         <v>122.0</v>
       </c>
       <c r="B145" s="43" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
@@ -38581,7 +38590,7 @@
         <v>123.0</v>
       </c>
       <c r="B146" s="43" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
@@ -38591,7 +38600,7 @@
         <v>124.0</v>
       </c>
       <c r="B147" s="43" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
@@ -38601,47 +38610,45 @@
         <v>125.0</v>
       </c>
       <c r="B148" s="43" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
     </row>
     <row r="149" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="44" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="B149" s="47" t="s">
-        <v>192</v>
+      <c r="A149" s="44"/>
+      <c r="B149" s="75" t="s">
+        <v>198</v>
       </c>
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
     </row>
     <row r="150" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="44" t="n">
-        <v>127.0</v>
-      </c>
-      <c r="B150" s="58" t="s">
-        <v>193</v>
+        <v>126.0</v>
+      </c>
+      <c r="B150" s="57" t="s">
+        <v>199</v>
       </c>
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
     </row>
     <row r="151" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="44" t="n">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="B151" s="54" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
     </row>
     <row r="152" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="44">
-        <v>129</v>
-      </c>
-      <c r="B152" s="74" t="s">
-        <v>195</v>
+      <c r="A152" s="44" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B152" s="58" t="s">
+        <v>201</v>
       </c>
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
@@ -38651,7 +38658,7 @@
         <v>129.0</v>
       </c>
       <c r="B153" s="43" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
@@ -38661,7 +38668,7 @@
         <v>130.0</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
@@ -38671,7 +38678,7 @@
         <v>131.0</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
@@ -38681,7 +38688,7 @@
         <v>132.0</v>
       </c>
       <c r="B156" s="43" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C156" s="37"/>
       <c r="D156" s="37"/>
@@ -38691,7 +38698,7 @@
         <v>133.0</v>
       </c>
       <c r="B157" s="43" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
@@ -38701,7 +38708,7 @@
         <v>134.0</v>
       </c>
       <c r="B158" s="43" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
@@ -38711,7 +38718,7 @@
         <v>135.0</v>
       </c>
       <c r="B159" s="43" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C159" s="37"/>
       <c r="D159" s="37"/>
@@ -38721,7 +38728,7 @@
         <v>136.0</v>
       </c>
       <c r="B160" s="43" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
@@ -38731,7 +38738,7 @@
         <v>137.0</v>
       </c>
       <c r="B161" s="43" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
@@ -38741,7 +38748,7 @@
         <v>138.0</v>
       </c>
       <c r="B162" s="43" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
@@ -38751,7 +38758,7 @@
         <v>139.0</v>
       </c>
       <c r="B163" s="43" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
@@ -38761,7 +38768,7 @@
         <v>140.0</v>
       </c>
       <c r="B164" s="43" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
@@ -38771,7 +38778,7 @@
         <v>141.0</v>
       </c>
       <c r="B165" s="43" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
@@ -38781,7 +38788,7 @@
         <v>142.0</v>
       </c>
       <c r="B166" s="43" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C166" s="37"/>
       <c r="D166" s="37"/>
@@ -38791,7 +38798,7 @@
         <v>143.0</v>
       </c>
       <c r="B167" s="43" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
@@ -38801,7 +38808,7 @@
         <v>144.0</v>
       </c>
       <c r="B168" s="43" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C168" s="37"/>
       <c r="D168" s="37"/>
@@ -38811,7 +38818,7 @@
         <v>145.0</v>
       </c>
       <c r="B169" s="43" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C169" s="37"/>
       <c r="D169" s="37"/>
@@ -38821,7 +38828,7 @@
         <v>146.0</v>
       </c>
       <c r="B170" s="43" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
@@ -38831,7 +38838,7 @@
         <v>147.0</v>
       </c>
       <c r="B171" s="43" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
@@ -38841,7 +38848,7 @@
         <v>148.0</v>
       </c>
       <c r="B172" s="43" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
@@ -38851,7 +38858,7 @@
         <v>149.0</v>
       </c>
       <c r="B173" s="43" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
@@ -38861,7 +38868,7 @@
         <v>150.0</v>
       </c>
       <c r="B174" s="43" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C174" s="37"/>
       <c r="D174" s="37"/>
@@ -38871,7 +38878,7 @@
         <v>151.0</v>
       </c>
       <c r="B175" s="43" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C175" s="37"/>
       <c r="D175" s="37"/>
@@ -38881,7 +38888,7 @@
         <v>152.0</v>
       </c>
       <c r="B176" s="43" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C176" s="37"/>
       <c r="D176" s="37"/>
@@ -38891,7 +38898,7 @@
         <v>153.0</v>
       </c>
       <c r="B177" s="43" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C177" s="37"/>
       <c r="D177" s="37"/>
@@ -38901,7 +38908,7 @@
         <v>154.0</v>
       </c>
       <c r="B178" s="43" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C178" s="37"/>
       <c r="D178" s="37"/>
@@ -38911,7 +38918,7 @@
         <v>155.0</v>
       </c>
       <c r="B179" s="43" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C179" s="37"/>
       <c r="D179" s="37"/>
@@ -38921,7 +38928,7 @@
         <v>156.0</v>
       </c>
       <c r="B180" s="43" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="37"/>
@@ -38931,7 +38938,7 @@
         <v>157.0</v>
       </c>
       <c r="B181" s="43" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C181" s="40"/>
       <c r="D181" s="40"/>
@@ -38941,7 +38948,7 @@
         <v>158.0</v>
       </c>
       <c r="B182" s="43" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C182" s="40"/>
       <c r="D182" s="40"/>
@@ -38951,7 +38958,7 @@
         <v>159.0</v>
       </c>
       <c r="B183" s="43" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C183" s="40"/>
       <c r="D183" s="40"/>
@@ -38961,7 +38968,7 @@
         <v>160.0</v>
       </c>
       <c r="B184" s="43" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C184" s="40"/>
       <c r="D184" s="40"/>
@@ -38971,7 +38978,7 @@
         <v>161.0</v>
       </c>
       <c r="B185" s="43" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C185" s="40"/>
       <c r="D185" s="40"/>
@@ -38981,7 +38988,7 @@
         <v>162.0</v>
       </c>
       <c r="B186" s="43" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C186" s="40"/>
       <c r="D186" s="40"/>
@@ -38991,7 +38998,7 @@
         <v>163.0</v>
       </c>
       <c r="B187" s="43" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C187" s="40"/>
       <c r="D187" s="40"/>
@@ -39001,17 +39008,17 @@
         <v>164.0</v>
       </c>
       <c r="B188" s="47" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C188" s="40"/>
       <c r="D188" s="40"/>
     </row>
-    <row r="189" spans="1:4" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="n">
         <v>165.0</v>
       </c>
       <c r="B189" s="47" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C189" s="40"/>
       <c r="D189" s="40"/>
@@ -39021,7 +39028,7 @@
         <v>166.0</v>
       </c>
       <c r="B190" s="47" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C190" s="24"/>
       <c r="D190" s="40"/>
@@ -39031,7 +39038,7 @@
         <v>167.0</v>
       </c>
       <c r="B191" s="43" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="40"/>
@@ -39041,7 +39048,7 @@
         <v>168.0</v>
       </c>
       <c r="B192" s="43" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="40"/>
@@ -39051,7 +39058,7 @@
         <v>169.0</v>
       </c>
       <c r="B193" s="43" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="40"/>
@@ -39061,7 +39068,7 @@
         <v>170.0</v>
       </c>
       <c r="B194" s="43" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C194" s="24"/>
       <c r="D194" s="40"/>
@@ -39071,7 +39078,7 @@
         <v>171.0</v>
       </c>
       <c r="B195" s="43" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C195" s="24"/>
       <c r="D195" s="40"/>
@@ -39081,7 +39088,7 @@
         <v>172.0</v>
       </c>
       <c r="B196" s="43" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="40"/>
@@ -39091,7 +39098,7 @@
         <v>173.0</v>
       </c>
       <c r="B197" s="43" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="40"/>
@@ -39101,7 +39108,7 @@
         <v>174.0</v>
       </c>
       <c r="B198" s="43" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="40"/>
@@ -39111,7 +39118,7 @@
         <v>175.0</v>
       </c>
       <c r="B199" s="43" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="40"/>
@@ -39121,7 +39128,7 @@
         <v>176.0</v>
       </c>
       <c r="B200" s="43" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="40"/>
@@ -39131,7 +39138,7 @@
         <v>177.0</v>
       </c>
       <c r="B201" s="43" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C201" s="24"/>
       <c r="D201" s="40"/>
@@ -39141,7 +39148,7 @@
         <v>178.0</v>
       </c>
       <c r="B202" s="43" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C202" s="24"/>
       <c r="D202" s="40"/>
@@ -39151,7 +39158,7 @@
         <v>179.0</v>
       </c>
       <c r="B203" s="43" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C203" s="24"/>
       <c r="D203" s="40"/>
@@ -39161,7 +39168,7 @@
         <v>180.0</v>
       </c>
       <c r="B204" s="43" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C204" s="24"/>
       <c r="D204" s="40"/>
@@ -39171,7 +39178,7 @@
         <v>181.0</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="40"/>
@@ -39181,7 +39188,7 @@
         <v>182.0</v>
       </c>
       <c r="B206" s="43" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="40"/>
@@ -39191,7 +39198,7 @@
         <v>183.0</v>
       </c>
       <c r="B207" s="43" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="40"/>
@@ -39201,7 +39208,7 @@
         <v>184.0</v>
       </c>
       <c r="B208" s="43" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="40"/>
@@ -39211,7 +39218,7 @@
         <v>185.0</v>
       </c>
       <c r="B209" s="43" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C209" s="40"/>
       <c r="D209" s="40"/>
@@ -39221,7 +39228,7 @@
         <v>186.0</v>
       </c>
       <c r="B210" s="43" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C210" s="40"/>
       <c r="D210" s="40"/>
@@ -39231,7 +39238,7 @@
         <v>187.0</v>
       </c>
       <c r="B211" s="43" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C211" s="40"/>
       <c r="D211" s="40"/>
@@ -39241,7 +39248,7 @@
         <v>188.0</v>
       </c>
       <c r="B212" s="43" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C212" s="40"/>
       <c r="D212" s="40"/>
@@ -39251,7 +39258,7 @@
         <v>189.0</v>
       </c>
       <c r="B213" s="43" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C213" s="40"/>
       <c r="D213" s="40"/>
@@ -39261,7 +39268,7 @@
         <v>190.0</v>
       </c>
       <c r="B214" s="43" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C214" s="40"/>
       <c r="D214" s="40"/>
@@ -39271,7 +39278,7 @@
         <v>191.0</v>
       </c>
       <c r="B215" s="43" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C215" s="40"/>
       <c r="D215" s="40"/>
@@ -39281,7 +39288,7 @@
         <v>192.0</v>
       </c>
       <c r="B216" s="43" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C216" s="40"/>
       <c r="D216" s="40"/>
@@ -39291,7 +39298,7 @@
         <v>193.0</v>
       </c>
       <c r="B217" s="43" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C217" s="40"/>
       <c r="D217" s="40"/>
@@ -39301,7 +39308,7 @@
         <v>194.0</v>
       </c>
       <c r="B218" s="43" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C218" s="40"/>
       <c r="D218" s="40"/>
@@ -39311,7 +39318,7 @@
         <v>195.0</v>
       </c>
       <c r="B219" s="43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C219" s="40"/>
       <c r="D219" s="40"/>
@@ -39321,7 +39328,7 @@
         <v>196.0</v>
       </c>
       <c r="B220" s="43" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C220" s="40"/>
       <c r="D220" s="40"/>
@@ -39331,7 +39338,7 @@
         <v>197.0</v>
       </c>
       <c r="B221" s="47" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C221" s="40"/>
       <c r="D221" s="40"/>
@@ -39341,7 +39348,7 @@
         <v>198.0</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C222" s="40"/>
       <c r="D222" s="40"/>
@@ -39351,7 +39358,7 @@
         <v>199.0</v>
       </c>
       <c r="B223" s="47" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C223" s="37"/>
       <c r="D223" s="37"/>
@@ -39361,7 +39368,7 @@
         <v>200.0</v>
       </c>
       <c r="B224" s="43" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C224" s="37"/>
       <c r="D224" s="37"/>
@@ -39371,7 +39378,7 @@
         <v>201.0</v>
       </c>
       <c r="B225" s="43" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C225" s="37"/>
       <c r="D225" s="37"/>
@@ -39381,7 +39388,7 @@
         <v>202.0</v>
       </c>
       <c r="B226" s="43" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C226" s="37"/>
       <c r="D226" s="37"/>
@@ -39391,7 +39398,7 @@
         <v>203.0</v>
       </c>
       <c r="B227" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C227" s="37"/>
       <c r="D227" s="37"/>
@@ -39401,7 +39408,7 @@
         <v>204.0</v>
       </c>
       <c r="B228" s="43" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C228" s="37"/>
       <c r="D228" s="37"/>
@@ -39411,7 +39418,7 @@
         <v>205.0</v>
       </c>
       <c r="B229" s="47" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C229" s="37"/>
       <c r="D229" s="37"/>
@@ -39421,7 +39428,7 @@
         <v>206.0</v>
       </c>
       <c r="B230" s="47" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C230" s="37"/>
       <c r="D230" s="37"/>
@@ -39431,7 +39438,7 @@
         <v>207.0</v>
       </c>
       <c r="B231" s="43" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C231" s="37"/>
       <c r="D231" s="37"/>
@@ -39441,7 +39448,7 @@
         <v>208.0</v>
       </c>
       <c r="B232" s="47" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C232" s="37"/>
       <c r="D232" s="37"/>
@@ -39451,7 +39458,7 @@
         <v>209.0</v>
       </c>
       <c r="B233" s="47" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C233" s="37"/>
       <c r="D233" s="37"/>
@@ -39461,7 +39468,7 @@
         <v>210.0</v>
       </c>
       <c r="B234" s="47" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C234" s="37"/>
       <c r="D234" s="37"/>
@@ -39471,7 +39478,7 @@
         <v>211.0</v>
       </c>
       <c r="B235" s="47" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C235" s="37"/>
       <c r="D235" s="37"/>
@@ -39481,7 +39488,7 @@
         <v>212.0</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C236" s="37"/>
       <c r="D236" s="37"/>
@@ -39491,7 +39498,7 @@
         <v>213.0</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C237" s="37"/>
       <c r="D237" s="37"/>
@@ -39501,7 +39508,7 @@
         <v>214.0</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C238" s="37"/>
       <c r="D238" s="37"/>
@@ -39511,47 +39518,45 @@
         <v>215.0</v>
       </c>
       <c r="B239" s="43" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C239" s="37"/>
       <c r="D239" s="37"/>
     </row>
     <row r="240" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="44" t="n">
-        <v>216.0</v>
-      </c>
-      <c r="B240" s="58" t="s">
-        <v>257</v>
+      <c r="A240" s="44"/>
+      <c r="B240" s="75" t="s">
+        <v>288</v>
       </c>
       <c r="C240" s="37"/>
       <c r="D240" s="37"/>
     </row>
     <row r="241" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="44" t="n">
-        <v>217.0</v>
+        <v>216.0</v>
       </c>
       <c r="B241" s="54" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C241" s="37"/>
       <c r="D241" s="37"/>
     </row>
     <row r="242" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="44" t="n">
-        <v>218.0</v>
+        <v>217.0</v>
       </c>
       <c r="B242" s="43" t="s">
-        <v>559</v>
+        <v>290</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="37"/>
     </row>
     <row r="243" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="44">
-        <v>219</v>
-      </c>
-      <c r="B243" s="74" t="s">
-        <v>560</v>
+      <c r="A243" s="44" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B243" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="C243" s="37"/>
       <c r="D243" s="37"/>
@@ -39561,7 +39566,7 @@
         <v>219.0</v>
       </c>
       <c r="B244" s="43" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C244" s="37"/>
       <c r="D244" s="37"/>
@@ -39571,7 +39576,7 @@
         <v>220.0</v>
       </c>
       <c r="B245" s="43" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C245" s="37"/>
       <c r="D245" s="37"/>
@@ -39581,7 +39586,7 @@
         <v>221.0</v>
       </c>
       <c r="B246" s="43" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C246" s="37"/>
       <c r="D246" s="37"/>
@@ -39591,7 +39596,7 @@
         <v>222.0</v>
       </c>
       <c r="B247" s="43" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C247" s="37"/>
       <c r="D247" s="37"/>
@@ -39601,7 +39606,7 @@
         <v>223.0</v>
       </c>
       <c r="B248" s="43" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C248" s="37"/>
       <c r="D248" s="37"/>
@@ -39611,7 +39616,7 @@
         <v>224.0</v>
       </c>
       <c r="B249" s="43" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C249" s="37"/>
       <c r="D249" s="37"/>
@@ -39621,17 +39626,17 @@
         <v>225.0</v>
       </c>
       <c r="B250" s="43" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C250" s="37"/>
       <c r="D250" s="37"/>
     </row>
-    <row r="251" spans="1:4" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="44" t="n">
         <v>226.0</v>
       </c>
       <c r="B251" s="43" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C251" s="37"/>
       <c r="D251" s="37"/>
@@ -39641,7 +39646,7 @@
         <v>227.0</v>
       </c>
       <c r="B252" s="43" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C252" s="37"/>
       <c r="D252" s="37"/>
@@ -39651,7 +39656,7 @@
         <v>228.0</v>
       </c>
       <c r="B253" s="43" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C253" s="37"/>
       <c r="D253" s="37"/>
@@ -39661,7 +39666,7 @@
         <v>229.0</v>
       </c>
       <c r="B254" s="43" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C254" s="37"/>
       <c r="D254" s="37"/>
@@ -39671,7 +39676,7 @@
         <v>230.0</v>
       </c>
       <c r="B255" s="43" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C255" s="37"/>
       <c r="D255" s="37"/>
@@ -39681,7 +39686,7 @@
         <v>231.0</v>
       </c>
       <c r="B256" s="43" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C256" s="37"/>
       <c r="D256" s="37"/>
@@ -39691,7 +39696,7 @@
         <v>232.0</v>
       </c>
       <c r="B257" s="43" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C257" s="37"/>
       <c r="D257" s="37"/>
@@ -39701,7 +39706,7 @@
         <v>233.0</v>
       </c>
       <c r="B258" s="43" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C258" s="37"/>
       <c r="D258" s="37"/>
@@ -39711,7 +39716,7 @@
         <v>234.0</v>
       </c>
       <c r="B259" s="43" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C259" s="37"/>
       <c r="D259" s="37"/>
@@ -39721,7 +39726,7 @@
         <v>235.0</v>
       </c>
       <c r="B260" s="43" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C260" s="37"/>
       <c r="D260" s="37"/>
@@ -39731,7 +39736,7 @@
         <v>236.0</v>
       </c>
       <c r="B261" s="43" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C261" s="37"/>
       <c r="D261" s="37"/>
@@ -39740,8 +39745,8 @@
       <c r="A262" s="44" t="n">
         <v>237.0</v>
       </c>
-      <c r="B262" s="58" t="s">
-        <v>302</v>
+      <c r="B262" s="57" t="s">
+        <v>310</v>
       </c>
       <c r="C262" s="37"/>
       <c r="D262" s="37"/>
@@ -39751,7 +39756,7 @@
         <v>238.0</v>
       </c>
       <c r="B263" s="43" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C263" s="37"/>
       <c r="D263" s="37"/>
@@ -39761,7 +39766,7 @@
         <v>239.0</v>
       </c>
       <c r="B264" s="43" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C264" s="37"/>
       <c r="D264" s="37"/>
@@ -39771,7 +39776,7 @@
         <v>240.0</v>
       </c>
       <c r="B265" s="43" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C265" s="37"/>
       <c r="D265" s="37"/>
@@ -39781,7 +39786,7 @@
         <v>241.0</v>
       </c>
       <c r="B266" s="43" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C266" s="37"/>
       <c r="D266" s="37"/>
@@ -39791,7 +39796,7 @@
         <v>242.0</v>
       </c>
       <c r="B267" s="43" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C267" s="37"/>
       <c r="D267" s="37"/>
@@ -39801,7 +39806,7 @@
         <v>243.0</v>
       </c>
       <c r="B268" s="43" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C268" s="37"/>
       <c r="D268" s="37"/>
@@ -39811,7 +39816,7 @@
         <v>244.0</v>
       </c>
       <c r="B269" s="43" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C269" s="37"/>
       <c r="D269" s="37"/>
@@ -39821,7 +39826,7 @@
         <v>245.0</v>
       </c>
       <c r="B270" s="43" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C270" s="37"/>
       <c r="D270" s="37"/>
@@ -39831,7 +39836,7 @@
         <v>246.0</v>
       </c>
       <c r="B271" s="43" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C271" s="37"/>
       <c r="D271" s="37"/>
@@ -39841,7 +39846,7 @@
         <v>247.0</v>
       </c>
       <c r="B272" s="43" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C272" s="37"/>
       <c r="D272" s="37"/>
@@ -39851,7 +39856,7 @@
         <v>248.0</v>
       </c>
       <c r="B273" s="43" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C273" s="37"/>
       <c r="D273" s="37"/>
@@ -39861,7 +39866,7 @@
         <v>249.0</v>
       </c>
       <c r="B274" s="43" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C274" s="37"/>
       <c r="D274" s="37"/>
@@ -39871,7 +39876,7 @@
         <v>250.0</v>
       </c>
       <c r="B275" s="43" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C275" s="37"/>
       <c r="D275" s="37"/>
@@ -39881,7 +39886,7 @@
         <v>251.0</v>
       </c>
       <c r="B276" s="43" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C276" s="37"/>
       <c r="D276" s="37"/>
@@ -39891,7 +39896,7 @@
         <v>252.0</v>
       </c>
       <c r="B277" s="43" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C277" s="37"/>
       <c r="D277" s="37"/>
@@ -39901,7 +39906,7 @@
         <v>253.0</v>
       </c>
       <c r="B278" s="43" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C278" s="37"/>
       <c r="D278" s="37"/>
@@ -39911,7 +39916,7 @@
         <v>254.0</v>
       </c>
       <c r="B279" s="43" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C279" s="37"/>
       <c r="D279" s="37"/>
@@ -39921,7 +39926,7 @@
         <v>255.0</v>
       </c>
       <c r="B280" s="43" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C280" s="37"/>
       <c r="D280" s="37"/>
@@ -39931,7 +39936,7 @@
         <v>256.0</v>
       </c>
       <c r="B281" s="43" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C281" s="37"/>
       <c r="D281" s="37"/>
@@ -39941,7 +39946,7 @@
         <v>257.0</v>
       </c>
       <c r="B282" s="43" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C282" s="37"/>
       <c r="D282" s="37"/>
@@ -39951,7 +39956,7 @@
         <v>258.0</v>
       </c>
       <c r="B283" s="43" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C283" s="37"/>
       <c r="D283" s="37"/>
@@ -39961,7 +39966,7 @@
         <v>259.0</v>
       </c>
       <c r="B284" s="43" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C284" s="37"/>
       <c r="D284" s="37"/>
@@ -39971,7 +39976,7 @@
         <v>260.0</v>
       </c>
       <c r="B285" s="43" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C285" s="37"/>
       <c r="D285" s="37"/>
@@ -39981,7 +39986,7 @@
         <v>261.0</v>
       </c>
       <c r="B286" s="43" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C286" s="37"/>
       <c r="D286" s="37"/>
@@ -39991,7 +39996,7 @@
         <v>262.0</v>
       </c>
       <c r="B287" s="43" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C287" s="37"/>
       <c r="D287" s="37"/>
@@ -40001,7 +40006,7 @@
         <v>263.0</v>
       </c>
       <c r="B288" s="43" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C288" s="37"/>
       <c r="D288" s="37"/>
@@ -40011,7 +40016,7 @@
         <v>264.0</v>
       </c>
       <c r="B289" s="43" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C289" s="37"/>
       <c r="D289" s="37"/>
@@ -40021,7 +40026,7 @@
         <v>265.0</v>
       </c>
       <c r="B290" s="43" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C290" s="37"/>
       <c r="D290" s="37"/>
@@ -40031,7 +40036,7 @@
         <v>266.0</v>
       </c>
       <c r="B291" s="43" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C291" s="37"/>
       <c r="D291" s="37"/>
@@ -40041,7 +40046,7 @@
         <v>267.0</v>
       </c>
       <c r="B292" s="43" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C292" s="37"/>
       <c r="D292" s="37"/>
@@ -40051,7 +40056,7 @@
         <v>268.0</v>
       </c>
       <c r="B293" s="43" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C293" s="37"/>
       <c r="D293" s="37"/>
@@ -40061,7 +40066,7 @@
         <v>269.0</v>
       </c>
       <c r="B294" s="43" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C294" s="37"/>
       <c r="D294" s="37"/>
@@ -40071,7 +40076,7 @@
         <v>270.0</v>
       </c>
       <c r="B295" s="43" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C295" s="37"/>
       <c r="D295" s="37"/>
@@ -40081,7 +40086,7 @@
         <v>271.0</v>
       </c>
       <c r="B296" s="43" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C296" s="37"/>
       <c r="D296" s="37"/>
@@ -40091,7 +40096,7 @@
         <v>272.0</v>
       </c>
       <c r="B297" s="43" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C297" s="37"/>
       <c r="D297" s="37"/>
@@ -40101,7 +40106,7 @@
         <v>273.0</v>
       </c>
       <c r="B298" s="43" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C298" s="37"/>
       <c r="D298" s="37"/>
@@ -40111,7 +40116,7 @@
         <v>274.0</v>
       </c>
       <c r="B299" s="43" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C299" s="37"/>
       <c r="D299" s="37"/>
@@ -40120,8 +40125,8 @@
       <c r="A300" s="44" t="n">
         <v>275.0</v>
       </c>
-      <c r="B300" s="58" t="s">
-        <v>340</v>
+      <c r="B300" s="57" t="s">
+        <v>348</v>
       </c>
       <c r="C300" s="37"/>
       <c r="D300" s="37"/>
@@ -40131,7 +40136,7 @@
         <v>276.0</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C301" s="37"/>
       <c r="D301" s="37"/>
@@ -40141,7 +40146,7 @@
         <v>277.0</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C302" s="37"/>
       <c r="D302" s="37"/>
@@ -40151,7 +40156,7 @@
         <v>278.0</v>
       </c>
       <c r="B303" s="43" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C303" s="37"/>
       <c r="D303" s="37"/>
@@ -40161,7 +40166,7 @@
         <v>279.0</v>
       </c>
       <c r="B304" s="43" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C304" s="37"/>
       <c r="D304" s="37"/>
@@ -40171,7 +40176,7 @@
         <v>280.0</v>
       </c>
       <c r="B305" s="43" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C305" s="37"/>
       <c r="D305" s="37"/>
@@ -40181,7 +40186,7 @@
         <v>281.0</v>
       </c>
       <c r="B306" s="43" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C306" s="37"/>
       <c r="D306" s="37"/>
@@ -40191,47 +40196,45 @@
         <v>282.0</v>
       </c>
       <c r="B307" s="43" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C307" s="37"/>
       <c r="D307" s="37"/>
     </row>
     <row r="308" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="44" t="n">
-        <v>283.0</v>
-      </c>
-      <c r="B308" s="57" t="s">
-        <v>348</v>
+      <c r="A308" s="44"/>
+      <c r="B308" s="75" t="s">
+        <v>356</v>
       </c>
       <c r="C308" s="37"/>
       <c r="D308" s="37"/>
     </row>
     <row r="309" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="44" t="n">
-        <v>284.0</v>
+        <v>283.0</v>
       </c>
       <c r="B309" s="54" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C309" s="37"/>
       <c r="D309" s="37"/>
     </row>
     <row r="310" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="42" t="n">
-        <v>285.0</v>
-      </c>
-      <c r="B310" s="58" t="s">
-        <v>350</v>
+        <v>284.0</v>
+      </c>
+      <c r="B310" s="57" t="s">
+        <v>358</v>
       </c>
       <c r="C310" s="37"/>
       <c r="D310" s="37"/>
     </row>
     <row r="311" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="44">
-        <v>284</v>
-      </c>
-      <c r="B311" s="74" t="s">
-        <v>351</v>
+      <c r="A311" s="44" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="B311" s="58" t="s">
+        <v>359</v>
       </c>
       <c r="C311" s="37"/>
       <c r="D311" s="37"/>
@@ -40241,7 +40244,7 @@
         <v>286.0</v>
       </c>
       <c r="B312" s="43" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C312" s="37"/>
       <c r="D312" s="37"/>
@@ -40250,8 +40253,8 @@
       <c r="A313" s="44" t="n">
         <v>287.0</v>
       </c>
-      <c r="B313" s="58" t="s">
-        <v>353</v>
+      <c r="B313" s="57" t="s">
+        <v>361</v>
       </c>
       <c r="C313" s="37"/>
       <c r="D313" s="37"/>
@@ -40261,7 +40264,7 @@
         <v>288.0</v>
       </c>
       <c r="B314" s="43" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C314" s="37"/>
       <c r="D314" s="37"/>
@@ -40271,7 +40274,7 @@
         <v>289.0</v>
       </c>
       <c r="B315" s="43" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C315" s="37"/>
       <c r="D315" s="37"/>
@@ -40281,7 +40284,7 @@
         <v>290.0</v>
       </c>
       <c r="B316" s="43" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C316" s="38"/>
       <c r="D316" s="38"/>
@@ -40291,7 +40294,7 @@
         <v>291.0</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C317" s="37"/>
       <c r="D317" s="37"/>
@@ -40301,7 +40304,7 @@
         <v>292.0</v>
       </c>
       <c r="B318" s="43" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C318" s="37"/>
       <c r="D318" s="37"/>
@@ -40311,7 +40314,7 @@
         <v>293.0</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C319" s="37"/>
       <c r="D319" s="37"/>
@@ -40321,7 +40324,7 @@
         <v>294.0</v>
       </c>
       <c r="B320" s="43" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C320" s="37"/>
       <c r="D320" s="37"/>
@@ -40331,7 +40334,7 @@
         <v>295.0</v>
       </c>
       <c r="B321" s="43" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C321" s="37"/>
       <c r="D321" s="37"/>
@@ -40341,7 +40344,7 @@
         <v>296.0</v>
       </c>
       <c r="B322" s="43" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C322" s="37"/>
       <c r="D322" s="37"/>
@@ -40351,7 +40354,7 @@
         <v>297.0</v>
       </c>
       <c r="B323" s="43" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C323" s="37"/>
       <c r="D323" s="37"/>
@@ -40361,7 +40364,7 @@
         <v>298.0</v>
       </c>
       <c r="B324" s="43" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C324" s="37"/>
       <c r="D324" s="37"/>
@@ -40371,7 +40374,7 @@
         <v>299.0</v>
       </c>
       <c r="B325" s="43" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C325" s="37"/>
       <c r="D325" s="37"/>
@@ -40381,7 +40384,7 @@
         <v>300.0</v>
       </c>
       <c r="B326" s="43" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C326" s="37"/>
       <c r="D326" s="37"/>
@@ -40391,7 +40394,7 @@
         <v>301.0</v>
       </c>
       <c r="B327" s="43" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C327" s="37"/>
       <c r="D327" s="37"/>
@@ -40401,7 +40404,7 @@
         <v>302.0</v>
       </c>
       <c r="B328" s="43" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C328" s="37"/>
       <c r="D328" s="37"/>
@@ -40411,47 +40414,45 @@
         <v>303.0</v>
       </c>
       <c r="B329" s="43" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C329" s="37"/>
       <c r="D329" s="37"/>
     </row>
     <row r="330" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="44" t="n">
-        <v>304.0</v>
-      </c>
-      <c r="B330" s="57" t="s">
-        <v>370</v>
+      <c r="A330" s="44"/>
+      <c r="B330" s="75" t="s">
+        <v>378</v>
       </c>
       <c r="C330" s="37"/>
       <c r="D330" s="37"/>
     </row>
     <row r="331" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="44" t="n">
-        <v>305.0</v>
+        <v>304.0</v>
       </c>
       <c r="B331" s="54" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C331" s="37"/>
       <c r="D331" s="37"/>
     </row>
     <row r="332" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="44" t="n">
-        <v>306.0</v>
+        <v>305.0</v>
       </c>
       <c r="B332" s="43" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C332" s="37"/>
       <c r="D332" s="37"/>
     </row>
     <row r="333" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="44">
-        <v>305</v>
-      </c>
-      <c r="B333" s="74" t="s">
-        <v>373</v>
+      <c r="A333" s="44" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="B333" s="58" t="s">
+        <v>381</v>
       </c>
       <c r="C333" s="37"/>
       <c r="D333" s="37"/>
@@ -40461,7 +40462,7 @@
         <v>307.0</v>
       </c>
       <c r="B334" s="43" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C334" s="37"/>
       <c r="D334" s="37"/>
@@ -40471,7 +40472,7 @@
         <v>308.0</v>
       </c>
       <c r="B335" s="43" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C335" s="37"/>
       <c r="D335" s="37"/>
@@ -40481,7 +40482,7 @@
         <v>309.0</v>
       </c>
       <c r="B336" s="43" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C336" s="37"/>
       <c r="D336" s="37"/>
@@ -40491,7 +40492,7 @@
         <v>310.0</v>
       </c>
       <c r="B337" s="43" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C337" s="37"/>
       <c r="D337" s="37"/>
@@ -40501,7 +40502,7 @@
         <v>311.0</v>
       </c>
       <c r="B338" s="43" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C338" s="37"/>
       <c r="D338" s="37"/>
@@ -40511,7 +40512,7 @@
         <v>312.0</v>
       </c>
       <c r="B339" s="43" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C339" s="37"/>
       <c r="D339" s="37"/>
@@ -40521,7 +40522,7 @@
         <v>313.0</v>
       </c>
       <c r="B340" s="43" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C340" s="37"/>
       <c r="D340" s="37"/>
@@ -40531,7 +40532,7 @@
         <v>314.0</v>
       </c>
       <c r="B341" s="43" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C341" s="37"/>
       <c r="D341" s="37"/>
@@ -40541,7 +40542,7 @@
         <v>315.0</v>
       </c>
       <c r="B342" s="43" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C342" s="37"/>
       <c r="D342" s="37"/>
@@ -40551,7 +40552,7 @@
         <v>316.0</v>
       </c>
       <c r="B343" s="43" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C343" s="37"/>
       <c r="D343" s="37"/>
@@ -40561,7 +40562,7 @@
         <v>317.0</v>
       </c>
       <c r="B344" s="43" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C344" s="37"/>
       <c r="D344" s="37"/>
@@ -40571,7 +40572,7 @@
         <v>318.0</v>
       </c>
       <c r="B345" s="43" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C345" s="37"/>
       <c r="D345" s="37"/>
@@ -40581,7 +40582,7 @@
         <v>319.0</v>
       </c>
       <c r="B346" s="43" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C346" s="37"/>
       <c r="D346" s="37"/>
@@ -40591,7 +40592,7 @@
         <v>320.0</v>
       </c>
       <c r="B347" s="43" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C347" s="37"/>
       <c r="D347" s="37"/>
@@ -40601,7 +40602,7 @@
         <v>321.0</v>
       </c>
       <c r="B348" s="43" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C348" s="37"/>
       <c r="D348" s="37"/>
@@ -40611,7 +40612,7 @@
         <v>322.0</v>
       </c>
       <c r="B349" s="43" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C349" s="37"/>
       <c r="D349" s="37"/>
@@ -40621,7 +40622,7 @@
         <v>323.0</v>
       </c>
       <c r="B350" s="43" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C350" s="37"/>
       <c r="D350" s="37"/>
@@ -40631,7 +40632,7 @@
         <v>324.0</v>
       </c>
       <c r="B351" s="43" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C351" s="37"/>
       <c r="D351" s="37"/>
@@ -40641,7 +40642,7 @@
         <v>325.0</v>
       </c>
       <c r="B352" s="43" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C352" s="37"/>
       <c r="D352" s="37"/>
@@ -40651,7 +40652,7 @@
         <v>326.0</v>
       </c>
       <c r="B353" s="43" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C353" s="37"/>
       <c r="D353" s="37"/>
@@ -40661,7 +40662,7 @@
         <v>327.0</v>
       </c>
       <c r="B354" s="43" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C354" s="37"/>
       <c r="D354" s="37"/>
@@ -40671,7 +40672,7 @@
         <v>328.0</v>
       </c>
       <c r="B355" s="43" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C355" s="37"/>
       <c r="D355" s="37"/>
@@ -40681,7 +40682,7 @@
         <v>329.0</v>
       </c>
       <c r="B356" s="43" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C356" s="37"/>
       <c r="D356" s="37"/>
@@ -40691,7 +40692,7 @@
         <v>330.0</v>
       </c>
       <c r="B357" s="43" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C357" s="37"/>
       <c r="D357" s="37"/>
@@ -40701,7 +40702,7 @@
         <v>331.0</v>
       </c>
       <c r="B358" s="43" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C358" s="37"/>
       <c r="D358" s="37"/>
@@ -40711,7 +40712,7 @@
         <v>332.0</v>
       </c>
       <c r="B359" s="43" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C359" s="38"/>
       <c r="D359" s="38"/>
@@ -40721,7 +40722,7 @@
         <v>333.0</v>
       </c>
       <c r="B360" s="43" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C360" s="37"/>
       <c r="D360" s="37"/>
@@ -40731,7 +40732,7 @@
         <v>334.0</v>
       </c>
       <c r="B361" s="43" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C361" s="37"/>
       <c r="D361" s="37"/>
@@ -40741,7 +40742,7 @@
         <v>335.0</v>
       </c>
       <c r="B362" s="43" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C362" s="37"/>
       <c r="D362" s="37"/>
@@ -40751,7 +40752,7 @@
         <v>336.0</v>
       </c>
       <c r="B363" s="43" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C363" s="37"/>
       <c r="D363" s="37"/>
@@ -40761,7 +40762,7 @@
         <v>337.0</v>
       </c>
       <c r="B364" s="43" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C364" s="37"/>
       <c r="D364" s="37"/>
@@ -40771,7 +40772,7 @@
         <v>338.0</v>
       </c>
       <c r="B365" s="43" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C365" s="37"/>
       <c r="D365" s="37"/>
@@ -40781,7 +40782,7 @@
         <v>339.0</v>
       </c>
       <c r="B366" s="43" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C366" s="37"/>
       <c r="D366" s="37"/>
@@ -40791,47 +40792,45 @@
         <v>340.0</v>
       </c>
       <c r="B367" s="43" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C367" s="37"/>
       <c r="D367" s="37"/>
     </row>
     <row r="368" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="44" t="n">
-        <v>341.0</v>
-      </c>
-      <c r="B368" s="57" t="s">
-        <v>392</v>
+      <c r="A368" s="44"/>
+      <c r="B368" s="75" t="s">
+        <v>399</v>
       </c>
       <c r="C368" s="37"/>
       <c r="D368" s="37"/>
     </row>
     <row r="369" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="44" t="n">
-        <v>342.0</v>
+        <v>341.0</v>
       </c>
       <c r="B369" s="54" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C369" s="37"/>
       <c r="D369" s="37"/>
     </row>
     <row r="370" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="44" t="n">
-        <v>343.0</v>
+        <v>342.0</v>
       </c>
       <c r="B370" s="43" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C370" s="37"/>
       <c r="D370" s="37"/>
     </row>
     <row r="371" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="44">
-        <v>343</v>
-      </c>
-      <c r="B371" s="74" t="s">
-        <v>394</v>
+      <c r="A371" s="44" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="B371" s="58" t="s">
+        <v>402</v>
       </c>
       <c r="C371" s="37"/>
       <c r="D371" s="37"/>
@@ -40841,7 +40840,7 @@
         <v>344.0</v>
       </c>
       <c r="B372" s="43" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C372" s="37"/>
       <c r="D372" s="37"/>
@@ -40851,7 +40850,7 @@
         <v>345.0</v>
       </c>
       <c r="B373" s="43" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C373" s="37"/>
       <c r="D373" s="37"/>
@@ -40861,7 +40860,7 @@
         <v>346.0</v>
       </c>
       <c r="B374" s="43" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C374" s="37"/>
       <c r="D374" s="37"/>
@@ -40871,7 +40870,7 @@
         <v>347.0</v>
       </c>
       <c r="B375" s="43" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C375" s="37"/>
       <c r="D375" s="37"/>
@@ -40881,7 +40880,7 @@
         <v>348.0</v>
       </c>
       <c r="B376" s="43" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C376" s="37"/>
       <c r="D376" s="37"/>
@@ -40891,75 +40890,73 @@
         <v>349.0</v>
       </c>
       <c r="B377" s="43" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C377" s="37"/>
       <c r="D377" s="37"/>
     </row>
     <row r="378" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A378" s="44" t="n">
-        <v>350.0</v>
-      </c>
-      <c r="B378" s="57" t="s">
-        <v>401</v>
+      <c r="A378" s="44"/>
+      <c r="B378" s="75" t="s">
+        <v>409</v>
       </c>
       <c r="C378" s="37"/>
       <c r="D378" s="37"/>
     </row>
     <row r="379" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="44" t="n">
-        <v>351.0</v>
+        <v>350.0</v>
       </c>
       <c r="B379" s="54" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C379" s="37"/>
       <c r="D379" s="37"/>
     </row>
     <row r="380" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="44" t="n">
-        <v>352.0</v>
+        <v>351.0</v>
       </c>
       <c r="B380" s="43" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C380" s="37"/>
       <c r="D380" s="37"/>
     </row>
     <row r="381" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="44"/>
-      <c r="B381" s="74" t="s">
-        <v>404</v>
+      <c r="B381" s="75" t="s">
+        <v>412</v>
       </c>
       <c r="C381" s="37"/>
       <c r="D381" s="37"/>
     </row>
     <row r="382" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="44" t="n">
-        <v>353.0</v>
+        <v>352.0</v>
       </c>
       <c r="B382" s="54" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C382" s="37"/>
       <c r="D382" s="37"/>
     </row>
     <row r="383" spans="1:4" s="5" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="44" t="n">
-        <v>354.0</v>
+        <v>353.0</v>
       </c>
       <c r="B383" s="43" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C383" s="37"/>
       <c r="D383" s="37"/>
     </row>
     <row r="384" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="44">
-        <v>355</v>
-      </c>
-      <c r="B384" s="74" t="s">
-        <v>407</v>
+      <c r="A384" s="44" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="B384" s="58" t="s">
+        <v>415</v>
       </c>
       <c r="C384" s="37"/>
       <c r="D384" s="37"/>
@@ -40969,47 +40966,45 @@
         <v>355.0</v>
       </c>
       <c r="B385" s="43" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C385" s="37"/>
       <c r="D385" s="37"/>
     </row>
     <row r="386" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="44" t="n">
-        <v>356.0</v>
-      </c>
-      <c r="B386" s="58" t="s">
-        <v>409</v>
+      <c r="A386" s="44"/>
+      <c r="B386" s="75" t="s">
+        <v>417</v>
       </c>
       <c r="C386" s="37"/>
       <c r="D386" s="37"/>
     </row>
     <row r="387" spans="1:4" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="44" t="n">
-        <v>357.0</v>
+        <v>356.0</v>
       </c>
       <c r="B387" s="54" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C387" s="37"/>
       <c r="D387" s="37"/>
     </row>
     <row r="388" spans="1:4" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="44" t="n">
-        <v>358.0</v>
+        <v>357.0</v>
       </c>
       <c r="B388" s="43" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C388" s="37"/>
       <c r="D388" s="37"/>
     </row>
     <row r="389" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="44">
-        <v>359</v>
-      </c>
-      <c r="B389" s="74" t="s">
-        <v>412</v>
+      <c r="A389" s="44" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="B389" s="58" t="s">
+        <v>420</v>
       </c>
       <c r="C389" s="37"/>
       <c r="D389" s="37"/>
@@ -41019,7 +41014,7 @@
         <v>359.0</v>
       </c>
       <c r="B390" s="43" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C390" s="37"/>
       <c r="D390" s="37"/>
@@ -41029,7 +41024,7 @@
         <v>360.0</v>
       </c>
       <c r="B391" s="43" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C391" s="37"/>
       <c r="D391" s="37"/>
@@ -41039,7 +41034,7 @@
         <v>361.0</v>
       </c>
       <c r="B392" s="43" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C392" s="37"/>
       <c r="D392" s="37"/>
@@ -41049,7 +41044,7 @@
         <v>362.0</v>
       </c>
       <c r="B393" s="43" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C393" s="37"/>
       <c r="D393" s="37"/>
@@ -41059,7 +41054,7 @@
         <v>363.0</v>
       </c>
       <c r="B394" s="43" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C394" s="37"/>
       <c r="D394" s="37"/>
@@ -41069,7 +41064,7 @@
         <v>364.0</v>
       </c>
       <c r="B395" s="43" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C395" s="37"/>
       <c r="D395" s="37"/>
@@ -41079,7 +41074,7 @@
         <v>365.0</v>
       </c>
       <c r="B396" s="43" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C396" s="37"/>
       <c r="D396" s="37"/>
@@ -41089,7 +41084,7 @@
         <v>366.0</v>
       </c>
       <c r="B397" s="43" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C397" s="37"/>
       <c r="D397" s="37"/>
@@ -41099,7 +41094,7 @@
         <v>367.0</v>
       </c>
       <c r="B398" s="43" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C398" s="37"/>
       <c r="D398" s="37"/>
@@ -41109,7 +41104,7 @@
         <v>368.0</v>
       </c>
       <c r="B399" s="43" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C399" s="37"/>
       <c r="D399" s="37"/>
@@ -41119,7 +41114,7 @@
         <v>369.0</v>
       </c>
       <c r="B400" s="43" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C400" s="37"/>
       <c r="D400" s="37"/>
@@ -41129,7 +41124,7 @@
         <v>370.0</v>
       </c>
       <c r="B401" s="43" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C401" s="37"/>
       <c r="D401" s="37"/>
@@ -41139,7 +41134,7 @@
         <v>371.0</v>
       </c>
       <c r="B402" s="43" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C402" s="37"/>
       <c r="D402" s="37"/>
@@ -41149,7 +41144,7 @@
         <v>372.0</v>
       </c>
       <c r="B403" s="43" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C403" s="37"/>
       <c r="D403" s="37"/>
@@ -41159,7 +41154,7 @@
         <v>373.0</v>
       </c>
       <c r="B404" s="49" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C404" s="40"/>
       <c r="D404" s="37"/>
@@ -41169,7 +41164,7 @@
         <v>374.0</v>
       </c>
       <c r="B405" s="50" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C405" s="40"/>
       <c r="D405" s="37"/>
@@ -41179,7 +41174,7 @@
         <v>375.0</v>
       </c>
       <c r="B406" s="50" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C406" s="40"/>
       <c r="D406" s="37"/>
@@ -41189,7 +41184,7 @@
         <v>376.0</v>
       </c>
       <c r="B407" s="50" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C407" s="40"/>
       <c r="D407" s="37"/>
@@ -41199,7 +41194,7 @@
         <v>377.0</v>
       </c>
       <c r="B408" s="50" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C408" s="24"/>
       <c r="D408" s="37"/>
@@ -41209,7 +41204,7 @@
         <v>378.0</v>
       </c>
       <c r="B409" s="50" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C409" s="24"/>
       <c r="D409" s="37"/>
@@ -41219,7 +41214,7 @@
         <v>379.0</v>
       </c>
       <c r="B410" s="43" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C410" s="24"/>
       <c r="D410" s="37"/>
@@ -41229,7 +41224,7 @@
         <v>380.0</v>
       </c>
       <c r="B411" s="43" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C411" s="24"/>
       <c r="D411" s="37"/>
@@ -41239,7 +41234,7 @@
         <v>381.0</v>
       </c>
       <c r="B412" s="43" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C412" s="24"/>
       <c r="D412" s="37"/>
@@ -41249,7 +41244,7 @@
         <v>382.0</v>
       </c>
       <c r="B413" s="50" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C413" s="24"/>
       <c r="D413" s="37"/>
@@ -41259,7 +41254,7 @@
         <v>383.0</v>
       </c>
       <c r="B414" s="50" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C414" s="24"/>
       <c r="D414" s="37"/>
@@ -41269,7 +41264,7 @@
         <v>384.0</v>
       </c>
       <c r="B415" s="50" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C415" s="40"/>
       <c r="D415" s="37"/>
@@ -41279,7 +41274,7 @@
         <v>385.0</v>
       </c>
       <c r="B416" s="50" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C416" s="40"/>
       <c r="D416" s="37"/>
@@ -41289,7 +41284,7 @@
         <v>386.0</v>
       </c>
       <c r="B417" s="43" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C417" s="40"/>
       <c r="D417" s="37"/>
@@ -41299,7 +41294,7 @@
         <v>387.0</v>
       </c>
       <c r="B418" s="43" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C418" s="40"/>
       <c r="D418" s="37"/>
@@ -41309,7 +41304,7 @@
         <v>388.0</v>
       </c>
       <c r="B419" s="43" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C419" s="40"/>
       <c r="D419" s="37"/>
@@ -41319,7 +41314,7 @@
         <v>389.0</v>
       </c>
       <c r="B420" s="43" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C420" s="37"/>
       <c r="D420" s="37"/>
@@ -41329,7 +41324,7 @@
         <v>390.0</v>
       </c>
       <c r="B421" s="43" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C421" s="37"/>
       <c r="D421" s="37"/>
@@ -41339,7 +41334,7 @@
         <v>391.0</v>
       </c>
       <c r="B422" s="43" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C422" s="37"/>
       <c r="D422" s="37"/>
@@ -41349,7 +41344,7 @@
         <v>392.0</v>
       </c>
       <c r="B423" s="43" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C423" s="37"/>
       <c r="D423" s="37"/>
@@ -41359,7 +41354,7 @@
         <v>393.0</v>
       </c>
       <c r="B424" s="43" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C424" s="37"/>
       <c r="D424" s="37"/>
@@ -41369,7 +41364,7 @@
         <v>394.0</v>
       </c>
       <c r="B425" s="50" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C425" s="37"/>
       <c r="D425" s="37"/>
@@ -41379,7 +41374,7 @@
         <v>395.0</v>
       </c>
       <c r="B426" s="50" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C426" s="37"/>
       <c r="D426" s="37"/>
@@ -41389,7 +41384,7 @@
         <v>396.0</v>
       </c>
       <c r="B427" s="50" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C427" s="37"/>
       <c r="D427" s="37"/>
@@ -41399,7 +41394,7 @@
         <v>397.0</v>
       </c>
       <c r="B428" s="43" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C428" s="37"/>
       <c r="D428" s="37"/>
@@ -41409,7 +41404,7 @@
         <v>398.0</v>
       </c>
       <c r="B429" s="43" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C429" s="37"/>
       <c r="D429" s="37"/>
@@ -41419,7 +41414,7 @@
         <v>399.0</v>
       </c>
       <c r="B430" s="43" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C430" s="37"/>
       <c r="D430" s="37"/>
@@ -41429,7 +41424,7 @@
         <v>400.0</v>
       </c>
       <c r="B431" s="43" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C431" s="37"/>
       <c r="D431" s="37"/>
@@ -41439,7 +41434,7 @@
         <v>401.0</v>
       </c>
       <c r="B432" s="43" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C432" s="37"/>
       <c r="D432" s="37"/>
@@ -41449,7 +41444,7 @@
         <v>402.0</v>
       </c>
       <c r="B433" s="43" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C433" s="37"/>
       <c r="D433" s="37"/>
@@ -41459,7 +41454,7 @@
         <v>403.0</v>
       </c>
       <c r="B434" s="43" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C434" s="37"/>
       <c r="D434" s="37"/>
@@ -41469,7 +41464,7 @@
         <v>404.0</v>
       </c>
       <c r="B435" s="43" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C435" s="37"/>
       <c r="D435" s="37"/>
@@ -41479,7 +41474,7 @@
         <v>405.0</v>
       </c>
       <c r="B436" s="43" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C436" s="37"/>
       <c r="D436" s="37"/>
@@ -41489,7 +41484,7 @@
         <v>406.0</v>
       </c>
       <c r="B437" s="50" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C437" s="37"/>
       <c r="D437" s="37"/>
@@ -41499,7 +41494,7 @@
         <v>407.0</v>
       </c>
       <c r="B438" s="43" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C438" s="37"/>
       <c r="D438" s="37"/>
@@ -41509,7 +41504,7 @@
         <v>408.0</v>
       </c>
       <c r="B439" s="43" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C439" s="37"/>
       <c r="D439" s="37"/>
@@ -41519,7 +41514,7 @@
         <v>409.0</v>
       </c>
       <c r="B440" s="50" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C440" s="37"/>
       <c r="D440" s="37"/>
@@ -41529,7 +41524,7 @@
         <v>410.0</v>
       </c>
       <c r="B441" s="50" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C441" s="37"/>
       <c r="D441" s="37"/>
@@ -41539,7 +41534,7 @@
         <v>411.0</v>
       </c>
       <c r="B442" s="50" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C442" s="37"/>
       <c r="D442" s="37"/>
@@ -41549,7 +41544,7 @@
         <v>412.0</v>
       </c>
       <c r="B443" s="43" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C443" s="37"/>
       <c r="D443" s="37"/>
@@ -41559,7 +41554,7 @@
         <v>413.0</v>
       </c>
       <c r="B444" s="43" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C444" s="37"/>
       <c r="D444" s="37"/>
@@ -41569,7 +41564,7 @@
         <v>414.0</v>
       </c>
       <c r="B445" s="43" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C445" s="37"/>
       <c r="D445" s="37"/>
@@ -41579,7 +41574,7 @@
         <v>415.0</v>
       </c>
       <c r="B446" s="43" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C446" s="37"/>
       <c r="D446" s="37"/>
@@ -41589,7 +41584,7 @@
         <v>416.0</v>
       </c>
       <c r="B447" s="43" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C447" s="37"/>
       <c r="D447" s="37"/>
@@ -41599,7 +41594,7 @@
         <v>417.0</v>
       </c>
       <c r="B448" s="43" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C448" s="37"/>
       <c r="D448" s="37"/>
@@ -41609,7 +41604,7 @@
         <v>418.0</v>
       </c>
       <c r="B449" s="43" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C449" s="37"/>
       <c r="D449" s="37"/>
@@ -41619,7 +41614,7 @@
         <v>419.0</v>
       </c>
       <c r="B450" s="43" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C450" s="37"/>
       <c r="D450" s="37"/>
@@ -41629,7 +41624,7 @@
         <v>420.0</v>
       </c>
       <c r="B451" s="43" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C451" s="37"/>
       <c r="D451" s="37"/>
@@ -41639,7 +41634,7 @@
         <v>421.0</v>
       </c>
       <c r="B452" s="43" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C452" s="37"/>
       <c r="D452" s="37"/>
@@ -41649,7 +41644,7 @@
         <v>422.0</v>
       </c>
       <c r="B453" s="43" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C453" s="37"/>
       <c r="D453" s="37"/>
@@ -41659,7 +41654,7 @@
         <v>423.0</v>
       </c>
       <c r="B454" s="43" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C454" s="37"/>
       <c r="D454" s="37"/>
@@ -41669,7 +41664,7 @@
         <v>424.0</v>
       </c>
       <c r="B455" s="43" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C455" s="37"/>
       <c r="D455" s="37"/>
@@ -41679,7 +41674,7 @@
         <v>425.0</v>
       </c>
       <c r="B456" s="43" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C456" s="37"/>
       <c r="D456" s="37"/>
@@ -41689,7 +41684,7 @@
         <v>426.0</v>
       </c>
       <c r="B457" s="43" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C457" s="37"/>
       <c r="D457" s="37"/>
@@ -41699,7 +41694,7 @@
         <v>427.0</v>
       </c>
       <c r="B458" s="43" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C458" s="37"/>
       <c r="D458" s="37"/>
@@ -41709,7 +41704,7 @@
         <v>428.0</v>
       </c>
       <c r="B459" s="43" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C459" s="37"/>
       <c r="D459" s="37"/>
@@ -41719,7 +41714,7 @@
         <v>429.0</v>
       </c>
       <c r="B460" s="50" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C460" s="37"/>
       <c r="D460" s="37"/>
@@ -41729,7 +41724,7 @@
         <v>430.0</v>
       </c>
       <c r="B461" s="43" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C461" s="37"/>
       <c r="D461" s="37"/>
@@ -41739,7 +41734,7 @@
         <v>431.0</v>
       </c>
       <c r="B462" s="43" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C462" s="37"/>
       <c r="D462" s="37"/>
@@ -41749,7 +41744,7 @@
         <v>432.0</v>
       </c>
       <c r="B463" s="43" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C463" s="37"/>
       <c r="D463" s="37"/>
@@ -41759,7 +41754,7 @@
         <v>433.0</v>
       </c>
       <c r="B464" s="43" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C464" s="37"/>
       <c r="D464" s="37"/>
@@ -41769,7 +41764,7 @@
         <v>434.0</v>
       </c>
       <c r="B465" s="43" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C465" s="37"/>
       <c r="D465" s="37"/>
@@ -41779,7 +41774,7 @@
         <v>435.0</v>
       </c>
       <c r="B466" s="43" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C466" s="37"/>
       <c r="D466" s="37"/>
@@ -41789,7 +41784,7 @@
         <v>436.0</v>
       </c>
       <c r="B467" s="43" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C467" s="37"/>
       <c r="D467" s="37"/>
@@ -41799,7 +41794,7 @@
         <v>437.0</v>
       </c>
       <c r="B468" s="43" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C468" s="37"/>
       <c r="D468" s="37"/>
@@ -41809,7 +41804,7 @@
         <v>438.0</v>
       </c>
       <c r="B469" s="43" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C469" s="37"/>
       <c r="D469" s="37"/>
@@ -41819,7 +41814,7 @@
         <v>439.0</v>
       </c>
       <c r="B470" s="43" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="C470" s="37"/>
       <c r="D470" s="37"/>
@@ -41829,7 +41824,7 @@
         <v>440.0</v>
       </c>
       <c r="B471" s="43" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C471" s="37"/>
       <c r="D471" s="37"/>
@@ -41839,7 +41834,7 @@
         <v>441.0</v>
       </c>
       <c r="B472" s="43" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C472" s="37"/>
       <c r="D472" s="37"/>
@@ -41849,7 +41844,7 @@
         <v>442.0</v>
       </c>
       <c r="B473" s="43" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C473" s="37"/>
       <c r="D473" s="37"/>
@@ -41859,7 +41854,7 @@
         <v>443.0</v>
       </c>
       <c r="B474" s="43" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C474" s="37"/>
       <c r="D474" s="37"/>
@@ -41869,7 +41864,7 @@
         <v>444.0</v>
       </c>
       <c r="B475" s="43" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C475" s="37"/>
       <c r="D475" s="37"/>
@@ -41879,7 +41874,7 @@
         <v>445.0</v>
       </c>
       <c r="B476" s="43" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C476" s="37"/>
       <c r="D476" s="37"/>
@@ -41889,7 +41884,7 @@
         <v>446.0</v>
       </c>
       <c r="B477" s="43" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C477" s="37"/>
       <c r="D477" s="37"/>
@@ -41899,7 +41894,7 @@
         <v>447.0</v>
       </c>
       <c r="B478" s="43" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C478" s="37"/>
       <c r="D478" s="37"/>
@@ -41909,7 +41904,7 @@
         <v>448.0</v>
       </c>
       <c r="B479" s="43" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C479" s="37"/>
       <c r="D479" s="37"/>
@@ -41919,7 +41914,7 @@
         <v>449.0</v>
       </c>
       <c r="B480" s="43" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C480" s="37"/>
       <c r="D480" s="37"/>
@@ -41929,7 +41924,7 @@
         <v>450.0</v>
       </c>
       <c r="B481" s="43" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C481" s="37"/>
       <c r="D481" s="37"/>
@@ -41939,7 +41934,7 @@
         <v>451.0</v>
       </c>
       <c r="B482" s="43" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C482" s="37"/>
       <c r="D482" s="37"/>
@@ -41949,7 +41944,7 @@
         <v>452.0</v>
       </c>
       <c r="B483" s="43" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C483" s="37"/>
       <c r="D483" s="37"/>
@@ -41959,7 +41954,7 @@
         <v>453.0</v>
       </c>
       <c r="B484" s="43" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C484" s="37"/>
       <c r="D484" s="37"/>
@@ -41969,7 +41964,7 @@
         <v>454.0</v>
       </c>
       <c r="B485" s="43" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C485" s="37"/>
       <c r="D485" s="37"/>
@@ -41979,7 +41974,7 @@
         <v>455.0</v>
       </c>
       <c r="B486" s="43" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C486" s="37"/>
       <c r="D486" s="37"/>
@@ -41989,7 +41984,7 @@
         <v>456.0</v>
       </c>
       <c r="B487" s="43" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C487" s="37"/>
       <c r="D487" s="37"/>
@@ -41999,7 +41994,7 @@
         <v>457.0</v>
       </c>
       <c r="B488" s="43" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C488" s="37"/>
       <c r="D488" s="37"/>
@@ -42009,7 +42004,7 @@
         <v>458.0</v>
       </c>
       <c r="B489" s="43" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C489" s="37"/>
       <c r="D489" s="37"/>
@@ -42019,7 +42014,7 @@
         <v>459.0</v>
       </c>
       <c r="B490" s="43" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C490" s="37"/>
       <c r="D490" s="37"/>
@@ -42029,7 +42024,7 @@
         <v>460.0</v>
       </c>
       <c r="B491" s="43" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C491" s="37"/>
       <c r="D491" s="37"/>
@@ -42039,7 +42034,7 @@
         <v>461.0</v>
       </c>
       <c r="B492" s="43" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C492" s="37"/>
       <c r="D492" s="37"/>
@@ -42049,7 +42044,7 @@
         <v>462.0</v>
       </c>
       <c r="B493" s="43" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C493" s="37"/>
       <c r="D493" s="37"/>
@@ -42059,7 +42054,7 @@
         <v>463.0</v>
       </c>
       <c r="B494" s="43" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C494" s="37"/>
       <c r="D494" s="37"/>
@@ -42069,7 +42064,7 @@
         <v>464.0</v>
       </c>
       <c r="B495" s="43" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C495" s="37"/>
       <c r="D495" s="37"/>
@@ -42079,7 +42074,7 @@
         <v>465.0</v>
       </c>
       <c r="B496" s="43" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C496" s="37"/>
       <c r="D496" s="37"/>
@@ -42089,7 +42084,7 @@
         <v>466.0</v>
       </c>
       <c r="B497" s="43" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C497" s="37"/>
       <c r="D497" s="37"/>
@@ -42099,7 +42094,7 @@
         <v>467.0</v>
       </c>
       <c r="B498" s="43" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C498" s="37"/>
       <c r="D498" s="37"/>
@@ -42109,7 +42104,7 @@
         <v>468.0</v>
       </c>
       <c r="B499" s="43" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="C499" s="37"/>
       <c r="D499" s="37"/>
@@ -42119,7 +42114,7 @@
         <v>469.0</v>
       </c>
       <c r="B500" s="43" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C500" s="37"/>
       <c r="D500" s="37"/>
@@ -42129,7 +42124,7 @@
         <v>470.0</v>
       </c>
       <c r="B501" s="43" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C501" s="37"/>
       <c r="D501" s="37"/>
@@ -42139,7 +42134,7 @@
         <v>471.0</v>
       </c>
       <c r="B502" s="43" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C502" s="37"/>
       <c r="D502" s="37"/>
@@ -42149,7 +42144,7 @@
         <v>472.0</v>
       </c>
       <c r="B503" s="43" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C503" s="37"/>
       <c r="D503" s="37"/>
@@ -42159,7 +42154,7 @@
         <v>473.0</v>
       </c>
       <c r="B504" s="43" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C504" s="37"/>
       <c r="D504" s="37"/>
@@ -42169,7 +42164,7 @@
         <v>474.0</v>
       </c>
       <c r="B505" s="43" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C505" s="37"/>
       <c r="D505" s="37"/>
@@ -42179,7 +42174,7 @@
         <v>475.0</v>
       </c>
       <c r="B506" s="43" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C506" s="37"/>
       <c r="D506" s="37"/>
@@ -42189,7 +42184,7 @@
         <v>476.0</v>
       </c>
       <c r="B507" s="43" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C507" s="37"/>
       <c r="D507" s="37"/>
@@ -42199,7 +42194,7 @@
         <v>477.0</v>
       </c>
       <c r="B508" s="43" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C508" s="37"/>
       <c r="D508" s="37"/>
@@ -42209,7 +42204,7 @@
         <v>478.0</v>
       </c>
       <c r="B509" s="43" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C509" s="37"/>
       <c r="D509" s="37"/>
@@ -42219,7 +42214,7 @@
         <v>479.0</v>
       </c>
       <c r="B510" s="49" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C510" s="41"/>
       <c r="D510" s="37"/>
@@ -42229,7 +42224,7 @@
         <v>480.0</v>
       </c>
       <c r="B511" s="43" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C511" s="37"/>
       <c r="D511" s="37"/>
@@ -42239,47 +42234,45 @@
         <v>481.0</v>
       </c>
       <c r="B512" s="43" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C512" s="37"/>
       <c r="D512" s="37"/>
     </row>
     <row r="513" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="44" t="n">
-        <v>482.0</v>
-      </c>
-      <c r="B513" s="58" t="s">
-        <v>530</v>
+      <c r="A513" s="44"/>
+      <c r="B513" s="75" t="s">
+        <v>538</v>
       </c>
       <c r="C513" s="37"/>
       <c r="D513" s="37"/>
     </row>
     <row r="514" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="44" t="n">
-        <v>483.0</v>
+        <v>482.0</v>
       </c>
       <c r="B514" s="54" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C514" s="37"/>
       <c r="D514" s="37"/>
     </row>
     <row r="515" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="44" t="n">
-        <v>484.0</v>
+        <v>483.0</v>
       </c>
       <c r="B515" s="43" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C515" s="37"/>
       <c r="D515" s="37"/>
     </row>
     <row r="516" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="44">
-        <v>485</v>
-      </c>
-      <c r="B516" s="74" t="s">
-        <v>533</v>
+      <c r="A516" s="44" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B516" s="58" t="s">
+        <v>541</v>
       </c>
       <c r="C516" s="37"/>
       <c r="D516" s="37"/>
@@ -42289,7 +42282,7 @@
         <v>485.0</v>
       </c>
       <c r="B517" s="43" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C517" s="37"/>
       <c r="D517" s="37"/>
@@ -42299,7 +42292,7 @@
         <v>486.0</v>
       </c>
       <c r="B518" s="43" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C518" s="37"/>
       <c r="D518" s="37"/>
@@ -42309,7 +42302,7 @@
         <v>487.0</v>
       </c>
       <c r="B519" s="43" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C519" s="37"/>
       <c r="D519" s="37"/>
@@ -42319,7 +42312,7 @@
         <v>488.0</v>
       </c>
       <c r="B520" s="43" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C520" s="37"/>
       <c r="D520" s="37"/>
@@ -42329,7 +42322,7 @@
         <v>489.0</v>
       </c>
       <c r="B521" s="43" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C521" s="37"/>
       <c r="D521" s="37"/>
@@ -42339,7 +42332,7 @@
         <v>490.0</v>
       </c>
       <c r="B522" s="43" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C522" s="37"/>
       <c r="D522" s="37"/>
@@ -42349,7 +42342,7 @@
         <v>491.0</v>
       </c>
       <c r="B523" s="43" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C523" s="37"/>
       <c r="D523" s="37"/>
@@ -42359,7 +42352,7 @@
         <v>492.0</v>
       </c>
       <c r="B524" s="43" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C524" s="37"/>
       <c r="D524" s="37"/>
@@ -42369,7 +42362,7 @@
         <v>493.0</v>
       </c>
       <c r="B525" s="43" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C525" s="37"/>
       <c r="D525" s="37"/>
@@ -42379,7 +42372,7 @@
         <v>494.0</v>
       </c>
       <c r="B526" s="43" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="C526" s="37"/>
       <c r="D526" s="37"/>
@@ -42389,7 +42382,7 @@
         <v>495.0</v>
       </c>
       <c r="B527" s="43" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C527" s="37"/>
       <c r="D527" s="37"/>
@@ -42399,7 +42392,7 @@
         <v>496.0</v>
       </c>
       <c r="B528" s="43" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C528" s="37"/>
       <c r="D528" s="37"/>
@@ -42409,7 +42402,7 @@
         <v>497.0</v>
       </c>
       <c r="B529" s="43" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C529" s="37"/>
       <c r="D529" s="37"/>
@@ -42419,7 +42412,7 @@
         <v>498.0</v>
       </c>
       <c r="B530" s="43" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="C530" s="37"/>
       <c r="D530" s="37"/>
@@ -42429,7 +42422,7 @@
         <v>499.0</v>
       </c>
       <c r="B531" s="43" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="C531" s="37"/>
       <c r="D531" s="37"/>
@@ -42439,7 +42432,7 @@
         <v>500.0</v>
       </c>
       <c r="B532" s="43" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C532" s="37"/>
       <c r="D532" s="37"/>
@@ -42449,38 +42442,26 @@
         <v>501.0</v>
       </c>
       <c r="B533" s="43" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C533" s="37"/>
       <c r="D533" s="37"/>
     </row>
     <row r="534" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="42" t="n">
-        <v>502.0</v>
-      </c>
-      <c r="B534" s="43" t="s">
-        <v>551</v>
-      </c>
+      <c r="A534" s="42"/>
+      <c r="B534" s="43"/>
       <c r="C534" s="37"/>
       <c r="D534" s="37"/>
     </row>
     <row r="535" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="44" t="n">
-        <v>503.0</v>
-      </c>
-      <c r="B535" s="43" t="s">
-        <v>552</v>
-      </c>
+      <c r="A535" s="44"/>
+      <c r="B535" s="43"/>
       <c r="C535" s="37"/>
       <c r="D535" s="37"/>
     </row>
     <row r="536" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="44" t="n">
-        <v>504.0</v>
-      </c>
-      <c r="B536" s="43" t="s">
-        <v>553</v>
-      </c>
+      <c r="A536" s="44"/>
+      <c r="B536" s="43"/>
       <c r="C536" s="37"/>
       <c r="D536" s="37"/>
     </row>
@@ -50720,14 +50701,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -50736,7 +50717,7 @@
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -50745,7 +50726,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -50754,7 +50735,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -50763,7 +50744,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -50772,7 +50753,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -50781,7 +50762,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -50790,7 +50771,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -50799,7 +50780,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -50808,7 +50789,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -50817,7 +50798,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -50826,7 +50807,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -50835,7 +50816,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -50844,7 +50825,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -50853,7 +50834,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -50862,7 +50843,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -50871,7 +50852,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -50880,7 +50861,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -50889,7 +50870,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="66" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -50897,61 +50878,61 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -50959,31 +50940,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="73" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -50991,43 +50972,43 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="15" t="s">
         <v>51</v>
       </c>
@@ -51039,13 +51020,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="15" t="s">
         <v>54</v>
       </c>
@@ -51057,19 +51038,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="15" t="s">
         <v>57</v>
       </c>

--- a/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
+++ b/src/main/resources/excel/dodatok_01-04-2021_18_28_30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E305EC-FCC2-4CD1-A28D-51FBEF657ED3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F88F064-DD6A-4300-8F6E-8D0D40B45C15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КВЗтаКБ" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="556">
   <si>
     <t>№</t>
   </si>
@@ -221,6 +221,9 @@
     <t xml:space="preserve">штабу військової частини </t>
   </si>
   <si>
+    <t>станом на 01.05.2021</t>
+  </si>
+  <si>
     <t>Проводові засоби</t>
   </si>
   <si>
@@ -878,6 +881,177 @@
     <t>Р-163-50У</t>
   </si>
   <si>
+    <t>Станції космічного звязку</t>
+  </si>
+  <si>
+    <t>Р-441У АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-440-У АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-441-О АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-440-О АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>СТАНЦІЇ СУПУТНИКОВОГО ЗВ`ЯЗКУ "КРИСТАЛ-АБ" АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-440-А АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-440-ОД АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>Р-439 АВТОМОБІЛЬНІ</t>
+  </si>
+  <si>
+    <t>СТАНЦІЇ СУПУТНИКОВОГО ЗВ`ЯЗКУ "ЛЕГЕНДА - 2"</t>
+  </si>
+  <si>
+    <t>ТЕРМІНАЛ СУПУТНИКОВОГО ЗВ`ЯЗКУ VIASAT (SURFBEAM 2)</t>
+  </si>
+  <si>
+    <t>МОБІЛЬНИЙ КОМПЛЕКТ СУПУТНИКОВОГО ЗВ'ЯЗКУ v.1-POE (MKCЗ v.1-POE)</t>
+  </si>
+  <si>
+    <t>Р-441У СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440-УН СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440АБ СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-439 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-441-О СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440У СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440А СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440О СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-440-АН СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>ТЕРМІНАЛ СУПУТНИКОВИЙ "IRIDIUM" 9555</t>
+  </si>
+  <si>
+    <t>Апаратні технічного обслуговування</t>
+  </si>
+  <si>
+    <t>АТО-7</t>
+  </si>
+  <si>
+    <t>АТО-6</t>
+  </si>
+  <si>
+    <t>М-4М2</t>
+  </si>
+  <si>
+    <t>М-4М</t>
+  </si>
+  <si>
+    <t>АТО-17М</t>
+  </si>
+  <si>
+    <t>АТО-17</t>
+  </si>
+  <si>
+    <t>М-5</t>
+  </si>
+  <si>
+    <t>АТО-1</t>
+  </si>
+  <si>
+    <t>АТО-2</t>
+  </si>
+  <si>
+    <t>АТО-14</t>
+  </si>
+  <si>
+    <t>АТО-34</t>
+  </si>
+  <si>
+    <t>АТО-40</t>
+  </si>
+  <si>
+    <t>АТО-21</t>
+  </si>
+  <si>
+    <t>АТО-13</t>
+  </si>
+  <si>
+    <t>АТО-18М</t>
+  </si>
+  <si>
+    <t>АТО-18</t>
+  </si>
+  <si>
+    <t>МАЙСТЕРНІ ЗВ'ЯЗКУ М-2</t>
+  </si>
+  <si>
+    <t>МАЙСТЕРНІ ЗВ'ЯЗКУ М-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЙСТЕРНІ ЗВ'ЯЗКУ М-5 </t>
+  </si>
+  <si>
+    <t>АТО-4</t>
+  </si>
+  <si>
+    <t>КХ/УКХ радіостанції</t>
+  </si>
+  <si>
+    <t>Р-142Н СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-142 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-142Д СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-125Б1 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-125Б2 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-125МТ СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-125МТ2 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>Р-104АМ3 СТАЦІОНАРНІ</t>
+  </si>
+  <si>
+    <t>РАДІОСТАНЦІЯ БАЗОВА "KENWOOD" TK-8302M2</t>
+  </si>
+  <si>
+    <t>Апаратні ущільнення</t>
+  </si>
+  <si>
+    <t>АПАРАТУРА К-24К</t>
+  </si>
+  <si>
+    <t>АПАРАТУРА К-60П</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КХ радіостанції </t>
+  </si>
+  <si>
     <t>Р-136Р СТАЦІОНАРНІ</t>
   </si>
   <si>
@@ -1079,174 +1253,6 @@
     <t>ВИСЛА-М</t>
   </si>
   <si>
-    <t>Станції космічного звязку</t>
-  </si>
-  <si>
-    <t>Р-441У АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-440-У АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-441-О АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-440-О АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>СТАНЦІЇ СУПУТНИКОВОГО ЗВ`ЯЗКУ "КРИСТАЛ-АБ" АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-440-А АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-440-ОД АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>Р-439 АВТОМОБІЛЬНІ</t>
-  </si>
-  <si>
-    <t>СТАНЦІЇ СУПУТНИКОВОГО ЗВ`ЯЗКУ "ЛЕГЕНДА - 2"</t>
-  </si>
-  <si>
-    <t>ТЕРМІНАЛ СУПУТНИКОВОГО ЗВ`ЯЗКУ VIASAT (SURFBEAM 2)</t>
-  </si>
-  <si>
-    <t>МОБІЛЬНИЙ КОМПЛЕКТ СУПУТНИКОВОГО ЗВ'ЯЗКУ v.1-POE (MKCЗ v.1-POE)</t>
-  </si>
-  <si>
-    <t>Р-441У СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440-УН СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440АБ СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-439 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-441-О СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440У СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440А СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440О СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-440-АН СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>ТЕРМІНАЛ СУПУТНИКОВИЙ "IRIDIUM" 9555</t>
-  </si>
-  <si>
-    <t>Апаратні технічного обслуговування</t>
-  </si>
-  <si>
-    <t>АТО-7</t>
-  </si>
-  <si>
-    <t>АТО-6</t>
-  </si>
-  <si>
-    <t>М-4М2</t>
-  </si>
-  <si>
-    <t>М-4М</t>
-  </si>
-  <si>
-    <t>АТО-17М</t>
-  </si>
-  <si>
-    <t>АТО-17</t>
-  </si>
-  <si>
-    <t>М-5</t>
-  </si>
-  <si>
-    <t>АТО-1</t>
-  </si>
-  <si>
-    <t>АТО-2</t>
-  </si>
-  <si>
-    <t>АТО-14</t>
-  </si>
-  <si>
-    <t>АТО-34</t>
-  </si>
-  <si>
-    <t>АТО-40</t>
-  </si>
-  <si>
-    <t>АТО-21</t>
-  </si>
-  <si>
-    <t>АТО-13</t>
-  </si>
-  <si>
-    <t>АТО-18М</t>
-  </si>
-  <si>
-    <t>АТО-18</t>
-  </si>
-  <si>
-    <t>МАЙСТЕРНІ ЗВ'ЯЗКУ М-2</t>
-  </si>
-  <si>
-    <t>МАЙСТЕРНІ ЗВ'ЯЗКУ М-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЙСТЕРНІ ЗВ'ЯЗКУ М-5 </t>
-  </si>
-  <si>
-    <t>АТО-4</t>
-  </si>
-  <si>
-    <t>КХ/УКХ радіостанції</t>
-  </si>
-  <si>
-    <t>Р-142Н СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-142 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-142Д СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-125Б1 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-125Б2 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-125МТ СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-125МТ2 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>Р-104АМ3 СТАЦІОНАРНІ</t>
-  </si>
-  <si>
-    <t>РАДІОСТАНЦІЯ БАЗОВА "KENWOOD" TK-8302M2</t>
-  </si>
-  <si>
-    <t>Апаратні ущільнення</t>
-  </si>
-  <si>
-    <t>АПАРАТУРА К-24К</t>
-  </si>
-  <si>
-    <t>АПАРАТУРА К-60П</t>
-  </si>
-  <si>
     <t>Блоки комутації</t>
   </si>
   <si>
@@ -1686,27 +1692,6 @@
   </si>
   <si>
     <t>РАДІОСТАНЦІЯ "KENWOOD" TK-90 (КОРОТКОХВИЛЬОВОГО ДІАПАЗОНУ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КХ радіостанції </t>
-  </si>
-  <si>
-    <t>станом на 04.02.2021</t>
-  </si>
-  <si>
-    <t>станом на 01.05.2021</t>
-  </si>
-  <si>
-    <t>Факсимільні апарати</t>
-  </si>
-  <si>
-    <t>cisco 515-px</t>
-  </si>
-  <si>
-    <t>Harris Falkon 3</t>
-  </si>
-  <si>
-    <t>КХ радіостанції</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1699,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1844,11 +1829,27 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -1888,7 +1889,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2130,6 +2131,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -2153,7 +2169,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2323,7 +2339,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2371,7 +2390,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -37197,8 +37219,8 @@
   </sheetPr>
   <dimension ref="A6:D1902"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37223,60 +37245,60 @@
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="C8" s="20" t="s">
-        <v>556</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="59" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="60" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
@@ -37294,8 +37316,8 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="74" t="s">
-        <v>557</v>
+      <c r="B17" s="76" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -37305,547 +37327,547 @@
         <v>1.0</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>558</v>
+        <v>67</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
-        <v>2</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>65</v>
+      <c r="A19" s="44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="39"/>
     </row>
     <row r="42" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
     </row>
     <row r="45" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
     </row>
     <row r="51" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
     </row>
     <row r="52" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
     </row>
     <row r="53" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
     </row>
     <row r="54" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
     </row>
     <row r="55" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
     </row>
     <row r="56" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
     </row>
     <row r="59" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
     </row>
     <row r="60" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
     </row>
     <row r="61" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
     </row>
     <row r="62" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
     </row>
     <row r="65" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
     </row>
     <row r="69" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
     </row>
     <row r="70" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
     </row>
     <row r="71" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="n">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
     </row>
     <row r="72" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>118</v>
+        <v>55.0</v>
+      </c>
+      <c r="B72" s="76" t="s">
+        <v>121</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -37855,7 +37877,7 @@
         <v>55.0</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -37865,7 +37887,7 @@
         <v>56.0</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -37874,8 +37896,8 @@
       <c r="A75" s="44" t="n">
         <v>57.0</v>
       </c>
-      <c r="B75" s="58" t="s">
-        <v>118</v>
+      <c r="B75" s="75" t="s">
+        <v>124</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -37885,317 +37907,317 @@
         <v>58.0</v>
       </c>
       <c r="B76" s="54" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
     </row>
-    <row r="77" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44">
-        <v>59</v>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>120</v>
+    <row r="77" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="44" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B77" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
     </row>
     <row r="79" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
     </row>
     <row r="80" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
     </row>
     <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
     </row>
     <row r="84" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
     </row>
     <row r="86" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
     </row>
     <row r="87" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
     </row>
     <row r="88" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
     </row>
     <row r="89" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
     </row>
     <row r="90" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
     </row>
     <row r="91" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
     </row>
     <row r="92" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
     </row>
     <row r="93" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
     </row>
     <row r="94" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="n">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
     </row>
     <row r="95" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
     </row>
     <row r="96" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
     </row>
     <row r="97" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
     </row>
     <row r="98" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="n">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
     </row>
     <row r="99" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
     </row>
     <row r="100" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="n">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
     </row>
     <row r="101" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="n">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
     </row>
     <row r="102" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="n">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
     </row>
     <row r="103" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
     </row>
     <row r="104" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
     </row>
     <row r="105" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="n">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
     </row>
     <row r="106" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="n">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
     </row>
     <row r="107" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="B107" s="43" t="s">
-        <v>150</v>
+        <v>89.0</v>
+      </c>
+      <c r="B107" s="76" t="s">
+        <v>156</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
@@ -38205,7 +38227,7 @@
         <v>89.0</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
@@ -38215,47 +38237,45 @@
         <v>90.0</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
     </row>
     <row r="110" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="B110" s="58" t="s">
-        <v>153</v>
+      <c r="A110" s="44"/>
+      <c r="B110" s="76" t="s">
+        <v>159</v>
       </c>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
     </row>
     <row r="111" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="n">
-        <v>92.0</v>
+        <v>91.0</v>
       </c>
       <c r="B111" s="54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
     </row>
     <row r="112" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="44">
-        <v>93</v>
-      </c>
-      <c r="B112" s="74" t="s">
-        <v>155</v>
+      <c r="A112" s="44" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B112" s="76" t="s">
+        <v>161</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
     </row>
     <row r="113" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="B113" s="58" t="s">
-        <v>156</v>
+        <v>92.0</v>
+      </c>
+      <c r="B113" s="75" t="s">
+        <v>162</v>
       </c>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
@@ -38264,34 +38284,38 @@
       <c r="A114" s="44" t="n">
         <v>94.0</v>
       </c>
-      <c r="B114" s="54" t="s">
-        <v>157</v>
+      <c r="B114" s="76" t="s">
+        <v>163</v>
       </c>
       <c r="C114" s="37"/>
       <c r="D114" s="37"/>
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="44"/>
-      <c r="B115" s="74" t="s">
-        <v>158</v>
+      <c r="A115" s="44" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B115" s="75" t="s">
+        <v>164</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
     </row>
     <row r="116" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="44" t="n">
-        <v>95.0</v>
+        <v>94.0</v>
       </c>
       <c r="B116" s="54" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
-      <c r="B117" s="74" t="s">
-        <v>160</v>
+      <c r="A117" s="44" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B117" s="75" t="s">
+        <v>166</v>
       </c>
       <c r="C117" s="37"/>
       <c r="D117" s="37"/>
@@ -38301,297 +38325,297 @@
         <v>96.0</v>
       </c>
       <c r="B118" s="54" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
     </row>
     <row r="119" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="44">
-        <v>97</v>
-      </c>
-      <c r="B119" s="74" t="s">
-        <v>162</v>
+      <c r="A119" s="44" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B119" s="58" t="s">
+        <v>168</v>
       </c>
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
     </row>
     <row r="120" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="n">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
     </row>
     <row r="121" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
     </row>
     <row r="122" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
     </row>
     <row r="123" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="44" t="n">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
     </row>
     <row r="124" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="n">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
     </row>
     <row r="125" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="44" t="n">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
     </row>
     <row r="126" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="n">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
     </row>
     <row r="127" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="44" t="n">
-        <v>104.0</v>
+        <v>105.0</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
     </row>
     <row r="128" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="n">
-        <v>105.0</v>
+        <v>106.0</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
     </row>
     <row r="129" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="44" t="n">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
     </row>
     <row r="130" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="44" t="n">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
     </row>
     <row r="131" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="n">
-        <v>108.0</v>
+        <v>109.0</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
     </row>
     <row r="132" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="n">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
     </row>
     <row r="133" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="n">
-        <v>110.0</v>
+        <v>111.0</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
     </row>
     <row r="134" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="44" t="n">
-        <v>111.0</v>
+        <v>112.0</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
     </row>
     <row r="135" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="n">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="37"/>
     </row>
     <row r="136" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="n">
-        <v>113.0</v>
+        <v>114.0</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C136" s="37"/>
       <c r="D136" s="37"/>
     </row>
     <row r="137" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="n">
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
     </row>
     <row r="138" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="n">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
     </row>
     <row r="139" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="n">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
     </row>
     <row r="140" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="n">
-        <v>117.0</v>
+        <v>118.0</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
     </row>
     <row r="141" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="44" t="n">
-        <v>118.0</v>
+        <v>119.0</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
     </row>
     <row r="142" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="n">
-        <v>119.0</v>
+        <v>120.0</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
     </row>
     <row r="143" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="44" t="n">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
     </row>
     <row r="144" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="n">
-        <v>121.0</v>
+        <v>122.0</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
     </row>
     <row r="145" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="44" t="n">
-        <v>122.0</v>
+        <v>123.0</v>
       </c>
       <c r="B145" s="43" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
     </row>
     <row r="146" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="44" t="n">
-        <v>123.0</v>
+        <v>124.0</v>
       </c>
       <c r="B146" s="43" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
     </row>
     <row r="147" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="44" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="B147" s="43" t="s">
-        <v>190</v>
+        <v>125.0</v>
+      </c>
+      <c r="B147" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
@@ -38601,7 +38625,7 @@
         <v>125.0</v>
       </c>
       <c r="B148" s="43" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
@@ -38611,7 +38635,7 @@
         <v>126.0</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
@@ -38620,8 +38644,8 @@
       <c r="A150" s="44" t="n">
         <v>127.0</v>
       </c>
-      <c r="B150" s="58" t="s">
-        <v>193</v>
+      <c r="B150" s="75" t="s">
+        <v>199</v>
       </c>
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
@@ -38631,867 +38655,867 @@
         <v>128.0</v>
       </c>
       <c r="B151" s="54" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
     </row>
     <row r="152" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="44">
-        <v>129</v>
-      </c>
-      <c r="B152" s="74" t="s">
-        <v>195</v>
+      <c r="A152" s="44" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B152" s="58" t="s">
+        <v>201</v>
       </c>
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
     </row>
     <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="n">
-        <v>129.0</v>
+        <v>130.0</v>
       </c>
       <c r="B153" s="43" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
     </row>
     <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="n">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
     </row>
     <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="n">
-        <v>131.0</v>
+        <v>132.0</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
     </row>
     <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="n">
-        <v>132.0</v>
+        <v>133.0</v>
       </c>
       <c r="B156" s="43" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C156" s="37"/>
       <c r="D156" s="37"/>
     </row>
     <row r="157" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="n">
-        <v>133.0</v>
+        <v>134.0</v>
       </c>
       <c r="B157" s="43" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
     </row>
     <row r="158" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="n">
-        <v>134.0</v>
+        <v>135.0</v>
       </c>
       <c r="B158" s="43" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
     </row>
     <row r="159" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="n">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="B159" s="43" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C159" s="37"/>
       <c r="D159" s="37"/>
     </row>
     <row r="160" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="n">
-        <v>136.0</v>
+        <v>137.0</v>
       </c>
       <c r="B160" s="43" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
     </row>
     <row r="161" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="n">
-        <v>137.0</v>
+        <v>138.0</v>
       </c>
       <c r="B161" s="43" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
     </row>
     <row r="162" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="n">
-        <v>138.0</v>
+        <v>139.0</v>
       </c>
       <c r="B162" s="43" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
     </row>
     <row r="163" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="n">
-        <v>139.0</v>
+        <v>140.0</v>
       </c>
       <c r="B163" s="43" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
     </row>
     <row r="164" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="n">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="B164" s="43" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
     </row>
     <row r="165" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="n">
-        <v>141.0</v>
+        <v>142.0</v>
       </c>
       <c r="B165" s="43" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
     </row>
     <row r="166" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="n">
-        <v>142.0</v>
+        <v>143.0</v>
       </c>
       <c r="B166" s="43" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C166" s="37"/>
       <c r="D166" s="37"/>
     </row>
     <row r="167" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="n">
-        <v>143.0</v>
+        <v>144.0</v>
       </c>
       <c r="B167" s="43" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
     </row>
     <row r="168" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="n">
-        <v>144.0</v>
+        <v>145.0</v>
       </c>
       <c r="B168" s="43" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C168" s="37"/>
       <c r="D168" s="37"/>
     </row>
     <row r="169" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="n">
-        <v>145.0</v>
+        <v>146.0</v>
       </c>
       <c r="B169" s="43" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C169" s="37"/>
       <c r="D169" s="37"/>
     </row>
     <row r="170" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="n">
-        <v>146.0</v>
+        <v>147.0</v>
       </c>
       <c r="B170" s="43" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
     </row>
     <row r="171" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="n">
-        <v>147.0</v>
+        <v>148.0</v>
       </c>
       <c r="B171" s="43" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
     </row>
     <row r="172" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="n">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
       <c r="B172" s="43" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
     </row>
     <row r="173" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="n">
-        <v>149.0</v>
+        <v>150.0</v>
       </c>
       <c r="B173" s="43" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
     </row>
     <row r="174" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="n">
-        <v>150.0</v>
+        <v>151.0</v>
       </c>
       <c r="B174" s="43" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C174" s="37"/>
       <c r="D174" s="37"/>
     </row>
     <row r="175" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="n">
-        <v>151.0</v>
+        <v>152.0</v>
       </c>
       <c r="B175" s="43" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C175" s="37"/>
       <c r="D175" s="37"/>
     </row>
     <row r="176" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="n">
-        <v>152.0</v>
+        <v>153.0</v>
       </c>
       <c r="B176" s="43" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C176" s="37"/>
       <c r="D176" s="37"/>
     </row>
     <row r="177" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="n">
-        <v>153.0</v>
+        <v>154.0</v>
       </c>
       <c r="B177" s="43" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C177" s="37"/>
       <c r="D177" s="37"/>
     </row>
     <row r="178" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="n">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="B178" s="43" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C178" s="37"/>
       <c r="D178" s="37"/>
     </row>
     <row r="179" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="44" t="n">
-        <v>155.0</v>
+        <v>156.0</v>
       </c>
       <c r="B179" s="43" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C179" s="37"/>
       <c r="D179" s="37"/>
     </row>
     <row r="180" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="44" t="n">
-        <v>156.0</v>
+        <v>157.0</v>
       </c>
       <c r="B180" s="43" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="37"/>
     </row>
     <row r="181" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="n">
-        <v>157.0</v>
+        <v>158.0</v>
       </c>
       <c r="B181" s="43" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C181" s="40"/>
       <c r="D181" s="40"/>
     </row>
     <row r="182" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="n">
-        <v>158.0</v>
+        <v>159.0</v>
       </c>
       <c r="B182" s="43" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C182" s="40"/>
       <c r="D182" s="40"/>
     </row>
     <row r="183" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="n">
-        <v>159.0</v>
+        <v>160.0</v>
       </c>
       <c r="B183" s="43" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C183" s="40"/>
       <c r="D183" s="40"/>
     </row>
     <row r="184" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="44" t="n">
-        <v>160.0</v>
+        <v>161.0</v>
       </c>
       <c r="B184" s="43" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C184" s="40"/>
       <c r="D184" s="40"/>
     </row>
     <row r="185" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="44" t="n">
-        <v>161.0</v>
+        <v>162.0</v>
       </c>
       <c r="B185" s="43" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C185" s="40"/>
       <c r="D185" s="40"/>
     </row>
     <row r="186" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="44" t="n">
-        <v>162.0</v>
+        <v>163.0</v>
       </c>
       <c r="B186" s="43" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C186" s="40"/>
       <c r="D186" s="40"/>
     </row>
     <row r="187" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="n">
-        <v>163.0</v>
+        <v>164.0</v>
       </c>
       <c r="B187" s="43" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C187" s="40"/>
       <c r="D187" s="40"/>
     </row>
     <row r="188" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="n">
-        <v>164.0</v>
+        <v>165.0</v>
       </c>
       <c r="B188" s="47" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C188" s="40"/>
       <c r="D188" s="40"/>
     </row>
-    <row r="189" spans="1:4" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="n">
-        <v>165.0</v>
+        <v>166.0</v>
       </c>
       <c r="B189" s="47" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C189" s="40"/>
       <c r="D189" s="40"/>
     </row>
     <row r="190" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="n">
-        <v>166.0</v>
+        <v>167.0</v>
       </c>
       <c r="B190" s="47" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C190" s="24"/>
       <c r="D190" s="40"/>
     </row>
     <row r="191" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="n">
-        <v>167.0</v>
+        <v>168.0</v>
       </c>
       <c r="B191" s="43" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="40"/>
     </row>
     <row r="192" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="n">
-        <v>168.0</v>
+        <v>169.0</v>
       </c>
       <c r="B192" s="43" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="40"/>
     </row>
     <row r="193" spans="1:4" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="n">
-        <v>169.0</v>
+        <v>170.0</v>
       </c>
       <c r="B193" s="43" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="40"/>
     </row>
     <row r="194" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="n">
-        <v>170.0</v>
+        <v>171.0</v>
       </c>
       <c r="B194" s="43" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C194" s="24"/>
       <c r="D194" s="40"/>
     </row>
     <row r="195" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="n">
-        <v>171.0</v>
+        <v>172.0</v>
       </c>
       <c r="B195" s="43" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C195" s="24"/>
       <c r="D195" s="40"/>
     </row>
     <row r="196" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="n">
-        <v>172.0</v>
+        <v>173.0</v>
       </c>
       <c r="B196" s="43" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="40"/>
     </row>
     <row r="197" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="n">
-        <v>173.0</v>
+        <v>174.0</v>
       </c>
       <c r="B197" s="43" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="40"/>
     </row>
     <row r="198" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="n">
-        <v>174.0</v>
+        <v>175.0</v>
       </c>
       <c r="B198" s="43" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="40"/>
     </row>
     <row r="199" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="44" t="n">
-        <v>175.0</v>
+        <v>176.0</v>
       </c>
       <c r="B199" s="43" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="40"/>
     </row>
     <row r="200" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="44" t="n">
-        <v>176.0</v>
+        <v>177.0</v>
       </c>
       <c r="B200" s="43" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="40"/>
     </row>
     <row r="201" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="n">
-        <v>177.0</v>
+        <v>178.0</v>
       </c>
       <c r="B201" s="43" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C201" s="24"/>
       <c r="D201" s="40"/>
     </row>
     <row r="202" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="n">
-        <v>178.0</v>
+        <v>179.0</v>
       </c>
       <c r="B202" s="43" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C202" s="24"/>
       <c r="D202" s="40"/>
     </row>
     <row r="203" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="n">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="B203" s="43" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C203" s="24"/>
       <c r="D203" s="40"/>
     </row>
     <row r="204" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="44" t="n">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
       <c r="B204" s="43" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C204" s="24"/>
       <c r="D204" s="40"/>
     </row>
     <row r="205" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="44" t="n">
-        <v>181.0</v>
+        <v>182.0</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="40"/>
     </row>
     <row r="206" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="n">
-        <v>182.0</v>
+        <v>183.0</v>
       </c>
       <c r="B206" s="43" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="40"/>
     </row>
     <row r="207" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="44" t="n">
-        <v>183.0</v>
+        <v>184.0</v>
       </c>
       <c r="B207" s="43" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="40"/>
     </row>
     <row r="208" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="44" t="n">
-        <v>184.0</v>
+        <v>185.0</v>
       </c>
       <c r="B208" s="43" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="40"/>
     </row>
     <row r="209" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="n">
-        <v>185.0</v>
+        <v>186.0</v>
       </c>
       <c r="B209" s="43" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C209" s="40"/>
       <c r="D209" s="40"/>
     </row>
     <row r="210" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="44" t="n">
-        <v>186.0</v>
+        <v>187.0</v>
       </c>
       <c r="B210" s="43" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C210" s="40"/>
       <c r="D210" s="40"/>
     </row>
     <row r="211" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="44" t="n">
-        <v>187.0</v>
+        <v>188.0</v>
       </c>
       <c r="B211" s="43" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C211" s="40"/>
       <c r="D211" s="40"/>
     </row>
     <row r="212" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="n">
-        <v>188.0</v>
+        <v>189.0</v>
       </c>
       <c r="B212" s="43" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C212" s="40"/>
       <c r="D212" s="40"/>
     </row>
     <row r="213" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="n">
-        <v>189.0</v>
+        <v>190.0</v>
       </c>
       <c r="B213" s="43" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C213" s="40"/>
       <c r="D213" s="40"/>
     </row>
     <row r="214" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="44" t="n">
-        <v>190.0</v>
+        <v>191.0</v>
       </c>
       <c r="B214" s="43" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C214" s="40"/>
       <c r="D214" s="40"/>
     </row>
     <row r="215" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="44" t="n">
-        <v>191.0</v>
+        <v>192.0</v>
       </c>
       <c r="B215" s="43" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C215" s="40"/>
       <c r="D215" s="40"/>
     </row>
     <row r="216" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="n">
-        <v>192.0</v>
+        <v>193.0</v>
       </c>
       <c r="B216" s="43" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C216" s="40"/>
       <c r="D216" s="40"/>
     </row>
     <row r="217" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="n">
-        <v>193.0</v>
+        <v>194.0</v>
       </c>
       <c r="B217" s="43" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C217" s="40"/>
       <c r="D217" s="40"/>
     </row>
     <row r="218" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="44" t="n">
-        <v>194.0</v>
+        <v>195.0</v>
       </c>
       <c r="B218" s="43" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C218" s="40"/>
       <c r="D218" s="40"/>
     </row>
     <row r="219" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="44" t="n">
-        <v>195.0</v>
+        <v>196.0</v>
       </c>
       <c r="B219" s="43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C219" s="40"/>
       <c r="D219" s="40"/>
     </row>
     <row r="220" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="42" t="n">
-        <v>196.0</v>
+        <v>197.0</v>
       </c>
       <c r="B220" s="43" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C220" s="40"/>
       <c r="D220" s="40"/>
     </row>
     <row r="221" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="45" t="n">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
       <c r="B221" s="47" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C221" s="40"/>
       <c r="D221" s="40"/>
     </row>
     <row r="222" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="n">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C222" s="40"/>
       <c r="D222" s="40"/>
     </row>
     <row r="223" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="B223" s="47" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C223" s="37"/>
       <c r="D223" s="37"/>
     </row>
     <row r="224" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="45" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="B224" s="43" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C224" s="37"/>
       <c r="D224" s="37"/>
     </row>
     <row r="225" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="n">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
       <c r="B225" s="43" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C225" s="37"/>
       <c r="D225" s="37"/>
     </row>
     <row r="226" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="n">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
       <c r="B226" s="43" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C226" s="37"/>
       <c r="D226" s="37"/>
     </row>
     <row r="227" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="n">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
       <c r="B227" s="43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C227" s="37"/>
       <c r="D227" s="37"/>
     </row>
     <row r="228" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="38" t="n">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
       <c r="B228" s="43" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C228" s="37"/>
       <c r="D228" s="37"/>
     </row>
     <row r="229" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="n">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
       <c r="B229" s="47" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C229" s="37"/>
       <c r="D229" s="37"/>
     </row>
     <row r="230" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="44" t="n">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="B230" s="47" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C230" s="37"/>
       <c r="D230" s="37"/>
     </row>
     <row r="231" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="44" t="n">
-        <v>207.0</v>
+        <v>208.0</v>
       </c>
       <c r="B231" s="43" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C231" s="37"/>
       <c r="D231" s="37"/>
     </row>
     <row r="232" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="44" t="n">
-        <v>208.0</v>
+        <v>209.0</v>
       </c>
       <c r="B232" s="47" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C232" s="37"/>
       <c r="D232" s="37"/>
     </row>
     <row r="233" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="44" t="n">
-        <v>209.0</v>
+        <v>210.0</v>
       </c>
       <c r="B233" s="47" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C233" s="37"/>
       <c r="D233" s="37"/>
     </row>
     <row r="234" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="44" t="n">
-        <v>210.0</v>
+        <v>211.0</v>
       </c>
       <c r="B234" s="47" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C234" s="37"/>
       <c r="D234" s="37"/>
     </row>
     <row r="235" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="44" t="n">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
       <c r="B235" s="47" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C235" s="37"/>
       <c r="D235" s="37"/>
     </row>
     <row r="236" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="44" t="n">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C236" s="37"/>
       <c r="D236" s="37"/>
     </row>
     <row r="237" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="44" t="n">
-        <v>213.0</v>
-      </c>
-      <c r="B237" s="47" t="s">
-        <v>280</v>
+        <v>214.0</v>
+      </c>
+      <c r="B237" s="76" t="s">
+        <v>285</v>
       </c>
       <c r="C237" s="37"/>
       <c r="D237" s="37"/>
@@ -39501,7 +39525,7 @@
         <v>214.0</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C238" s="37"/>
       <c r="D238" s="37"/>
@@ -39511,7 +39535,7 @@
         <v>215.0</v>
       </c>
       <c r="B239" s="43" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C239" s="37"/>
       <c r="D239" s="37"/>
@@ -39520,8 +39544,8 @@
       <c r="A240" s="44" t="n">
         <v>216.0</v>
       </c>
-      <c r="B240" s="58" t="s">
-        <v>257</v>
+      <c r="B240" s="75" t="s">
+        <v>288</v>
       </c>
       <c r="C240" s="37"/>
       <c r="D240" s="37"/>
@@ -39531,7 +39555,7 @@
         <v>217.0</v>
       </c>
       <c r="B241" s="54" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C241" s="37"/>
       <c r="D241" s="37"/>
@@ -39541,177 +39565,177 @@
         <v>218.0</v>
       </c>
       <c r="B242" s="43" t="s">
-        <v>559</v>
+        <v>290</v>
       </c>
       <c r="C242" s="25"/>
       <c r="D242" s="37"/>
     </row>
     <row r="243" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="44">
-        <v>219</v>
-      </c>
-      <c r="B243" s="74" t="s">
-        <v>560</v>
+      <c r="A243" s="44" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="B243" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="C243" s="37"/>
       <c r="D243" s="37"/>
     </row>
     <row r="244" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="44" t="n">
-        <v>219.0</v>
+        <v>220.0</v>
       </c>
       <c r="B244" s="43" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C244" s="37"/>
       <c r="D244" s="37"/>
     </row>
     <row r="245" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="44" t="n">
-        <v>220.0</v>
+        <v>221.0</v>
       </c>
       <c r="B245" s="43" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C245" s="37"/>
       <c r="D245" s="37"/>
     </row>
     <row r="246" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="44" t="n">
-        <v>221.0</v>
+        <v>222.0</v>
       </c>
       <c r="B246" s="43" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C246" s="37"/>
       <c r="D246" s="37"/>
     </row>
     <row r="247" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="44" t="n">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="B247" s="43" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C247" s="37"/>
       <c r="D247" s="37"/>
     </row>
     <row r="248" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="44" t="n">
-        <v>223.0</v>
+        <v>224.0</v>
       </c>
       <c r="B248" s="43" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C248" s="37"/>
       <c r="D248" s="37"/>
     </row>
     <row r="249" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="44" t="n">
-        <v>224.0</v>
+        <v>225.0</v>
       </c>
       <c r="B249" s="43" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C249" s="37"/>
       <c r="D249" s="37"/>
     </row>
     <row r="250" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="42" t="n">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
       <c r="B250" s="43" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C250" s="37"/>
       <c r="D250" s="37"/>
     </row>
-    <row r="251" spans="1:4" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="44" t="n">
-        <v>226.0</v>
+        <v>227.0</v>
       </c>
       <c r="B251" s="43" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C251" s="37"/>
       <c r="D251" s="37"/>
     </row>
     <row r="252" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="44" t="n">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="B252" s="43" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C252" s="37"/>
       <c r="D252" s="37"/>
     </row>
     <row r="253" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="44" t="n">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
       <c r="B253" s="43" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C253" s="37"/>
       <c r="D253" s="37"/>
     </row>
     <row r="254" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="44" t="n">
-        <v>229.0</v>
+        <v>230.0</v>
       </c>
       <c r="B254" s="43" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C254" s="37"/>
       <c r="D254" s="37"/>
     </row>
     <row r="255" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="44" t="n">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="B255" s="43" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C255" s="37"/>
       <c r="D255" s="37"/>
     </row>
     <row r="256" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="44" t="n">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
       <c r="B256" s="43" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C256" s="37"/>
       <c r="D256" s="37"/>
     </row>
     <row r="257" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="44" t="n">
-        <v>232.0</v>
+        <v>233.0</v>
       </c>
       <c r="B257" s="43" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C257" s="37"/>
       <c r="D257" s="37"/>
     </row>
     <row r="258" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="44" t="n">
-        <v>233.0</v>
+        <v>234.0</v>
       </c>
       <c r="B258" s="43" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C258" s="37"/>
       <c r="D258" s="37"/>
     </row>
     <row r="259" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="44" t="n">
-        <v>234.0</v>
-      </c>
-      <c r="B259" s="43" t="s">
-        <v>299</v>
+        <v>235.0</v>
+      </c>
+      <c r="B259" s="76" t="s">
+        <v>307</v>
       </c>
       <c r="C259" s="37"/>
       <c r="D259" s="37"/>
@@ -39721,7 +39745,7 @@
         <v>235.0</v>
       </c>
       <c r="B260" s="43" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C260" s="37"/>
       <c r="D260" s="37"/>
@@ -39731,7 +39755,7 @@
         <v>236.0</v>
       </c>
       <c r="B261" s="43" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C261" s="37"/>
       <c r="D261" s="37"/>
@@ -39740,8 +39764,8 @@
       <c r="A262" s="44" t="n">
         <v>237.0</v>
       </c>
-      <c r="B262" s="58" t="s">
-        <v>302</v>
+      <c r="B262" s="75" t="s">
+        <v>310</v>
       </c>
       <c r="C262" s="37"/>
       <c r="D262" s="37"/>
@@ -39751,7 +39775,7 @@
         <v>238.0</v>
       </c>
       <c r="B263" s="43" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C263" s="37"/>
       <c r="D263" s="37"/>
@@ -39761,7 +39785,7 @@
         <v>239.0</v>
       </c>
       <c r="B264" s="43" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C264" s="37"/>
       <c r="D264" s="37"/>
@@ -39771,7 +39795,7 @@
         <v>240.0</v>
       </c>
       <c r="B265" s="43" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C265" s="37"/>
       <c r="D265" s="37"/>
@@ -39781,7 +39805,7 @@
         <v>241.0</v>
       </c>
       <c r="B266" s="43" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C266" s="37"/>
       <c r="D266" s="37"/>
@@ -39791,7 +39815,7 @@
         <v>242.0</v>
       </c>
       <c r="B267" s="43" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C267" s="37"/>
       <c r="D267" s="37"/>
@@ -39801,7 +39825,7 @@
         <v>243.0</v>
       </c>
       <c r="B268" s="43" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C268" s="37"/>
       <c r="D268" s="37"/>
@@ -39811,7 +39835,7 @@
         <v>244.0</v>
       </c>
       <c r="B269" s="43" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C269" s="37"/>
       <c r="D269" s="37"/>
@@ -39821,7 +39845,7 @@
         <v>245.0</v>
       </c>
       <c r="B270" s="43" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C270" s="37"/>
       <c r="D270" s="37"/>
@@ -39831,7 +39855,7 @@
         <v>246.0</v>
       </c>
       <c r="B271" s="43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C271" s="37"/>
       <c r="D271" s="37"/>
@@ -39841,7 +39865,7 @@
         <v>247.0</v>
       </c>
       <c r="B272" s="43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C272" s="37"/>
       <c r="D272" s="37"/>
@@ -39851,7 +39875,7 @@
         <v>248.0</v>
       </c>
       <c r="B273" s="43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C273" s="37"/>
       <c r="D273" s="37"/>
@@ -39861,7 +39885,7 @@
         <v>249.0</v>
       </c>
       <c r="B274" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C274" s="37"/>
       <c r="D274" s="37"/>
@@ -39871,7 +39895,7 @@
         <v>250.0</v>
       </c>
       <c r="B275" s="43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C275" s="37"/>
       <c r="D275" s="37"/>
@@ -39881,7 +39905,7 @@
         <v>251.0</v>
       </c>
       <c r="B276" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C276" s="37"/>
       <c r="D276" s="37"/>
@@ -39891,7 +39915,7 @@
         <v>252.0</v>
       </c>
       <c r="B277" s="43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C277" s="37"/>
       <c r="D277" s="37"/>
@@ -39901,7 +39925,7 @@
         <v>253.0</v>
       </c>
       <c r="B278" s="43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C278" s="37"/>
       <c r="D278" s="37"/>
@@ -39911,7 +39935,7 @@
         <v>254.0</v>
       </c>
       <c r="B279" s="43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C279" s="37"/>
       <c r="D279" s="37"/>
@@ -39921,7 +39945,7 @@
         <v>255.0</v>
       </c>
       <c r="B280" s="43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C280" s="37"/>
       <c r="D280" s="37"/>
@@ -39931,7 +39955,7 @@
         <v>256.0</v>
       </c>
       <c r="B281" s="43" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C281" s="37"/>
       <c r="D281" s="37"/>
@@ -39941,7 +39965,7 @@
         <v>257.0</v>
       </c>
       <c r="B282" s="43" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C282" s="37"/>
       <c r="D282" s="37"/>
@@ -39951,7 +39975,7 @@
         <v>258.0</v>
       </c>
       <c r="B283" s="43" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C283" s="37"/>
       <c r="D283" s="37"/>
@@ -39961,7 +39985,7 @@
         <v>259.0</v>
       </c>
       <c r="B284" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C284" s="37"/>
       <c r="D284" s="37"/>
@@ -39971,7 +39995,7 @@
         <v>260.0</v>
       </c>
       <c r="B285" s="43" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C285" s="37"/>
       <c r="D285" s="37"/>
@@ -39981,7 +40005,7 @@
         <v>261.0</v>
       </c>
       <c r="B286" s="43" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C286" s="37"/>
       <c r="D286" s="37"/>
@@ -39991,7 +40015,7 @@
         <v>262.0</v>
       </c>
       <c r="B287" s="43" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C287" s="37"/>
       <c r="D287" s="37"/>
@@ -40001,7 +40025,7 @@
         <v>263.0</v>
       </c>
       <c r="B288" s="43" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C288" s="37"/>
       <c r="D288" s="37"/>
@@ -40011,7 +40035,7 @@
         <v>264.0</v>
       </c>
       <c r="B289" s="43" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C289" s="37"/>
       <c r="D289" s="37"/>
@@ -40021,7 +40045,7 @@
         <v>265.0</v>
       </c>
       <c r="B290" s="43" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C290" s="37"/>
       <c r="D290" s="37"/>
@@ -40031,7 +40055,7 @@
         <v>266.0</v>
       </c>
       <c r="B291" s="43" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C291" s="37"/>
       <c r="D291" s="37"/>
@@ -40041,7 +40065,7 @@
         <v>267.0</v>
       </c>
       <c r="B292" s="43" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C292" s="37"/>
       <c r="D292" s="37"/>
@@ -40051,7 +40075,7 @@
         <v>268.0</v>
       </c>
       <c r="B293" s="43" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C293" s="37"/>
       <c r="D293" s="37"/>
@@ -40061,7 +40085,7 @@
         <v>269.0</v>
       </c>
       <c r="B294" s="43" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C294" s="37"/>
       <c r="D294" s="37"/>
@@ -40071,7 +40095,7 @@
         <v>270.0</v>
       </c>
       <c r="B295" s="43" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C295" s="37"/>
       <c r="D295" s="37"/>
@@ -40081,7 +40105,7 @@
         <v>271.0</v>
       </c>
       <c r="B296" s="43" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C296" s="37"/>
       <c r="D296" s="37"/>
@@ -40090,748 +40114,746 @@
       <c r="A297" s="44" t="n">
         <v>272.0</v>
       </c>
-      <c r="B297" s="43" t="s">
-        <v>337</v>
+      <c r="B297" s="76" t="s">
+        <v>328</v>
       </c>
       <c r="C297" s="37"/>
       <c r="D297" s="37"/>
     </row>
     <row r="298" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="44" t="n">
-        <v>273.0</v>
+        <v>272.0</v>
       </c>
       <c r="B298" s="43" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C298" s="37"/>
       <c r="D298" s="37"/>
     </row>
     <row r="299" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="44" t="n">
-        <v>274.0</v>
+        <v>273.0</v>
       </c>
       <c r="B299" s="43" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C299" s="37"/>
       <c r="D299" s="37"/>
     </row>
     <row r="300" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="44" t="n">
-        <v>275.0</v>
-      </c>
-      <c r="B300" s="58" t="s">
-        <v>340</v>
+        <v>274.0</v>
+      </c>
+      <c r="B300" s="75" t="s">
+        <v>331</v>
       </c>
       <c r="C300" s="37"/>
       <c r="D300" s="37"/>
     </row>
     <row r="301" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="44" t="n">
-        <v>276.0</v>
+        <v>275.0</v>
       </c>
       <c r="B301" s="43" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C301" s="37"/>
       <c r="D301" s="37"/>
     </row>
     <row r="302" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="44" t="n">
-        <v>277.0</v>
+        <v>276.0</v>
       </c>
       <c r="B302" s="43" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C302" s="37"/>
       <c r="D302" s="37"/>
     </row>
     <row r="303" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="44" t="n">
-        <v>278.0</v>
+        <v>277.0</v>
       </c>
       <c r="B303" s="43" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C303" s="37"/>
       <c r="D303" s="37"/>
     </row>
     <row r="304" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="44" t="n">
-        <v>279.0</v>
+        <v>278.0</v>
       </c>
       <c r="B304" s="43" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C304" s="37"/>
       <c r="D304" s="37"/>
     </row>
     <row r="305" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="44" t="n">
-        <v>280.0</v>
+        <v>279.0</v>
       </c>
       <c r="B305" s="43" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C305" s="37"/>
       <c r="D305" s="37"/>
     </row>
     <row r="306" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="44" t="n">
-        <v>281.0</v>
+        <v>280.0</v>
       </c>
       <c r="B306" s="43" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C306" s="37"/>
       <c r="D306" s="37"/>
     </row>
     <row r="307" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="44" t="n">
-        <v>282.0</v>
-      </c>
-      <c r="B307" s="43" t="s">
-        <v>347</v>
+        <v>281.0</v>
+      </c>
+      <c r="B307" s="76" t="s">
+        <v>338</v>
       </c>
       <c r="C307" s="37"/>
       <c r="D307" s="37"/>
     </row>
     <row r="308" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="44" t="n">
-        <v>283.0</v>
+        <v>281.0</v>
       </c>
       <c r="B308" s="57" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C308" s="37"/>
       <c r="D308" s="37"/>
     </row>
     <row r="309" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="44" t="n">
-        <v>284.0</v>
+        <v>282.0</v>
       </c>
       <c r="B309" s="54" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C309" s="37"/>
       <c r="D309" s="37"/>
     </row>
     <row r="310" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="42" t="n">
-        <v>285.0</v>
-      </c>
-      <c r="B310" s="58" t="s">
-        <v>350</v>
+      <c r="A310" s="42"/>
+      <c r="B310" s="76" t="s">
+        <v>341</v>
       </c>
       <c r="C310" s="37"/>
       <c r="D310" s="37"/>
     </row>
     <row r="311" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="44">
-        <v>284</v>
-      </c>
-      <c r="B311" s="74" t="s">
-        <v>351</v>
+      <c r="A311" s="44" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="B311" s="58" t="s">
+        <v>342</v>
       </c>
       <c r="C311" s="37"/>
       <c r="D311" s="37"/>
     </row>
     <row r="312" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="44" t="n">
-        <v>286.0</v>
+        <v>284.0</v>
       </c>
       <c r="B312" s="43" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C312" s="37"/>
       <c r="D312" s="37"/>
     </row>
     <row r="313" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="44" t="n">
-        <v>287.0</v>
-      </c>
-      <c r="B313" s="58" t="s">
-        <v>353</v>
+        <v>285.0</v>
+      </c>
+      <c r="B313" s="75" t="s">
+        <v>344</v>
       </c>
       <c r="C313" s="37"/>
       <c r="D313" s="37"/>
     </row>
     <row r="314" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="42" t="n">
-        <v>288.0</v>
+        <v>286.0</v>
       </c>
       <c r="B314" s="43" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C314" s="37"/>
       <c r="D314" s="37"/>
     </row>
     <row r="315" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="44" t="n">
-        <v>289.0</v>
+        <v>287.0</v>
       </c>
       <c r="B315" s="43" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C315" s="37"/>
       <c r="D315" s="37"/>
     </row>
     <row r="316" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="42" t="n">
-        <v>290.0</v>
+        <v>288.0</v>
       </c>
       <c r="B316" s="43" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C316" s="38"/>
       <c r="D316" s="38"/>
     </row>
     <row r="317" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="42" t="n">
-        <v>291.0</v>
+        <v>289.0</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C317" s="37"/>
       <c r="D317" s="37"/>
     </row>
     <row r="318" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="44" t="n">
-        <v>292.0</v>
+        <v>290.0</v>
       </c>
       <c r="B318" s="43" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C318" s="37"/>
       <c r="D318" s="37"/>
     </row>
     <row r="319" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="44" t="n">
-        <v>293.0</v>
+        <v>291.0</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C319" s="37"/>
       <c r="D319" s="37"/>
     </row>
     <row r="320" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="44" t="n">
-        <v>294.0</v>
+        <v>292.0</v>
       </c>
       <c r="B320" s="43" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C320" s="37"/>
       <c r="D320" s="37"/>
     </row>
     <row r="321" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="44" t="n">
-        <v>295.0</v>
+        <v>293.0</v>
       </c>
       <c r="B321" s="43" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C321" s="37"/>
       <c r="D321" s="37"/>
     </row>
     <row r="322" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="44" t="n">
-        <v>296.0</v>
+        <v>294.0</v>
       </c>
       <c r="B322" s="43" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C322" s="37"/>
       <c r="D322" s="37"/>
     </row>
     <row r="323" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="44" t="n">
-        <v>297.0</v>
+        <v>295.0</v>
       </c>
       <c r="B323" s="43" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C323" s="37"/>
       <c r="D323" s="37"/>
     </row>
     <row r="324" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="44" t="n">
-        <v>298.0</v>
+        <v>296.0</v>
       </c>
       <c r="B324" s="43" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C324" s="37"/>
       <c r="D324" s="37"/>
     </row>
     <row r="325" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="44" t="n">
-        <v>299.0</v>
+        <v>297.0</v>
       </c>
       <c r="B325" s="43" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C325" s="37"/>
       <c r="D325" s="37"/>
     </row>
     <row r="326" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="44" t="n">
-        <v>300.0</v>
+        <v>298.0</v>
       </c>
       <c r="B326" s="43" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C326" s="37"/>
       <c r="D326" s="37"/>
     </row>
     <row r="327" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="44" t="n">
-        <v>301.0</v>
+        <v>299.0</v>
       </c>
       <c r="B327" s="43" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C327" s="37"/>
       <c r="D327" s="37"/>
     </row>
     <row r="328" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="44" t="n">
-        <v>302.0</v>
+        <v>300.0</v>
       </c>
       <c r="B328" s="43" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C328" s="37"/>
       <c r="D328" s="37"/>
     </row>
     <row r="329" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="44" t="n">
-        <v>303.0</v>
+        <v>301.0</v>
       </c>
       <c r="B329" s="43" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C329" s="37"/>
       <c r="D329" s="37"/>
     </row>
     <row r="330" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="44" t="n">
-        <v>304.0</v>
+        <v>302.0</v>
       </c>
       <c r="B330" s="57" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C330" s="37"/>
       <c r="D330" s="37"/>
     </row>
     <row r="331" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="44" t="n">
-        <v>305.0</v>
+        <v>303.0</v>
       </c>
       <c r="B331" s="54" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C331" s="37"/>
       <c r="D331" s="37"/>
     </row>
     <row r="332" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="44" t="n">
-        <v>306.0</v>
+        <v>304.0</v>
       </c>
       <c r="B332" s="43" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C332" s="37"/>
       <c r="D332" s="37"/>
     </row>
     <row r="333" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="44">
-        <v>305</v>
-      </c>
-      <c r="B333" s="74" t="s">
-        <v>373</v>
+      <c r="A333" s="44" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="B333" s="58" t="s">
+        <v>364</v>
       </c>
       <c r="C333" s="37"/>
       <c r="D333" s="37"/>
     </row>
     <row r="334" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="44" t="n">
-        <v>307.0</v>
+        <v>306.0</v>
       </c>
       <c r="B334" s="43" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C334" s="37"/>
       <c r="D334" s="37"/>
     </row>
     <row r="335" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="44" t="n">
-        <v>308.0</v>
+        <v>307.0</v>
       </c>
       <c r="B335" s="43" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C335" s="37"/>
       <c r="D335" s="37"/>
     </row>
     <row r="336" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="44" t="n">
-        <v>309.0</v>
+        <v>308.0</v>
       </c>
       <c r="B336" s="43" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C336" s="37"/>
       <c r="D336" s="37"/>
     </row>
     <row r="337" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="44" t="n">
-        <v>310.0</v>
+        <v>309.0</v>
       </c>
       <c r="B337" s="43" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C337" s="37"/>
       <c r="D337" s="37"/>
     </row>
     <row r="338" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="42" t="n">
-        <v>311.0</v>
+        <v>310.0</v>
       </c>
       <c r="B338" s="43" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C338" s="37"/>
       <c r="D338" s="37"/>
     </row>
     <row r="339" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="44" t="n">
-        <v>312.0</v>
+        <v>311.0</v>
       </c>
       <c r="B339" s="43" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C339" s="37"/>
       <c r="D339" s="37"/>
     </row>
     <row r="340" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="44" t="n">
-        <v>313.0</v>
+        <v>312.0</v>
       </c>
       <c r="B340" s="43" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C340" s="37"/>
       <c r="D340" s="37"/>
     </row>
     <row r="341" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="44" t="n">
-        <v>314.0</v>
+        <v>313.0</v>
       </c>
       <c r="B341" s="43" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C341" s="37"/>
       <c r="D341" s="37"/>
     </row>
     <row r="342" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="44" t="n">
-        <v>315.0</v>
+        <v>314.0</v>
       </c>
       <c r="B342" s="43" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C342" s="37"/>
       <c r="D342" s="37"/>
     </row>
     <row r="343" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="44" t="n">
-        <v>316.0</v>
+        <v>315.0</v>
       </c>
       <c r="B343" s="43" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C343" s="37"/>
       <c r="D343" s="37"/>
     </row>
     <row r="344" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="44" t="n">
-        <v>317.0</v>
+        <v>316.0</v>
       </c>
       <c r="B344" s="43" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C344" s="37"/>
       <c r="D344" s="37"/>
     </row>
     <row r="345" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="44" t="n">
-        <v>318.0</v>
+        <v>317.0</v>
       </c>
       <c r="B345" s="43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C345" s="37"/>
       <c r="D345" s="37"/>
     </row>
     <row r="346" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="44" t="n">
-        <v>319.0</v>
+        <v>318.0</v>
       </c>
       <c r="B346" s="43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C346" s="37"/>
       <c r="D346" s="37"/>
     </row>
     <row r="347" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="44" t="n">
-        <v>320.0</v>
+        <v>319.0</v>
       </c>
       <c r="B347" s="43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C347" s="37"/>
       <c r="D347" s="37"/>
     </row>
     <row r="348" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="44" t="n">
-        <v>321.0</v>
+        <v>320.0</v>
       </c>
       <c r="B348" s="43" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C348" s="37"/>
       <c r="D348" s="37"/>
     </row>
     <row r="349" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="44" t="n">
-        <v>322.0</v>
+        <v>321.0</v>
       </c>
       <c r="B349" s="43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C349" s="37"/>
       <c r="D349" s="37"/>
     </row>
     <row r="350" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="44" t="n">
-        <v>323.0</v>
+        <v>322.0</v>
       </c>
       <c r="B350" s="43" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C350" s="37"/>
       <c r="D350" s="37"/>
     </row>
     <row r="351" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="44" t="n">
-        <v>324.0</v>
+        <v>323.0</v>
       </c>
       <c r="B351" s="43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C351" s="37"/>
       <c r="D351" s="37"/>
     </row>
     <row r="352" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="44" t="n">
-        <v>325.0</v>
+        <v>324.0</v>
       </c>
       <c r="B352" s="43" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C352" s="37"/>
       <c r="D352" s="37"/>
     </row>
     <row r="353" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="44" t="n">
-        <v>326.0</v>
+        <v>325.0</v>
       </c>
       <c r="B353" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C353" s="37"/>
       <c r="D353" s="37"/>
     </row>
     <row r="354" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="44" t="n">
-        <v>327.0</v>
+        <v>326.0</v>
       </c>
       <c r="B354" s="43" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C354" s="37"/>
       <c r="D354" s="37"/>
     </row>
     <row r="355" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="44" t="n">
-        <v>328.0</v>
+        <v>327.0</v>
       </c>
       <c r="B355" s="43" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C355" s="37"/>
       <c r="D355" s="37"/>
     </row>
     <row r="356" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="44" t="n">
-        <v>329.0</v>
+        <v>328.0</v>
       </c>
       <c r="B356" s="43" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C356" s="37"/>
       <c r="D356" s="37"/>
     </row>
     <row r="357" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="45" t="n">
-        <v>330.0</v>
+        <v>329.0</v>
       </c>
       <c r="B357" s="43" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C357" s="37"/>
       <c r="D357" s="37"/>
     </row>
     <row r="358" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="44" t="n">
-        <v>331.0</v>
+        <v>330.0</v>
       </c>
       <c r="B358" s="43" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C358" s="37"/>
       <c r="D358" s="37"/>
     </row>
     <row r="359" spans="1:4" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="42" t="n">
-        <v>332.0</v>
+        <v>331.0</v>
       </c>
       <c r="B359" s="43" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C359" s="38"/>
       <c r="D359" s="38"/>
     </row>
     <row r="360" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="44" t="n">
-        <v>333.0</v>
+        <v>332.0</v>
       </c>
       <c r="B360" s="43" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C360" s="37"/>
       <c r="D360" s="37"/>
     </row>
     <row r="361" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="44" t="n">
-        <v>334.0</v>
+        <v>333.0</v>
       </c>
       <c r="B361" s="43" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C361" s="37"/>
       <c r="D361" s="37"/>
     </row>
     <row r="362" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="44" t="n">
-        <v>335.0</v>
+        <v>334.0</v>
       </c>
       <c r="B362" s="43" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C362" s="37"/>
       <c r="D362" s="37"/>
     </row>
     <row r="363" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="44" t="n">
-        <v>336.0</v>
+        <v>335.0</v>
       </c>
       <c r="B363" s="43" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C363" s="37"/>
       <c r="D363" s="37"/>
     </row>
     <row r="364" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="44" t="n">
-        <v>337.0</v>
+        <v>336.0</v>
       </c>
       <c r="B364" s="43" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C364" s="37"/>
       <c r="D364" s="37"/>
     </row>
     <row r="365" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="44" t="n">
-        <v>338.0</v>
+        <v>337.0</v>
       </c>
       <c r="B365" s="43" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C365" s="37"/>
       <c r="D365" s="37"/>
     </row>
     <row r="366" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="44" t="n">
-        <v>339.0</v>
+        <v>338.0</v>
       </c>
       <c r="B366" s="43" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C366" s="37"/>
       <c r="D366" s="37"/>
     </row>
     <row r="367" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="44" t="n">
-        <v>340.0</v>
+        <v>339.0</v>
       </c>
       <c r="B367" s="43" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C367" s="37"/>
       <c r="D367" s="37"/>
     </row>
     <row r="368" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="44" t="n">
-        <v>341.0</v>
+        <v>340.0</v>
       </c>
       <c r="B368" s="57" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C368" s="37"/>
       <c r="D368" s="37"/>
     </row>
     <row r="369" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="44" t="n">
-        <v>342.0</v>
+        <v>341.0</v>
       </c>
       <c r="B369" s="54" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C369" s="37"/>
       <c r="D369" s="37"/>
     </row>
     <row r="370" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="44" t="n">
-        <v>343.0</v>
+        <v>342.0</v>
       </c>
       <c r="B370" s="43" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C370" s="37"/>
       <c r="D370" s="37"/>
     </row>
     <row r="371" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="44">
-        <v>343</v>
-      </c>
-      <c r="B371" s="74" t="s">
-        <v>394</v>
+      <c r="A371" s="44" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="B371" s="58" t="s">
+        <v>402</v>
       </c>
       <c r="C371" s="37"/>
       <c r="D371" s="37"/>
@@ -40841,7 +40863,7 @@
         <v>344.0</v>
       </c>
       <c r="B372" s="43" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C372" s="37"/>
       <c r="D372" s="37"/>
@@ -40851,7 +40873,7 @@
         <v>345.0</v>
       </c>
       <c r="B373" s="43" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C373" s="37"/>
       <c r="D373" s="37"/>
@@ -40861,7 +40883,7 @@
         <v>346.0</v>
       </c>
       <c r="B374" s="43" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C374" s="37"/>
       <c r="D374" s="37"/>
@@ -40871,7 +40893,7 @@
         <v>347.0</v>
       </c>
       <c r="B375" s="43" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C375" s="37"/>
       <c r="D375" s="37"/>
@@ -40881,7 +40903,7 @@
         <v>348.0</v>
       </c>
       <c r="B376" s="43" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C376" s="37"/>
       <c r="D376" s="37"/>
@@ -40891,7 +40913,7 @@
         <v>349.0</v>
       </c>
       <c r="B377" s="43" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C377" s="37"/>
       <c r="D377" s="37"/>
@@ -40900,36 +40922,38 @@
       <c r="A378" s="44" t="n">
         <v>350.0</v>
       </c>
-      <c r="B378" s="57" t="s">
-        <v>401</v>
+      <c r="B378" s="76" t="s">
+        <v>409</v>
       </c>
       <c r="C378" s="37"/>
       <c r="D378" s="37"/>
     </row>
     <row r="379" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="44" t="n">
-        <v>351.0</v>
+        <v>350.0</v>
       </c>
       <c r="B379" s="54" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C379" s="37"/>
       <c r="D379" s="37"/>
     </row>
     <row r="380" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="44" t="n">
-        <v>352.0</v>
+        <v>351.0</v>
       </c>
       <c r="B380" s="43" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C380" s="37"/>
       <c r="D380" s="37"/>
     </row>
     <row r="381" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A381" s="44"/>
-      <c r="B381" s="74" t="s">
-        <v>404</v>
+      <c r="A381" s="44" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="B381" s="75" t="s">
+        <v>412</v>
       </c>
       <c r="C381" s="37"/>
       <c r="D381" s="37"/>
@@ -40939,7 +40963,7 @@
         <v>353.0</v>
       </c>
       <c r="B382" s="54" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C382" s="37"/>
       <c r="D382" s="37"/>
@@ -40948,18 +40972,18 @@
       <c r="A383" s="44" t="n">
         <v>354.0</v>
       </c>
-      <c r="B383" s="43" t="s">
-        <v>406</v>
+      <c r="B383" s="76" t="s">
+        <v>414</v>
       </c>
       <c r="C383" s="37"/>
       <c r="D383" s="37"/>
     </row>
     <row r="384" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="44">
-        <v>355</v>
-      </c>
-      <c r="B384" s="74" t="s">
-        <v>407</v>
+      <c r="A384" s="44" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="B384" s="58" t="s">
+        <v>415</v>
       </c>
       <c r="C384" s="37"/>
       <c r="D384" s="37"/>
@@ -40969,7 +40993,7 @@
         <v>355.0</v>
       </c>
       <c r="B385" s="43" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C385" s="37"/>
       <c r="D385" s="37"/>
@@ -40978,8 +41002,8 @@
       <c r="A386" s="44" t="n">
         <v>356.0</v>
       </c>
-      <c r="B386" s="58" t="s">
-        <v>409</v>
+      <c r="B386" s="75" t="s">
+        <v>417</v>
       </c>
       <c r="C386" s="37"/>
       <c r="D386" s="37"/>
@@ -40989,7 +41013,7 @@
         <v>357.0</v>
       </c>
       <c r="B387" s="54" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C387" s="37"/>
       <c r="D387" s="37"/>
@@ -40999,1227 +41023,1227 @@
         <v>358.0</v>
       </c>
       <c r="B388" s="43" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C388" s="37"/>
       <c r="D388" s="37"/>
     </row>
     <row r="389" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="44">
-        <v>359</v>
-      </c>
-      <c r="B389" s="74" t="s">
-        <v>412</v>
+      <c r="A389" s="44" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="B389" s="58" t="s">
+        <v>420</v>
       </c>
       <c r="C389" s="37"/>
       <c r="D389" s="37"/>
     </row>
     <row r="390" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="44" t="n">
-        <v>359.0</v>
+        <v>360.0</v>
       </c>
       <c r="B390" s="43" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C390" s="37"/>
       <c r="D390" s="37"/>
     </row>
     <row r="391" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="44" t="n">
-        <v>360.0</v>
+        <v>361.0</v>
       </c>
       <c r="B391" s="43" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C391" s="37"/>
       <c r="D391" s="37"/>
     </row>
     <row r="392" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="44" t="n">
-        <v>361.0</v>
+        <v>362.0</v>
       </c>
       <c r="B392" s="43" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C392" s="37"/>
       <c r="D392" s="37"/>
     </row>
     <row r="393" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="44" t="n">
-        <v>362.0</v>
+        <v>363.0</v>
       </c>
       <c r="B393" s="43" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C393" s="37"/>
       <c r="D393" s="37"/>
     </row>
     <row r="394" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="44" t="n">
-        <v>363.0</v>
+        <v>364.0</v>
       </c>
       <c r="B394" s="43" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C394" s="37"/>
       <c r="D394" s="37"/>
     </row>
     <row r="395" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="44" t="n">
-        <v>364.0</v>
+        <v>365.0</v>
       </c>
       <c r="B395" s="43" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C395" s="37"/>
       <c r="D395" s="37"/>
     </row>
     <row r="396" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="44" t="n">
-        <v>365.0</v>
+        <v>366.0</v>
       </c>
       <c r="B396" s="43" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C396" s="37"/>
       <c r="D396" s="37"/>
     </row>
     <row r="397" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="44" t="n">
-        <v>366.0</v>
+        <v>367.0</v>
       </c>
       <c r="B397" s="43" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C397" s="37"/>
       <c r="D397" s="37"/>
     </row>
     <row r="398" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="44" t="n">
-        <v>367.0</v>
+        <v>368.0</v>
       </c>
       <c r="B398" s="43" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C398" s="37"/>
       <c r="D398" s="37"/>
     </row>
     <row r="399" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="44" t="n">
-        <v>368.0</v>
+        <v>369.0</v>
       </c>
       <c r="B399" s="43" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C399" s="37"/>
       <c r="D399" s="37"/>
     </row>
     <row r="400" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="44" t="n">
-        <v>369.0</v>
+        <v>370.0</v>
       </c>
       <c r="B400" s="43" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C400" s="37"/>
       <c r="D400" s="37"/>
     </row>
     <row r="401" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="44" t="n">
-        <v>370.0</v>
+        <v>371.0</v>
       </c>
       <c r="B401" s="43" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C401" s="37"/>
       <c r="D401" s="37"/>
     </row>
     <row r="402" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="44" t="n">
-        <v>371.0</v>
+        <v>372.0</v>
       </c>
       <c r="B402" s="43" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C402" s="37"/>
       <c r="D402" s="37"/>
     </row>
     <row r="403" spans="1:4" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="44" t="n">
-        <v>372.0</v>
+        <v>373.0</v>
       </c>
       <c r="B403" s="43" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C403" s="37"/>
       <c r="D403" s="37"/>
     </row>
     <row r="404" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="45" t="n">
-        <v>373.0</v>
+        <v>374.0</v>
       </c>
       <c r="B404" s="49" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C404" s="40"/>
       <c r="D404" s="37"/>
     </row>
     <row r="405" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="44" t="n">
-        <v>374.0</v>
+        <v>375.0</v>
       </c>
       <c r="B405" s="50" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C405" s="40"/>
       <c r="D405" s="37"/>
     </row>
     <row r="406" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="44" t="n">
-        <v>375.0</v>
+        <v>376.0</v>
       </c>
       <c r="B406" s="50" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C406" s="40"/>
       <c r="D406" s="37"/>
     </row>
     <row r="407" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="44" t="n">
-        <v>376.0</v>
+        <v>377.0</v>
       </c>
       <c r="B407" s="50" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C407" s="40"/>
       <c r="D407" s="37"/>
     </row>
     <row r="408" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="44" t="n">
-        <v>377.0</v>
+        <v>378.0</v>
       </c>
       <c r="B408" s="50" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C408" s="24"/>
       <c r="D408" s="37"/>
     </row>
     <row r="409" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="44" t="n">
-        <v>378.0</v>
+        <v>379.0</v>
       </c>
       <c r="B409" s="50" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C409" s="24"/>
       <c r="D409" s="37"/>
     </row>
     <row r="410" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="44" t="n">
-        <v>379.0</v>
+        <v>380.0</v>
       </c>
       <c r="B410" s="43" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C410" s="24"/>
       <c r="D410" s="37"/>
     </row>
     <row r="411" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="44" t="n">
-        <v>380.0</v>
+        <v>381.0</v>
       </c>
       <c r="B411" s="43" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C411" s="24"/>
       <c r="D411" s="37"/>
     </row>
     <row r="412" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="44" t="n">
-        <v>381.0</v>
+        <v>382.0</v>
       </c>
       <c r="B412" s="43" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C412" s="24"/>
       <c r="D412" s="37"/>
     </row>
     <row r="413" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="44" t="n">
-        <v>382.0</v>
+        <v>383.0</v>
       </c>
       <c r="B413" s="50" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C413" s="24"/>
       <c r="D413" s="37"/>
     </row>
     <row r="414" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="44" t="n">
-        <v>383.0</v>
+        <v>384.0</v>
       </c>
       <c r="B414" s="50" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C414" s="24"/>
       <c r="D414" s="37"/>
     </row>
     <row r="415" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="44" t="n">
-        <v>384.0</v>
+        <v>385.0</v>
       </c>
       <c r="B415" s="50" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C415" s="40"/>
       <c r="D415" s="37"/>
     </row>
     <row r="416" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="44" t="n">
-        <v>385.0</v>
+        <v>386.0</v>
       </c>
       <c r="B416" s="50" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C416" s="40"/>
       <c r="D416" s="37"/>
     </row>
     <row r="417" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="44" t="n">
-        <v>386.0</v>
+        <v>387.0</v>
       </c>
       <c r="B417" s="43" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C417" s="40"/>
       <c r="D417" s="37"/>
     </row>
     <row r="418" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="44" t="n">
-        <v>387.0</v>
+        <v>388.0</v>
       </c>
       <c r="B418" s="43" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C418" s="40"/>
       <c r="D418" s="37"/>
     </row>
     <row r="419" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="44" t="n">
-        <v>388.0</v>
+        <v>389.0</v>
       </c>
       <c r="B419" s="43" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C419" s="40"/>
       <c r="D419" s="37"/>
     </row>
     <row r="420" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="44" t="n">
-        <v>389.0</v>
+        <v>390.0</v>
       </c>
       <c r="B420" s="43" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C420" s="37"/>
       <c r="D420" s="37"/>
     </row>
     <row r="421" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="44" t="n">
-        <v>390.0</v>
+        <v>391.0</v>
       </c>
       <c r="B421" s="43" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C421" s="37"/>
       <c r="D421" s="37"/>
     </row>
     <row r="422" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="44" t="n">
-        <v>391.0</v>
+        <v>392.0</v>
       </c>
       <c r="B422" s="43" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C422" s="37"/>
       <c r="D422" s="37"/>
     </row>
     <row r="423" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="44" t="n">
-        <v>392.0</v>
+        <v>393.0</v>
       </c>
       <c r="B423" s="43" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C423" s="37"/>
       <c r="D423" s="37"/>
     </row>
     <row r="424" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="44" t="n">
-        <v>393.0</v>
+        <v>394.0</v>
       </c>
       <c r="B424" s="43" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C424" s="37"/>
       <c r="D424" s="37"/>
     </row>
     <row r="425" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="44" t="n">
-        <v>394.0</v>
+        <v>395.0</v>
       </c>
       <c r="B425" s="50" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C425" s="37"/>
       <c r="D425" s="37"/>
     </row>
     <row r="426" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="44" t="n">
-        <v>395.0</v>
+        <v>396.0</v>
       </c>
       <c r="B426" s="50" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C426" s="37"/>
       <c r="D426" s="37"/>
     </row>
     <row r="427" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="44" t="n">
-        <v>396.0</v>
+        <v>397.0</v>
       </c>
       <c r="B427" s="50" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C427" s="37"/>
       <c r="D427" s="37"/>
     </row>
     <row r="428" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="44" t="n">
-        <v>397.0</v>
+        <v>398.0</v>
       </c>
       <c r="B428" s="43" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C428" s="37"/>
       <c r="D428" s="37"/>
     </row>
     <row r="429" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="44" t="n">
-        <v>398.0</v>
+        <v>399.0</v>
       </c>
       <c r="B429" s="43" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C429" s="37"/>
       <c r="D429" s="37"/>
     </row>
     <row r="430" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="44" t="n">
-        <v>399.0</v>
+        <v>400.0</v>
       </c>
       <c r="B430" s="43" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C430" s="37"/>
       <c r="D430" s="37"/>
     </row>
     <row r="431" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="44" t="n">
-        <v>400.0</v>
+        <v>401.0</v>
       </c>
       <c r="B431" s="43" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C431" s="37"/>
       <c r="D431" s="37"/>
     </row>
     <row r="432" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="44" t="n">
-        <v>401.0</v>
+        <v>402.0</v>
       </c>
       <c r="B432" s="43" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C432" s="37"/>
       <c r="D432" s="37"/>
     </row>
     <row r="433" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="44" t="n">
-        <v>402.0</v>
+        <v>403.0</v>
       </c>
       <c r="B433" s="43" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C433" s="37"/>
       <c r="D433" s="37"/>
     </row>
     <row r="434" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="44" t="n">
-        <v>403.0</v>
+        <v>404.0</v>
       </c>
       <c r="B434" s="43" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C434" s="37"/>
       <c r="D434" s="37"/>
     </row>
     <row r="435" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="44" t="n">
-        <v>404.0</v>
+        <v>405.0</v>
       </c>
       <c r="B435" s="43" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C435" s="37"/>
       <c r="D435" s="37"/>
     </row>
     <row r="436" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="44" t="n">
-        <v>405.0</v>
+        <v>406.0</v>
       </c>
       <c r="B436" s="43" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C436" s="37"/>
       <c r="D436" s="37"/>
     </row>
     <row r="437" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="44" t="n">
-        <v>406.0</v>
+        <v>407.0</v>
       </c>
       <c r="B437" s="50" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C437" s="37"/>
       <c r="D437" s="37"/>
     </row>
     <row r="438" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="44" t="n">
-        <v>407.0</v>
+        <v>408.0</v>
       </c>
       <c r="B438" s="43" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C438" s="37"/>
       <c r="D438" s="37"/>
     </row>
     <row r="439" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="44" t="n">
-        <v>408.0</v>
+        <v>409.0</v>
       </c>
       <c r="B439" s="43" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C439" s="37"/>
       <c r="D439" s="37"/>
     </row>
     <row r="440" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="44" t="n">
-        <v>409.0</v>
+        <v>410.0</v>
       </c>
       <c r="B440" s="50" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C440" s="37"/>
       <c r="D440" s="37"/>
     </row>
     <row r="441" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="44" t="n">
-        <v>410.0</v>
+        <v>411.0</v>
       </c>
       <c r="B441" s="50" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C441" s="37"/>
       <c r="D441" s="37"/>
     </row>
     <row r="442" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="44" t="n">
-        <v>411.0</v>
+        <v>412.0</v>
       </c>
       <c r="B442" s="50" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C442" s="37"/>
       <c r="D442" s="37"/>
     </row>
     <row r="443" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="44" t="n">
-        <v>412.0</v>
+        <v>413.0</v>
       </c>
       <c r="B443" s="43" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C443" s="37"/>
       <c r="D443" s="37"/>
     </row>
     <row r="444" spans="1:4" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="44" t="n">
-        <v>413.0</v>
+        <v>414.0</v>
       </c>
       <c r="B444" s="43" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C444" s="37"/>
       <c r="D444" s="37"/>
     </row>
     <row r="445" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="44" t="n">
-        <v>414.0</v>
+        <v>415.0</v>
       </c>
       <c r="B445" s="43" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C445" s="37"/>
       <c r="D445" s="37"/>
     </row>
     <row r="446" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="44" t="n">
-        <v>415.0</v>
+        <v>416.0</v>
       </c>
       <c r="B446" s="43" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C446" s="37"/>
       <c r="D446" s="37"/>
     </row>
     <row r="447" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="44" t="n">
-        <v>416.0</v>
+        <v>417.0</v>
       </c>
       <c r="B447" s="43" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C447" s="37"/>
       <c r="D447" s="37"/>
     </row>
     <row r="448" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="44" t="n">
-        <v>417.0</v>
+        <v>418.0</v>
       </c>
       <c r="B448" s="43" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C448" s="37"/>
       <c r="D448" s="37"/>
     </row>
     <row r="449" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="44" t="n">
-        <v>418.0</v>
+        <v>419.0</v>
       </c>
       <c r="B449" s="43" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C449" s="37"/>
       <c r="D449" s="37"/>
     </row>
     <row r="450" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="44" t="n">
-        <v>419.0</v>
+        <v>420.0</v>
       </c>
       <c r="B450" s="43" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C450" s="37"/>
       <c r="D450" s="37"/>
     </row>
     <row r="451" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="44" t="n">
-        <v>420.0</v>
+        <v>421.0</v>
       </c>
       <c r="B451" s="43" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C451" s="37"/>
       <c r="D451" s="37"/>
     </row>
     <row r="452" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="44" t="n">
-        <v>421.0</v>
+        <v>422.0</v>
       </c>
       <c r="B452" s="43" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C452" s="37"/>
       <c r="D452" s="37"/>
     </row>
     <row r="453" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="44" t="n">
-        <v>422.0</v>
+        <v>423.0</v>
       </c>
       <c r="B453" s="43" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C453" s="37"/>
       <c r="D453" s="37"/>
     </row>
     <row r="454" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="44" t="n">
-        <v>423.0</v>
+        <v>424.0</v>
       </c>
       <c r="B454" s="43" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C454" s="37"/>
       <c r="D454" s="37"/>
     </row>
     <row r="455" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="44" t="n">
-        <v>424.0</v>
+        <v>425.0</v>
       </c>
       <c r="B455" s="43" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C455" s="37"/>
       <c r="D455" s="37"/>
     </row>
     <row r="456" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="44" t="n">
-        <v>425.0</v>
+        <v>426.0</v>
       </c>
       <c r="B456" s="43" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C456" s="37"/>
       <c r="D456" s="37"/>
     </row>
     <row r="457" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="44" t="n">
-        <v>426.0</v>
+        <v>427.0</v>
       </c>
       <c r="B457" s="43" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C457" s="37"/>
       <c r="D457" s="37"/>
     </row>
     <row r="458" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="44" t="n">
-        <v>427.0</v>
+        <v>428.0</v>
       </c>
       <c r="B458" s="43" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C458" s="37"/>
       <c r="D458" s="37"/>
     </row>
     <row r="459" spans="1:4" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="44" t="n">
-        <v>428.0</v>
+        <v>429.0</v>
       </c>
       <c r="B459" s="43" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C459" s="37"/>
       <c r="D459" s="37"/>
     </row>
     <row r="460" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="44" t="n">
-        <v>429.0</v>
+        <v>430.0</v>
       </c>
       <c r="B460" s="50" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C460" s="37"/>
       <c r="D460" s="37"/>
     </row>
     <row r="461" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="44" t="n">
-        <v>430.0</v>
+        <v>431.0</v>
       </c>
       <c r="B461" s="43" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C461" s="37"/>
       <c r="D461" s="37"/>
     </row>
     <row r="462" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="44" t="n">
-        <v>431.0</v>
+        <v>432.0</v>
       </c>
       <c r="B462" s="43" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C462" s="37"/>
       <c r="D462" s="37"/>
     </row>
     <row r="463" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="44" t="n">
-        <v>432.0</v>
+        <v>433.0</v>
       </c>
       <c r="B463" s="43" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C463" s="37"/>
       <c r="D463" s="37"/>
     </row>
     <row r="464" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="44" t="n">
-        <v>433.0</v>
+        <v>434.0</v>
       </c>
       <c r="B464" s="43" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C464" s="37"/>
       <c r="D464" s="37"/>
     </row>
     <row r="465" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="44" t="n">
-        <v>434.0</v>
+        <v>435.0</v>
       </c>
       <c r="B465" s="43" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C465" s="37"/>
       <c r="D465" s="37"/>
     </row>
     <row r="466" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="44" t="n">
-        <v>435.0</v>
+        <v>436.0</v>
       </c>
       <c r="B466" s="43" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C466" s="37"/>
       <c r="D466" s="37"/>
     </row>
     <row r="467" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="44" t="n">
-        <v>436.0</v>
+        <v>437.0</v>
       </c>
       <c r="B467" s="43" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C467" s="37"/>
       <c r="D467" s="37"/>
     </row>
     <row r="468" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="44" t="n">
-        <v>437.0</v>
+        <v>438.0</v>
       </c>
       <c r="B468" s="43" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C468" s="37"/>
       <c r="D468" s="37"/>
     </row>
     <row r="469" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="44" t="n">
-        <v>438.0</v>
+        <v>439.0</v>
       </c>
       <c r="B469" s="43" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C469" s="37"/>
       <c r="D469" s="37"/>
     </row>
     <row r="470" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="44" t="n">
-        <v>439.0</v>
+        <v>440.0</v>
       </c>
       <c r="B470" s="43" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="C470" s="37"/>
       <c r="D470" s="37"/>
     </row>
     <row r="471" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="44" t="n">
-        <v>440.0</v>
+        <v>441.0</v>
       </c>
       <c r="B471" s="43" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C471" s="37"/>
       <c r="D471" s="37"/>
     </row>
     <row r="472" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="44" t="n">
-        <v>441.0</v>
+        <v>442.0</v>
       </c>
       <c r="B472" s="43" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C472" s="37"/>
       <c r="D472" s="37"/>
     </row>
     <row r="473" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="44" t="n">
-        <v>442.0</v>
+        <v>443.0</v>
       </c>
       <c r="B473" s="43" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C473" s="37"/>
       <c r="D473" s="37"/>
     </row>
     <row r="474" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="44" t="n">
-        <v>443.0</v>
+        <v>444.0</v>
       </c>
       <c r="B474" s="43" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C474" s="37"/>
       <c r="D474" s="37"/>
     </row>
     <row r="475" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="44" t="n">
-        <v>444.0</v>
+        <v>445.0</v>
       </c>
       <c r="B475" s="43" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C475" s="37"/>
       <c r="D475" s="37"/>
     </row>
     <row r="476" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="44" t="n">
-        <v>445.0</v>
+        <v>446.0</v>
       </c>
       <c r="B476" s="43" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C476" s="37"/>
       <c r="D476" s="37"/>
     </row>
     <row r="477" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="44" t="n">
-        <v>446.0</v>
+        <v>447.0</v>
       </c>
       <c r="B477" s="43" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C477" s="37"/>
       <c r="D477" s="37"/>
     </row>
     <row r="478" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="44" t="n">
-        <v>447.0</v>
+        <v>448.0</v>
       </c>
       <c r="B478" s="43" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C478" s="37"/>
       <c r="D478" s="37"/>
     </row>
     <row r="479" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="44" t="n">
-        <v>448.0</v>
+        <v>449.0</v>
       </c>
       <c r="B479" s="43" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C479" s="37"/>
       <c r="D479" s="37"/>
     </row>
     <row r="480" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="44" t="n">
-        <v>449.0</v>
+        <v>450.0</v>
       </c>
       <c r="B480" s="43" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C480" s="37"/>
       <c r="D480" s="37"/>
     </row>
     <row r="481" spans="1:4" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="42" t="n">
-        <v>450.0</v>
+        <v>451.0</v>
       </c>
       <c r="B481" s="43" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C481" s="37"/>
       <c r="D481" s="37"/>
     </row>
     <row r="482" spans="1:4" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="44" t="n">
-        <v>451.0</v>
+        <v>452.0</v>
       </c>
       <c r="B482" s="43" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C482" s="37"/>
       <c r="D482" s="37"/>
     </row>
     <row r="483" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="44" t="n">
-        <v>452.0</v>
+        <v>453.0</v>
       </c>
       <c r="B483" s="43" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C483" s="37"/>
       <c r="D483" s="37"/>
     </row>
     <row r="484" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="44" t="n">
-        <v>453.0</v>
+        <v>454.0</v>
       </c>
       <c r="B484" s="43" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C484" s="37"/>
       <c r="D484" s="37"/>
     </row>
     <row r="485" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="44" t="n">
-        <v>454.0</v>
+        <v>455.0</v>
       </c>
       <c r="B485" s="43" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C485" s="37"/>
       <c r="D485" s="37"/>
     </row>
     <row r="486" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="44" t="n">
-        <v>455.0</v>
+        <v>456.0</v>
       </c>
       <c r="B486" s="43" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C486" s="37"/>
       <c r="D486" s="37"/>
     </row>
     <row r="487" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="44" t="n">
-        <v>456.0</v>
+        <v>457.0</v>
       </c>
       <c r="B487" s="43" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C487" s="37"/>
       <c r="D487" s="37"/>
     </row>
     <row r="488" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="44" t="n">
-        <v>457.0</v>
+        <v>458.0</v>
       </c>
       <c r="B488" s="43" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C488" s="37"/>
       <c r="D488" s="37"/>
     </row>
     <row r="489" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="44" t="n">
-        <v>458.0</v>
+        <v>459.0</v>
       </c>
       <c r="B489" s="43" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C489" s="37"/>
       <c r="D489" s="37"/>
     </row>
     <row r="490" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="44" t="n">
-        <v>459.0</v>
+        <v>460.0</v>
       </c>
       <c r="B490" s="43" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C490" s="37"/>
       <c r="D490" s="37"/>
     </row>
     <row r="491" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="44" t="n">
-        <v>460.0</v>
+        <v>461.0</v>
       </c>
       <c r="B491" s="43" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C491" s="37"/>
       <c r="D491" s="37"/>
     </row>
     <row r="492" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="44" t="n">
-        <v>461.0</v>
+        <v>462.0</v>
       </c>
       <c r="B492" s="43" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C492" s="37"/>
       <c r="D492" s="37"/>
     </row>
     <row r="493" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="44" t="n">
-        <v>462.0</v>
+        <v>463.0</v>
       </c>
       <c r="B493" s="43" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C493" s="37"/>
       <c r="D493" s="37"/>
     </row>
     <row r="494" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="44" t="n">
-        <v>463.0</v>
+        <v>464.0</v>
       </c>
       <c r="B494" s="43" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C494" s="37"/>
       <c r="D494" s="37"/>
     </row>
     <row r="495" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="44" t="n">
-        <v>464.0</v>
+        <v>465.0</v>
       </c>
       <c r="B495" s="43" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C495" s="37"/>
       <c r="D495" s="37"/>
     </row>
     <row r="496" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="44" t="n">
-        <v>465.0</v>
+        <v>466.0</v>
       </c>
       <c r="B496" s="43" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C496" s="37"/>
       <c r="D496" s="37"/>
     </row>
     <row r="497" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="44" t="n">
-        <v>466.0</v>
+        <v>467.0</v>
       </c>
       <c r="B497" s="43" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C497" s="37"/>
       <c r="D497" s="37"/>
     </row>
     <row r="498" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="44" t="n">
-        <v>467.0</v>
+        <v>468.0</v>
       </c>
       <c r="B498" s="43" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C498" s="37"/>
       <c r="D498" s="37"/>
     </row>
     <row r="499" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="44" t="n">
-        <v>468.0</v>
+        <v>469.0</v>
       </c>
       <c r="B499" s="43" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="C499" s="37"/>
       <c r="D499" s="37"/>
     </row>
     <row r="500" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="44" t="n">
-        <v>469.0</v>
+        <v>470.0</v>
       </c>
       <c r="B500" s="43" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C500" s="37"/>
       <c r="D500" s="37"/>
     </row>
     <row r="501" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="44" t="n">
-        <v>470.0</v>
+        <v>471.0</v>
       </c>
       <c r="B501" s="43" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C501" s="37"/>
       <c r="D501" s="37"/>
     </row>
     <row r="502" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="44" t="n">
-        <v>471.0</v>
+        <v>472.0</v>
       </c>
       <c r="B502" s="43" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C502" s="37"/>
       <c r="D502" s="37"/>
     </row>
     <row r="503" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="44" t="n">
-        <v>472.0</v>
+        <v>473.0</v>
       </c>
       <c r="B503" s="43" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C503" s="37"/>
       <c r="D503" s="37"/>
     </row>
     <row r="504" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="44" t="n">
-        <v>473.0</v>
+        <v>474.0</v>
       </c>
       <c r="B504" s="43" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C504" s="37"/>
       <c r="D504" s="37"/>
     </row>
     <row r="505" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="44" t="n">
-        <v>474.0</v>
+        <v>475.0</v>
       </c>
       <c r="B505" s="43" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C505" s="37"/>
       <c r="D505" s="37"/>
     </row>
     <row r="506" spans="1:4" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="44" t="n">
-        <v>475.0</v>
+        <v>476.0</v>
       </c>
       <c r="B506" s="43" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C506" s="37"/>
       <c r="D506" s="37"/>
     </row>
     <row r="507" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="44" t="n">
-        <v>476.0</v>
+        <v>477.0</v>
       </c>
       <c r="B507" s="43" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C507" s="37"/>
       <c r="D507" s="37"/>
     </row>
     <row r="508" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="44" t="n">
-        <v>477.0</v>
+        <v>478.0</v>
       </c>
       <c r="B508" s="43" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C508" s="37"/>
       <c r="D508" s="37"/>
     </row>
     <row r="509" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="44" t="n">
-        <v>478.0</v>
+        <v>479.0</v>
       </c>
       <c r="B509" s="43" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C509" s="37"/>
       <c r="D509" s="37"/>
     </row>
     <row r="510" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="45" t="n">
-        <v>479.0</v>
-      </c>
-      <c r="B510" s="49" t="s">
-        <v>527</v>
+        <v>480.0</v>
+      </c>
+      <c r="B510" s="76" t="s">
+        <v>535</v>
       </c>
       <c r="C510" s="41"/>
       <c r="D510" s="37"/>
@@ -42229,7 +42253,7 @@
         <v>480.0</v>
       </c>
       <c r="B511" s="43" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C511" s="37"/>
       <c r="D511" s="37"/>
@@ -42239,7 +42263,7 @@
         <v>481.0</v>
       </c>
       <c r="B512" s="43" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C512" s="37"/>
       <c r="D512" s="37"/>
@@ -42248,8 +42272,8 @@
       <c r="A513" s="44" t="n">
         <v>482.0</v>
       </c>
-      <c r="B513" s="58" t="s">
-        <v>530</v>
+      <c r="B513" s="75" t="s">
+        <v>538</v>
       </c>
       <c r="C513" s="37"/>
       <c r="D513" s="37"/>
@@ -42259,7 +42283,7 @@
         <v>483.0</v>
       </c>
       <c r="B514" s="54" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C514" s="37"/>
       <c r="D514" s="37"/>
@@ -42269,218 +42293,206 @@
         <v>484.0</v>
       </c>
       <c r="B515" s="43" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C515" s="37"/>
       <c r="D515" s="37"/>
     </row>
     <row r="516" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="44">
-        <v>485</v>
-      </c>
-      <c r="B516" s="74" t="s">
-        <v>533</v>
+      <c r="A516" s="44" t="n">
+        <v>485.0</v>
+      </c>
+      <c r="B516" s="58" t="s">
+        <v>541</v>
       </c>
       <c r="C516" s="37"/>
       <c r="D516" s="37"/>
     </row>
     <row r="517" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="44" t="n">
-        <v>485.0</v>
+        <v>486.0</v>
       </c>
       <c r="B517" s="43" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C517" s="37"/>
       <c r="D517" s="37"/>
     </row>
     <row r="518" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="44" t="n">
-        <v>486.0</v>
+        <v>487.0</v>
       </c>
       <c r="B518" s="43" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C518" s="37"/>
       <c r="D518" s="37"/>
     </row>
     <row r="519" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="44" t="n">
-        <v>487.0</v>
+        <v>488.0</v>
       </c>
       <c r="B519" s="43" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C519" s="37"/>
       <c r="D519" s="37"/>
     </row>
     <row r="520" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="44" t="n">
-        <v>488.0</v>
+        <v>489.0</v>
       </c>
       <c r="B520" s="43" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C520" s="37"/>
       <c r="D520" s="37"/>
     </row>
     <row r="521" spans="1:4" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="44" t="n">
-        <v>489.0</v>
+        <v>490.0</v>
       </c>
       <c r="B521" s="43" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C521" s="37"/>
       <c r="D521" s="37"/>
     </row>
     <row r="522" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="44" t="n">
-        <v>490.0</v>
+        <v>491.0</v>
       </c>
       <c r="B522" s="43" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C522" s="37"/>
       <c r="D522" s="37"/>
     </row>
     <row r="523" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="44" t="n">
-        <v>491.0</v>
+        <v>492.0</v>
       </c>
       <c r="B523" s="43" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C523" s="37"/>
       <c r="D523" s="37"/>
     </row>
     <row r="524" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="44" t="n">
-        <v>492.0</v>
+        <v>493.0</v>
       </c>
       <c r="B524" s="43" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C524" s="37"/>
       <c r="D524" s="37"/>
     </row>
     <row r="525" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="44" t="n">
-        <v>493.0</v>
+        <v>494.0</v>
       </c>
       <c r="B525" s="43" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C525" s="37"/>
       <c r="D525" s="37"/>
     </row>
     <row r="526" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="44" t="n">
-        <v>494.0</v>
+        <v>495.0</v>
       </c>
       <c r="B526" s="43" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="C526" s="37"/>
       <c r="D526" s="37"/>
     </row>
     <row r="527" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="44" t="n">
-        <v>495.0</v>
+        <v>496.0</v>
       </c>
       <c r="B527" s="43" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C527" s="37"/>
       <c r="D527" s="37"/>
     </row>
     <row r="528" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="44" t="n">
-        <v>496.0</v>
+        <v>497.0</v>
       </c>
       <c r="B528" s="43" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C528" s="37"/>
       <c r="D528" s="37"/>
     </row>
     <row r="529" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="44" t="n">
-        <v>497.0</v>
+        <v>498.0</v>
       </c>
       <c r="B529" s="43" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C529" s="37"/>
       <c r="D529" s="37"/>
     </row>
     <row r="530" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="44" t="n">
-        <v>498.0</v>
+        <v>499.0</v>
       </c>
       <c r="B530" s="43" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="C530" s="37"/>
       <c r="D530" s="37"/>
     </row>
     <row r="531" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="44" t="n">
-        <v>499.0</v>
+        <v>500.0</v>
       </c>
       <c r="B531" s="43" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C531" s="37"/>
       <c r="D531" s="37"/>
     </row>
     <row r="532" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="44" t="n">
-        <v>500.0</v>
+        <v>501.0</v>
       </c>
       <c r="B532" s="43" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C532" s="37"/>
       <c r="D532" s="37"/>
     </row>
     <row r="533" spans="1:4" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="44" t="n">
-        <v>501.0</v>
+        <v>502.0</v>
       </c>
       <c r="B533" s="43" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C533" s="37"/>
       <c r="D533" s="37"/>
     </row>
     <row r="534" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="42" t="n">
-        <v>502.0</v>
-      </c>
-      <c r="B534" s="43" t="s">
-        <v>551</v>
-      </c>
+      <c r="A534" s="42"/>
+      <c r="B534" s="43"/>
       <c r="C534" s="37"/>
       <c r="D534" s="37"/>
     </row>
     <row r="535" spans="1:4" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="44" t="n">
-        <v>503.0</v>
-      </c>
-      <c r="B535" s="43" t="s">
-        <v>552</v>
-      </c>
+      <c r="A535" s="44"/>
+      <c r="B535" s="43"/>
       <c r="C535" s="37"/>
       <c r="D535" s="37"/>
     </row>
     <row r="536" spans="1:4" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="44" t="n">
-        <v>504.0</v>
-      </c>
-      <c r="B536" s="43" t="s">
-        <v>553</v>
-      </c>
+      <c r="A536" s="44"/>
+      <c r="B536" s="43"/>
       <c r="C536" s="37"/>
       <c r="D536" s="37"/>
     </row>
@@ -50720,14 +50732,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -50736,7 +50748,7 @@
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -50745,7 +50757,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -50754,7 +50766,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -50763,7 +50775,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -50772,7 +50784,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -50781,7 +50793,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -50790,7 +50802,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -50799,7 +50811,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -50808,7 +50820,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -50817,7 +50829,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -50826,7 +50838,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -50835,7 +50847,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -50844,7 +50856,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -50853,7 +50865,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -50862,7 +50874,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -50871,7 +50883,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -50880,7 +50892,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -50889,7 +50901,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="66" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -50897,61 +50909,61 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -50959,31 +50971,31 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="73" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -50991,43 +51003,43 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="15" t="s">
         <v>51</v>
       </c>
@@ -51039,13 +51051,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="15" t="s">
         <v>54</v>
       </c>
@@ -51057,19 +51069,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="15" t="s">
         <v>57</v>
       </c>
